--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>602918961</v>
+        <v>602684776</v>
       </c>
       <c r="E2" t="n">
-        <v>1169932705</v>
+        <v>1169483857</v>
       </c>
       <c r="F2" t="n">
-        <v>23630.53637764729</v>
+        <v>21004.76593905641</v>
       </c>
       <c r="G2" t="n">
-        <v>33345.18759676387</v>
+        <v>33900.9445738861</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>23009563</v>
+        <v>22372056</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1305484</v>
+        <v>1305227</v>
       </c>
       <c r="E3" t="n">
-        <v>4219861</v>
+        <v>4219031</v>
       </c>
       <c r="F3" t="n">
-        <v>5250.856100240212</v>
+        <v>5148.929994316652</v>
       </c>
       <c r="G3" t="n">
-        <v>5963.848362332148</v>
+        <v>5204.646223650768</v>
       </c>
       <c r="H3" t="n">
         <v>0.47</v>
       </c>
       <c r="I3" t="n">
-        <v>107590</v>
+        <v>109076</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244074641</v>
+        <v>245879539</v>
       </c>
       <c r="E4" t="n">
-        <v>1530557766</v>
+        <v>1541876027</v>
       </c>
       <c r="F4" t="n">
-        <v>138101.1855232985</v>
+        <v>138338.4382338099</v>
       </c>
       <c r="G4" t="n">
-        <v>148129.5483581324</v>
+        <v>141547.6223804432</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>16404903</v>
+        <v>16672781</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141614889</v>
+        <v>142789924</v>
       </c>
       <c r="E5" t="n">
-        <v>156931429</v>
+        <v>158233551</v>
       </c>
       <c r="F5" t="n">
-        <v>9521.651159650421</v>
+        <v>12710.76905568504</v>
       </c>
       <c r="G5" t="n">
-        <v>30530.44989329902</v>
+        <v>26182.37666498976</v>
       </c>
       <c r="H5" t="n">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="I5" t="n">
-        <v>35184920</v>
+        <v>35859049</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>670816</v>
+        <v>677088</v>
       </c>
       <c r="E6" t="n">
-        <v>13032062</v>
+        <v>13153906</v>
       </c>
       <c r="F6" t="n">
-        <v>290.9874983780918</v>
+        <v>336.0533078952099</v>
       </c>
       <c r="G6" t="n">
-        <v>379.1681856512558</v>
+        <v>452.4886496216652</v>
       </c>
       <c r="H6" t="n">
-        <v>0.62</v>
+        <v>1.22</v>
       </c>
       <c r="I6" t="n">
-        <v>20467</v>
+        <v>19566.01</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>471047409</v>
+        <v>475083512</v>
       </c>
       <c r="E7" t="n">
-        <v>471047411</v>
+        <v>475083512</v>
       </c>
       <c r="F7" t="n">
-        <v>42306.41841319654</v>
+        <v>36644.67341858327</v>
       </c>
       <c r="G7" t="n">
-        <v>53402.28870983202</v>
+        <v>49543.3842046374</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>71225005</v>
+        <v>71420236</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4665017</v>
+        <v>4671464</v>
       </c>
       <c r="E8" t="n">
-        <v>4665017</v>
+        <v>4671464</v>
       </c>
       <c r="F8" t="n">
-        <v>1034.436582605201</v>
+        <v>1107.404990247708</v>
       </c>
       <c r="G8" t="n">
-        <v>1511.179117850913</v>
+        <v>729.772743017316</v>
       </c>
       <c r="H8" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="I8" t="n">
-        <v>2013720</v>
+        <v>2027004</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1706817</v>
+        <v>1710945</v>
       </c>
       <c r="F9" t="n">
-        <v>2088.453663357981</v>
+        <v>3409.320440902615</v>
       </c>
       <c r="G9" t="n">
-        <v>1527.292827798177</v>
+        <v>1713.577658993152</v>
       </c>
       <c r="H9" t="n">
-        <v>1.48</v>
+        <v>1.11</v>
       </c>
       <c r="I9" t="n">
-        <v>137949</v>
+        <v>140235</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1599383</v>
+        <v>1509945</v>
       </c>
       <c r="F10" t="n">
-        <v>367.1819643596962</v>
+        <v>277.5396723570998</v>
       </c>
       <c r="G10" t="n">
-        <v>623.8231247630545</v>
+        <v>906.1813032690293</v>
       </c>
       <c r="H10" t="n">
-        <v>0.12</v>
+        <v>0.66</v>
       </c>
       <c r="I10" t="n">
-        <v>248942</v>
+        <v>256415</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>107591176</v>
+        <v>108484753</v>
       </c>
       <c r="E11" t="n">
-        <v>202689022</v>
+        <v>204372415</v>
       </c>
       <c r="F11" t="n">
-        <v>90.87609800520568</v>
+        <v>56.23227730089798</v>
       </c>
       <c r="G11" t="n">
-        <v>1449.456237831537</v>
+        <v>1449.653044649498</v>
       </c>
       <c r="H11" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="I11" t="n">
-        <v>4315843</v>
+        <v>4336008</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12810587</v>
+        <v>12791214</v>
       </c>
       <c r="E12" t="n">
-        <v>31883234</v>
+        <v>31835018</v>
       </c>
       <c r="F12" t="n">
-        <v>2099.886502570816</v>
+        <v>2112.062800793737</v>
       </c>
       <c r="G12" t="n">
-        <v>869.2454354337771</v>
+        <v>959.4209998262342</v>
       </c>
       <c r="H12" t="n">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="I12" t="n">
-        <v>1407759</v>
+        <v>1407371</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>109191194</v>
+        <v>111168025</v>
       </c>
       <c r="E13" t="n">
-        <v>424900266</v>
+        <v>432578237</v>
       </c>
       <c r="F13" t="n">
-        <v>13308.93851007056</v>
+        <v>15850.06751879148</v>
       </c>
       <c r="G13" t="n">
-        <v>30295.05366398777</v>
+        <v>28882.06932438815</v>
       </c>
       <c r="H13" t="n">
-        <v>0.23</v>
+        <v>0.37</v>
       </c>
       <c r="I13" t="n">
-        <v>7927132</v>
+        <v>7974452</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5182604</v>
+        <v>5171379</v>
       </c>
       <c r="E14" t="n">
-        <v>7629074</v>
+        <v>7612550</v>
       </c>
       <c r="F14" t="n">
-        <v>197.9261750321198</v>
+        <v>358.960237946136</v>
       </c>
       <c r="G14" t="n">
-        <v>586.6786359918295</v>
+        <v>571.0981013914411</v>
       </c>
       <c r="H14" t="n">
         <v>1.32</v>
       </c>
       <c r="I14" t="n">
-        <v>640513</v>
+        <v>680904</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>136244103</v>
+        <v>137704432</v>
       </c>
       <c r="E15" t="n">
-        <v>136244103</v>
+        <v>137704432</v>
       </c>
       <c r="F15" t="n">
-        <v>55299.80171735184</v>
+        <v>59218.16744503131</v>
       </c>
       <c r="G15" t="n">
-        <v>76388.70416173295</v>
+        <v>75400.6537080401</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>61091114</v>
+        <v>63747687</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>64802614</v>
+        <v>65211458</v>
       </c>
       <c r="E16" t="n">
-        <v>332321099</v>
+        <v>334417735</v>
       </c>
       <c r="F16" t="n">
-        <v>15945.38554108731</v>
+        <v>17420.01276313764</v>
       </c>
       <c r="G16" t="n">
-        <v>36517.98779468338</v>
+        <v>34064.43899347507</v>
       </c>
       <c r="H16" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>21187985</v>
+        <v>21443024</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>251011457</v>
+        <v>252695643</v>
       </c>
       <c r="E17" t="n">
-        <v>251011457</v>
+        <v>252695643</v>
       </c>
       <c r="F17" t="n">
-        <v>57754.40831144826</v>
+        <v>59724.95566859567</v>
       </c>
       <c r="G17" t="n">
-        <v>53298.16137678518</v>
+        <v>50797.32167548713</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>14823735</v>
+        <v>14816630</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2548118</v>
+        <v>2557760</v>
       </c>
       <c r="E18" t="n">
-        <v>6514484</v>
+        <v>6539136</v>
       </c>
       <c r="F18" t="n">
-        <v>1022.473173850017</v>
+        <v>1031.610395010806</v>
       </c>
       <c r="G18" t="n">
-        <v>853.9340428468713</v>
+        <v>837.0880789912118</v>
       </c>
       <c r="H18" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="I18" t="n">
-        <v>111548</v>
+        <v>112936</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>74900277</v>
+        <v>76270860</v>
       </c>
       <c r="E19" t="n">
-        <v>209637695</v>
+        <v>213474891</v>
       </c>
       <c r="F19" t="n">
-        <v>18047.48585489425</v>
+        <v>14009.33449414542</v>
       </c>
       <c r="G19" t="n">
-        <v>20541.59263930535</v>
+        <v>22586.76851632107</v>
       </c>
       <c r="H19" t="n">
         <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>34808682</v>
+        <v>33950882</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1583375</v>
+        <v>1590607</v>
       </c>
       <c r="E20" t="n">
-        <v>9091147</v>
+        <v>9132672</v>
       </c>
       <c r="F20" t="n">
-        <v>451.5801679721627</v>
+        <v>69.74686061465084</v>
       </c>
       <c r="G20" t="n">
-        <v>812.9844492834748</v>
+        <v>708.5949318444711</v>
       </c>
       <c r="H20" t="n">
         <v>1.32</v>
       </c>
       <c r="I20" t="n">
-        <v>305457</v>
+        <v>303357</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>165487</v>
+        <v>173122</v>
       </c>
       <c r="E21" t="n">
-        <v>1117550</v>
+        <v>1169111</v>
       </c>
       <c r="F21" t="n">
-        <v>5.604462795956289</v>
+        <v>4.96477677011063</v>
       </c>
       <c r="G21" t="n">
-        <v>23.31450498207733</v>
+        <v>6.957647565832471</v>
       </c>
       <c r="H21" t="n">
-        <v>0.82</v>
+        <v>1.06</v>
       </c>
       <c r="I21" t="n">
-        <v>2740891</v>
+        <v>2761216</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>271904</v>
+        <v>271823</v>
       </c>
       <c r="F22" t="n">
-        <v>158.9211096839197</v>
+        <v>179.4707063862016</v>
       </c>
       <c r="G22" t="n">
-        <v>76.13576723848064</v>
+        <v>85.96142091916542</v>
       </c>
       <c r="H22" t="n">
         <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>1917.51</v>
+        <v>1917.45</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73836849</v>
+        <v>74522029</v>
       </c>
       <c r="E23" t="n">
-        <v>153987325</v>
+        <v>155416273</v>
       </c>
       <c r="F23" t="n">
-        <v>30098.38915814379</v>
+        <v>35801.22384111381</v>
       </c>
       <c r="G23" t="n">
-        <v>41944.3161916543</v>
+        <v>51788.80015997592</v>
       </c>
       <c r="H23" t="n">
         <v>0.24</v>
       </c>
       <c r="I23" t="n">
-        <v>15928707</v>
+        <v>16068460</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>201136266</v>
+        <v>201295983</v>
       </c>
       <c r="E24" t="n">
-        <v>698765568</v>
+        <v>699320437</v>
       </c>
       <c r="F24" t="n">
-        <v>58718.57819571138</v>
+        <v>63129.62543901342</v>
       </c>
       <c r="G24" t="n">
-        <v>63984.2486351683</v>
+        <v>60464.05330458178</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>27184008</v>
+        <v>27287823</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>113605635</v>
+        <v>114566749</v>
       </c>
       <c r="E25" t="n">
-        <v>482831057</v>
+        <v>486886103</v>
       </c>
       <c r="F25" t="n">
-        <v>15563.87393051508</v>
+        <v>14250.36843923005</v>
       </c>
       <c r="G25" t="n">
-        <v>16425.78872778632</v>
+        <v>16644.70865589058</v>
       </c>
       <c r="H25" t="n">
-        <v>0.12</v>
+        <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>14460353</v>
+        <v>14543621</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5791808</v>
+        <v>5626889</v>
       </c>
       <c r="E26" t="n">
-        <v>7868677</v>
+        <v>7644445</v>
       </c>
       <c r="F26" t="n">
-        <v>251.2545949012215</v>
+        <v>224.3905665583615</v>
       </c>
       <c r="G26" t="n">
-        <v>1771.5354960898</v>
+        <v>2724.318623610195</v>
       </c>
       <c r="H26" t="n">
         <v>0.43</v>
       </c>
       <c r="I26" t="n">
-        <v>5924605</v>
+        <v>5869735</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>622477</v>
+        <v>645058</v>
       </c>
       <c r="E27" t="n">
-        <v>7550034</v>
+        <v>7823924</v>
       </c>
       <c r="F27" t="n">
-        <v>961.1586888614086</v>
+        <v>806.5219539218715</v>
       </c>
       <c r="G27" t="n">
-        <v>862.0419434369837</v>
+        <v>1018.576873993297</v>
       </c>
       <c r="H27" t="n">
-        <v>0.79</v>
+        <v>0.32</v>
       </c>
       <c r="I27" t="n">
-        <v>2898701</v>
+        <v>2396484</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25489249</v>
+        <v>25591493</v>
       </c>
       <c r="E28" t="n">
-        <v>36028058</v>
+        <v>36172576</v>
       </c>
       <c r="F28" t="n">
-        <v>1.740628602272398</v>
+        <v>1.740427966283733</v>
       </c>
       <c r="G28" t="n">
-        <v>2059.565854288964</v>
+        <v>2117.265804546789</v>
       </c>
       <c r="H28" t="n">
-        <v>2.31</v>
+        <v>2.54</v>
       </c>
       <c r="I28" t="n">
-        <v>63940</v>
+        <v>62716</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1258853146</v>
+        <v>1277288299</v>
       </c>
       <c r="E29" t="n">
-        <v>6036458644</v>
+        <v>6124858978</v>
       </c>
       <c r="F29" t="n">
-        <v>167415.7485096639</v>
+        <v>170376.6407033151</v>
       </c>
       <c r="G29" t="n">
-        <v>244927.4938453221</v>
+        <v>250932.1298524388</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>160595405</v>
+        <v>159702893</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>265030976</v>
+        <v>268656122</v>
       </c>
       <c r="E30" t="n">
-        <v>1144020821</v>
+        <v>1159668964</v>
       </c>
       <c r="F30" t="n">
-        <v>181759.4515644313</v>
+        <v>290210.256642671</v>
       </c>
       <c r="G30" t="n">
-        <v>214234.6191079486</v>
+        <v>219664.3760176748</v>
       </c>
       <c r="H30" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>102663775</v>
+        <v>98928255</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5323383</v>
+        <v>5359660</v>
       </c>
       <c r="E31" t="n">
-        <v>5329408</v>
+        <v>5365726</v>
       </c>
       <c r="F31" t="n">
-        <v>105.9166114883529</v>
+        <v>105.9044028620933</v>
       </c>
       <c r="G31" t="n">
-        <v>171.8175443005202</v>
+        <v>171.7977395111322</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>151702</v>
+        <v>152152</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19737032</v>
+        <v>19724693</v>
       </c>
       <c r="E32" t="n">
-        <v>49342581</v>
+        <v>49311732</v>
       </c>
       <c r="F32" t="n">
-        <v>3049.656056526679</v>
+        <v>2546.990745255196</v>
       </c>
       <c r="G32" t="n">
-        <v>5172.612826829531</v>
+        <v>5462.85712338186</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="I32" t="n">
-        <v>1930146</v>
+        <v>1962973</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19749740</v>
+        <v>19770362</v>
       </c>
       <c r="F33" t="n">
-        <v>1052.515504062632</v>
+        <v>984.7655193463089</v>
       </c>
       <c r="G33" t="n">
-        <v>856.0510662862613</v>
+        <v>756.1701035562619</v>
       </c>
       <c r="H33" t="n">
-        <v>0.51</v>
+        <v>1.01</v>
       </c>
       <c r="I33" t="n">
-        <v>89697</v>
+        <v>89772</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4189984</v>
+        <v>4163261</v>
       </c>
       <c r="E34" t="n">
-        <v>12069145</v>
+        <v>11992171</v>
       </c>
       <c r="F34" t="n">
-        <v>219.5237200728185</v>
+        <v>268.4437560565236</v>
       </c>
       <c r="G34" t="n">
-        <v>293.6974556263426</v>
+        <v>1238.953183259519</v>
       </c>
       <c r="H34" t="n">
         <v>1.24</v>
       </c>
       <c r="I34" t="n">
-        <v>516958</v>
+        <v>642566</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1564415</v>
+        <v>1624540</v>
       </c>
       <c r="F35" t="n">
-        <v>210.7479473041336</v>
+        <v>161.9983068575999</v>
       </c>
       <c r="G35" t="n">
-        <v>698.0145156900713</v>
+        <v>626.0751625632059</v>
       </c>
       <c r="H35" t="n">
-        <v>1.22</v>
+        <v>2.44</v>
       </c>
       <c r="I35" t="n">
-        <v>14941.52</v>
+        <v>15327.43</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14231218</v>
+        <v>14299666</v>
       </c>
       <c r="E36" t="n">
-        <v>68924059</v>
+        <v>69255564</v>
       </c>
       <c r="F36" t="n">
-        <v>2402.770635661823</v>
+        <v>2742.907327247833</v>
       </c>
       <c r="G36" t="n">
-        <v>9343.525622522</v>
+        <v>8186.996450868828</v>
       </c>
       <c r="H36" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>3700947</v>
+        <v>3718436</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1423621</v>
+        <v>1432161</v>
       </c>
       <c r="E37" t="n">
-        <v>9317559</v>
+        <v>9373453</v>
       </c>
       <c r="F37" t="n">
-        <v>647.5338368386807</v>
+        <v>19.11495319187915</v>
       </c>
       <c r="G37" t="n">
-        <v>355.7575085329652</v>
+        <v>372.0597036827514</v>
       </c>
       <c r="H37" t="n">
-        <v>1.05</v>
+        <v>2.11</v>
       </c>
       <c r="I37" t="n">
-        <v>544965</v>
+        <v>544815</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1913659492</v>
+        <v>1920420365</v>
       </c>
       <c r="F38" t="n">
-        <v>78720.03353588555</v>
+        <v>72462.32398567557</v>
       </c>
       <c r="G38" t="n">
-        <v>77610.04770371626</v>
+        <v>73802.56015146765</v>
       </c>
       <c r="H38" t="n">
-        <v>0.78</v>
+        <v>0.42</v>
       </c>
       <c r="I38" t="n">
-        <v>26802571</v>
+        <v>26969043</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31423731</v>
+        <v>31521270</v>
       </c>
       <c r="E39" t="n">
-        <v>97843416</v>
+        <v>98147120</v>
       </c>
       <c r="F39" t="n">
-        <v>5197.669626528989</v>
+        <v>5450.660808627636</v>
       </c>
       <c r="G39" t="n">
-        <v>8698.365811383324</v>
+        <v>8681.448083491632</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02</v>
+        <v>0.26</v>
       </c>
       <c r="I39" t="n">
-        <v>11750628</v>
+        <v>11642704</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>197784459</v>
+        <v>199225020</v>
       </c>
       <c r="E40" t="n">
-        <v>1119977137</v>
+        <v>1128134475</v>
       </c>
       <c r="F40" t="n">
-        <v>41724.07983868843</v>
+        <v>47053.86949444952</v>
       </c>
       <c r="G40" t="n">
-        <v>79279.46851722394</v>
+        <v>76434.29465632064</v>
       </c>
       <c r="H40" t="n">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="I40" t="n">
-        <v>62285729</v>
+        <v>61901819</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>139305529</v>
+        <v>139605707</v>
       </c>
       <c r="E41" t="n">
-        <v>1031892810</v>
+        <v>1034116348</v>
       </c>
       <c r="F41" t="n">
-        <v>133756.1585951952</v>
+        <v>125173.6198837472</v>
       </c>
       <c r="G41" t="n">
-        <v>210815.3573981625</v>
+        <v>228885.7151247554</v>
       </c>
       <c r="H41" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>10070095</v>
+        <v>9980965</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31319285</v>
+        <v>31446942</v>
       </c>
       <c r="E42" t="n">
-        <v>148789196</v>
+        <v>149395655</v>
       </c>
       <c r="F42" t="n">
-        <v>6556.408665336199</v>
+        <v>7688.216184198973</v>
       </c>
       <c r="G42" t="n">
-        <v>8391.75875099093</v>
+        <v>7445.896342656845</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="I42" t="n">
-        <v>1138746</v>
+        <v>1127800</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3408032</v>
+        <v>3416908</v>
       </c>
       <c r="E43" t="n">
-        <v>7958323</v>
+        <v>7979050</v>
       </c>
       <c r="F43" t="n">
-        <v>1194.671516077171</v>
+        <v>1038.975750162771</v>
       </c>
       <c r="G43" t="n">
-        <v>562.819795291142</v>
+        <v>591.7331418870745</v>
       </c>
       <c r="H43" t="n">
-        <v>0.92</v>
+        <v>1.27</v>
       </c>
       <c r="I43" t="n">
-        <v>661381</v>
+        <v>679987</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>335316456</v>
+        <v>338645070</v>
       </c>
       <c r="E44" t="n">
-        <v>3016714761</v>
+        <v>3046661035</v>
       </c>
       <c r="F44" t="n">
-        <v>47585.70257250228</v>
+        <v>44994.28408558961</v>
       </c>
       <c r="G44" t="n">
-        <v>60711.41861394722</v>
+        <v>55671.29167428543</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>37280389</v>
+        <v>37551474</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>656117</v>
+        <v>656100</v>
       </c>
       <c r="F45" t="n">
-        <v>487.909974309194</v>
+        <v>487.8537346840682</v>
       </c>
       <c r="G45" t="n">
-        <v>167.8842948618739</v>
+        <v>285.94526401426</v>
       </c>
       <c r="H45" t="n">
         <v>0.95</v>
       </c>
       <c r="I45" t="n">
-        <v>3873.72</v>
+        <v>4075.61</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1577381</v>
+        <v>1577708</v>
       </c>
       <c r="E46" t="n">
-        <v>13144844</v>
+        <v>13147564</v>
       </c>
       <c r="F46" t="n">
-        <v>273.9289547021227</v>
+        <v>247.5696296319464</v>
       </c>
       <c r="G46" t="n">
-        <v>1036.200740964738</v>
+        <v>1039.162391528615</v>
       </c>
       <c r="H46" t="n">
         <v>0.53</v>
       </c>
       <c r="I46" t="n">
-        <v>41597</v>
+        <v>42163</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4940582</v>
+        <v>4927887</v>
       </c>
       <c r="E47" t="n">
-        <v>17457373</v>
+        <v>17412518</v>
       </c>
       <c r="F47" t="n">
-        <v>1340.140777699653</v>
+        <v>1087.64038625201</v>
       </c>
       <c r="G47" t="n">
-        <v>1334.210160372491</v>
+        <v>1267.723128309643</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4</v>
+        <v>0.23</v>
       </c>
       <c r="I47" t="n">
-        <v>84056</v>
+        <v>87108</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>48271357</v>
+        <v>49817334</v>
       </c>
       <c r="E48" t="n">
-        <v>279471213</v>
+        <v>288421782</v>
       </c>
       <c r="F48" t="n">
-        <v>17245.02966160596</v>
+        <v>16601.12892484505</v>
       </c>
       <c r="G48" t="n">
-        <v>11613.62715536557</v>
+        <v>16393.61741988288</v>
       </c>
       <c r="H48" t="n">
-        <v>0.29</v>
+        <v>0.35</v>
       </c>
       <c r="I48" t="n">
-        <v>24976111</v>
+        <v>26662843</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2250764</v>
+        <v>2275543</v>
       </c>
       <c r="E49" t="n">
-        <v>12366078</v>
+        <v>12502221</v>
       </c>
       <c r="F49" t="n">
-        <v>59.33367161610745</v>
+        <v>234.561862732475</v>
       </c>
       <c r="G49" t="n">
-        <v>853.8234883337924</v>
+        <v>2085.914646445379</v>
       </c>
       <c r="H49" t="n">
-        <v>1.59</v>
+        <v>2.36</v>
       </c>
       <c r="I49" t="n">
-        <v>74521</v>
+        <v>120836</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13368671</v>
+        <v>13404279</v>
       </c>
       <c r="E50" t="n">
-        <v>13414166</v>
+        <v>13449895</v>
       </c>
       <c r="F50" t="n">
-        <v>4648.319016063808</v>
+        <v>4054.766835174096</v>
       </c>
       <c r="G50" t="n">
-        <v>4826.622363789105</v>
+        <v>10518.4124568108</v>
       </c>
       <c r="H50" t="n">
         <v>0.66</v>
       </c>
       <c r="I50" t="n">
-        <v>5853220</v>
+        <v>5851436</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23231720</v>
+        <v>22894468</v>
       </c>
       <c r="E51" t="n">
-        <v>69638014</v>
+        <v>68627086</v>
       </c>
       <c r="F51" t="n">
-        <v>13001.84484381709</v>
+        <v>26170.75935954574</v>
       </c>
       <c r="G51" t="n">
-        <v>26976.00148489292</v>
+        <v>26040.09891425419</v>
       </c>
       <c r="H51" t="n">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="I51" t="n">
-        <v>3062462</v>
+        <v>3144726</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15445607</v>
+        <v>15503799</v>
       </c>
       <c r="E52" t="n">
-        <v>94671207</v>
+        <v>95027880</v>
       </c>
       <c r="F52" t="n">
-        <v>5291.964298766316</v>
+        <v>7056.876970801623</v>
       </c>
       <c r="G52" t="n">
-        <v>10298.86258137658</v>
+        <v>10940.11546707498</v>
       </c>
       <c r="H52" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="I52" t="n">
-        <v>11283202</v>
+        <v>11202252</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>46964319</v>
+        <v>47137069</v>
       </c>
       <c r="E53" t="n">
-        <v>202317151</v>
+        <v>203061340</v>
       </c>
       <c r="F53" t="n">
-        <v>22293.67319816345</v>
+        <v>22757.33383713156</v>
       </c>
       <c r="G53" t="n">
-        <v>26279.73442037924</v>
+        <v>26089.4843397628</v>
       </c>
       <c r="H53" t="n">
         <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>8964775</v>
+        <v>8785894</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1036285</v>
+        <v>1038292</v>
       </c>
       <c r="E54" t="n">
-        <v>3028880</v>
+        <v>3034747</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8880309367635757</v>
+        <v>0.8879285766364756</v>
       </c>
       <c r="G54" t="n">
-        <v>123.3406747251811</v>
+        <v>123.3264576899194</v>
       </c>
       <c r="H54" t="n">
         <v>1.28</v>
       </c>
       <c r="I54" t="n">
-        <v>21016</v>
+        <v>20931</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37377152</v>
+        <v>37631822</v>
       </c>
       <c r="E55" t="n">
-        <v>94247233</v>
+        <v>94889388</v>
       </c>
       <c r="F55" t="n">
-        <v>11875.68578350125</v>
+        <v>11874.18223182822</v>
       </c>
       <c r="G55" t="n">
-        <v>9538.478831713855</v>
+        <v>11368.13490852323</v>
       </c>
       <c r="H55" t="n">
         <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3245971</v>
+        <v>3347580</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28251968</v>
+        <v>28194857</v>
       </c>
       <c r="E56" t="n">
-        <v>67119651</v>
+        <v>66983971</v>
       </c>
       <c r="F56" t="n">
-        <v>10129.94926304392</v>
+        <v>10261.57681709279</v>
       </c>
       <c r="G56" t="n">
-        <v>5705.361005355018</v>
+        <v>5746.079611751923</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>497544</v>
+        <v>520372</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12655819</v>
+        <v>12757684</v>
       </c>
       <c r="E57" t="n">
-        <v>19265010</v>
+        <v>19420073</v>
       </c>
       <c r="F57" t="n">
-        <v>646.3636658552082</v>
+        <v>544.9203868147803</v>
       </c>
       <c r="G57" t="n">
-        <v>1161.026951816729</v>
+        <v>1450.588746717514</v>
       </c>
       <c r="H57" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="I57" t="n">
-        <v>717817</v>
+        <v>749345</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>310411354</v>
+        <v>312592206</v>
       </c>
       <c r="E58" t="n">
-        <v>310411354</v>
+        <v>312592206</v>
       </c>
       <c r="F58" t="n">
-        <v>53061.32086885312</v>
+        <v>59983.83254166206</v>
       </c>
       <c r="G58" t="n">
-        <v>75499.80890862556</v>
+        <v>73362.74420425335</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I58" t="n">
-        <v>50394435</v>
+        <v>50359007</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11564723</v>
+        <v>11565397</v>
       </c>
       <c r="F59" t="n">
-        <v>335.8578124339065</v>
+        <v>218.2452147078696</v>
       </c>
       <c r="G59" t="n">
-        <v>363.0816002889595</v>
+        <v>165.6186752638082</v>
       </c>
       <c r="H59" t="n">
-        <v>0.35</v>
+        <v>1.21</v>
       </c>
       <c r="I59" t="n">
-        <v>98020</v>
+        <v>98024</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>88579240</v>
+        <v>89247462</v>
       </c>
       <c r="E60" t="n">
-        <v>510431787</v>
+        <v>514282371</v>
       </c>
       <c r="F60" t="n">
-        <v>94666.38824063986</v>
+        <v>94697.01623367079</v>
       </c>
       <c r="G60" t="n">
-        <v>96358.30706446791</v>
+        <v>95724.80415179038</v>
       </c>
       <c r="H60" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I60" t="n">
-        <v>16622244</v>
+        <v>16488979</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9296328</v>
+        <v>9286352</v>
       </c>
       <c r="E61" t="n">
-        <v>9296328</v>
+        <v>9286352</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>70.32111294119235</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>5.049583072648896</v>
       </c>
       <c r="H61" t="n">
-        <v>4.16</v>
+        <v>3.86</v>
       </c>
       <c r="I61" t="n">
-        <v>2090325</v>
+        <v>2092713</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30216862</v>
+        <v>30263823</v>
       </c>
       <c r="E62" t="n">
-        <v>135293285</v>
+        <v>135503551</v>
       </c>
       <c r="F62" t="n">
-        <v>27448.72797055387</v>
+        <v>17151.61394766273</v>
       </c>
       <c r="G62" t="n">
-        <v>18396.81060908391</v>
+        <v>21144.24355446185</v>
       </c>
       <c r="H62" t="n">
         <v>0.74</v>
       </c>
       <c r="I62" t="n">
-        <v>8388219</v>
+        <v>8474600</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13069785</v>
+        <v>13071803</v>
       </c>
       <c r="E63" t="n">
-        <v>26128158</v>
+        <v>26132193</v>
       </c>
       <c r="F63" t="n">
-        <v>2313.076795980275</v>
+        <v>2309.453743385001</v>
       </c>
       <c r="G63" t="n">
-        <v>2165.764172635942</v>
+        <v>2190.940309702381</v>
       </c>
       <c r="H63" t="n">
         <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>42215</v>
+        <v>42293</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1496284</v>
+        <v>1487045</v>
       </c>
       <c r="F64" t="n">
-        <v>76.31792826713797</v>
+        <v>0.3346786451636415</v>
       </c>
       <c r="G64" t="n">
-        <v>181.5397053040134</v>
+        <v>175.1479642414848</v>
       </c>
       <c r="H64" t="n">
-        <v>2.65</v>
+        <v>2.13</v>
       </c>
       <c r="I64" t="n">
-        <v>41270</v>
+        <v>25226</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48272143</v>
+        <v>48734832</v>
       </c>
       <c r="E65" t="n">
-        <v>313031997</v>
+        <v>316032415</v>
       </c>
       <c r="F65" t="n">
-        <v>15166.24632258682</v>
+        <v>18026.67294760008</v>
       </c>
       <c r="G65" t="n">
-        <v>15011.49924876911</v>
+        <v>17484.49256973467</v>
       </c>
       <c r="H65" t="n">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="I65" t="n">
-        <v>16759733</v>
+        <v>16285650</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4786157</v>
+        <v>4788757</v>
       </c>
       <c r="F66" t="n">
-        <v>1164.821002473777</v>
+        <v>1284.609110124905</v>
       </c>
       <c r="G66" t="n">
-        <v>1251.415072678603</v>
+        <v>1456.885185750952</v>
       </c>
       <c r="H66" t="n">
-        <v>0.75</v>
+        <v>0.91</v>
       </c>
       <c r="I66" t="n">
-        <v>199894</v>
+        <v>182082</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125212298</v>
+        <v>125444296</v>
       </c>
       <c r="E67" t="n">
-        <v>2073618201</v>
+        <v>2077460289</v>
       </c>
       <c r="F67" t="n">
-        <v>21485.62197121824</v>
+        <v>21134.53306408931</v>
       </c>
       <c r="G67" t="n">
-        <v>19219.53061670726</v>
+        <v>26428.03911030208</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I67" t="n">
-        <v>4964615</v>
+        <v>4835655</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>23759669</v>
+        <v>24081487</v>
       </c>
       <c r="E68" t="n">
-        <v>142158874</v>
+        <v>144084378</v>
       </c>
       <c r="F68" t="n">
-        <v>7511.775418991258</v>
+        <v>44404.5413135677</v>
       </c>
       <c r="G68" t="n">
-        <v>44697.12184199785</v>
+        <v>45291.91272886905</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>11703810</v>
+        <v>11538545</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22873229</v>
+        <v>23075977</v>
       </c>
       <c r="E70" t="n">
-        <v>22873229</v>
+        <v>23076229</v>
       </c>
       <c r="F70" t="n">
-        <v>16008.51918639305</v>
+        <v>15443.74898141114</v>
       </c>
       <c r="G70" t="n">
-        <v>3645.735793464505</v>
+        <v>2987.047802807592</v>
       </c>
       <c r="H70" t="n">
         <v>0.28</v>
       </c>
       <c r="I70" t="n">
-        <v>2046824</v>
+        <v>2056589</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34699784</v>
+        <v>34864997</v>
       </c>
       <c r="E71" t="n">
-        <v>173167920</v>
+        <v>173992406</v>
       </c>
       <c r="F71" t="n">
-        <v>17245.08226138085</v>
+        <v>17682.07486270006</v>
       </c>
       <c r="G71" t="n">
-        <v>36180.43097935134</v>
+        <v>35900.08826793615</v>
       </c>
       <c r="H71" t="n">
         <v>0.57</v>
       </c>
       <c r="I71" t="n">
-        <v>10166593</v>
+        <v>10178512</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>169495</v>
+        <v>169572</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>12891.87</v>
+        <v>10640.79</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>313791933</v>
+        <v>315542417</v>
       </c>
       <c r="E73" t="n">
-        <v>580586635</v>
+        <v>583825430</v>
       </c>
       <c r="F73" t="n">
-        <v>55788.83564650775</v>
+        <v>55749.09722835416</v>
       </c>
       <c r="G73" t="n">
-        <v>61137.25904740154</v>
+        <v>60747.35283824847</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I73" t="n">
-        <v>13303509</v>
+        <v>13326381</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10112258</v>
+        <v>10551272</v>
       </c>
       <c r="E74" t="n">
-        <v>30005369</v>
+        <v>31308023</v>
       </c>
       <c r="F74" t="n">
-        <v>2021.177665318056</v>
+        <v>1954.476028088618</v>
       </c>
       <c r="G74" t="n">
-        <v>2002.227223663805</v>
+        <v>1685.56046448273</v>
       </c>
       <c r="H74" t="n">
-        <v>0.42</v>
+        <v>0.55</v>
       </c>
       <c r="I74" t="n">
-        <v>6334469</v>
+        <v>6355724</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8423250</v>
+        <v>8426767</v>
       </c>
       <c r="E75" t="n">
-        <v>12001201</v>
+        <v>12006212</v>
       </c>
       <c r="F75" t="n">
-        <v>3494.210852663542</v>
+        <v>3731.347106598973</v>
       </c>
       <c r="G75" t="n">
-        <v>150.8908450207671</v>
+        <v>58.56705087595036</v>
       </c>
       <c r="H75" t="n">
-        <v>0.33</v>
+        <v>0.41</v>
       </c>
       <c r="I75" t="n">
-        <v>438309</v>
+        <v>437605</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16227741</v>
+        <v>16316129</v>
       </c>
       <c r="F76" t="n">
-        <v>163.4025738587688</v>
+        <v>163.6951155871938</v>
       </c>
       <c r="G76" t="n">
-        <v>0.2989305700238489</v>
+        <v>0.4508192558576627</v>
       </c>
       <c r="H76" t="n">
         <v>0.99</v>
       </c>
       <c r="I76" t="n">
-        <v>970479</v>
+        <v>976730</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>62436036</v>
+        <v>62507908</v>
       </c>
       <c r="E77" t="n">
-        <v>103294146</v>
+        <v>103413051</v>
       </c>
       <c r="F77" t="n">
-        <v>11430.92388582539</v>
+        <v>11101.43327844606</v>
       </c>
       <c r="G77" t="n">
-        <v>18195.23467306962</v>
+        <v>17987.12365852088</v>
       </c>
       <c r="H77" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I77" t="n">
-        <v>6677428</v>
+        <v>6694053</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5542209</v>
+        <v>5610827</v>
       </c>
       <c r="E78" t="n">
-        <v>5542209</v>
+        <v>5610827</v>
       </c>
       <c r="F78" t="n">
-        <v>468.6641264467099</v>
+        <v>222.276665335112</v>
       </c>
       <c r="G78" t="n">
-        <v>609.2784478606629</v>
+        <v>709.1652061784862</v>
       </c>
       <c r="H78" t="n">
         <v>2.5</v>
       </c>
       <c r="I78" t="n">
-        <v>1177108</v>
+        <v>1168637</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>57575</v>
+        <v>58395</v>
       </c>
       <c r="E79" t="n">
-        <v>300403</v>
+        <v>304683</v>
       </c>
       <c r="F79" t="n">
-        <v>76.8956537515071</v>
+        <v>9.5212779520854</v>
       </c>
       <c r="G79" t="n">
-        <v>322.784979374201</v>
+        <v>491.6206954749017</v>
       </c>
       <c r="H79" t="n">
-        <v>0.43</v>
+        <v>1.1</v>
       </c>
       <c r="I79" t="n">
-        <v>262564</v>
+        <v>270866</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26933247</v>
+        <v>26005943</v>
       </c>
       <c r="F80" t="n">
-        <v>596.3684042428843</v>
+        <v>627.4727727735071</v>
       </c>
       <c r="G80" t="n">
-        <v>833.0567774002589</v>
+        <v>1594.39725578892</v>
       </c>
       <c r="H80" t="n">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="I80" t="n">
-        <v>63754</v>
+        <v>62824</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>595971476</v>
+        <v>599602423</v>
       </c>
       <c r="E81" t="n">
-        <v>2308109597</v>
+        <v>2322171719</v>
       </c>
       <c r="F81" t="n">
-        <v>168512.1912335268</v>
+        <v>180293.8163993734</v>
       </c>
       <c r="G81" t="n">
-        <v>183847.3653903366</v>
+        <v>172667.9741501592</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>32951550</v>
+        <v>32751332</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7403956</v>
+        <v>7359682</v>
       </c>
       <c r="E82" t="n">
-        <v>10608657</v>
+        <v>10545219</v>
       </c>
       <c r="F82" t="n">
-        <v>2136.306849097094</v>
+        <v>1855.332001651065</v>
       </c>
       <c r="G82" t="n">
-        <v>3135.263858727234</v>
+        <v>3194.27167124653</v>
       </c>
       <c r="H82" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>175832</v>
+        <v>173338</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>119404138</v>
+        <v>121071572</v>
       </c>
       <c r="E83" t="n">
-        <v>1038145591</v>
+        <v>1052642906</v>
       </c>
       <c r="F83" t="n">
-        <v>39597.64525267245</v>
+        <v>40870.81188298339</v>
       </c>
       <c r="G83" t="n">
-        <v>44509.45610647005</v>
+        <v>46362.95433544626</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>8791297</v>
+        <v>9075588</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1096302</v>
+        <v>1101189</v>
       </c>
       <c r="E84" t="n">
-        <v>4245120</v>
+        <v>4264045</v>
       </c>
       <c r="F84" t="n">
-        <v>1638.477530458665</v>
+        <v>1415.256678071847</v>
       </c>
       <c r="G84" t="n">
-        <v>2522.901151617697</v>
+        <v>2502.145086055202</v>
       </c>
       <c r="H84" t="n">
         <v>0.93</v>
       </c>
       <c r="I84" t="n">
-        <v>390930</v>
+        <v>375384</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>116610355</v>
+        <v>117864503</v>
       </c>
       <c r="E85" t="n">
-        <v>447336092</v>
+        <v>452147204</v>
       </c>
       <c r="F85" t="n">
-        <v>79516.82411354975</v>
+        <v>78101.04050425507</v>
       </c>
       <c r="G85" t="n">
-        <v>84125.11811690046</v>
+        <v>83631.1952352556</v>
       </c>
       <c r="H85" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I85" t="n">
-        <v>31044727</v>
+        <v>30984308</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5117553</v>
+        <v>5120179</v>
       </c>
       <c r="E86" t="n">
-        <v>19056719</v>
+        <v>19066498</v>
       </c>
       <c r="F86" t="n">
-        <v>5684.733503218682</v>
+        <v>5661.88407171683</v>
       </c>
       <c r="G86" t="n">
-        <v>885.9011283687487</v>
+        <v>885.79901373699</v>
       </c>
       <c r="H86" t="n">
         <v>0.42</v>
       </c>
       <c r="I86" t="n">
-        <v>63139</v>
+        <v>62126</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31823351</v>
+        <v>31571431</v>
       </c>
       <c r="F87" t="n">
-        <v>5606.781980989306</v>
+        <v>5394.100115758945</v>
       </c>
       <c r="G87" t="n">
-        <v>3749.521844754003</v>
+        <v>1058.363840622147</v>
       </c>
       <c r="H87" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I87" t="n">
-        <v>5538167</v>
+        <v>5474911</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24699764</v>
+        <v>24745519</v>
       </c>
       <c r="F88" t="n">
-        <v>1207.756511942982</v>
+        <v>1013.814307796635</v>
       </c>
       <c r="G88" t="n">
-        <v>1425.481828790356</v>
+        <v>1376.790143599993</v>
       </c>
       <c r="H88" t="n">
-        <v>0.59</v>
+        <v>0.78</v>
       </c>
       <c r="I88" t="n">
-        <v>18615.46</v>
+        <v>18428.01</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87603388</v>
+        <v>87981805</v>
       </c>
       <c r="E89" t="n">
-        <v>323836937</v>
+        <v>325234312</v>
       </c>
       <c r="F89" t="n">
-        <v>1789.848875499425</v>
+        <v>1826.97786115367</v>
       </c>
       <c r="G89" t="n">
-        <v>1443.26113489158</v>
+        <v>1843.777755028405</v>
       </c>
       <c r="H89" t="n">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="I89" t="n">
-        <v>283233</v>
+        <v>282193</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20659556</v>
+        <v>20983276</v>
       </c>
       <c r="E90" t="n">
-        <v>20659556</v>
+        <v>20983276</v>
       </c>
       <c r="F90" t="n">
-        <v>3373.998436299012</v>
+        <v>4231.992021215035</v>
       </c>
       <c r="G90" t="n">
-        <v>5272.943431243698</v>
+        <v>2478.21695583596</v>
       </c>
       <c r="H90" t="n">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="I90" t="n">
-        <v>7076643</v>
+        <v>7111816</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3813123</v>
+        <v>3817411</v>
       </c>
       <c r="E91" t="n">
-        <v>8320185</v>
+        <v>8329542</v>
       </c>
       <c r="F91" t="n">
-        <v>1625.900637818375</v>
+        <v>1922.843736302483</v>
       </c>
       <c r="G91" t="n">
-        <v>3446.389924576764</v>
+        <v>3487.320625417416</v>
       </c>
       <c r="H91" t="n">
-        <v>0.24</v>
+        <v>0.36</v>
       </c>
       <c r="I91" t="n">
-        <v>1280641</v>
+        <v>1308124</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>486501957</v>
+        <v>487493543</v>
       </c>
       <c r="E92" t="n">
-        <v>1693472824</v>
+        <v>1696924454</v>
       </c>
       <c r="F92" t="n">
-        <v>171400.9813653969</v>
+        <v>171431.5562335555</v>
       </c>
       <c r="G92" t="n">
-        <v>170569.576443232</v>
+        <v>180528.055000669</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>29673125</v>
+        <v>29329589</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2616602</v>
+        <v>2623304</v>
       </c>
       <c r="E93" t="n">
-        <v>10466410</v>
+        <v>10493217</v>
       </c>
       <c r="F93" t="n">
-        <v>2466.065115261014</v>
+        <v>2876.797372195238</v>
       </c>
       <c r="G93" t="n">
-        <v>3642.46118267253</v>
+        <v>1901.269340509256</v>
       </c>
       <c r="H93" t="n">
-        <v>0.67</v>
+        <v>0.38</v>
       </c>
       <c r="I93" t="n">
-        <v>7005284</v>
+        <v>6962161</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>215295456</v>
+        <v>216305613</v>
       </c>
       <c r="E94" t="n">
-        <v>661952506</v>
+        <v>665058361</v>
       </c>
       <c r="F94" t="n">
-        <v>108062.1386415022</v>
+        <v>112760.9606610646</v>
       </c>
       <c r="G94" t="n">
-        <v>99118.51127462606</v>
+        <v>96210.67826668381</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>11848595</v>
+        <v>11907659</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>151430810</v>
+        <v>151006692</v>
       </c>
       <c r="E95" t="n">
-        <v>395608790</v>
+        <v>394500795</v>
       </c>
       <c r="F95" t="n">
-        <v>31410.07603988795</v>
+        <v>32051.06052676743</v>
       </c>
       <c r="G95" t="n">
-        <v>31268.40282768296</v>
+        <v>31803.9876303926</v>
       </c>
       <c r="H95" t="n">
         <v>0.2</v>
       </c>
       <c r="I95" t="n">
-        <v>7122665</v>
+        <v>7204727</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>394626933</v>
+        <v>398590409</v>
       </c>
       <c r="E96" t="n">
-        <v>2255011045</v>
+        <v>2277659479</v>
       </c>
       <c r="F96" t="n">
-        <v>20632.8138014457</v>
+        <v>20512.52643742519</v>
       </c>
       <c r="G96" t="n">
-        <v>42193.32034752848</v>
+        <v>46107.59045173819</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>38775437</v>
+        <v>38224060</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>602684776</v>
+        <v>605064378</v>
       </c>
       <c r="E2" t="n">
-        <v>1169483857</v>
+        <v>1174104285</v>
       </c>
       <c r="F2" t="n">
-        <v>21004.76593905641</v>
+        <v>16760.2027667446</v>
       </c>
       <c r="G2" t="n">
-        <v>33900.9445738861</v>
+        <v>30415.43220564449</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>22372056</v>
+        <v>19743639</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1305227</v>
+        <v>1305118</v>
       </c>
       <c r="E3" t="n">
-        <v>4219031</v>
+        <v>4218676</v>
       </c>
       <c r="F3" t="n">
-        <v>5148.929994316652</v>
+        <v>4746.511465691523</v>
       </c>
       <c r="G3" t="n">
-        <v>5204.646223650768</v>
+        <v>4992.268881803153</v>
       </c>
       <c r="H3" t="n">
         <v>0.47</v>
       </c>
       <c r="I3" t="n">
-        <v>109076</v>
+        <v>111671</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245879539</v>
+        <v>245603249</v>
       </c>
       <c r="E4" t="n">
-        <v>1541876027</v>
+        <v>1540143450</v>
       </c>
       <c r="F4" t="n">
-        <v>138338.4382338099</v>
+        <v>136410.9166395284</v>
       </c>
       <c r="G4" t="n">
-        <v>141547.6223804432</v>
+        <v>149986.0755190815</v>
       </c>
       <c r="H4" t="n">
         <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>16672781</v>
+        <v>16538839</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>142789924</v>
+        <v>144081045</v>
       </c>
       <c r="E5" t="n">
-        <v>158233551</v>
+        <v>159664315</v>
       </c>
       <c r="F5" t="n">
-        <v>12710.76905568504</v>
+        <v>7312.925248106114</v>
       </c>
       <c r="G5" t="n">
-        <v>26182.37666498976</v>
+        <v>25088.11684807661</v>
       </c>
       <c r="H5" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="I5" t="n">
-        <v>35859049</v>
+        <v>36229998</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>677088</v>
+        <v>667404</v>
       </c>
       <c r="E6" t="n">
-        <v>13153906</v>
+        <v>12965773</v>
       </c>
       <c r="F6" t="n">
-        <v>336.0533078952099</v>
+        <v>327.5118223262791</v>
       </c>
       <c r="G6" t="n">
-        <v>452.4886496216652</v>
+        <v>372.6754307626591</v>
       </c>
       <c r="H6" t="n">
-        <v>1.22</v>
+        <v>0.62</v>
       </c>
       <c r="I6" t="n">
-        <v>19566.01</v>
+        <v>17641.3</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>475083512</v>
+        <v>480240719</v>
       </c>
       <c r="E7" t="n">
-        <v>475083512</v>
+        <v>480240719</v>
       </c>
       <c r="F7" t="n">
-        <v>36644.67341858327</v>
+        <v>40628.68727846313</v>
       </c>
       <c r="G7" t="n">
-        <v>49543.3842046374</v>
+        <v>49657.48507173105</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>71420236</v>
+        <v>71961732</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4671464</v>
+        <v>4682947</v>
       </c>
       <c r="E8" t="n">
-        <v>4671464</v>
+        <v>4682947</v>
       </c>
       <c r="F8" t="n">
-        <v>1107.404990247708</v>
+        <v>768.7297602500175</v>
       </c>
       <c r="G8" t="n">
-        <v>729.772743017316</v>
+        <v>1532.880160662447</v>
       </c>
       <c r="H8" t="n">
-        <v>0.53</v>
+        <v>0.47</v>
       </c>
       <c r="I8" t="n">
-        <v>2027004</v>
+        <v>2002460</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1710945</v>
+        <v>1721455</v>
       </c>
       <c r="F9" t="n">
-        <v>3409.320440902615</v>
+        <v>993.940665467452</v>
       </c>
       <c r="G9" t="n">
-        <v>1713.577658993152</v>
+        <v>1770.868476126904</v>
       </c>
       <c r="H9" t="n">
-        <v>1.11</v>
+        <v>0.74</v>
       </c>
       <c r="I9" t="n">
-        <v>140235</v>
+        <v>143977</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1509945</v>
+        <v>1521487</v>
       </c>
       <c r="F10" t="n">
-        <v>277.5396723570998</v>
+        <v>259.9009271840704</v>
       </c>
       <c r="G10" t="n">
-        <v>906.1813032690293</v>
+        <v>1306.29171116074</v>
       </c>
       <c r="H10" t="n">
-        <v>0.66</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>256415</v>
+        <v>268656</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>108484753</v>
+        <v>113587579</v>
       </c>
       <c r="E11" t="n">
-        <v>204372415</v>
+        <v>213985535</v>
       </c>
       <c r="F11" t="n">
-        <v>56.23227730089798</v>
+        <v>1627.859837012801</v>
       </c>
       <c r="G11" t="n">
-        <v>1449.653044649498</v>
+        <v>1300.09923115882</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="I11" t="n">
-        <v>4336008</v>
+        <v>4420607</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12791214</v>
+        <v>12802279</v>
       </c>
       <c r="E12" t="n">
-        <v>31835018</v>
+        <v>31862556</v>
       </c>
       <c r="F12" t="n">
-        <v>2112.062800793737</v>
+        <v>2052.0846024804</v>
       </c>
       <c r="G12" t="n">
-        <v>959.4209998262342</v>
+        <v>912.3816222527475</v>
       </c>
       <c r="H12" t="n">
         <v>0.75</v>
       </c>
       <c r="I12" t="n">
-        <v>1407371</v>
+        <v>1403868</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>111168025</v>
+        <v>112713924</v>
       </c>
       <c r="E13" t="n">
-        <v>432578237</v>
+        <v>438568260</v>
       </c>
       <c r="F13" t="n">
-        <v>15850.06751879148</v>
+        <v>25810.68129872568</v>
       </c>
       <c r="G13" t="n">
-        <v>28882.06932438815</v>
+        <v>33320.45403907341</v>
       </c>
       <c r="H13" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="I13" t="n">
-        <v>7974452</v>
+        <v>8524104</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5171379</v>
+        <v>5178925</v>
       </c>
       <c r="E14" t="n">
-        <v>7612550</v>
+        <v>7623658</v>
       </c>
       <c r="F14" t="n">
-        <v>358.960237946136</v>
+        <v>390.9688463108456</v>
       </c>
       <c r="G14" t="n">
-        <v>571.0981013914411</v>
+        <v>651.1826950593243</v>
       </c>
       <c r="H14" t="n">
         <v>1.32</v>
       </c>
       <c r="I14" t="n">
-        <v>680904</v>
+        <v>634519</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>137704432</v>
+        <v>138806916</v>
       </c>
       <c r="E15" t="n">
-        <v>137704432</v>
+        <v>138806916</v>
       </c>
       <c r="F15" t="n">
-        <v>59218.16744503131</v>
+        <v>51182.18279032611</v>
       </c>
       <c r="G15" t="n">
-        <v>75400.6537080401</v>
+        <v>72318.90792707424</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>63747687</v>
+        <v>65244534</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65211458</v>
+        <v>65499001</v>
       </c>
       <c r="E16" t="n">
-        <v>334417735</v>
+        <v>335892315</v>
       </c>
       <c r="F16" t="n">
-        <v>17420.01276313764</v>
+        <v>11494.21386195112</v>
       </c>
       <c r="G16" t="n">
-        <v>34064.43899347507</v>
+        <v>37588.98505325733</v>
       </c>
       <c r="H16" t="n">
         <v>0.19</v>
       </c>
       <c r="I16" t="n">
-        <v>21443024</v>
+        <v>21666920</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>252695643</v>
+        <v>253972952</v>
       </c>
       <c r="E17" t="n">
-        <v>252695643</v>
+        <v>253972952</v>
       </c>
       <c r="F17" t="n">
-        <v>59724.95566859567</v>
+        <v>56556.60671699673</v>
       </c>
       <c r="G17" t="n">
-        <v>50797.32167548713</v>
+        <v>56506.50466592963</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>14816630</v>
+        <v>14554205</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2557760</v>
+        <v>2553152</v>
       </c>
       <c r="E18" t="n">
-        <v>6539136</v>
+        <v>6527354</v>
       </c>
       <c r="F18" t="n">
-        <v>1031.610395010806</v>
+        <v>876.527540119621</v>
       </c>
       <c r="G18" t="n">
-        <v>837.0880789912118</v>
+        <v>1450.978535327435</v>
       </c>
       <c r="H18" t="n">
-        <v>0.45</v>
+        <v>0.6</v>
       </c>
       <c r="I18" t="n">
-        <v>112936</v>
+        <v>112780</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>76270860</v>
+        <v>78443795</v>
       </c>
       <c r="E19" t="n">
-        <v>213474891</v>
+        <v>219508529</v>
       </c>
       <c r="F19" t="n">
-        <v>14009.33449414542</v>
+        <v>14012.40665479115</v>
       </c>
       <c r="G19" t="n">
-        <v>22586.76851632107</v>
+        <v>26854.21906886929</v>
       </c>
       <c r="H19" t="n">
         <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>33950882</v>
+        <v>34440277</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1590607</v>
+        <v>1581877</v>
       </c>
       <c r="E20" t="n">
-        <v>9132672</v>
+        <v>9082546</v>
       </c>
       <c r="F20" t="n">
-        <v>69.74686061465084</v>
+        <v>279.8011243582767</v>
       </c>
       <c r="G20" t="n">
-        <v>708.5949318444711</v>
+        <v>833.3991107655139</v>
       </c>
       <c r="H20" t="n">
-        <v>1.32</v>
+        <v>1.48</v>
       </c>
       <c r="I20" t="n">
-        <v>303357</v>
+        <v>295368</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>173122</v>
+        <v>173940</v>
       </c>
       <c r="E21" t="n">
-        <v>1169111</v>
+        <v>1174638</v>
       </c>
       <c r="F21" t="n">
-        <v>4.96477677011063</v>
+        <v>22.53464944872916</v>
       </c>
       <c r="G21" t="n">
-        <v>6.957647565832471</v>
+        <v>5.806700350749153</v>
       </c>
       <c r="H21" t="n">
-        <v>1.06</v>
+        <v>1.27</v>
       </c>
       <c r="I21" t="n">
-        <v>2761216</v>
+        <v>2780211</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>271823</v>
+        <v>271983</v>
       </c>
       <c r="F22" t="n">
-        <v>179.4707063862016</v>
+        <v>177.0042694082402</v>
       </c>
       <c r="G22" t="n">
-        <v>85.96142091916542</v>
+        <v>85.79190672130973</v>
       </c>
       <c r="H22" t="n">
         <v>3.28</v>
       </c>
       <c r="I22" t="n">
-        <v>1917.45</v>
+        <v>1691.81</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>74522029</v>
+        <v>75336555</v>
       </c>
       <c r="E23" t="n">
-        <v>155416273</v>
+        <v>157114975</v>
       </c>
       <c r="F23" t="n">
-        <v>35801.22384111381</v>
+        <v>38887.8247511686</v>
       </c>
       <c r="G23" t="n">
-        <v>51788.80015997592</v>
+        <v>44348.91769326862</v>
       </c>
       <c r="H23" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="I23" t="n">
-        <v>16068460</v>
+        <v>15808269</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>201295983</v>
+        <v>202651650</v>
       </c>
       <c r="E24" t="n">
-        <v>699320437</v>
+        <v>704030147</v>
       </c>
       <c r="F24" t="n">
-        <v>63129.62543901342</v>
+        <v>59241.36846313204</v>
       </c>
       <c r="G24" t="n">
-        <v>60464.05330458178</v>
+        <v>54338.5191537752</v>
       </c>
       <c r="H24" t="n">
         <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>27287823</v>
+        <v>27689878</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>114566749</v>
+        <v>115776149</v>
       </c>
       <c r="E25" t="n">
-        <v>486886103</v>
+        <v>491974404</v>
       </c>
       <c r="F25" t="n">
-        <v>14250.36843923005</v>
+        <v>18232.09218480725</v>
       </c>
       <c r="G25" t="n">
-        <v>16644.70865589058</v>
+        <v>16838.37713215641</v>
       </c>
       <c r="H25" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="I25" t="n">
-        <v>14543621</v>
+        <v>14714355</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5626889</v>
+        <v>5650201</v>
       </c>
       <c r="E26" t="n">
-        <v>7644445</v>
+        <v>7676116</v>
       </c>
       <c r="F26" t="n">
-        <v>224.3905665583615</v>
+        <v>295.790425113135</v>
       </c>
       <c r="G26" t="n">
-        <v>2724.318623610195</v>
+        <v>1986.279922148297</v>
       </c>
       <c r="H26" t="n">
-        <v>0.43</v>
+        <v>0.7</v>
       </c>
       <c r="I26" t="n">
-        <v>5869735</v>
+        <v>5823609</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>645058</v>
+        <v>575467</v>
       </c>
       <c r="E27" t="n">
-        <v>7823924</v>
+        <v>6979852</v>
       </c>
       <c r="F27" t="n">
-        <v>806.5219539218715</v>
+        <v>90.5043672522761</v>
       </c>
       <c r="G27" t="n">
-        <v>1018.576873993297</v>
+        <v>614.4973914111138</v>
       </c>
       <c r="H27" t="n">
-        <v>0.32</v>
+        <v>0.89</v>
       </c>
       <c r="I27" t="n">
-        <v>2396484</v>
+        <v>2840112</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25591493</v>
+        <v>25823676</v>
       </c>
       <c r="E28" t="n">
-        <v>36172576</v>
+        <v>36500758</v>
       </c>
       <c r="F28" t="n">
-        <v>1.740427966283733</v>
+        <v>1.740466523796366</v>
       </c>
       <c r="G28" t="n">
-        <v>2117.265804546789</v>
+        <v>354.0612910762706</v>
       </c>
       <c r="H28" t="n">
         <v>2.54</v>
       </c>
       <c r="I28" t="n">
-        <v>62716</v>
+        <v>64629</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1277288299</v>
+        <v>1310188718</v>
       </c>
       <c r="E29" t="n">
-        <v>6124858978</v>
+        <v>6282623224</v>
       </c>
       <c r="F29" t="n">
-        <v>170376.6407033151</v>
+        <v>187961.011621098</v>
       </c>
       <c r="G29" t="n">
-        <v>250932.1298524388</v>
+        <v>238850.4446800727</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>159702893</v>
+        <v>165008641</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>268656122</v>
+        <v>270909174</v>
       </c>
       <c r="E30" t="n">
-        <v>1159668964</v>
+        <v>1169394388</v>
       </c>
       <c r="F30" t="n">
-        <v>290210.256642671</v>
+        <v>305624.6459430883</v>
       </c>
       <c r="G30" t="n">
-        <v>219664.3760176748</v>
+        <v>230612.306310715</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>98928255</v>
+        <v>99328900</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5359660</v>
+        <v>5358271</v>
       </c>
       <c r="E31" t="n">
-        <v>5365726</v>
+        <v>5364335</v>
       </c>
       <c r="F31" t="n">
-        <v>105.9044028620933</v>
+        <v>106.4869569474553</v>
       </c>
       <c r="G31" t="n">
-        <v>171.7977395111322</v>
+        <v>168.8160002788102</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>152152</v>
+        <v>148589</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19724693</v>
+        <v>19796275</v>
       </c>
       <c r="E32" t="n">
-        <v>49311732</v>
+        <v>49490687</v>
       </c>
       <c r="F32" t="n">
-        <v>2546.990745255196</v>
+        <v>2887.560139542647</v>
       </c>
       <c r="G32" t="n">
-        <v>5462.85712338186</v>
+        <v>4940.779220688518</v>
       </c>
       <c r="H32" t="n">
-        <v>0.53</v>
+        <v>0.63</v>
       </c>
       <c r="I32" t="n">
-        <v>1962973</v>
+        <v>1896655</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19770362</v>
+        <v>19885435</v>
       </c>
       <c r="F33" t="n">
-        <v>984.7655193463089</v>
+        <v>946.2204312870718</v>
       </c>
       <c r="G33" t="n">
-        <v>756.1701035562619</v>
+        <v>1459.05671104966</v>
       </c>
       <c r="H33" t="n">
-        <v>1.01</v>
+        <v>0.5</v>
       </c>
       <c r="I33" t="n">
-        <v>89772</v>
+        <v>91657</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4163261</v>
+        <v>4094525</v>
       </c>
       <c r="E34" t="n">
-        <v>11992171</v>
+        <v>11794178</v>
       </c>
       <c r="F34" t="n">
-        <v>268.4437560565236</v>
+        <v>319.8164132805784</v>
       </c>
       <c r="G34" t="n">
-        <v>1238.953183259519</v>
+        <v>1472.794474646948</v>
       </c>
       <c r="H34" t="n">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
       <c r="I34" t="n">
-        <v>642566</v>
+        <v>634612</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1624540</v>
+        <v>1600098</v>
       </c>
       <c r="F35" t="n">
-        <v>161.9983068575999</v>
+        <v>164.3653810386616</v>
       </c>
       <c r="G35" t="n">
-        <v>626.0751625632059</v>
+        <v>2121.345063474614</v>
       </c>
       <c r="H35" t="n">
-        <v>2.44</v>
+        <v>1.83</v>
       </c>
       <c r="I35" t="n">
-        <v>15327.43</v>
+        <v>15262.96</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14299666</v>
+        <v>14562048</v>
       </c>
       <c r="E36" t="n">
-        <v>69255564</v>
+        <v>70526325</v>
       </c>
       <c r="F36" t="n">
-        <v>2742.907327247833</v>
+        <v>3955.301065275557</v>
       </c>
       <c r="G36" t="n">
-        <v>8186.996450868828</v>
+        <v>6111.074440800169</v>
       </c>
       <c r="H36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I36" t="n">
-        <v>3718436</v>
+        <v>3714090</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1432161</v>
+        <v>1420944</v>
       </c>
       <c r="E37" t="n">
-        <v>9373453</v>
+        <v>9300043</v>
       </c>
       <c r="F37" t="n">
-        <v>19.11495319187915</v>
+        <v>31.26044207628806</v>
       </c>
       <c r="G37" t="n">
-        <v>372.0597036827514</v>
+        <v>127.4386981717331</v>
       </c>
       <c r="H37" t="n">
         <v>2.11</v>
       </c>
       <c r="I37" t="n">
-        <v>544815</v>
+        <v>546693</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1920420365</v>
+        <v>1929084890</v>
       </c>
       <c r="F38" t="n">
-        <v>72462.32398567557</v>
+        <v>66449.60391765214</v>
       </c>
       <c r="G38" t="n">
-        <v>73802.56015146765</v>
+        <v>73601.22747089146</v>
       </c>
       <c r="H38" t="n">
-        <v>0.42</v>
+        <v>0.47</v>
       </c>
       <c r="I38" t="n">
-        <v>26969043</v>
+        <v>27260889</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31521270</v>
+        <v>31639793</v>
       </c>
       <c r="E39" t="n">
-        <v>98147120</v>
+        <v>98516163</v>
       </c>
       <c r="F39" t="n">
-        <v>5450.660808627636</v>
+        <v>4288.816752521265</v>
       </c>
       <c r="G39" t="n">
-        <v>8681.448083491632</v>
+        <v>7204.181701212123</v>
       </c>
       <c r="H39" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="I39" t="n">
-        <v>11642704</v>
+        <v>11641502</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>199225020</v>
+        <v>200649999</v>
       </c>
       <c r="E40" t="n">
-        <v>1128134475</v>
+        <v>1136203584</v>
       </c>
       <c r="F40" t="n">
-        <v>47053.86949444952</v>
+        <v>45118.27200187592</v>
       </c>
       <c r="G40" t="n">
-        <v>76434.29465632064</v>
+        <v>80046.03373402137</v>
       </c>
       <c r="H40" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I40" t="n">
-        <v>61901819</v>
+        <v>62549981</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>139605707</v>
+        <v>140179169</v>
       </c>
       <c r="E41" t="n">
-        <v>1034116348</v>
+        <v>1038364212</v>
       </c>
       <c r="F41" t="n">
-        <v>125173.6198837472</v>
+        <v>112525.7888593558</v>
       </c>
       <c r="G41" t="n">
-        <v>228885.7151247554</v>
+        <v>166845.5833832388</v>
       </c>
       <c r="H41" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I41" t="n">
-        <v>9980965</v>
+        <v>9922474</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31446942</v>
+        <v>32305398</v>
       </c>
       <c r="E42" t="n">
-        <v>149395655</v>
+        <v>153473942</v>
       </c>
       <c r="F42" t="n">
-        <v>7688.216184198973</v>
+        <v>11612.2891465256</v>
       </c>
       <c r="G42" t="n">
-        <v>7445.896342656845</v>
+        <v>5113.461394888046</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I42" t="n">
-        <v>1127800</v>
+        <v>1141882</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3416908</v>
+        <v>3412496</v>
       </c>
       <c r="E43" t="n">
-        <v>7979050</v>
+        <v>7968747</v>
       </c>
       <c r="F43" t="n">
-        <v>1038.975750162771</v>
+        <v>1296.96882444082</v>
       </c>
       <c r="G43" t="n">
-        <v>591.7331418870745</v>
+        <v>1284.524996915604</v>
       </c>
       <c r="H43" t="n">
-        <v>1.27</v>
+        <v>1.06</v>
       </c>
       <c r="I43" t="n">
-        <v>679987</v>
+        <v>684953</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>338645070</v>
+        <v>338714074</v>
       </c>
       <c r="E44" t="n">
-        <v>3046661035</v>
+        <v>3047281837</v>
       </c>
       <c r="F44" t="n">
-        <v>44994.28408558961</v>
+        <v>43654.65695578947</v>
       </c>
       <c r="G44" t="n">
-        <v>55671.29167428543</v>
+        <v>42799.70115838292</v>
       </c>
       <c r="H44" t="n">
         <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>37551474</v>
+        <v>38328784</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>656100</v>
+        <v>656326</v>
       </c>
       <c r="F45" t="n">
-        <v>487.8537346840682</v>
+        <v>470.4531464514625</v>
       </c>
       <c r="G45" t="n">
-        <v>285.94526401426</v>
+        <v>285.6012646042212</v>
       </c>
       <c r="H45" t="n">
         <v>0.95</v>
       </c>
       <c r="I45" t="n">
-        <v>4075.61</v>
+        <v>3263.56</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1577708</v>
+        <v>1581862</v>
       </c>
       <c r="E46" t="n">
-        <v>13147564</v>
+        <v>13182181</v>
       </c>
       <c r="F46" t="n">
-        <v>247.5696296319464</v>
+        <v>210.7394840638588</v>
       </c>
       <c r="G46" t="n">
-        <v>1039.162391528615</v>
+        <v>1537.190850905603</v>
       </c>
       <c r="H46" t="n">
         <v>0.53</v>
       </c>
       <c r="I46" t="n">
-        <v>42163</v>
+        <v>42243</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4927887</v>
+        <v>4916679</v>
       </c>
       <c r="E47" t="n">
-        <v>17412518</v>
+        <v>17372915</v>
       </c>
       <c r="F47" t="n">
-        <v>1087.64038625201</v>
+        <v>808.5484178018204</v>
       </c>
       <c r="G47" t="n">
-        <v>1267.723128309643</v>
+        <v>1708.529046546189</v>
       </c>
       <c r="H47" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>87108</v>
+        <v>87293</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>49817334</v>
+        <v>48943257</v>
       </c>
       <c r="E48" t="n">
-        <v>288421782</v>
+        <v>283361233</v>
       </c>
       <c r="F48" t="n">
-        <v>16601.12892484505</v>
+        <v>13515.25510356805</v>
       </c>
       <c r="G48" t="n">
-        <v>16393.61741988288</v>
+        <v>14935.32094467641</v>
       </c>
       <c r="H48" t="n">
-        <v>0.35</v>
+        <v>0.32</v>
       </c>
       <c r="I48" t="n">
-        <v>26662843</v>
+        <v>27418046</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2275543</v>
+        <v>2258140</v>
       </c>
       <c r="E49" t="n">
-        <v>12502221</v>
+        <v>12406608</v>
       </c>
       <c r="F49" t="n">
-        <v>234.561862732475</v>
+        <v>218.3421003393761</v>
       </c>
       <c r="G49" t="n">
-        <v>2085.914646445379</v>
+        <v>1846.577318812345</v>
       </c>
       <c r="H49" t="n">
         <v>2.36</v>
       </c>
       <c r="I49" t="n">
-        <v>120836</v>
+        <v>123590</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13404279</v>
+        <v>13445963</v>
       </c>
       <c r="E50" t="n">
-        <v>13449895</v>
+        <v>13491721</v>
       </c>
       <c r="F50" t="n">
-        <v>4054.766835174096</v>
+        <v>4496.872204602619</v>
       </c>
       <c r="G50" t="n">
-        <v>10518.4124568108</v>
+        <v>9340.295518726898</v>
       </c>
       <c r="H50" t="n">
         <v>0.66</v>
       </c>
       <c r="I50" t="n">
-        <v>5851436</v>
+        <v>5851164</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22894468</v>
+        <v>22897854</v>
       </c>
       <c r="E51" t="n">
-        <v>68627086</v>
+        <v>68637238</v>
       </c>
       <c r="F51" t="n">
-        <v>26170.75935954574</v>
+        <v>26397.47866504671</v>
       </c>
       <c r="G51" t="n">
-        <v>26040.09891425419</v>
+        <v>24707.5795573612</v>
       </c>
       <c r="H51" t="n">
-        <v>0.51</v>
+        <v>0.66</v>
       </c>
       <c r="I51" t="n">
-        <v>3144726</v>
+        <v>3128388</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15503799</v>
+        <v>15621480</v>
       </c>
       <c r="E52" t="n">
-        <v>95027880</v>
+        <v>95749188</v>
       </c>
       <c r="F52" t="n">
-        <v>7056.876970801623</v>
+        <v>6330.844315680529</v>
       </c>
       <c r="G52" t="n">
-        <v>10940.11546707498</v>
+        <v>9575.714922252522</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>11202252</v>
+        <v>10968025</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47137069</v>
+        <v>47370131</v>
       </c>
       <c r="E53" t="n">
-        <v>203061340</v>
+        <v>204065346</v>
       </c>
       <c r="F53" t="n">
-        <v>22757.33383713156</v>
+        <v>22261.44739353779</v>
       </c>
       <c r="G53" t="n">
-        <v>26089.4843397628</v>
+        <v>26432.22998153873</v>
       </c>
       <c r="H53" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>8785894</v>
+        <v>8976997</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1038292</v>
+        <v>1037491</v>
       </c>
       <c r="E54" t="n">
-        <v>3034747</v>
+        <v>3032406</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8879285766364756</v>
+        <v>0.8879482478426237</v>
       </c>
       <c r="G54" t="n">
-        <v>123.3264576899194</v>
+        <v>111.544479664137</v>
       </c>
       <c r="H54" t="n">
         <v>1.28</v>
       </c>
       <c r="I54" t="n">
-        <v>20931</v>
+        <v>20022</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37631822</v>
+        <v>38196868</v>
       </c>
       <c r="E55" t="n">
-        <v>94889388</v>
+        <v>96314164</v>
       </c>
       <c r="F55" t="n">
-        <v>11874.18223182822</v>
+        <v>11997.60649607989</v>
       </c>
       <c r="G55" t="n">
-        <v>11368.13490852323</v>
+        <v>10141.31790059222</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>3347580</v>
+        <v>3451106</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28194857</v>
+        <v>28188113</v>
       </c>
       <c r="E56" t="n">
-        <v>66983971</v>
+        <v>66967947</v>
       </c>
       <c r="F56" t="n">
-        <v>10261.57681709279</v>
+        <v>10567.71331352331</v>
       </c>
       <c r="G56" t="n">
-        <v>5746.079611751923</v>
+        <v>5429.197119582401</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>520372</v>
+        <v>504200</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12757684</v>
+        <v>12770817</v>
       </c>
       <c r="E57" t="n">
-        <v>19420073</v>
+        <v>19440063</v>
       </c>
       <c r="F57" t="n">
-        <v>544.9203868147803</v>
+        <v>665.5995420003721</v>
       </c>
       <c r="G57" t="n">
-        <v>1450.588746717514</v>
+        <v>1279.059915154561</v>
       </c>
       <c r="H57" t="n">
-        <v>0.68</v>
+        <v>0.73</v>
       </c>
       <c r="I57" t="n">
-        <v>749345</v>
+        <v>776685</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>312592206</v>
+        <v>315186046</v>
       </c>
       <c r="E58" t="n">
-        <v>312592206</v>
+        <v>315186046</v>
       </c>
       <c r="F58" t="n">
-        <v>59983.83254166206</v>
+        <v>62790.85540444287</v>
       </c>
       <c r="G58" t="n">
-        <v>73362.74420425335</v>
+        <v>84505.05108305014</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>50359007</v>
+        <v>51181837</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11565397</v>
+        <v>11654459</v>
       </c>
       <c r="F59" t="n">
-        <v>218.2452147078696</v>
+        <v>288.8059336042297</v>
       </c>
       <c r="G59" t="n">
-        <v>165.6186752638082</v>
+        <v>303.6120682312263</v>
       </c>
       <c r="H59" t="n">
         <v>1.21</v>
       </c>
       <c r="I59" t="n">
-        <v>98024</v>
+        <v>98697</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>89247462</v>
+        <v>90253131</v>
       </c>
       <c r="E60" t="n">
-        <v>514282371</v>
+        <v>520077470</v>
       </c>
       <c r="F60" t="n">
-        <v>94697.01623367079</v>
+        <v>75108.24629109135</v>
       </c>
       <c r="G60" t="n">
-        <v>95724.80415179038</v>
+        <v>103743.1097340511</v>
       </c>
       <c r="H60" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I60" t="n">
-        <v>16488979</v>
+        <v>16467100</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9286352</v>
+        <v>9284493</v>
       </c>
       <c r="E61" t="n">
-        <v>9286352</v>
+        <v>9284493</v>
       </c>
       <c r="F61" t="n">
-        <v>70.32111294119235</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>5.049583072648896</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>3.86</v>
+        <v>4.11</v>
       </c>
       <c r="I61" t="n">
-        <v>2092713</v>
+        <v>2090144</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30263823</v>
+        <v>30405488</v>
       </c>
       <c r="E62" t="n">
-        <v>135503551</v>
+        <v>136137845</v>
       </c>
       <c r="F62" t="n">
-        <v>17151.61394766273</v>
+        <v>26886.86769298782</v>
       </c>
       <c r="G62" t="n">
-        <v>21144.24355446185</v>
+        <v>18177.43681714065</v>
       </c>
       <c r="H62" t="n">
-        <v>0.74</v>
+        <v>0.72</v>
       </c>
       <c r="I62" t="n">
-        <v>8474600</v>
+        <v>8458567</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13071803</v>
+        <v>13046766</v>
       </c>
       <c r="E63" t="n">
-        <v>26132193</v>
+        <v>26082140</v>
       </c>
       <c r="F63" t="n">
-        <v>2309.453743385001</v>
+        <v>2783.324674410422</v>
       </c>
       <c r="G63" t="n">
-        <v>2190.940309702381</v>
+        <v>2169.207648345361</v>
       </c>
       <c r="H63" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I63" t="n">
-        <v>42293</v>
+        <v>34225</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1487045</v>
+        <v>1485700</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3346786451636415</v>
+        <v>1.060042044664074</v>
       </c>
       <c r="G64" t="n">
-        <v>175.1479642414848</v>
+        <v>184.2284440544653</v>
       </c>
       <c r="H64" t="n">
-        <v>2.13</v>
+        <v>1.63</v>
       </c>
       <c r="I64" t="n">
-        <v>25226</v>
+        <v>25031</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>48734832</v>
+        <v>49347822</v>
       </c>
       <c r="E65" t="n">
-        <v>316032415</v>
+        <v>320007494</v>
       </c>
       <c r="F65" t="n">
-        <v>18026.67294760008</v>
+        <v>20757.41977850982</v>
       </c>
       <c r="G65" t="n">
-        <v>17484.49256973467</v>
+        <v>20230.18244649086</v>
       </c>
       <c r="H65" t="n">
-        <v>0.42</v>
+        <v>0.25</v>
       </c>
       <c r="I65" t="n">
-        <v>16285650</v>
+        <v>16599641</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4788757</v>
+        <v>4782306</v>
       </c>
       <c r="F66" t="n">
-        <v>1284.609110124905</v>
+        <v>1272.434761051833</v>
       </c>
       <c r="G66" t="n">
-        <v>1456.885185750952</v>
+        <v>1434.375095354457</v>
       </c>
       <c r="H66" t="n">
         <v>0.91</v>
       </c>
       <c r="I66" t="n">
-        <v>182082</v>
+        <v>182908</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125444296</v>
+        <v>125301070</v>
       </c>
       <c r="E67" t="n">
-        <v>2077460289</v>
+        <v>2075088342</v>
       </c>
       <c r="F67" t="n">
-        <v>21134.53306408931</v>
+        <v>21434.60081953538</v>
       </c>
       <c r="G67" t="n">
-        <v>26428.03911030208</v>
+        <v>23475.13062817778</v>
       </c>
       <c r="H67" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>4835655</v>
+        <v>4848349</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24081487</v>
+        <v>24487208</v>
       </c>
       <c r="E68" t="n">
-        <v>144084378</v>
+        <v>146511890</v>
       </c>
       <c r="F68" t="n">
-        <v>44404.5413135677</v>
+        <v>44072.04678716833</v>
       </c>
       <c r="G68" t="n">
-        <v>45291.91272886905</v>
+        <v>44811.37842032469</v>
       </c>
       <c r="H68" t="n">
         <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>11538545</v>
+        <v>12034148</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23075977</v>
+        <v>23115866</v>
       </c>
       <c r="E70" t="n">
-        <v>23076229</v>
+        <v>23115866</v>
       </c>
       <c r="F70" t="n">
-        <v>15443.74898141114</v>
+        <v>16395.51617841008</v>
       </c>
       <c r="G70" t="n">
-        <v>2987.047802807592</v>
+        <v>3177.425108691832</v>
       </c>
       <c r="H70" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>2056589</v>
+        <v>2082298</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34864997</v>
+        <v>35062237</v>
       </c>
       <c r="E71" t="n">
-        <v>173992406</v>
+        <v>174976727</v>
       </c>
       <c r="F71" t="n">
-        <v>17682.07486270006</v>
+        <v>18638.13751998137</v>
       </c>
       <c r="G71" t="n">
-        <v>35900.08826793615</v>
+        <v>48026.81406104327</v>
       </c>
       <c r="H71" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>10178512</v>
+        <v>10331357</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>169572</v>
+        <v>178004</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>10640.79</v>
+        <v>11661</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>315542417</v>
+        <v>317231907</v>
       </c>
       <c r="E73" t="n">
-        <v>583825430</v>
+        <v>586951373</v>
       </c>
       <c r="F73" t="n">
-        <v>55749.09722835416</v>
+        <v>52919.35054014369</v>
       </c>
       <c r="G73" t="n">
-        <v>60747.35283824847</v>
+        <v>64065.42642218733</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I73" t="n">
-        <v>13326381</v>
+        <v>13346523</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10551272</v>
+        <v>10875960</v>
       </c>
       <c r="E74" t="n">
-        <v>31308023</v>
+        <v>32269693</v>
       </c>
       <c r="F74" t="n">
-        <v>1954.476028088618</v>
+        <v>1273.172100074765</v>
       </c>
       <c r="G74" t="n">
-        <v>1685.56046448273</v>
+        <v>5827.872638529047</v>
       </c>
       <c r="H74" t="n">
-        <v>0.55</v>
+        <v>0.84</v>
       </c>
       <c r="I74" t="n">
-        <v>6355724</v>
+        <v>6360560</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8426767</v>
+        <v>8437947</v>
       </c>
       <c r="E75" t="n">
-        <v>12006212</v>
+        <v>12022141</v>
       </c>
       <c r="F75" t="n">
-        <v>3731.347106598973</v>
+        <v>4043.491589692048</v>
       </c>
       <c r="G75" t="n">
-        <v>58.56705087595036</v>
+        <v>24.21256627101641</v>
       </c>
       <c r="H75" t="n">
-        <v>0.41</v>
+        <v>0.58</v>
       </c>
       <c r="I75" t="n">
-        <v>437605</v>
+        <v>434814</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16316129</v>
+        <v>16353221</v>
       </c>
       <c r="F76" t="n">
-        <v>163.6951155871938</v>
+        <v>164.0337858043743</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4508192558576627</v>
+        <v>0.6071127511335527</v>
       </c>
       <c r="H76" t="n">
         <v>0.99</v>
       </c>
       <c r="I76" t="n">
-        <v>976730</v>
+        <v>985675</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>62507908</v>
+        <v>62459964</v>
       </c>
       <c r="E77" t="n">
-        <v>103413051</v>
+        <v>103333732</v>
       </c>
       <c r="F77" t="n">
-        <v>11101.43327844606</v>
+        <v>10481.17938068404</v>
       </c>
       <c r="G77" t="n">
-        <v>17987.12365852088</v>
+        <v>18523.01780735404</v>
       </c>
       <c r="H77" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I77" t="n">
-        <v>6694053</v>
+        <v>6609996</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5610827</v>
+        <v>5595449</v>
       </c>
       <c r="E78" t="n">
-        <v>5610827</v>
+        <v>5595449</v>
       </c>
       <c r="F78" t="n">
-        <v>222.276665335112</v>
+        <v>367.9426364333462</v>
       </c>
       <c r="G78" t="n">
-        <v>709.1652061784862</v>
+        <v>709.8727330090998</v>
       </c>
       <c r="H78" t="n">
         <v>2.5</v>
       </c>
       <c r="I78" t="n">
-        <v>1168637</v>
+        <v>1120806</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58395</v>
+        <v>58910</v>
       </c>
       <c r="E79" t="n">
-        <v>304683</v>
+        <v>307369</v>
       </c>
       <c r="F79" t="n">
-        <v>9.5212779520854</v>
+        <v>15.42754389722672</v>
       </c>
       <c r="G79" t="n">
-        <v>491.6206954749017</v>
+        <v>38.47338907971309</v>
       </c>
       <c r="H79" t="n">
-        <v>1.1</v>
+        <v>0.83</v>
       </c>
       <c r="I79" t="n">
-        <v>270866</v>
+        <v>277665</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26005943</v>
+        <v>25746619</v>
       </c>
       <c r="F80" t="n">
-        <v>627.4727727735071</v>
+        <v>546.103537485321</v>
       </c>
       <c r="G80" t="n">
-        <v>1594.39725578892</v>
+        <v>1951.5811506228</v>
       </c>
       <c r="H80" t="n">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="I80" t="n">
-        <v>62824</v>
+        <v>62713</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>599602423</v>
+        <v>606389286</v>
       </c>
       <c r="E81" t="n">
-        <v>2322171719</v>
+        <v>2348456237</v>
       </c>
       <c r="F81" t="n">
-        <v>180293.8163993734</v>
+        <v>181580.06307135</v>
       </c>
       <c r="G81" t="n">
-        <v>172667.9741501592</v>
+        <v>296525.4536324948</v>
       </c>
       <c r="H81" t="n">
         <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>32751332</v>
+        <v>32898268</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7359682</v>
+        <v>7540581</v>
       </c>
       <c r="E82" t="n">
-        <v>10545219</v>
+        <v>10804393</v>
       </c>
       <c r="F82" t="n">
-        <v>1855.332001651065</v>
+        <v>1146.449137012825</v>
       </c>
       <c r="G82" t="n">
-        <v>3194.27167124653</v>
+        <v>456.7204311839275</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="I82" t="n">
-        <v>173338</v>
+        <v>200873</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>121071572</v>
+        <v>122861762</v>
       </c>
       <c r="E83" t="n">
-        <v>1052642906</v>
+        <v>1068207506</v>
       </c>
       <c r="F83" t="n">
-        <v>40870.81188298339</v>
+        <v>41629.18110687986</v>
       </c>
       <c r="G83" t="n">
-        <v>46362.95433544626</v>
+        <v>45926.86276578878</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>9075588</v>
+        <v>9108307</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1101189</v>
+        <v>1100428</v>
       </c>
       <c r="E84" t="n">
-        <v>4264045</v>
+        <v>4261099</v>
       </c>
       <c r="F84" t="n">
-        <v>1415.256678071847</v>
+        <v>1406.968461641033</v>
       </c>
       <c r="G84" t="n">
-        <v>2502.145086055202</v>
+        <v>2601.042933714178</v>
       </c>
       <c r="H84" t="n">
         <v>0.93</v>
       </c>
       <c r="I84" t="n">
-        <v>375384</v>
+        <v>369043</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>117864503</v>
+        <v>118364103</v>
       </c>
       <c r="E85" t="n">
-        <v>452147204</v>
+        <v>454063750</v>
       </c>
       <c r="F85" t="n">
-        <v>78101.04050425507</v>
+        <v>56918.64434377996</v>
       </c>
       <c r="G85" t="n">
-        <v>83631.1952352556</v>
+        <v>80963.3728952836</v>
       </c>
       <c r="H85" t="n">
-        <v>0.11</v>
+        <v>0.18</v>
       </c>
       <c r="I85" t="n">
-        <v>30984308</v>
+        <v>30995660</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5120179</v>
+        <v>5114618</v>
       </c>
       <c r="E86" t="n">
-        <v>19066498</v>
+        <v>19045789</v>
       </c>
       <c r="F86" t="n">
-        <v>5661.88407171683</v>
+        <v>5611.506761118373</v>
       </c>
       <c r="G86" t="n">
-        <v>885.79901373699</v>
+        <v>955.2007561634748</v>
       </c>
       <c r="H86" t="n">
         <v>0.42</v>
       </c>
       <c r="I86" t="n">
-        <v>62126</v>
+        <v>59032</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31571431</v>
+        <v>32253086</v>
       </c>
       <c r="F87" t="n">
-        <v>5394.100115758945</v>
+        <v>4087.935985613754</v>
       </c>
       <c r="G87" t="n">
-        <v>1058.363840622147</v>
+        <v>1761.237884360475</v>
       </c>
       <c r="H87" t="n">
         <v>0.22</v>
       </c>
       <c r="I87" t="n">
-        <v>5474911</v>
+        <v>5484968</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24745519</v>
+        <v>24745567</v>
       </c>
       <c r="F88" t="n">
-        <v>1013.814307796635</v>
+        <v>1219.169116609565</v>
       </c>
       <c r="G88" t="n">
-        <v>1376.790143599993</v>
+        <v>1269.561228594986</v>
       </c>
       <c r="H88" t="n">
-        <v>0.78</v>
+        <v>0.59</v>
       </c>
       <c r="I88" t="n">
-        <v>18428.01</v>
+        <v>17783.45</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>87981805</v>
+        <v>88230223</v>
       </c>
       <c r="E89" t="n">
-        <v>325234312</v>
+        <v>326151112</v>
       </c>
       <c r="F89" t="n">
-        <v>1826.97786115367</v>
+        <v>1721.833925569705</v>
       </c>
       <c r="G89" t="n">
-        <v>1843.777755028405</v>
+        <v>2045.734075856031</v>
       </c>
       <c r="H89" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="I89" t="n">
-        <v>282193</v>
+        <v>260964</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20983276</v>
+        <v>20893674</v>
       </c>
       <c r="E90" t="n">
-        <v>20983276</v>
+        <v>20893674</v>
       </c>
       <c r="F90" t="n">
-        <v>4231.992021215035</v>
+        <v>5133.332869076532</v>
       </c>
       <c r="G90" t="n">
-        <v>2478.21695583596</v>
+        <v>3893.473078498835</v>
       </c>
       <c r="H90" t="n">
-        <v>0.51</v>
+        <v>0.68</v>
       </c>
       <c r="I90" t="n">
-        <v>7111816</v>
+        <v>7118291</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3817411</v>
+        <v>3824935</v>
       </c>
       <c r="E91" t="n">
-        <v>8329542</v>
+        <v>8345959</v>
       </c>
       <c r="F91" t="n">
-        <v>1922.843736302483</v>
+        <v>1598.008157611075</v>
       </c>
       <c r="G91" t="n">
-        <v>3487.320625417416</v>
+        <v>3540.734591508466</v>
       </c>
       <c r="H91" t="n">
         <v>0.36</v>
       </c>
       <c r="I91" t="n">
-        <v>1308124</v>
+        <v>1393605</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>487493543</v>
+        <v>493168298</v>
       </c>
       <c r="E92" t="n">
-        <v>1696924454</v>
+        <v>1716677803</v>
       </c>
       <c r="F92" t="n">
-        <v>171431.5562335555</v>
+        <v>172042.547800841</v>
       </c>
       <c r="G92" t="n">
-        <v>180528.055000669</v>
+        <v>178011.8349666417</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>29329589</v>
+        <v>29219879</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2623304</v>
+        <v>2626774</v>
       </c>
       <c r="E93" t="n">
-        <v>10493217</v>
+        <v>10507095</v>
       </c>
       <c r="F93" t="n">
-        <v>2876.797372195238</v>
+        <v>2775.666226751365</v>
       </c>
       <c r="G93" t="n">
-        <v>1901.269340509256</v>
+        <v>2864.391165917936</v>
       </c>
       <c r="H93" t="n">
-        <v>0.38</v>
+        <v>0.76</v>
       </c>
       <c r="I93" t="n">
-        <v>6962161</v>
+        <v>6894744</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>216305613</v>
+        <v>218775325</v>
       </c>
       <c r="E94" t="n">
-        <v>665058361</v>
+        <v>672651793</v>
       </c>
       <c r="F94" t="n">
-        <v>112760.9606610646</v>
+        <v>94142.75286223224</v>
       </c>
       <c r="G94" t="n">
-        <v>96210.67826668381</v>
+        <v>92652.8606926427</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>11907659</v>
+        <v>13340702</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>151006692</v>
+        <v>151066090</v>
       </c>
       <c r="E95" t="n">
-        <v>394500795</v>
+        <v>394655969</v>
       </c>
       <c r="F95" t="n">
-        <v>32051.06052676743</v>
+        <v>31718.60516990185</v>
       </c>
       <c r="G95" t="n">
-        <v>31803.9876303926</v>
+        <v>32029.34508307035</v>
       </c>
       <c r="H95" t="n">
         <v>0.2</v>
       </c>
       <c r="I95" t="n">
-        <v>7204727</v>
+        <v>7021499</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>398590409</v>
+        <v>401338110</v>
       </c>
       <c r="E96" t="n">
-        <v>2277659479</v>
+        <v>2293360630</v>
       </c>
       <c r="F96" t="n">
-        <v>20512.52643742519</v>
+        <v>18677.31037496753</v>
       </c>
       <c r="G96" t="n">
-        <v>46107.59045173819</v>
+        <v>46385.78142038322</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>38224060</v>
+        <v>38241368</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>605064378</v>
+        <v>605513462</v>
       </c>
       <c r="E2" t="n">
-        <v>1174104285</v>
+        <v>1174980171</v>
       </c>
       <c r="F2" t="n">
-        <v>16760.2027667446</v>
+        <v>17962.17705373122</v>
       </c>
       <c r="G2" t="n">
-        <v>30415.43220564449</v>
+        <v>32024.67180432519</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>19743639</v>
+        <v>19583161</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1305118</v>
+        <v>1298377</v>
       </c>
       <c r="E3" t="n">
-        <v>4218676</v>
+        <v>4196887</v>
       </c>
       <c r="F3" t="n">
-        <v>4746.511465691523</v>
+        <v>4401.711014017362</v>
       </c>
       <c r="G3" t="n">
-        <v>4992.268881803153</v>
+        <v>6377.79723803125</v>
       </c>
       <c r="H3" t="n">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="I3" t="n">
-        <v>111671</v>
+        <v>113004</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245603249</v>
+        <v>246345352</v>
       </c>
       <c r="E4" t="n">
-        <v>1540143450</v>
+        <v>1544797073</v>
       </c>
       <c r="F4" t="n">
-        <v>136410.9166395284</v>
+        <v>144063.4892660026</v>
       </c>
       <c r="G4" t="n">
-        <v>149986.0755190815</v>
+        <v>140895.6000743807</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="I4" t="n">
-        <v>16538839</v>
+        <v>15981033</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>144081045</v>
+        <v>144853050</v>
       </c>
       <c r="E5" t="n">
-        <v>159664315</v>
+        <v>160519817</v>
       </c>
       <c r="F5" t="n">
-        <v>7312.925248106114</v>
+        <v>7609.703132249506</v>
       </c>
       <c r="G5" t="n">
-        <v>25088.11684807661</v>
+        <v>18179.41540667737</v>
       </c>
       <c r="H5" t="n">
         <v>0.62</v>
       </c>
       <c r="I5" t="n">
-        <v>36229998</v>
+        <v>36747461</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>667404</v>
+        <v>663951</v>
       </c>
       <c r="E6" t="n">
-        <v>12965773</v>
+        <v>12898682</v>
       </c>
       <c r="F6" t="n">
-        <v>327.5118223262791</v>
+        <v>223.3627602899001</v>
       </c>
       <c r="G6" t="n">
-        <v>372.6754307626591</v>
+        <v>524.2194907302858</v>
       </c>
       <c r="H6" t="n">
         <v>0.62</v>
       </c>
       <c r="I6" t="n">
-        <v>17641.3</v>
+        <v>18498.51</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>480240719</v>
+        <v>476587445</v>
       </c>
       <c r="E7" t="n">
-        <v>480240719</v>
+        <v>476587448</v>
       </c>
       <c r="F7" t="n">
-        <v>40628.68727846313</v>
+        <v>37872.3391276046</v>
       </c>
       <c r="G7" t="n">
-        <v>49657.48507173105</v>
+        <v>53223.652219433</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>71961732</v>
+        <v>72542910</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4682947</v>
+        <v>4706559</v>
       </c>
       <c r="E8" t="n">
-        <v>4682947</v>
+        <v>4706559</v>
       </c>
       <c r="F8" t="n">
-        <v>768.7297602500175</v>
+        <v>770.3934524249968</v>
       </c>
       <c r="G8" t="n">
-        <v>1532.880160662447</v>
+        <v>1225.621894534154</v>
       </c>
       <c r="H8" t="n">
-        <v>0.47</v>
+        <v>0.51</v>
       </c>
       <c r="I8" t="n">
-        <v>2002460</v>
+        <v>1927271</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1721455</v>
+        <v>1726667</v>
       </c>
       <c r="F9" t="n">
-        <v>993.940665467452</v>
+        <v>6887.754685913429</v>
       </c>
       <c r="G9" t="n">
-        <v>1770.868476126904</v>
+        <v>3448.287978354462</v>
       </c>
       <c r="H9" t="n">
-        <v>0.74</v>
+        <v>0.25</v>
       </c>
       <c r="I9" t="n">
-        <v>143977</v>
+        <v>146538</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1521487</v>
+        <v>1522092</v>
       </c>
       <c r="F10" t="n">
-        <v>259.9009271840704</v>
+        <v>391.28954877245</v>
       </c>
       <c r="G10" t="n">
-        <v>1306.29171116074</v>
+        <v>830.8932628705219</v>
       </c>
       <c r="H10" t="n">
         <v>0.2</v>
       </c>
       <c r="I10" t="n">
-        <v>268656</v>
+        <v>276312</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>113587579</v>
+        <v>113563497</v>
       </c>
       <c r="E11" t="n">
-        <v>213985535</v>
+        <v>213940166</v>
       </c>
       <c r="F11" t="n">
-        <v>1627.859837012801</v>
+        <v>1771.846596873401</v>
       </c>
       <c r="G11" t="n">
-        <v>1300.09923115882</v>
+        <v>1308.337063793462</v>
       </c>
       <c r="H11" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="I11" t="n">
-        <v>4420607</v>
+        <v>4409043</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12802279</v>
+        <v>12785886</v>
       </c>
       <c r="E12" t="n">
-        <v>31862556</v>
+        <v>31821758</v>
       </c>
       <c r="F12" t="n">
-        <v>2052.0846024804</v>
+        <v>2038.733357732778</v>
       </c>
       <c r="G12" t="n">
-        <v>912.3816222527475</v>
+        <v>957.0820988410268</v>
       </c>
       <c r="H12" t="n">
         <v>0.75</v>
       </c>
       <c r="I12" t="n">
-        <v>1403868</v>
+        <v>1288061</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>112713924</v>
+        <v>111982823</v>
       </c>
       <c r="E13" t="n">
-        <v>438568260</v>
+        <v>435698439</v>
       </c>
       <c r="F13" t="n">
-        <v>25810.68129872568</v>
+        <v>25597.77564105927</v>
       </c>
       <c r="G13" t="n">
-        <v>33320.45403907341</v>
+        <v>36214.85872967374</v>
       </c>
       <c r="H13" t="n">
-        <v>0.3</v>
+        <v>0.28</v>
       </c>
       <c r="I13" t="n">
-        <v>8524104</v>
+        <v>8468903</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5178925</v>
+        <v>5127895</v>
       </c>
       <c r="E14" t="n">
-        <v>7623658</v>
+        <v>7548540</v>
       </c>
       <c r="F14" t="n">
-        <v>390.9688463108456</v>
+        <v>334.2372021991449</v>
       </c>
       <c r="G14" t="n">
-        <v>651.1826950593243</v>
+        <v>502.8021060984457</v>
       </c>
       <c r="H14" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="I14" t="n">
-        <v>634519</v>
+        <v>594367</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>138806916</v>
+        <v>138711045</v>
       </c>
       <c r="E15" t="n">
-        <v>138806916</v>
+        <v>138711045</v>
       </c>
       <c r="F15" t="n">
-        <v>51182.18279032611</v>
+        <v>48329.38081630173</v>
       </c>
       <c r="G15" t="n">
-        <v>72318.90792707424</v>
+        <v>84865.25032976373</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>65244534</v>
+        <v>66015538</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65499001</v>
+        <v>65609250</v>
       </c>
       <c r="E16" t="n">
-        <v>335892315</v>
+        <v>336457695</v>
       </c>
       <c r="F16" t="n">
-        <v>11494.21386195112</v>
+        <v>16397.45575472623</v>
       </c>
       <c r="G16" t="n">
-        <v>37588.98505325733</v>
+        <v>29432.55801707247</v>
       </c>
       <c r="H16" t="n">
-        <v>0.19</v>
+        <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>21666920</v>
+        <v>21704151</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>253972952</v>
+        <v>255344315</v>
       </c>
       <c r="E17" t="n">
-        <v>253972952</v>
+        <v>255344315</v>
       </c>
       <c r="F17" t="n">
-        <v>56556.60671699673</v>
+        <v>64169.73481342973</v>
       </c>
       <c r="G17" t="n">
-        <v>56506.50466592963</v>
+        <v>45919.12328827942</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>14554205</v>
+        <v>14544013</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2553152</v>
+        <v>2556258</v>
       </c>
       <c r="E18" t="n">
-        <v>6527354</v>
+        <v>6535296</v>
       </c>
       <c r="F18" t="n">
-        <v>876.527540119621</v>
+        <v>993.335166504609</v>
       </c>
       <c r="G18" t="n">
-        <v>1450.978535327435</v>
+        <v>970.011325484337</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>112780</v>
+        <v>112671</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>78443795</v>
+        <v>78625152</v>
       </c>
       <c r="E19" t="n">
-        <v>219508529</v>
+        <v>220006484</v>
       </c>
       <c r="F19" t="n">
-        <v>14012.40665479115</v>
+        <v>21361.72843253801</v>
       </c>
       <c r="G19" t="n">
-        <v>26854.21906886929</v>
+        <v>26612.15026238345</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I19" t="n">
-        <v>34440277</v>
+        <v>34109653</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1581877</v>
+        <v>1589604</v>
       </c>
       <c r="E20" t="n">
-        <v>9082546</v>
+        <v>9126911</v>
       </c>
       <c r="F20" t="n">
-        <v>279.8011243582767</v>
+        <v>113.2944339535119</v>
       </c>
       <c r="G20" t="n">
-        <v>833.3991107655139</v>
+        <v>680.8626396844895</v>
       </c>
       <c r="H20" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="I20" t="n">
-        <v>295368</v>
+        <v>295025</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>173940</v>
+        <v>167308</v>
       </c>
       <c r="E21" t="n">
-        <v>1174638</v>
+        <v>1129850</v>
       </c>
       <c r="F21" t="n">
-        <v>22.53464944872916</v>
+        <v>119.8597693495464</v>
       </c>
       <c r="G21" t="n">
-        <v>5.806700350749153</v>
+        <v>8.6222513489836</v>
       </c>
       <c r="H21" t="n">
-        <v>1.27</v>
+        <v>0.43</v>
       </c>
       <c r="I21" t="n">
-        <v>2780211</v>
+        <v>2780068</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>271983</v>
+        <v>269087</v>
       </c>
       <c r="F22" t="n">
-        <v>177.0042694082402</v>
+        <v>57.6660151507349</v>
       </c>
       <c r="G22" t="n">
-        <v>85.79190672130973</v>
+        <v>85.63427054596345</v>
       </c>
       <c r="H22" t="n">
-        <v>3.28</v>
+        <v>1.67</v>
       </c>
       <c r="I22" t="n">
-        <v>1691.81</v>
+        <v>1799.31</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75336555</v>
+        <v>75946500</v>
       </c>
       <c r="E23" t="n">
-        <v>157114975</v>
+        <v>158387019</v>
       </c>
       <c r="F23" t="n">
-        <v>38887.8247511686</v>
+        <v>33610.45101961663</v>
       </c>
       <c r="G23" t="n">
-        <v>44348.91769326862</v>
+        <v>41796.59156523615</v>
       </c>
       <c r="H23" t="n">
         <v>0.23</v>
       </c>
       <c r="I23" t="n">
-        <v>15808269</v>
+        <v>16257949</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>202651650</v>
+        <v>202643466</v>
       </c>
       <c r="E24" t="n">
-        <v>704030147</v>
+        <v>704001715</v>
       </c>
       <c r="F24" t="n">
-        <v>59241.36846313204</v>
+        <v>60656.23438408622</v>
       </c>
       <c r="G24" t="n">
-        <v>54338.5191537752</v>
+        <v>60236.19326775967</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>27689878</v>
+        <v>28175020</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>115776149</v>
+        <v>116257038</v>
       </c>
       <c r="E25" t="n">
-        <v>491974404</v>
+        <v>493966205</v>
       </c>
       <c r="F25" t="n">
-        <v>18232.09218480725</v>
+        <v>14334.26391406823</v>
       </c>
       <c r="G25" t="n">
-        <v>16838.37713215641</v>
+        <v>18564.689189802</v>
       </c>
       <c r="H25" t="n">
-        <v>0.32</v>
+        <v>0.34</v>
       </c>
       <c r="I25" t="n">
-        <v>14714355</v>
+        <v>14980100</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5650201</v>
+        <v>5632496</v>
       </c>
       <c r="E26" t="n">
-        <v>7676116</v>
+        <v>7652063</v>
       </c>
       <c r="F26" t="n">
-        <v>295.790425113135</v>
+        <v>946.1869167836089</v>
       </c>
       <c r="G26" t="n">
-        <v>1986.279922148297</v>
+        <v>707.872010696516</v>
       </c>
       <c r="H26" t="n">
         <v>0.7</v>
       </c>
       <c r="I26" t="n">
-        <v>5823609</v>
+        <v>5793822</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>575467</v>
+        <v>557093</v>
       </c>
       <c r="E27" t="n">
-        <v>6979852</v>
+        <v>6756998</v>
       </c>
       <c r="F27" t="n">
-        <v>90.5043672522761</v>
+        <v>621.4341538502051</v>
       </c>
       <c r="G27" t="n">
-        <v>614.4973914111138</v>
+        <v>489.7207677701238</v>
       </c>
       <c r="H27" t="n">
-        <v>0.89</v>
+        <v>0.48</v>
       </c>
       <c r="I27" t="n">
-        <v>2840112</v>
+        <v>2879246</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25823676</v>
+        <v>25916910</v>
       </c>
       <c r="E28" t="n">
-        <v>36500758</v>
+        <v>36632541</v>
       </c>
       <c r="F28" t="n">
-        <v>1.740466523796366</v>
+        <v>1.740571551626859</v>
       </c>
       <c r="G28" t="n">
-        <v>354.0612910762706</v>
+        <v>2119.755232232043</v>
       </c>
       <c r="H28" t="n">
-        <v>2.54</v>
+        <v>2.31</v>
       </c>
       <c r="I28" t="n">
-        <v>64629</v>
+        <v>66727</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1310188718</v>
+        <v>1301520631</v>
       </c>
       <c r="E29" t="n">
-        <v>6282623224</v>
+        <v>6241057970</v>
       </c>
       <c r="F29" t="n">
-        <v>187961.011621098</v>
+        <v>180498.7219951514</v>
       </c>
       <c r="G29" t="n">
-        <v>238850.4446800727</v>
+        <v>241247.5863173918</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>165008641</v>
+        <v>165744974</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>270909174</v>
+        <v>271485250</v>
       </c>
       <c r="E30" t="n">
-        <v>1169394388</v>
+        <v>1171881051</v>
       </c>
       <c r="F30" t="n">
-        <v>305624.6459430883</v>
+        <v>300304.1363306788</v>
       </c>
       <c r="G30" t="n">
-        <v>230612.306310715</v>
+        <v>220494.3396297727</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="I30" t="n">
-        <v>99328900</v>
+        <v>98688510</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5358271</v>
+        <v>5358669</v>
       </c>
       <c r="E31" t="n">
-        <v>5364335</v>
+        <v>5364733</v>
       </c>
       <c r="F31" t="n">
-        <v>106.4869569474553</v>
+        <v>106.4933828648235</v>
       </c>
       <c r="G31" t="n">
-        <v>168.8160002788102</v>
+        <v>172.3774535243503</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>148589</v>
+        <v>148459</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19796275</v>
+        <v>19754206</v>
       </c>
       <c r="E32" t="n">
-        <v>49490687</v>
+        <v>49385514</v>
       </c>
       <c r="F32" t="n">
-        <v>2887.560139542647</v>
+        <v>3626.320505878327</v>
       </c>
       <c r="G32" t="n">
-        <v>4940.779220688518</v>
+        <v>4682.37187327635</v>
       </c>
       <c r="H32" t="n">
-        <v>0.63</v>
+        <v>0.57</v>
       </c>
       <c r="I32" t="n">
-        <v>1896655</v>
+        <v>2039727</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19885435</v>
+        <v>19885244</v>
       </c>
       <c r="F33" t="n">
-        <v>946.2204312870718</v>
+        <v>1072.098473273229</v>
       </c>
       <c r="G33" t="n">
-        <v>1459.05671104966</v>
+        <v>1439.134968304727</v>
       </c>
       <c r="H33" t="n">
         <v>0.5</v>
       </c>
       <c r="I33" t="n">
-        <v>91657</v>
+        <v>69731</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4094525</v>
+        <v>4215388</v>
       </c>
       <c r="E34" t="n">
-        <v>11794178</v>
+        <v>12142322</v>
       </c>
       <c r="F34" t="n">
-        <v>319.8164132805784</v>
+        <v>277.8947391398455</v>
       </c>
       <c r="G34" t="n">
-        <v>1472.794474646948</v>
+        <v>966.5002567733102</v>
       </c>
       <c r="H34" t="n">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="I34" t="n">
-        <v>634612</v>
+        <v>651650</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1600098</v>
+        <v>1618488</v>
       </c>
       <c r="F35" t="n">
-        <v>164.3653810386616</v>
+        <v>164.192739470496</v>
       </c>
       <c r="G35" t="n">
-        <v>2121.345063474614</v>
+        <v>17.6296238396272</v>
       </c>
       <c r="H35" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="I35" t="n">
-        <v>15262.96</v>
+        <v>14900.89</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14562048</v>
+        <v>14569407</v>
       </c>
       <c r="E36" t="n">
-        <v>70526325</v>
+        <v>70561963</v>
       </c>
       <c r="F36" t="n">
-        <v>3955.301065275557</v>
+        <v>5213.974167826756</v>
       </c>
       <c r="G36" t="n">
-        <v>6111.074440800169</v>
+        <v>7020.514573746331</v>
       </c>
       <c r="H36" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I36" t="n">
-        <v>3714090</v>
+        <v>3705763</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1420944</v>
+        <v>1463014</v>
       </c>
       <c r="E37" t="n">
-        <v>9300043</v>
+        <v>9575387</v>
       </c>
       <c r="F37" t="n">
-        <v>31.26044207628806</v>
+        <v>530.5205702196648</v>
       </c>
       <c r="G37" t="n">
-        <v>127.4386981717331</v>
+        <v>8.913434442452925</v>
       </c>
       <c r="H37" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="I37" t="n">
-        <v>546693</v>
+        <v>603811</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1929084890</v>
+        <v>1928027356</v>
       </c>
       <c r="F38" t="n">
-        <v>66449.60391765214</v>
+        <v>73892.42981334093</v>
       </c>
       <c r="G38" t="n">
-        <v>73601.22747089146</v>
+        <v>73142.45436500777</v>
       </c>
       <c r="H38" t="n">
-        <v>0.47</v>
+        <v>0.73</v>
       </c>
       <c r="I38" t="n">
-        <v>27260889</v>
+        <v>27846171</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31639793</v>
+        <v>31979942</v>
       </c>
       <c r="E39" t="n">
-        <v>98516163</v>
+        <v>99575279</v>
       </c>
       <c r="F39" t="n">
-        <v>4288.816752521265</v>
+        <v>4514.630883989815</v>
       </c>
       <c r="G39" t="n">
-        <v>7204.181701212123</v>
+        <v>9618.562217978237</v>
       </c>
       <c r="H39" t="n">
-        <v>0.32</v>
+        <v>0.13</v>
       </c>
       <c r="I39" t="n">
-        <v>11641502</v>
+        <v>11584631</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>200649999</v>
+        <v>201431334</v>
       </c>
       <c r="E40" t="n">
-        <v>1136203584</v>
+        <v>1140627984</v>
       </c>
       <c r="F40" t="n">
-        <v>45118.27200187592</v>
+        <v>45447.33343995489</v>
       </c>
       <c r="G40" t="n">
-        <v>80046.03373402137</v>
+        <v>79346.91944089292</v>
       </c>
       <c r="H40" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I40" t="n">
-        <v>62549981</v>
+        <v>63268366</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>140179169</v>
+        <v>141460218</v>
       </c>
       <c r="E41" t="n">
-        <v>1038364212</v>
+        <v>1047853463</v>
       </c>
       <c r="F41" t="n">
-        <v>112525.7888593558</v>
+        <v>151693.7349661436</v>
       </c>
       <c r="G41" t="n">
-        <v>166845.5833832388</v>
+        <v>226120.4924594652</v>
       </c>
       <c r="H41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I41" t="n">
-        <v>9922474</v>
+        <v>9642013</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32305398</v>
+        <v>32287276</v>
       </c>
       <c r="E42" t="n">
-        <v>153473942</v>
+        <v>153385254</v>
       </c>
       <c r="F42" t="n">
-        <v>11612.2891465256</v>
+        <v>7808.893580106484</v>
       </c>
       <c r="G42" t="n">
-        <v>5113.461394888046</v>
+        <v>4973.51294056862</v>
       </c>
       <c r="H42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="I42" t="n">
-        <v>1141882</v>
+        <v>1143569</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3412496</v>
+        <v>3386289</v>
       </c>
       <c r="E43" t="n">
-        <v>7968747</v>
+        <v>7907548</v>
       </c>
       <c r="F43" t="n">
-        <v>1296.96882444082</v>
+        <v>1077.33667319142</v>
       </c>
       <c r="G43" t="n">
-        <v>1284.524996915604</v>
+        <v>1539.924461902785</v>
       </c>
       <c r="H43" t="n">
-        <v>1.06</v>
+        <v>0.8</v>
       </c>
       <c r="I43" t="n">
-        <v>684953</v>
+        <v>656338</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>338714074</v>
+        <v>339893653</v>
       </c>
       <c r="E44" t="n">
-        <v>3047281837</v>
+        <v>3057894066</v>
       </c>
       <c r="F44" t="n">
-        <v>43654.65695578947</v>
+        <v>48788.69017805687</v>
       </c>
       <c r="G44" t="n">
-        <v>42799.70115838292</v>
+        <v>50115.0454752701</v>
       </c>
       <c r="H44" t="n">
         <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>38328784</v>
+        <v>38275739</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>656326</v>
+        <v>653653</v>
       </c>
       <c r="F45" t="n">
-        <v>470.4531464514625</v>
+        <v>472.1750893677605</v>
       </c>
       <c r="G45" t="n">
-        <v>285.6012646042212</v>
+        <v>244.1993870666575</v>
       </c>
       <c r="H45" t="n">
         <v>0.95</v>
       </c>
       <c r="I45" t="n">
-        <v>3263.56</v>
+        <v>3346.84</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1581862</v>
+        <v>1583091</v>
       </c>
       <c r="E46" t="n">
-        <v>13182181</v>
+        <v>13192429</v>
       </c>
       <c r="F46" t="n">
-        <v>210.7394840638588</v>
+        <v>256.1594535715335</v>
       </c>
       <c r="G46" t="n">
-        <v>1537.190850905603</v>
+        <v>1073.455372875784</v>
       </c>
       <c r="H46" t="n">
-        <v>0.53</v>
+        <v>0.76</v>
       </c>
       <c r="I46" t="n">
-        <v>42243</v>
+        <v>39721</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4916679</v>
+        <v>4904682</v>
       </c>
       <c r="E47" t="n">
-        <v>17372915</v>
+        <v>17330523</v>
       </c>
       <c r="F47" t="n">
-        <v>808.5484178018204</v>
+        <v>741.1085427728389</v>
       </c>
       <c r="G47" t="n">
-        <v>1708.529046546189</v>
+        <v>1554.346489788679</v>
       </c>
       <c r="H47" t="n">
         <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>87293</v>
+        <v>86944</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>48943257</v>
+        <v>49166367</v>
       </c>
       <c r="E48" t="n">
-        <v>283361233</v>
+        <v>284652948</v>
       </c>
       <c r="F48" t="n">
-        <v>13515.25510356805</v>
+        <v>22137.90720153381</v>
       </c>
       <c r="G48" t="n">
-        <v>14935.32094467641</v>
+        <v>14843.98874337648</v>
       </c>
       <c r="H48" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="I48" t="n">
-        <v>27418046</v>
+        <v>28065894</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2258140</v>
+        <v>2258631</v>
       </c>
       <c r="E49" t="n">
-        <v>12406608</v>
+        <v>12409306</v>
       </c>
       <c r="F49" t="n">
-        <v>218.3421003393761</v>
+        <v>152.3245911331111</v>
       </c>
       <c r="G49" t="n">
-        <v>1846.577318812345</v>
+        <v>2221.417071513679</v>
       </c>
       <c r="H49" t="n">
         <v>2.36</v>
       </c>
       <c r="I49" t="n">
-        <v>123590</v>
+        <v>81697</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13445963</v>
+        <v>13494251</v>
       </c>
       <c r="E50" t="n">
-        <v>13491721</v>
+        <v>13540173</v>
       </c>
       <c r="F50" t="n">
-        <v>4496.872204602619</v>
+        <v>5058.062178356833</v>
       </c>
       <c r="G50" t="n">
-        <v>9340.295518726898</v>
+        <v>5360.216261710359</v>
       </c>
       <c r="H50" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5851164</v>
+        <v>5914325</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22897854</v>
+        <v>22527339</v>
       </c>
       <c r="E51" t="n">
-        <v>68637238</v>
+        <v>67526603</v>
       </c>
       <c r="F51" t="n">
-        <v>26397.47866504671</v>
+        <v>11791.15315494583</v>
       </c>
       <c r="G51" t="n">
-        <v>24707.5795573612</v>
+        <v>25179.19785760871</v>
       </c>
       <c r="H51" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="I51" t="n">
-        <v>3128388</v>
+        <v>3263058</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15621480</v>
+        <v>15685989</v>
       </c>
       <c r="E52" t="n">
-        <v>95749188</v>
+        <v>96144582</v>
       </c>
       <c r="F52" t="n">
-        <v>6330.844315680529</v>
+        <v>6683.91674839547</v>
       </c>
       <c r="G52" t="n">
-        <v>9575.714922252522</v>
+        <v>10440.81396204483</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I52" t="n">
-        <v>10968025</v>
+        <v>10862525</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47370131</v>
+        <v>47353997</v>
       </c>
       <c r="E53" t="n">
-        <v>204065346</v>
+        <v>203995840</v>
       </c>
       <c r="F53" t="n">
-        <v>22261.44739353779</v>
+        <v>22731.78385228938</v>
       </c>
       <c r="G53" t="n">
-        <v>26432.22998153873</v>
+        <v>23170.84491781171</v>
       </c>
       <c r="H53" t="n">
         <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>8976997</v>
+        <v>8912212</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1037491</v>
+        <v>1041051</v>
       </c>
       <c r="E54" t="n">
-        <v>3032406</v>
+        <v>3042810</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8879482478426237</v>
+        <v>0.2960279356632732</v>
       </c>
       <c r="G54" t="n">
-        <v>111.544479664137</v>
+        <v>509.2175585973436</v>
       </c>
       <c r="H54" t="n">
-        <v>1.28</v>
+        <v>2.56</v>
       </c>
       <c r="I54" t="n">
-        <v>20022</v>
+        <v>19829.11</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>38196868</v>
+        <v>38264192</v>
       </c>
       <c r="E55" t="n">
-        <v>96314164</v>
+        <v>96483923</v>
       </c>
       <c r="F55" t="n">
-        <v>11997.60649607989</v>
+        <v>16536.46520925447</v>
       </c>
       <c r="G55" t="n">
-        <v>10141.31790059222</v>
+        <v>11205.59532992403</v>
       </c>
       <c r="H55" t="n">
         <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>3451106</v>
+        <v>3412826</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28188113</v>
+        <v>28168884</v>
       </c>
       <c r="E56" t="n">
-        <v>66967947</v>
+        <v>66922265</v>
       </c>
       <c r="F56" t="n">
-        <v>10567.71331352331</v>
+        <v>10231.44511782195</v>
       </c>
       <c r="G56" t="n">
-        <v>5429.197119582401</v>
+        <v>9272.697802767896</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>504200</v>
+        <v>458646</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12770817</v>
+        <v>12750614</v>
       </c>
       <c r="E57" t="n">
-        <v>19440063</v>
+        <v>19409310</v>
       </c>
       <c r="F57" t="n">
-        <v>665.5995420003721</v>
+        <v>1233.263817576306</v>
       </c>
       <c r="G57" t="n">
-        <v>1279.059915154561</v>
+        <v>1151.324091025071</v>
       </c>
       <c r="H57" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="I57" t="n">
-        <v>776685</v>
+        <v>769511</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>315186046</v>
+        <v>314282828</v>
       </c>
       <c r="E58" t="n">
-        <v>315186046</v>
+        <v>314282828</v>
       </c>
       <c r="F58" t="n">
-        <v>62790.85540444287</v>
+        <v>67581.96949225434</v>
       </c>
       <c r="G58" t="n">
-        <v>84505.05108305014</v>
+        <v>74708.82832013111</v>
       </c>
       <c r="H58" t="n">
         <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>51181837</v>
+        <v>51608533</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11654459</v>
+        <v>11618657</v>
       </c>
       <c r="F59" t="n">
-        <v>288.8059336042297</v>
+        <v>312.7240087035761</v>
       </c>
       <c r="G59" t="n">
-        <v>303.6120682312263</v>
+        <v>157.957643213532</v>
       </c>
       <c r="H59" t="n">
         <v>1.21</v>
       </c>
       <c r="I59" t="n">
-        <v>98697</v>
+        <v>97711</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>90253131</v>
+        <v>90640805</v>
       </c>
       <c r="E60" t="n">
-        <v>520077470</v>
+        <v>522311416</v>
       </c>
       <c r="F60" t="n">
-        <v>75108.24629109135</v>
+        <v>91032.33712816953</v>
       </c>
       <c r="G60" t="n">
-        <v>103743.1097340511</v>
+        <v>102794.2976553426</v>
       </c>
       <c r="H60" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I60" t="n">
-        <v>16467100</v>
+        <v>16570774</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9284493</v>
+        <v>9287187</v>
       </c>
       <c r="E61" t="n">
-        <v>9284493</v>
+        <v>9287187</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.11</v>
+        <v>5.06</v>
       </c>
       <c r="I61" t="n">
-        <v>2090144</v>
+        <v>2093344</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30405488</v>
+        <v>30936291</v>
       </c>
       <c r="E62" t="n">
-        <v>136137845</v>
+        <v>138514466</v>
       </c>
       <c r="F62" t="n">
-        <v>26886.86769298782</v>
+        <v>17321.39617498911</v>
       </c>
       <c r="G62" t="n">
-        <v>18177.43681714065</v>
+        <v>21506.92701401614</v>
       </c>
       <c r="H62" t="n">
         <v>0.72</v>
       </c>
       <c r="I62" t="n">
-        <v>8458567</v>
+        <v>8798155</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13046766</v>
+        <v>13028866</v>
       </c>
       <c r="E63" t="n">
-        <v>26082140</v>
+        <v>26046356</v>
       </c>
       <c r="F63" t="n">
-        <v>2783.324674410422</v>
+        <v>2815.709108496269</v>
       </c>
       <c r="G63" t="n">
-        <v>2169.207648345361</v>
+        <v>2139.886722323983</v>
       </c>
       <c r="H63" t="n">
-        <v>0.44</v>
+        <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>34225</v>
+        <v>33747</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1485700</v>
+        <v>1463324</v>
       </c>
       <c r="F64" t="n">
-        <v>1.060042044664074</v>
+        <v>1.060049840208323</v>
       </c>
       <c r="G64" t="n">
-        <v>184.2284440544653</v>
+        <v>183.4845613474658</v>
       </c>
       <c r="H64" t="n">
-        <v>1.63</v>
+        <v>2.17</v>
       </c>
       <c r="I64" t="n">
-        <v>25031</v>
+        <v>54544</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>49347822</v>
+        <v>49854857</v>
       </c>
       <c r="E65" t="n">
-        <v>320007494</v>
+        <v>323295478</v>
       </c>
       <c r="F65" t="n">
-        <v>20757.41977850982</v>
+        <v>22684.41353001773</v>
       </c>
       <c r="G65" t="n">
-        <v>20230.18244649086</v>
+        <v>20971.53967231972</v>
       </c>
       <c r="H65" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="I65" t="n">
-        <v>16599641</v>
+        <v>16720536</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4782306</v>
+        <v>4789695</v>
       </c>
       <c r="F66" t="n">
-        <v>1272.434761051833</v>
+        <v>1075.452437200964</v>
       </c>
       <c r="G66" t="n">
-        <v>1434.375095354457</v>
+        <v>1105.31089877758</v>
       </c>
       <c r="H66" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>182908</v>
+        <v>183139</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125301070</v>
+        <v>125371236</v>
       </c>
       <c r="E67" t="n">
-        <v>2075088342</v>
+        <v>2076250343</v>
       </c>
       <c r="F67" t="n">
-        <v>21434.60081953538</v>
+        <v>22314.60852711837</v>
       </c>
       <c r="G67" t="n">
-        <v>23475.13062817778</v>
+        <v>25586.73161420082</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I67" t="n">
-        <v>4848349</v>
+        <v>4914467</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24487208</v>
+        <v>24592810</v>
       </c>
       <c r="E68" t="n">
-        <v>146511890</v>
+        <v>147143725</v>
       </c>
       <c r="F68" t="n">
-        <v>44072.04678716833</v>
+        <v>4013.49699738563</v>
       </c>
       <c r="G68" t="n">
-        <v>44811.37842032469</v>
+        <v>6850.755194591956</v>
       </c>
       <c r="H68" t="n">
         <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>12034148</v>
+        <v>12387583</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23115866</v>
+        <v>22983598</v>
       </c>
       <c r="E70" t="n">
-        <v>23115866</v>
+        <v>22983598</v>
       </c>
       <c r="F70" t="n">
-        <v>16395.51617841008</v>
+        <v>16231.29903682342</v>
       </c>
       <c r="G70" t="n">
-        <v>3177.425108691832</v>
+        <v>2525.166984766765</v>
       </c>
       <c r="H70" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="I70" t="n">
-        <v>2082298</v>
+        <v>2110142</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35062237</v>
+        <v>35120573</v>
       </c>
       <c r="E71" t="n">
-        <v>174976727</v>
+        <v>175267851</v>
       </c>
       <c r="F71" t="n">
-        <v>18638.13751998137</v>
+        <v>17011.69176902542</v>
       </c>
       <c r="G71" t="n">
-        <v>48026.81406104327</v>
+        <v>37056.77869718722</v>
       </c>
       <c r="H71" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="I71" t="n">
-        <v>10331357</v>
+        <v>10406461</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>178004</v>
+        <v>178213</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>5.56</v>
+        <v>5.26</v>
       </c>
       <c r="I72" t="n">
-        <v>11661</v>
+        <v>12958.7</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>317231907</v>
+        <v>316251386</v>
       </c>
       <c r="E73" t="n">
-        <v>586951373</v>
+        <v>585137184</v>
       </c>
       <c r="F73" t="n">
-        <v>52919.35054014369</v>
+        <v>55218.94956517788</v>
       </c>
       <c r="G73" t="n">
-        <v>64065.42642218733</v>
+        <v>62871.7476006791</v>
       </c>
       <c r="H73" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I73" t="n">
-        <v>13346523</v>
+        <v>13462405</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10875960</v>
+        <v>11238858</v>
       </c>
       <c r="E74" t="n">
-        <v>32269693</v>
+        <v>33346437</v>
       </c>
       <c r="F74" t="n">
-        <v>1273.172100074765</v>
+        <v>2070.809581866221</v>
       </c>
       <c r="G74" t="n">
-        <v>5827.872638529047</v>
+        <v>2564.090048499959</v>
       </c>
       <c r="H74" t="n">
-        <v>0.84</v>
+        <v>0.3</v>
       </c>
       <c r="I74" t="n">
-        <v>6360560</v>
+        <v>6863813</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8437947</v>
+        <v>8432218</v>
       </c>
       <c r="E75" t="n">
-        <v>12022141</v>
+        <v>12013978</v>
       </c>
       <c r="F75" t="n">
-        <v>4043.491589692048</v>
+        <v>3939.388166168819</v>
       </c>
       <c r="G75" t="n">
-        <v>24.21256627101641</v>
+        <v>218.7091512160973</v>
       </c>
       <c r="H75" t="n">
-        <v>0.58</v>
+        <v>0.91</v>
       </c>
       <c r="I75" t="n">
-        <v>434814</v>
+        <v>432083</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16353221</v>
+        <v>16303852</v>
       </c>
       <c r="F76" t="n">
-        <v>164.0337858043743</v>
+        <v>164.7738288989806</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6071127511335527</v>
+        <v>0.6071493871355924</v>
       </c>
       <c r="H76" t="n">
         <v>0.99</v>
       </c>
       <c r="I76" t="n">
-        <v>985675</v>
+        <v>985512</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>62459964</v>
+        <v>62562933</v>
       </c>
       <c r="E77" t="n">
-        <v>103333732</v>
+        <v>103504084</v>
       </c>
       <c r="F77" t="n">
-        <v>10481.17938068404</v>
+        <v>11233.57606680313</v>
       </c>
       <c r="G77" t="n">
-        <v>18523.01780735404</v>
+        <v>18966.50489404726</v>
       </c>
       <c r="H77" t="n">
-        <v>0.12</v>
+        <v>0.27</v>
       </c>
       <c r="I77" t="n">
-        <v>6609996</v>
+        <v>6627776</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5595449</v>
+        <v>5604387</v>
       </c>
       <c r="E78" t="n">
-        <v>5595449</v>
+        <v>5604387</v>
       </c>
       <c r="F78" t="n">
-        <v>367.9426364333462</v>
+        <v>324.5954546937419</v>
       </c>
       <c r="G78" t="n">
-        <v>709.8727330090998</v>
+        <v>709.4045688712388</v>
       </c>
       <c r="H78" t="n">
         <v>2.5</v>
       </c>
       <c r="I78" t="n">
-        <v>1120806</v>
+        <v>1124629</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58910</v>
+        <v>60607</v>
       </c>
       <c r="E79" t="n">
-        <v>307369</v>
+        <v>316224</v>
       </c>
       <c r="F79" t="n">
-        <v>15.42754389722672</v>
+        <v>17.33150282563247</v>
       </c>
       <c r="G79" t="n">
-        <v>38.47338907971309</v>
+        <v>6.471396033249807</v>
       </c>
       <c r="H79" t="n">
-        <v>0.83</v>
+        <v>1.43</v>
       </c>
       <c r="I79" t="n">
-        <v>277665</v>
+        <v>290085</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>25746619</v>
+        <v>26206281</v>
       </c>
       <c r="F80" t="n">
-        <v>546.103537485321</v>
+        <v>361.7418191157059</v>
       </c>
       <c r="G80" t="n">
-        <v>1951.5811506228</v>
+        <v>1931.121145479785</v>
       </c>
       <c r="H80" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="I80" t="n">
-        <v>62713</v>
+        <v>63557</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>606389286</v>
+        <v>608577038</v>
       </c>
       <c r="E81" t="n">
-        <v>2348456237</v>
+        <v>2356929081</v>
       </c>
       <c r="F81" t="n">
-        <v>181580.06307135</v>
+        <v>181120.2231835712</v>
       </c>
       <c r="G81" t="n">
-        <v>296525.4536324948</v>
+        <v>180522.0575609001</v>
       </c>
       <c r="H81" t="n">
         <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>32898268</v>
+        <v>32717615</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7540581</v>
+        <v>7401473</v>
       </c>
       <c r="E82" t="n">
-        <v>10804393</v>
+        <v>10605056</v>
       </c>
       <c r="F82" t="n">
-        <v>1146.449137012825</v>
+        <v>921.86625584209</v>
       </c>
       <c r="G82" t="n">
-        <v>456.7204311839275</v>
+        <v>2983.926707240349</v>
       </c>
       <c r="H82" t="n">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="I82" t="n">
-        <v>200873</v>
+        <v>199774</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>122861762</v>
+        <v>122383721</v>
       </c>
       <c r="E83" t="n">
-        <v>1068207506</v>
+        <v>1064051234</v>
       </c>
       <c r="F83" t="n">
-        <v>41629.18110687986</v>
+        <v>41332.55091878047</v>
       </c>
       <c r="G83" t="n">
-        <v>45926.86276578878</v>
+        <v>43776.48577339094</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>9108307</v>
+        <v>9258641</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1100428</v>
+        <v>1114799</v>
       </c>
       <c r="E84" t="n">
-        <v>4261099</v>
+        <v>4316744</v>
       </c>
       <c r="F84" t="n">
-        <v>1406.968461641033</v>
+        <v>2191.157393515008</v>
       </c>
       <c r="G84" t="n">
-        <v>2601.042933714178</v>
+        <v>1041.715691905857</v>
       </c>
       <c r="H84" t="n">
-        <v>0.93</v>
+        <v>0.23</v>
       </c>
       <c r="I84" t="n">
-        <v>369043</v>
+        <v>380714</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>118364103</v>
+        <v>120149947</v>
       </c>
       <c r="E85" t="n">
-        <v>454063750</v>
+        <v>460914537</v>
       </c>
       <c r="F85" t="n">
-        <v>56918.64434377996</v>
+        <v>80727.36955334537</v>
       </c>
       <c r="G85" t="n">
-        <v>80963.3728952836</v>
+        <v>85386.15819824731</v>
       </c>
       <c r="H85" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I85" t="n">
-        <v>30995660</v>
+        <v>31345515</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5114618</v>
+        <v>5144992</v>
       </c>
       <c r="E86" t="n">
-        <v>19045789</v>
+        <v>19158895</v>
       </c>
       <c r="F86" t="n">
-        <v>5611.506761118373</v>
+        <v>5681.020316884611</v>
       </c>
       <c r="G86" t="n">
-        <v>955.2007561634748</v>
+        <v>5842.442681950759</v>
       </c>
       <c r="H86" t="n">
-        <v>0.42</v>
+        <v>0.1</v>
       </c>
       <c r="I86" t="n">
-        <v>59032</v>
+        <v>61907</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>32253086</v>
+        <v>31932052</v>
       </c>
       <c r="F87" t="n">
-        <v>4087.935985613754</v>
+        <v>4323.972119915099</v>
       </c>
       <c r="G87" t="n">
-        <v>1761.237884360475</v>
+        <v>3006.406438634059</v>
       </c>
       <c r="H87" t="n">
         <v>0.22</v>
       </c>
       <c r="I87" t="n">
-        <v>5484968</v>
+        <v>5528827</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24745567</v>
+        <v>24772548</v>
       </c>
       <c r="F88" t="n">
-        <v>1219.169116609565</v>
+        <v>1178.04119396884</v>
       </c>
       <c r="G88" t="n">
-        <v>1269.561228594986</v>
+        <v>1393.039175497196</v>
       </c>
       <c r="H88" t="n">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="I88" t="n">
-        <v>17783.45</v>
+        <v>17717.91</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88230223</v>
+        <v>88664970</v>
       </c>
       <c r="E89" t="n">
-        <v>326151112</v>
+        <v>327758933</v>
       </c>
       <c r="F89" t="n">
-        <v>1721.833925569705</v>
+        <v>1694.713036789249</v>
       </c>
       <c r="G89" t="n">
-        <v>2045.734075856031</v>
+        <v>1747.946235468778</v>
       </c>
       <c r="H89" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I89" t="n">
-        <v>260964</v>
+        <v>258711</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20893674</v>
+        <v>21155551</v>
       </c>
       <c r="E90" t="n">
-        <v>20893674</v>
+        <v>21155551</v>
       </c>
       <c r="F90" t="n">
-        <v>5133.332869076532</v>
+        <v>2694.150491207919</v>
       </c>
       <c r="G90" t="n">
-        <v>3893.473078498835</v>
+        <v>4446.453266763903</v>
       </c>
       <c r="H90" t="n">
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
       <c r="I90" t="n">
-        <v>7118291</v>
+        <v>7134197</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3824935</v>
+        <v>3821316</v>
       </c>
       <c r="E91" t="n">
-        <v>8345959</v>
+        <v>8338061</v>
       </c>
       <c r="F91" t="n">
-        <v>1598.008157611075</v>
+        <v>1859.57435860773</v>
       </c>
       <c r="G91" t="n">
-        <v>3540.734591508466</v>
+        <v>3432.13825258901</v>
       </c>
       <c r="H91" t="n">
         <v>0.36</v>
       </c>
       <c r="I91" t="n">
-        <v>1393605</v>
+        <v>1494167</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>493168298</v>
+        <v>496975364</v>
       </c>
       <c r="E92" t="n">
-        <v>1716677803</v>
+        <v>1729929883</v>
       </c>
       <c r="F92" t="n">
-        <v>172042.547800841</v>
+        <v>167293.4946059821</v>
       </c>
       <c r="G92" t="n">
-        <v>178011.8349666417</v>
+        <v>177593.6805827238</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>29219879</v>
+        <v>30461622</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2626774</v>
+        <v>2638051</v>
       </c>
       <c r="E93" t="n">
-        <v>10507095</v>
+        <v>10552204</v>
       </c>
       <c r="F93" t="n">
-        <v>2775.666226751365</v>
+        <v>3013.061434311437</v>
       </c>
       <c r="G93" t="n">
-        <v>2864.391165917936</v>
+        <v>2895.38579024665</v>
       </c>
       <c r="H93" t="n">
-        <v>0.76</v>
+        <v>0.47</v>
       </c>
       <c r="I93" t="n">
-        <v>6894744</v>
+        <v>6919862</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>218775325</v>
+        <v>220208217</v>
       </c>
       <c r="E94" t="n">
-        <v>672651793</v>
+        <v>677057396</v>
       </c>
       <c r="F94" t="n">
-        <v>94142.75286223224</v>
+        <v>104660.000840711</v>
       </c>
       <c r="G94" t="n">
-        <v>92652.8606926427</v>
+        <v>83285.51618681759</v>
       </c>
       <c r="H94" t="n">
         <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>13340702</v>
+        <v>12429472</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>151066090</v>
+        <v>150559844</v>
       </c>
       <c r="E95" t="n">
-        <v>394655969</v>
+        <v>393333417</v>
       </c>
       <c r="F95" t="n">
-        <v>31718.60516990185</v>
+        <v>30113.17472788755</v>
       </c>
       <c r="G95" t="n">
-        <v>32029.34508307035</v>
+        <v>30309.81321609631</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I95" t="n">
-        <v>7021499</v>
+        <v>7255109</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>401338110</v>
+        <v>401496703</v>
       </c>
       <c r="E96" t="n">
-        <v>2293360630</v>
+        <v>2294266877</v>
       </c>
       <c r="F96" t="n">
-        <v>18677.31037496753</v>
+        <v>23463.46357959847</v>
       </c>
       <c r="G96" t="n">
-        <v>46385.78142038322</v>
+        <v>33339.48954207795</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>38241368</v>
+        <v>38354102</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>605513462</v>
+        <v>606479180</v>
       </c>
       <c r="E2" t="n">
-        <v>1174980171</v>
+        <v>1176839564</v>
       </c>
       <c r="F2" t="n">
-        <v>17962.17705373122</v>
+        <v>25494.06581048977</v>
       </c>
       <c r="G2" t="n">
-        <v>32024.67180432519</v>
+        <v>35891.50233113343</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>19583161</v>
+        <v>19403373</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1298377</v>
+        <v>1307011</v>
       </c>
       <c r="E3" t="n">
-        <v>4196887</v>
+        <v>4224796</v>
       </c>
       <c r="F3" t="n">
-        <v>4401.711014017362</v>
+        <v>3116.417316480561</v>
       </c>
       <c r="G3" t="n">
-        <v>6377.79723803125</v>
+        <v>5052.583815842185</v>
       </c>
       <c r="H3" t="n">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="I3" t="n">
-        <v>113004</v>
+        <v>113666</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246345352</v>
+        <v>246465876</v>
       </c>
       <c r="E4" t="n">
-        <v>1544797073</v>
+        <v>1545552866</v>
       </c>
       <c r="F4" t="n">
-        <v>144063.4892660026</v>
+        <v>145765.1534105458</v>
       </c>
       <c r="G4" t="n">
-        <v>140895.6000743807</v>
+        <v>147700.7037857853</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>15981033</v>
+        <v>16844144</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>144853050</v>
+        <v>146458886</v>
       </c>
       <c r="E5" t="n">
-        <v>160519817</v>
+        <v>162299334</v>
       </c>
       <c r="F5" t="n">
-        <v>7609.703132249506</v>
+        <v>5393.258582569812</v>
       </c>
       <c r="G5" t="n">
-        <v>18179.41540667737</v>
+        <v>22116.16568130891</v>
       </c>
       <c r="H5" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="I5" t="n">
-        <v>36747461</v>
+        <v>36876080</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>663951</v>
+        <v>690212</v>
       </c>
       <c r="E6" t="n">
-        <v>12898682</v>
+        <v>13408872</v>
       </c>
       <c r="F6" t="n">
-        <v>223.3627602899001</v>
+        <v>303.0668397137879</v>
       </c>
       <c r="G6" t="n">
-        <v>524.2194907302858</v>
+        <v>316.4657865960749</v>
       </c>
       <c r="H6" t="n">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="I6" t="n">
-        <v>18498.51</v>
+        <v>19607.27</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>476587445</v>
+        <v>472793281</v>
       </c>
       <c r="E7" t="n">
-        <v>476587448</v>
+        <v>472793284</v>
       </c>
       <c r="F7" t="n">
-        <v>37872.3391276046</v>
+        <v>32963.38164818493</v>
       </c>
       <c r="G7" t="n">
-        <v>53223.652219433</v>
+        <v>61829.64532575948</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>72542910</v>
+        <v>70067699</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4706559</v>
+        <v>4729653</v>
       </c>
       <c r="E8" t="n">
-        <v>4706559</v>
+        <v>4729653</v>
       </c>
       <c r="F8" t="n">
-        <v>770.3934524249968</v>
+        <v>1012.743254066234</v>
       </c>
       <c r="G8" t="n">
-        <v>1225.621894534154</v>
+        <v>1372.052082042189</v>
       </c>
       <c r="H8" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
       <c r="I8" t="n">
-        <v>1927271</v>
+        <v>2020950</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1726667</v>
+        <v>1727369</v>
       </c>
       <c r="F9" t="n">
-        <v>6887.754685913429</v>
+        <v>2881.817859507478</v>
       </c>
       <c r="G9" t="n">
-        <v>3448.287978354462</v>
+        <v>1667.72166020949</v>
       </c>
       <c r="H9" t="n">
-        <v>0.25</v>
+        <v>1.09</v>
       </c>
       <c r="I9" t="n">
-        <v>146538</v>
+        <v>148359</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1522092</v>
+        <v>1517802</v>
       </c>
       <c r="F10" t="n">
-        <v>391.28954877245</v>
+        <v>447.8135666161623</v>
       </c>
       <c r="G10" t="n">
-        <v>830.8932628705219</v>
+        <v>1416.446901005576</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.79</v>
       </c>
       <c r="I10" t="n">
-        <v>276312</v>
+        <v>284839</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>113563497</v>
+        <v>111971535</v>
       </c>
       <c r="E11" t="n">
-        <v>213940166</v>
+        <v>210941099</v>
       </c>
       <c r="F11" t="n">
-        <v>1771.846596873401</v>
+        <v>1803.597685804685</v>
       </c>
       <c r="G11" t="n">
-        <v>1308.337063793462</v>
+        <v>1390.3999990726</v>
       </c>
       <c r="H11" t="n">
-        <v>0.24</v>
+        <v>0.3</v>
       </c>
       <c r="I11" t="n">
-        <v>4409043</v>
+        <v>4355349</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12785886</v>
+        <v>12768925</v>
       </c>
       <c r="E12" t="n">
-        <v>31821758</v>
+        <v>31779546</v>
       </c>
       <c r="F12" t="n">
-        <v>2038.733357732778</v>
+        <v>1405.054693766503</v>
       </c>
       <c r="G12" t="n">
-        <v>957.0820988410268</v>
+        <v>972.5934741001416</v>
       </c>
       <c r="H12" t="n">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>1288061</v>
+        <v>1242529</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>111982823</v>
+        <v>114451211</v>
       </c>
       <c r="E13" t="n">
-        <v>435698439</v>
+        <v>445272890</v>
       </c>
       <c r="F13" t="n">
-        <v>25597.77564105927</v>
+        <v>27078.59774825475</v>
       </c>
       <c r="G13" t="n">
-        <v>36214.85872967374</v>
+        <v>33505.00125736489</v>
       </c>
       <c r="H13" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="I13" t="n">
-        <v>8468903</v>
+        <v>8521358</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5127895</v>
+        <v>5152469</v>
       </c>
       <c r="E14" t="n">
-        <v>7548540</v>
+        <v>7584714</v>
       </c>
       <c r="F14" t="n">
-        <v>334.2372021991449</v>
+        <v>376.1409314454294</v>
       </c>
       <c r="G14" t="n">
-        <v>502.8021060984457</v>
+        <v>440.2557265537414</v>
       </c>
       <c r="H14" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="I14" t="n">
-        <v>594367</v>
+        <v>645259</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>138711045</v>
+        <v>138504236</v>
       </c>
       <c r="E15" t="n">
-        <v>138711045</v>
+        <v>138504236</v>
       </c>
       <c r="F15" t="n">
-        <v>48329.38081630173</v>
+        <v>37453.33866702907</v>
       </c>
       <c r="G15" t="n">
-        <v>84865.25032976373</v>
+        <v>87965.81034839695</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>66015538</v>
+        <v>64132235</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65609250</v>
+        <v>66502184</v>
       </c>
       <c r="E16" t="n">
-        <v>336457695</v>
+        <v>341036841</v>
       </c>
       <c r="F16" t="n">
-        <v>16397.45575472623</v>
+        <v>12739.38663542452</v>
       </c>
       <c r="G16" t="n">
-        <v>29432.55801707247</v>
+        <v>12414.06898860465</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I16" t="n">
-        <v>21704151</v>
+        <v>21729912</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>255344315</v>
+        <v>257752601</v>
       </c>
       <c r="E17" t="n">
-        <v>255344315</v>
+        <v>257752601</v>
       </c>
       <c r="F17" t="n">
-        <v>64169.73481342973</v>
+        <v>58640.71935490643</v>
       </c>
       <c r="G17" t="n">
-        <v>45919.12328827942</v>
+        <v>58947.28762055603</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>14544013</v>
+        <v>14432431</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2556258</v>
+        <v>2556352</v>
       </c>
       <c r="E18" t="n">
-        <v>6535296</v>
+        <v>6535534</v>
       </c>
       <c r="F18" t="n">
-        <v>993.335166504609</v>
+        <v>1004.673205100551</v>
       </c>
       <c r="G18" t="n">
-        <v>970.011325484337</v>
+        <v>971.8730088804276</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>112671</v>
+        <v>111257</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>78625152</v>
+        <v>81530104</v>
       </c>
       <c r="E19" t="n">
-        <v>220006484</v>
+        <v>228144917</v>
       </c>
       <c r="F19" t="n">
-        <v>21361.72843253801</v>
+        <v>21744.63339563086</v>
       </c>
       <c r="G19" t="n">
-        <v>26612.15026238345</v>
+        <v>23034.50686803587</v>
       </c>
       <c r="H19" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I19" t="n">
-        <v>34109653</v>
+        <v>37394491</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1589604</v>
+        <v>1610685</v>
       </c>
       <c r="E20" t="n">
-        <v>9126911</v>
+        <v>9247951</v>
       </c>
       <c r="F20" t="n">
-        <v>113.2944339535119</v>
+        <v>156.6326417076735</v>
       </c>
       <c r="G20" t="n">
-        <v>680.8626396844895</v>
+        <v>609.3892303980583</v>
       </c>
       <c r="H20" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="I20" t="n">
-        <v>295025</v>
+        <v>276114</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>167308</v>
+        <v>166371</v>
       </c>
       <c r="E21" t="n">
-        <v>1129850</v>
+        <v>1123524</v>
       </c>
       <c r="F21" t="n">
-        <v>119.8597693495464</v>
+        <v>131.6894153072376</v>
       </c>
       <c r="G21" t="n">
-        <v>8.6222513489836</v>
+        <v>6.643330143048821</v>
       </c>
       <c r="H21" t="n">
-        <v>0.43</v>
+        <v>0.65</v>
       </c>
       <c r="I21" t="n">
-        <v>2780068</v>
+        <v>2797487</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>269087</v>
+        <v>265753</v>
       </c>
       <c r="F22" t="n">
-        <v>57.6660151507349</v>
+        <v>57.66492972128403</v>
       </c>
       <c r="G22" t="n">
-        <v>85.63427054596345</v>
+        <v>85.71533248839796</v>
       </c>
       <c r="H22" t="n">
         <v>1.67</v>
       </c>
       <c r="I22" t="n">
-        <v>1799.31</v>
+        <v>1620.44</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75946500</v>
+        <v>76644865</v>
       </c>
       <c r="E23" t="n">
-        <v>158387019</v>
+        <v>159843465</v>
       </c>
       <c r="F23" t="n">
-        <v>33610.45101961663</v>
+        <v>38239.32703088378</v>
       </c>
       <c r="G23" t="n">
-        <v>41796.59156523615</v>
+        <v>44938.16332494428</v>
       </c>
       <c r="H23" t="n">
         <v>0.23</v>
       </c>
       <c r="I23" t="n">
-        <v>16257949</v>
+        <v>16593506</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>202643466</v>
+        <v>205261517</v>
       </c>
       <c r="E24" t="n">
-        <v>704001715</v>
+        <v>713097060</v>
       </c>
       <c r="F24" t="n">
-        <v>60656.23438408622</v>
+        <v>62332.09646717948</v>
       </c>
       <c r="G24" t="n">
-        <v>60236.19326775967</v>
+        <v>61096.84657808786</v>
       </c>
       <c r="H24" t="n">
         <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>28175020</v>
+        <v>27931448</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>116257038</v>
+        <v>115991430</v>
       </c>
       <c r="E25" t="n">
-        <v>493966205</v>
+        <v>492777379</v>
       </c>
       <c r="F25" t="n">
-        <v>14334.26391406823</v>
+        <v>15703.25610977059</v>
       </c>
       <c r="G25" t="n">
-        <v>18564.689189802</v>
+        <v>15900.20938275175</v>
       </c>
       <c r="H25" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="I25" t="n">
-        <v>14980100</v>
+        <v>15280549</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5632496</v>
+        <v>5697890</v>
       </c>
       <c r="E26" t="n">
-        <v>7652063</v>
+        <v>7740904</v>
       </c>
       <c r="F26" t="n">
-        <v>946.1869167836089</v>
+        <v>951.1022224797973</v>
       </c>
       <c r="G26" t="n">
-        <v>707.872010696516</v>
+        <v>1227.232641391046</v>
       </c>
       <c r="H26" t="n">
         <v>0.7</v>
       </c>
       <c r="I26" t="n">
-        <v>5793822</v>
+        <v>5715066</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>557093</v>
+        <v>565087</v>
       </c>
       <c r="E27" t="n">
-        <v>6756998</v>
+        <v>6853956</v>
       </c>
       <c r="F27" t="n">
-        <v>621.4341538502051</v>
+        <v>652.1164210449266</v>
       </c>
       <c r="G27" t="n">
-        <v>489.7207677701238</v>
+        <v>597.8970626192988</v>
       </c>
       <c r="H27" t="n">
-        <v>0.48</v>
+        <v>1.12</v>
       </c>
       <c r="I27" t="n">
-        <v>2879246</v>
+        <v>2816238</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25916910</v>
+        <v>26091845</v>
       </c>
       <c r="E28" t="n">
-        <v>36632541</v>
+        <v>36879804</v>
       </c>
       <c r="F28" t="n">
-        <v>1.740571551626859</v>
+        <v>1.740538788823111</v>
       </c>
       <c r="G28" t="n">
-        <v>2119.755232232043</v>
+        <v>2118.950639066196</v>
       </c>
       <c r="H28" t="n">
         <v>2.31</v>
       </c>
       <c r="I28" t="n">
-        <v>66727</v>
+        <v>66600</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1301520631</v>
+        <v>1301325938</v>
       </c>
       <c r="E29" t="n">
-        <v>6241057970</v>
+        <v>6240124377</v>
       </c>
       <c r="F29" t="n">
-        <v>180498.7219951514</v>
+        <v>156100.9386341038</v>
       </c>
       <c r="G29" t="n">
-        <v>241247.5863173918</v>
+        <v>243788.1976796278</v>
       </c>
       <c r="H29" t="n">
         <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>165744974</v>
+        <v>165423212</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>271485250</v>
+        <v>273076065</v>
       </c>
       <c r="E30" t="n">
-        <v>1171881051</v>
+        <v>1178747891</v>
       </c>
       <c r="F30" t="n">
-        <v>300304.1363306788</v>
+        <v>200695.8212369672</v>
       </c>
       <c r="G30" t="n">
-        <v>220494.3396297727</v>
+        <v>183698.7176661391</v>
       </c>
       <c r="H30" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>98688510</v>
+        <v>97117505</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5358669</v>
+        <v>5332898</v>
       </c>
       <c r="E31" t="n">
-        <v>5364733</v>
+        <v>5338934</v>
       </c>
       <c r="F31" t="n">
-        <v>106.4933828648235</v>
+        <v>106.4913783383219</v>
       </c>
       <c r="G31" t="n">
-        <v>172.3774535243503</v>
+        <v>172.374208861024</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>148459</v>
+        <v>146725</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19754206</v>
+        <v>19605075</v>
       </c>
       <c r="E32" t="n">
-        <v>49385514</v>
+        <v>49012687</v>
       </c>
       <c r="F32" t="n">
-        <v>3626.320505878327</v>
+        <v>2906.74792535952</v>
       </c>
       <c r="G32" t="n">
-        <v>4682.37187327635</v>
+        <v>4503.873749914914</v>
       </c>
       <c r="H32" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>2039727</v>
+        <v>1926358</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19885244</v>
+        <v>19835494</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.098473273229</v>
+        <v>714.0475418427144</v>
       </c>
       <c r="G33" t="n">
-        <v>1439.134968304727</v>
+        <v>746.3301207343937</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5</v>
+        <v>1.01</v>
       </c>
       <c r="I33" t="n">
-        <v>69731</v>
+        <v>57387</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4215388</v>
+        <v>4197788</v>
       </c>
       <c r="E34" t="n">
-        <v>12142322</v>
+        <v>12091626</v>
       </c>
       <c r="F34" t="n">
-        <v>277.8947391398455</v>
+        <v>190.4560490606322</v>
       </c>
       <c r="G34" t="n">
-        <v>966.5002567733102</v>
+        <v>804.7588202724462</v>
       </c>
       <c r="H34" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="I34" t="n">
-        <v>651650</v>
+        <v>649427</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1618488</v>
+        <v>1625507</v>
       </c>
       <c r="F35" t="n">
-        <v>164.192739470496</v>
+        <v>218.287082531354</v>
       </c>
       <c r="G35" t="n">
-        <v>17.6296238396272</v>
+        <v>81.50207375257064</v>
       </c>
       <c r="H35" t="n">
-        <v>1.81</v>
+        <v>0.6</v>
       </c>
       <c r="I35" t="n">
-        <v>14900.89</v>
+        <v>12159.08</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14569407</v>
+        <v>14448058</v>
       </c>
       <c r="E36" t="n">
-        <v>70561963</v>
+        <v>69974252</v>
       </c>
       <c r="F36" t="n">
-        <v>5213.974167826756</v>
+        <v>4693.747060967643</v>
       </c>
       <c r="G36" t="n">
-        <v>7020.514573746331</v>
+        <v>10180.49924471664</v>
       </c>
       <c r="H36" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I36" t="n">
-        <v>3705763</v>
+        <v>3802106</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1463014</v>
+        <v>1459014</v>
       </c>
       <c r="E37" t="n">
-        <v>9575387</v>
+        <v>9549207</v>
       </c>
       <c r="F37" t="n">
-        <v>530.5205702196648</v>
+        <v>21.72715153824079</v>
       </c>
       <c r="G37" t="n">
-        <v>8.913434442452925</v>
+        <v>67.28135233966235</v>
       </c>
       <c r="H37" t="n">
         <v>2.08</v>
       </c>
       <c r="I37" t="n">
-        <v>603811</v>
+        <v>663341</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1928027356</v>
+        <v>1932450600</v>
       </c>
       <c r="F38" t="n">
-        <v>73892.42981334093</v>
+        <v>75251.53844819141</v>
       </c>
       <c r="G38" t="n">
-        <v>73142.45436500777</v>
+        <v>73209.35582446201</v>
       </c>
       <c r="H38" t="n">
-        <v>0.73</v>
+        <v>0.57</v>
       </c>
       <c r="I38" t="n">
-        <v>27846171</v>
+        <v>27424744</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31979942</v>
+        <v>31728156</v>
       </c>
       <c r="E39" t="n">
-        <v>99575279</v>
+        <v>98791297</v>
       </c>
       <c r="F39" t="n">
-        <v>4514.630883989815</v>
+        <v>11814.11410369216</v>
       </c>
       <c r="G39" t="n">
-        <v>9618.562217978237</v>
+        <v>6102.516846461267</v>
       </c>
       <c r="H39" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>11584631</v>
+        <v>11682997</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>201431334</v>
+        <v>204443550</v>
       </c>
       <c r="E40" t="n">
-        <v>1140627984</v>
+        <v>1157684999</v>
       </c>
       <c r="F40" t="n">
-        <v>45447.33343995489</v>
+        <v>39051.83127266364</v>
       </c>
       <c r="G40" t="n">
-        <v>79346.91944089292</v>
+        <v>84533.3082509495</v>
       </c>
       <c r="H40" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>63268366</v>
+        <v>64760658</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>141460218</v>
+        <v>142942451</v>
       </c>
       <c r="E41" t="n">
-        <v>1047853463</v>
+        <v>1058832972</v>
       </c>
       <c r="F41" t="n">
-        <v>151693.7349661436</v>
+        <v>153736.3793002899</v>
       </c>
       <c r="G41" t="n">
-        <v>226120.4924594652</v>
+        <v>199841.5651240709</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I41" t="n">
-        <v>9642013</v>
+        <v>8966452</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32287276</v>
+        <v>31809294</v>
       </c>
       <c r="E42" t="n">
-        <v>153385254</v>
+        <v>151114534</v>
       </c>
       <c r="F42" t="n">
-        <v>7808.893580106484</v>
+        <v>7024.53386440958</v>
       </c>
       <c r="G42" t="n">
-        <v>4973.51294056862</v>
+        <v>8552.523004467987</v>
       </c>
       <c r="H42" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="I42" t="n">
-        <v>1143569</v>
+        <v>1120676</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3386289</v>
+        <v>3417442</v>
       </c>
       <c r="E43" t="n">
-        <v>7907548</v>
+        <v>7980297</v>
       </c>
       <c r="F43" t="n">
-        <v>1077.33667319142</v>
+        <v>1561.468241254981</v>
       </c>
       <c r="G43" t="n">
-        <v>1539.924461902785</v>
+        <v>1002.911437282119</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8</v>
+        <v>0.31</v>
       </c>
       <c r="I43" t="n">
-        <v>656338</v>
+        <v>636046</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>339893653</v>
+        <v>339691497</v>
       </c>
       <c r="E44" t="n">
-        <v>3057894066</v>
+        <v>3056075346</v>
       </c>
       <c r="F44" t="n">
-        <v>48788.69017805687</v>
+        <v>42307.25043868439</v>
       </c>
       <c r="G44" t="n">
-        <v>50115.0454752701</v>
+        <v>32674.82995445693</v>
       </c>
       <c r="H44" t="n">
         <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>38275739</v>
+        <v>38530047</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>653653</v>
+        <v>650881</v>
       </c>
       <c r="F45" t="n">
-        <v>472.1750893677605</v>
+        <v>499.7236786507528</v>
       </c>
       <c r="G45" t="n">
-        <v>244.1993870666575</v>
+        <v>225.9957577914134</v>
       </c>
       <c r="H45" t="n">
         <v>0.95</v>
       </c>
       <c r="I45" t="n">
-        <v>3346.84</v>
+        <v>3328.47</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1583091</v>
+        <v>1577655</v>
       </c>
       <c r="E46" t="n">
-        <v>13192429</v>
+        <v>13147123</v>
       </c>
       <c r="F46" t="n">
-        <v>256.1594535715335</v>
+        <v>308.0517742722005</v>
       </c>
       <c r="G46" t="n">
-        <v>1073.455372875784</v>
+        <v>1475.464939083851</v>
       </c>
       <c r="H46" t="n">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="I46" t="n">
-        <v>39721</v>
+        <v>38570</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4904682</v>
+        <v>4913859</v>
       </c>
       <c r="E47" t="n">
-        <v>17330523</v>
+        <v>17362950</v>
       </c>
       <c r="F47" t="n">
-        <v>741.1085427728389</v>
+        <v>876.9479307612158</v>
       </c>
       <c r="G47" t="n">
-        <v>1554.346489788679</v>
+        <v>1608.196339855662</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06</v>
+        <v>0.46</v>
       </c>
       <c r="I47" t="n">
-        <v>86944</v>
+        <v>88555</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>49166367</v>
+        <v>50260156</v>
       </c>
       <c r="E48" t="n">
-        <v>284652948</v>
+        <v>290985536</v>
       </c>
       <c r="F48" t="n">
-        <v>22137.90720153381</v>
+        <v>15930.53848420866</v>
       </c>
       <c r="G48" t="n">
-        <v>14843.98874337648</v>
+        <v>16219.42269791834</v>
       </c>
       <c r="H48" t="n">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="I48" t="n">
-        <v>28065894</v>
+        <v>30035900</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2258631</v>
+        <v>2274490</v>
       </c>
       <c r="E49" t="n">
-        <v>12409306</v>
+        <v>12496438</v>
       </c>
       <c r="F49" t="n">
-        <v>152.3245911331111</v>
+        <v>246.2564477819331</v>
       </c>
       <c r="G49" t="n">
-        <v>2221.417071513679</v>
+        <v>2261.976933868455</v>
       </c>
       <c r="H49" t="n">
         <v>2.36</v>
       </c>
       <c r="I49" t="n">
-        <v>81697</v>
+        <v>125679</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13494251</v>
+        <v>13613354</v>
       </c>
       <c r="E50" t="n">
-        <v>13540173</v>
+        <v>13659682</v>
       </c>
       <c r="F50" t="n">
-        <v>5058.062178356833</v>
+        <v>4663.629129484418</v>
       </c>
       <c r="G50" t="n">
-        <v>5360.216261710359</v>
+        <v>8257.944314594748</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5914325</v>
+        <v>5750127</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22527339</v>
+        <v>22542011</v>
       </c>
       <c r="E51" t="n">
-        <v>67526603</v>
+        <v>67570582</v>
       </c>
       <c r="F51" t="n">
-        <v>11791.15315494583</v>
+        <v>11955.86695441661</v>
       </c>
       <c r="G51" t="n">
-        <v>25179.19785760871</v>
+        <v>25875.64154150143</v>
       </c>
       <c r="H51" t="n">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
       <c r="I51" t="n">
-        <v>3263058</v>
+        <v>3338456</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15685989</v>
+        <v>15754218</v>
       </c>
       <c r="E52" t="n">
-        <v>96144582</v>
+        <v>96562783</v>
       </c>
       <c r="F52" t="n">
-        <v>6683.91674839547</v>
+        <v>5908.746742591845</v>
       </c>
       <c r="G52" t="n">
-        <v>10440.81396204483</v>
+        <v>6705.447223505971</v>
       </c>
       <c r="H52" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="I52" t="n">
-        <v>10862525</v>
+        <v>10554259</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47353997</v>
+        <v>47612849</v>
       </c>
       <c r="E53" t="n">
-        <v>203995840</v>
+        <v>205110948</v>
       </c>
       <c r="F53" t="n">
-        <v>22731.78385228938</v>
+        <v>22266.89477002435</v>
       </c>
       <c r="G53" t="n">
-        <v>23170.84491781171</v>
+        <v>25228.4901429997</v>
       </c>
       <c r="H53" t="n">
         <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>8912212</v>
+        <v>8574806</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1041051</v>
+        <v>1038455</v>
       </c>
       <c r="E54" t="n">
-        <v>3042810</v>
+        <v>3035224</v>
       </c>
       <c r="F54" t="n">
-        <v>0.2960279356632732</v>
+        <v>45.40799775903573</v>
       </c>
       <c r="G54" t="n">
-        <v>509.2175585973436</v>
+        <v>1274.824275426514</v>
       </c>
       <c r="H54" t="n">
-        <v>2.56</v>
+        <v>1.29</v>
       </c>
       <c r="I54" t="n">
-        <v>19829.11</v>
+        <v>18859.7</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>38264192</v>
+        <v>38096435</v>
       </c>
       <c r="E55" t="n">
-        <v>96483923</v>
+        <v>96060919</v>
       </c>
       <c r="F55" t="n">
-        <v>16536.46520925447</v>
+        <v>15118.72452766138</v>
       </c>
       <c r="G55" t="n">
-        <v>11205.59532992403</v>
+        <v>11104.08517696678</v>
       </c>
       <c r="H55" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="I55" t="n">
-        <v>3412826</v>
+        <v>3416793</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28168884</v>
+        <v>28583224</v>
       </c>
       <c r="E56" t="n">
-        <v>66922265</v>
+        <v>67906634</v>
       </c>
       <c r="F56" t="n">
-        <v>10231.44511782195</v>
+        <v>10155.17317393657</v>
       </c>
       <c r="G56" t="n">
-        <v>9272.697802767896</v>
+        <v>13283.10587039587</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>458646</v>
+        <v>435603</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12750614</v>
+        <v>12750954</v>
       </c>
       <c r="E57" t="n">
-        <v>19409310</v>
+        <v>19409827</v>
       </c>
       <c r="F57" t="n">
-        <v>1233.263817576306</v>
+        <v>1224.450425175889</v>
       </c>
       <c r="G57" t="n">
-        <v>1151.324091025071</v>
+        <v>1495.352155219747</v>
       </c>
       <c r="H57" t="n">
-        <v>0.77</v>
+        <v>0.59</v>
       </c>
       <c r="I57" t="n">
-        <v>769511</v>
+        <v>760718</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>314282828</v>
+        <v>298456088</v>
       </c>
       <c r="E58" t="n">
-        <v>314282828</v>
+        <v>298456088</v>
       </c>
       <c r="F58" t="n">
-        <v>67581.96949225434</v>
+        <v>59256.79031127533</v>
       </c>
       <c r="G58" t="n">
-        <v>74708.82832013111</v>
+        <v>78051.33401522657</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I58" t="n">
-        <v>51608533</v>
+        <v>61102174</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11618657</v>
+        <v>11606369</v>
       </c>
       <c r="F59" t="n">
-        <v>312.7240087035761</v>
+        <v>293.6912078027875</v>
       </c>
       <c r="G59" t="n">
-        <v>157.957643213532</v>
+        <v>256.9307334219627</v>
       </c>
       <c r="H59" t="n">
         <v>1.21</v>
       </c>
       <c r="I59" t="n">
-        <v>97711</v>
+        <v>95564</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>90640805</v>
+        <v>91401749</v>
       </c>
       <c r="E60" t="n">
-        <v>522311416</v>
+        <v>526696299</v>
       </c>
       <c r="F60" t="n">
-        <v>91032.33712816953</v>
+        <v>113961.6139439489</v>
       </c>
       <c r="G60" t="n">
-        <v>102794.2976553426</v>
+        <v>91949.73081805554</v>
       </c>
       <c r="H60" t="n">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
       <c r="I60" t="n">
-        <v>16570774</v>
+        <v>16862583</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9287187</v>
+        <v>9302393</v>
       </c>
       <c r="E61" t="n">
-        <v>9287187</v>
+        <v>9302393</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.06</v>
+        <v>5.26</v>
       </c>
       <c r="I61" t="n">
-        <v>2093344</v>
+        <v>2090925</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30936291</v>
+        <v>30778990</v>
       </c>
       <c r="E62" t="n">
-        <v>138514466</v>
+        <v>137810164</v>
       </c>
       <c r="F62" t="n">
-        <v>17321.39617498911</v>
+        <v>15956.70284019309</v>
       </c>
       <c r="G62" t="n">
-        <v>21506.92701401614</v>
+        <v>33414.27342609402</v>
       </c>
       <c r="H62" t="n">
         <v>0.72</v>
       </c>
       <c r="I62" t="n">
-        <v>8798155</v>
+        <v>8705273</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13028866</v>
+        <v>13023764</v>
       </c>
       <c r="E63" t="n">
-        <v>26046356</v>
+        <v>26036156</v>
       </c>
       <c r="F63" t="n">
-        <v>2815.709108496269</v>
+        <v>2806.248268103129</v>
       </c>
       <c r="G63" t="n">
-        <v>2139.886722323983</v>
+        <v>2141.486883062693</v>
       </c>
       <c r="H63" t="n">
         <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>33747</v>
+        <v>30467</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1463324</v>
+        <v>1454513</v>
       </c>
       <c r="F64" t="n">
-        <v>1.060049840208323</v>
+        <v>130.6945117666739</v>
       </c>
       <c r="G64" t="n">
-        <v>183.4845613474658</v>
+        <v>183.1816639744962</v>
       </c>
       <c r="H64" t="n">
         <v>2.17</v>
       </c>
       <c r="I64" t="n">
-        <v>54544</v>
+        <v>52363</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>49854857</v>
+        <v>49894728</v>
       </c>
       <c r="E65" t="n">
-        <v>323295478</v>
+        <v>323554034</v>
       </c>
       <c r="F65" t="n">
-        <v>22684.41353001773</v>
+        <v>13873.65267623702</v>
       </c>
       <c r="G65" t="n">
-        <v>20971.53967231972</v>
+        <v>19522.61408959173</v>
       </c>
       <c r="H65" t="n">
-        <v>0.4</v>
+        <v>0.28</v>
       </c>
       <c r="I65" t="n">
-        <v>16720536</v>
+        <v>16552594</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4789695</v>
+        <v>4777016</v>
       </c>
       <c r="F66" t="n">
-        <v>1075.452437200964</v>
+        <v>1224.006356555319</v>
       </c>
       <c r="G66" t="n">
-        <v>1105.31089877758</v>
+        <v>2349.672799136642</v>
       </c>
       <c r="H66" t="n">
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>183139</v>
+        <v>182307</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125371236</v>
+        <v>125354785</v>
       </c>
       <c r="E67" t="n">
-        <v>2076250343</v>
+        <v>2075977914</v>
       </c>
       <c r="F67" t="n">
-        <v>22314.60852711837</v>
+        <v>23176.65134050339</v>
       </c>
       <c r="G67" t="n">
-        <v>25586.73161420082</v>
+        <v>26067.73621888343</v>
       </c>
       <c r="H67" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>4914467</v>
+        <v>4823250</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24592810</v>
+        <v>24618931</v>
       </c>
       <c r="E68" t="n">
-        <v>147143725</v>
+        <v>147300015</v>
       </c>
       <c r="F68" t="n">
-        <v>4013.49699738563</v>
+        <v>42923.05329021005</v>
       </c>
       <c r="G68" t="n">
-        <v>6850.755194591956</v>
+        <v>8115.825364286748</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>12387583</v>
+        <v>12358802</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22983598</v>
+        <v>22989626</v>
       </c>
       <c r="E70" t="n">
-        <v>22983598</v>
+        <v>22989626</v>
       </c>
       <c r="F70" t="n">
-        <v>16231.29903682342</v>
+        <v>15175.54098792836</v>
       </c>
       <c r="G70" t="n">
-        <v>2525.166984766765</v>
+        <v>2811.321941968139</v>
       </c>
       <c r="H70" t="n">
         <v>0.28</v>
       </c>
       <c r="I70" t="n">
-        <v>2110142</v>
+        <v>2073031</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35120573</v>
+        <v>35125201</v>
       </c>
       <c r="E71" t="n">
-        <v>175267851</v>
+        <v>175290945</v>
       </c>
       <c r="F71" t="n">
-        <v>17011.69176902542</v>
+        <v>18372.41042637294</v>
       </c>
       <c r="G71" t="n">
-        <v>37056.77869718722</v>
+        <v>38469.27123859688</v>
       </c>
       <c r="H71" t="n">
         <v>0.57</v>
       </c>
       <c r="I71" t="n">
-        <v>10406461</v>
+        <v>10293961</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>178213</v>
+        <v>178951</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>5.26</v>
+        <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>12958.7</v>
+        <v>13602.59</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>316251386</v>
+        <v>316585868</v>
       </c>
       <c r="E73" t="n">
-        <v>585137184</v>
+        <v>585756052</v>
       </c>
       <c r="F73" t="n">
-        <v>55218.94956517788</v>
+        <v>55421.26442064272</v>
       </c>
       <c r="G73" t="n">
-        <v>62871.7476006791</v>
+        <v>62601.48645202016</v>
       </c>
       <c r="H73" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I73" t="n">
-        <v>13462405</v>
+        <v>13542355</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11238858</v>
+        <v>11113089</v>
       </c>
       <c r="E74" t="n">
-        <v>33346437</v>
+        <v>32973270</v>
       </c>
       <c r="F74" t="n">
-        <v>2070.809581866221</v>
+        <v>1914.644643055949</v>
       </c>
       <c r="G74" t="n">
-        <v>2564.090048499959</v>
+        <v>2446.532417390069</v>
       </c>
       <c r="H74" t="n">
-        <v>0.3</v>
+        <v>0.53</v>
       </c>
       <c r="I74" t="n">
-        <v>6863813</v>
+        <v>7122025</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8432218</v>
+        <v>8423637</v>
       </c>
       <c r="E75" t="n">
-        <v>12013978</v>
+        <v>12001752</v>
       </c>
       <c r="F75" t="n">
-        <v>3939.388166168819</v>
+        <v>3689.483553920326</v>
       </c>
       <c r="G75" t="n">
-        <v>218.7091512160973</v>
+        <v>49.66205755870081</v>
       </c>
       <c r="H75" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>432083</v>
+        <v>427053</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16303852</v>
+        <v>16304257</v>
       </c>
       <c r="F76" t="n">
-        <v>164.7738288989806</v>
+        <v>16.18911141235645</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6071493871355924</v>
+        <v>0.6071379587538075</v>
       </c>
       <c r="H76" t="n">
         <v>0.99</v>
       </c>
       <c r="I76" t="n">
-        <v>985512</v>
+        <v>993405</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>62562933</v>
+        <v>62213029</v>
       </c>
       <c r="E77" t="n">
-        <v>103504084</v>
+        <v>102925202</v>
       </c>
       <c r="F77" t="n">
-        <v>11233.57606680313</v>
+        <v>9799.451836806858</v>
       </c>
       <c r="G77" t="n">
-        <v>18966.50489404726</v>
+        <v>20228.1143103238</v>
       </c>
       <c r="H77" t="n">
-        <v>0.27</v>
+        <v>0.42</v>
       </c>
       <c r="I77" t="n">
-        <v>6627776</v>
+        <v>6654449</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5604387</v>
+        <v>5910011</v>
       </c>
       <c r="E78" t="n">
-        <v>5604387</v>
+        <v>5910011</v>
       </c>
       <c r="F78" t="n">
-        <v>324.5954546937419</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>709.4045688712388</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>2.5</v>
+        <v>4.71</v>
       </c>
       <c r="I78" t="n">
-        <v>1124629</v>
+        <v>1156388</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>60607</v>
+        <v>59867</v>
       </c>
       <c r="E79" t="n">
-        <v>316224</v>
+        <v>312364</v>
       </c>
       <c r="F79" t="n">
-        <v>17.33150282563247</v>
+        <v>361.7406515734797</v>
       </c>
       <c r="G79" t="n">
-        <v>6.471396033249807</v>
+        <v>9.432056634055003</v>
       </c>
       <c r="H79" t="n">
-        <v>1.43</v>
+        <v>0.83</v>
       </c>
       <c r="I79" t="n">
-        <v>290085</v>
+        <v>284728</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26206281</v>
+        <v>26288864</v>
       </c>
       <c r="F80" t="n">
-        <v>361.7418191157059</v>
+        <v>1134.491639109756</v>
       </c>
       <c r="G80" t="n">
-        <v>1931.121145479785</v>
+        <v>3805.722913343819</v>
       </c>
       <c r="H80" t="n">
-        <v>1.53</v>
+        <v>0.15</v>
       </c>
       <c r="I80" t="n">
-        <v>63557</v>
+        <v>60693</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>608577038</v>
+        <v>610427962</v>
       </c>
       <c r="E81" t="n">
-        <v>2356929081</v>
+        <v>2364097435</v>
       </c>
       <c r="F81" t="n">
-        <v>181120.2231835712</v>
+        <v>178929.7602946645</v>
       </c>
       <c r="G81" t="n">
-        <v>180522.0575609001</v>
+        <v>184256.1541072856</v>
       </c>
       <c r="H81" t="n">
         <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>32717615</v>
+        <v>32116461</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7401473</v>
+        <v>7348895</v>
       </c>
       <c r="E82" t="n">
-        <v>10605056</v>
+        <v>10529660</v>
       </c>
       <c r="F82" t="n">
-        <v>921.86625584209</v>
+        <v>1112.076440816601</v>
       </c>
       <c r="G82" t="n">
-        <v>2983.926707240349</v>
+        <v>953.9748230088142</v>
       </c>
       <c r="H82" t="n">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>199774</v>
+        <v>199577</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>122383721</v>
+        <v>123163187</v>
       </c>
       <c r="E83" t="n">
-        <v>1064051234</v>
+        <v>1070828210</v>
       </c>
       <c r="F83" t="n">
-        <v>41332.55091878047</v>
+        <v>40685.69521234445</v>
       </c>
       <c r="G83" t="n">
-        <v>43776.48577339094</v>
+        <v>46736.79297714308</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>9258641</v>
+        <v>9135565</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1114799</v>
+        <v>1138186</v>
       </c>
       <c r="E84" t="n">
-        <v>4316744</v>
+        <v>4407306</v>
       </c>
       <c r="F84" t="n">
-        <v>2191.157393515008</v>
+        <v>607.5264688874026</v>
       </c>
       <c r="G84" t="n">
-        <v>1041.715691905857</v>
+        <v>777.1199804661891</v>
       </c>
       <c r="H84" t="n">
-        <v>0.23</v>
+        <v>1.13</v>
       </c>
       <c r="I84" t="n">
-        <v>380714</v>
+        <v>368821</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>120149947</v>
+        <v>121431442</v>
       </c>
       <c r="E85" t="n">
-        <v>460914537</v>
+        <v>465830556</v>
       </c>
       <c r="F85" t="n">
-        <v>80727.36955334537</v>
+        <v>65784.80931081838</v>
       </c>
       <c r="G85" t="n">
-        <v>85386.15819824731</v>
+        <v>76215.10980115905</v>
       </c>
       <c r="H85" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="I85" t="n">
-        <v>31345515</v>
+        <v>31406429</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5144992</v>
+        <v>5152349</v>
       </c>
       <c r="E86" t="n">
-        <v>19158895</v>
+        <v>19186292</v>
       </c>
       <c r="F86" t="n">
-        <v>5681.020316884611</v>
+        <v>5665.536832500722</v>
       </c>
       <c r="G86" t="n">
-        <v>5842.442681950759</v>
+        <v>5818.98082846236</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1</v>
+        <v>0.21</v>
       </c>
       <c r="I86" t="n">
-        <v>61907</v>
+        <v>62299</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31932052</v>
+        <v>31589109</v>
       </c>
       <c r="F87" t="n">
-        <v>4323.972119915099</v>
+        <v>3732.565418582044</v>
       </c>
       <c r="G87" t="n">
-        <v>3006.406438634059</v>
+        <v>2984.971018990812</v>
       </c>
       <c r="H87" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I87" t="n">
-        <v>5528827</v>
+        <v>5399764</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24772548</v>
+        <v>24816825</v>
       </c>
       <c r="F88" t="n">
-        <v>1178.04119396884</v>
+        <v>1330.031098282667</v>
       </c>
       <c r="G88" t="n">
-        <v>1393.039175497196</v>
+        <v>1258.952278479802</v>
       </c>
       <c r="H88" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="I88" t="n">
-        <v>17717.91</v>
+        <v>17665.83</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88664970</v>
+        <v>88664052</v>
       </c>
       <c r="E89" t="n">
-        <v>327758933</v>
+        <v>327754281</v>
       </c>
       <c r="F89" t="n">
-        <v>1694.713036789249</v>
+        <v>1828.845811570083</v>
       </c>
       <c r="G89" t="n">
-        <v>1747.946235468778</v>
+        <v>1745.053964642405</v>
       </c>
       <c r="H89" t="n">
-        <v>0.22</v>
+        <v>0.66</v>
       </c>
       <c r="I89" t="n">
-        <v>258711</v>
+        <v>240816</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>21155551</v>
+        <v>20580570</v>
       </c>
       <c r="E90" t="n">
-        <v>21155551</v>
+        <v>20580570</v>
       </c>
       <c r="F90" t="n">
-        <v>2694.150491207919</v>
+        <v>2915.278032012289</v>
       </c>
       <c r="G90" t="n">
-        <v>4446.453266763903</v>
+        <v>5051.374157621045</v>
       </c>
       <c r="H90" t="n">
-        <v>0.38</v>
+        <v>0.73</v>
       </c>
       <c r="I90" t="n">
-        <v>7134197</v>
+        <v>7157935</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3821316</v>
+        <v>3830931</v>
       </c>
       <c r="E91" t="n">
-        <v>8338061</v>
+        <v>8359043</v>
       </c>
       <c r="F91" t="n">
-        <v>1859.57435860773</v>
+        <v>1876.780161551365</v>
       </c>
       <c r="G91" t="n">
-        <v>3432.13825258901</v>
+        <v>3367.483591187504</v>
       </c>
       <c r="H91" t="n">
         <v>0.36</v>
       </c>
       <c r="I91" t="n">
-        <v>1494167</v>
+        <v>1595671</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>496975364</v>
+        <v>495432508</v>
       </c>
       <c r="E92" t="n">
-        <v>1729929883</v>
+        <v>1724559330</v>
       </c>
       <c r="F92" t="n">
-        <v>167293.4946059821</v>
+        <v>175989.549205831</v>
       </c>
       <c r="G92" t="n">
-        <v>177593.6805827238</v>
+        <v>180610.435038401</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>30461622</v>
+        <v>30466391</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2638051</v>
+        <v>2631093</v>
       </c>
       <c r="E93" t="n">
-        <v>10552204</v>
+        <v>10524372</v>
       </c>
       <c r="F93" t="n">
-        <v>3013.061434311437</v>
+        <v>1910.590695012972</v>
       </c>
       <c r="G93" t="n">
-        <v>2895.38579024665</v>
+        <v>3677.94063972425</v>
       </c>
       <c r="H93" t="n">
-        <v>0.47</v>
+        <v>0.85</v>
       </c>
       <c r="I93" t="n">
-        <v>6919862</v>
+        <v>6858163</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>220208217</v>
+        <v>226763653</v>
       </c>
       <c r="E94" t="n">
-        <v>677057396</v>
+        <v>697212897</v>
       </c>
       <c r="F94" t="n">
-        <v>104660.000840711</v>
+        <v>117653.8420106334</v>
       </c>
       <c r="G94" t="n">
-        <v>83285.51618681759</v>
+        <v>103794.1167346725</v>
       </c>
       <c r="H94" t="n">
         <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>12429472</v>
+        <v>14609203</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>150559844</v>
+        <v>151842455</v>
       </c>
       <c r="E95" t="n">
-        <v>393333417</v>
+        <v>396684201</v>
       </c>
       <c r="F95" t="n">
-        <v>30113.17472788755</v>
+        <v>31577.03757758716</v>
       </c>
       <c r="G95" t="n">
-        <v>30309.81321609631</v>
+        <v>31540.86009898842</v>
       </c>
       <c r="H95" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I95" t="n">
-        <v>7255109</v>
+        <v>7427956</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>401496703</v>
+        <v>402315210</v>
       </c>
       <c r="E96" t="n">
-        <v>2294266877</v>
+        <v>2298944057</v>
       </c>
       <c r="F96" t="n">
-        <v>23463.46357959847</v>
+        <v>19941.73336870045</v>
       </c>
       <c r="G96" t="n">
-        <v>33339.48954207795</v>
+        <v>43244.53181178613</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>38354102</v>
+        <v>38754091</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>606479180</v>
+        <v>609481703</v>
       </c>
       <c r="E2" t="n">
-        <v>1176839564</v>
+        <v>1182666553</v>
       </c>
       <c r="F2" t="n">
-        <v>25494.06581048977</v>
+        <v>27595.71350432689</v>
       </c>
       <c r="G2" t="n">
-        <v>35891.50233113343</v>
+        <v>34013.06505049949</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I2" t="n">
-        <v>19403373</v>
+        <v>18870950</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1307011</v>
+        <v>1354983</v>
       </c>
       <c r="E3" t="n">
-        <v>4224796</v>
+        <v>4379862</v>
       </c>
       <c r="F3" t="n">
-        <v>3116.417316480561</v>
+        <v>918.6598536600178</v>
       </c>
       <c r="G3" t="n">
-        <v>5052.583815842185</v>
+        <v>3072.02747636308</v>
       </c>
       <c r="H3" t="n">
-        <v>0.47</v>
+        <v>0.68</v>
       </c>
       <c r="I3" t="n">
-        <v>113666</v>
+        <v>126541</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246465876</v>
+        <v>249969520</v>
       </c>
       <c r="E4" t="n">
-        <v>1545552866</v>
+        <v>1567523727</v>
       </c>
       <c r="F4" t="n">
-        <v>145765.1534105458</v>
+        <v>145359.8400432763</v>
       </c>
       <c r="G4" t="n">
-        <v>147700.7037857853</v>
+        <v>139338.5110189209</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>16844144</v>
+        <v>17404710</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>146458886</v>
+        <v>146979466</v>
       </c>
       <c r="E5" t="n">
-        <v>162299334</v>
+        <v>162876218</v>
       </c>
       <c r="F5" t="n">
-        <v>5393.258582569812</v>
+        <v>7752.058461952141</v>
       </c>
       <c r="G5" t="n">
-        <v>22116.16568130891</v>
+        <v>20058.81602989416</v>
       </c>
       <c r="H5" t="n">
         <v>0.61</v>
       </c>
       <c r="I5" t="n">
-        <v>36876080</v>
+        <v>37216024</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>690212</v>
+        <v>694268</v>
       </c>
       <c r="E6" t="n">
-        <v>13408872</v>
+        <v>13487656</v>
       </c>
       <c r="F6" t="n">
-        <v>303.0668397137879</v>
+        <v>202.5478961100551</v>
       </c>
       <c r="G6" t="n">
-        <v>316.4657865960749</v>
+        <v>207.9194789419547</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="I6" t="n">
-        <v>19607.27</v>
+        <v>20121</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>472793281</v>
+        <v>480317892</v>
       </c>
       <c r="E7" t="n">
-        <v>472793284</v>
+        <v>480317896</v>
       </c>
       <c r="F7" t="n">
-        <v>32963.38164818493</v>
+        <v>40540.69844791506</v>
       </c>
       <c r="G7" t="n">
-        <v>61829.64532575948</v>
+        <v>49516.0492002669</v>
       </c>
       <c r="H7" t="n">
         <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>70067699</v>
+        <v>69349129</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4729653</v>
+        <v>4722258</v>
       </c>
       <c r="E8" t="n">
-        <v>4729653</v>
+        <v>4722258</v>
       </c>
       <c r="F8" t="n">
-        <v>1012.743254066234</v>
+        <v>688.3721765099764</v>
       </c>
       <c r="G8" t="n">
-        <v>1372.052082042189</v>
+        <v>1223.738221853039</v>
       </c>
       <c r="H8" t="n">
-        <v>0.47</v>
+        <v>0.58</v>
       </c>
       <c r="I8" t="n">
-        <v>2020950</v>
+        <v>2008858</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1727369</v>
+        <v>1708880</v>
       </c>
       <c r="F9" t="n">
-        <v>2881.817859507478</v>
+        <v>2692.23781523918</v>
       </c>
       <c r="G9" t="n">
-        <v>1667.72166020949</v>
+        <v>1682.756742849431</v>
       </c>
       <c r="H9" t="n">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="I9" t="n">
-        <v>148359</v>
+        <v>148749</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1517802</v>
+        <v>1509438</v>
       </c>
       <c r="F10" t="n">
-        <v>447.8135666161623</v>
+        <v>354.9963182880729</v>
       </c>
       <c r="G10" t="n">
-        <v>1416.446901005576</v>
+        <v>357.4354348539177</v>
       </c>
       <c r="H10" t="n">
-        <v>0.79</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>284839</v>
+        <v>290805</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>111971535</v>
+        <v>111496339</v>
       </c>
       <c r="E11" t="n">
-        <v>210941099</v>
+        <v>210045886</v>
       </c>
       <c r="F11" t="n">
-        <v>1803.597685804685</v>
+        <v>1168.019669464466</v>
       </c>
       <c r="G11" t="n">
-        <v>1390.3999990726</v>
+        <v>378.2222633952437</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3</v>
+        <v>1.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4355349</v>
+        <v>4312087</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12768925</v>
+        <v>12796104</v>
       </c>
       <c r="E12" t="n">
-        <v>31779546</v>
+        <v>31847188</v>
       </c>
       <c r="F12" t="n">
-        <v>1405.054693766503</v>
+        <v>1115.353925884227</v>
       </c>
       <c r="G12" t="n">
-        <v>972.5934741001416</v>
+        <v>885.2123622756761</v>
       </c>
       <c r="H12" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>1242529</v>
+        <v>1241262</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>114451211</v>
+        <v>116206932</v>
       </c>
       <c r="E13" t="n">
-        <v>445272890</v>
+        <v>452088937</v>
       </c>
       <c r="F13" t="n">
-        <v>27078.59774825475</v>
+        <v>27796.55845827807</v>
       </c>
       <c r="G13" t="n">
-        <v>33505.00125736489</v>
+        <v>33923.97236285693</v>
       </c>
       <c r="H13" t="n">
-        <v>0.34</v>
+        <v>0.13</v>
       </c>
       <c r="I13" t="n">
-        <v>8521358</v>
+        <v>9380242</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5152469</v>
+        <v>5175624</v>
       </c>
       <c r="E14" t="n">
-        <v>7584714</v>
+        <v>7618798</v>
       </c>
       <c r="F14" t="n">
-        <v>376.1409314454294</v>
+        <v>246.132601294157</v>
       </c>
       <c r="G14" t="n">
-        <v>440.2557265537414</v>
+        <v>668.8934745179273</v>
       </c>
       <c r="H14" t="n">
         <v>1.32</v>
       </c>
       <c r="I14" t="n">
-        <v>645259</v>
+        <v>601841</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>138504236</v>
+        <v>140134678</v>
       </c>
       <c r="E15" t="n">
-        <v>138504236</v>
+        <v>140134678</v>
       </c>
       <c r="F15" t="n">
-        <v>37453.33866702907</v>
+        <v>49727.8584357344</v>
       </c>
       <c r="G15" t="n">
-        <v>87965.81034839695</v>
+        <v>82531.22506401583</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>64132235</v>
+        <v>68061754</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66502184</v>
+        <v>67126410</v>
       </c>
       <c r="E16" t="n">
-        <v>341036841</v>
+        <v>344237998</v>
       </c>
       <c r="F16" t="n">
-        <v>12739.38663542452</v>
+        <v>15307.89364829256</v>
       </c>
       <c r="G16" t="n">
-        <v>12414.06898860465</v>
+        <v>9616.054932049527</v>
       </c>
       <c r="H16" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>21729912</v>
+        <v>22087116</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>257752601</v>
+        <v>258570269</v>
       </c>
       <c r="E17" t="n">
-        <v>257752601</v>
+        <v>258570269</v>
       </c>
       <c r="F17" t="n">
-        <v>58640.71935490643</v>
+        <v>65129.17384772466</v>
       </c>
       <c r="G17" t="n">
-        <v>58947.28762055603</v>
+        <v>48883.85848659502</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>14432431</v>
+        <v>14504273</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2556352</v>
+        <v>2557812</v>
       </c>
       <c r="E18" t="n">
-        <v>6535534</v>
+        <v>6539268</v>
       </c>
       <c r="F18" t="n">
-        <v>1004.673205100551</v>
+        <v>993.319539774511</v>
       </c>
       <c r="G18" t="n">
-        <v>971.8730088804276</v>
+        <v>995.2656804082667</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>111257</v>
+        <v>109480</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>81530104</v>
+        <v>83361989</v>
       </c>
       <c r="E19" t="n">
-        <v>228144917</v>
+        <v>233200969</v>
       </c>
       <c r="F19" t="n">
-        <v>21744.63339563086</v>
+        <v>13799.78683895035</v>
       </c>
       <c r="G19" t="n">
-        <v>23034.50686803587</v>
+        <v>20039.13968750426</v>
       </c>
       <c r="H19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I19" t="n">
-        <v>37394491</v>
+        <v>44054211</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1610685</v>
+        <v>1619296</v>
       </c>
       <c r="E20" t="n">
-        <v>9247951</v>
+        <v>9297391</v>
       </c>
       <c r="F20" t="n">
-        <v>156.6326417076735</v>
+        <v>126.5340615574437</v>
       </c>
       <c r="G20" t="n">
-        <v>609.3892303980583</v>
+        <v>638.3261404163167</v>
       </c>
       <c r="H20" t="n">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="I20" t="n">
-        <v>276114</v>
+        <v>279635</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>166371</v>
+        <v>165308</v>
       </c>
       <c r="E21" t="n">
-        <v>1123524</v>
+        <v>1116341</v>
       </c>
       <c r="F21" t="n">
-        <v>131.6894153072376</v>
+        <v>121.2734216012905</v>
       </c>
       <c r="G21" t="n">
-        <v>6.643330143048821</v>
+        <v>6.535987264460757</v>
       </c>
       <c r="H21" t="n">
         <v>0.65</v>
       </c>
       <c r="I21" t="n">
-        <v>2797487</v>
+        <v>2802795</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>265753</v>
+        <v>265787</v>
       </c>
       <c r="F22" t="n">
-        <v>57.66492972128403</v>
+        <v>69.23209575701706</v>
       </c>
       <c r="G22" t="n">
-        <v>85.71533248839796</v>
+        <v>50.61747672463513</v>
       </c>
       <c r="H22" t="n">
         <v>1.67</v>
       </c>
       <c r="I22" t="n">
-        <v>1620.44</v>
+        <v>1696.12</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76644865</v>
+        <v>78255538</v>
       </c>
       <c r="E23" t="n">
-        <v>159843465</v>
+        <v>163202537</v>
       </c>
       <c r="F23" t="n">
-        <v>38239.32703088378</v>
+        <v>42128.29181347199</v>
       </c>
       <c r="G23" t="n">
-        <v>44938.16332494428</v>
+        <v>41941.48281136788</v>
       </c>
       <c r="H23" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I23" t="n">
-        <v>16593506</v>
+        <v>17604682</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>205261517</v>
+        <v>205532152</v>
       </c>
       <c r="E24" t="n">
-        <v>713097060</v>
+        <v>714037271</v>
       </c>
       <c r="F24" t="n">
-        <v>62332.09646717948</v>
+        <v>62544.8118780215</v>
       </c>
       <c r="G24" t="n">
-        <v>61096.84657808786</v>
+        <v>61879.33484705817</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>27931448</v>
+        <v>28122940</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>115991430</v>
+        <v>116390807</v>
       </c>
       <c r="E25" t="n">
-        <v>492777379</v>
+        <v>494448270</v>
       </c>
       <c r="F25" t="n">
-        <v>15703.25610977059</v>
+        <v>17288.14833241951</v>
       </c>
       <c r="G25" t="n">
-        <v>15900.20938275175</v>
+        <v>17060.20164036647</v>
       </c>
       <c r="H25" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="I25" t="n">
-        <v>15280549</v>
+        <v>15410461</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5697890</v>
+        <v>5822790</v>
       </c>
       <c r="E26" t="n">
-        <v>7740904</v>
+        <v>7910588</v>
       </c>
       <c r="F26" t="n">
-        <v>951.1022224797973</v>
+        <v>149.0997933771156</v>
       </c>
       <c r="G26" t="n">
-        <v>1227.232641391046</v>
+        <v>1348.149675474455</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7</v>
+        <v>0.27</v>
       </c>
       <c r="I26" t="n">
-        <v>5715066</v>
+        <v>1330892</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>565087</v>
+        <v>566841</v>
       </c>
       <c r="E27" t="n">
-        <v>6853956</v>
+        <v>6875235</v>
       </c>
       <c r="F27" t="n">
-        <v>652.1164210449266</v>
+        <v>570.8155063507394</v>
       </c>
       <c r="G27" t="n">
-        <v>597.8970626192988</v>
+        <v>781.2589802266219</v>
       </c>
       <c r="H27" t="n">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="I27" t="n">
-        <v>2816238</v>
+        <v>2828901</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26091845</v>
+        <v>25747540</v>
       </c>
       <c r="E28" t="n">
-        <v>36879804</v>
+        <v>36393143</v>
       </c>
       <c r="F28" t="n">
-        <v>1.740538788823111</v>
+        <v>1.740544169111738</v>
       </c>
       <c r="G28" t="n">
-        <v>2118.950639066196</v>
+        <v>117.0163492000619</v>
       </c>
       <c r="H28" t="n">
-        <v>2.31</v>
+        <v>3.46</v>
       </c>
       <c r="I28" t="n">
-        <v>66600</v>
+        <v>70390</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1301325938</v>
+        <v>1311308996</v>
       </c>
       <c r="E29" t="n">
-        <v>6240124377</v>
+        <v>6287995186</v>
       </c>
       <c r="F29" t="n">
-        <v>156100.9386341038</v>
+        <v>194598.6458249986</v>
       </c>
       <c r="G29" t="n">
-        <v>243788.1976796278</v>
+        <v>239987.1588623808</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>165423212</v>
+        <v>166391564</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>273076065</v>
+        <v>274077591</v>
       </c>
       <c r="E30" t="n">
-        <v>1178747891</v>
+        <v>1183071036</v>
       </c>
       <c r="F30" t="n">
-        <v>200695.8212369672</v>
+        <v>196866.3797107871</v>
       </c>
       <c r="G30" t="n">
-        <v>183698.7176661391</v>
+        <v>179608.6241416419</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I30" t="n">
-        <v>97117505</v>
+        <v>98523697</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5332898</v>
+        <v>5342982</v>
       </c>
       <c r="E31" t="n">
-        <v>5338934</v>
+        <v>5349029</v>
       </c>
       <c r="F31" t="n">
-        <v>106.4913783383219</v>
+        <v>106.4917075211076</v>
       </c>
       <c r="G31" t="n">
-        <v>172.374208861024</v>
+        <v>172.3713270735078</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>146725</v>
+        <v>148304</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19605075</v>
+        <v>19617661</v>
       </c>
       <c r="E32" t="n">
-        <v>49012687</v>
+        <v>49044153</v>
       </c>
       <c r="F32" t="n">
-        <v>2906.74792535952</v>
+        <v>2749.538092131127</v>
       </c>
       <c r="G32" t="n">
-        <v>4503.873749914914</v>
+        <v>4198.006994487394</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="I32" t="n">
-        <v>1926358</v>
+        <v>2061624</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19835494</v>
+        <v>19819963</v>
       </c>
       <c r="F33" t="n">
-        <v>714.0475418427144</v>
+        <v>813.9218731887671</v>
       </c>
       <c r="G33" t="n">
-        <v>746.3301207343937</v>
+        <v>1620.29543789374</v>
       </c>
       <c r="H33" t="n">
-        <v>1.01</v>
+        <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>57387</v>
+        <v>55864</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4197788</v>
+        <v>4222437</v>
       </c>
       <c r="E34" t="n">
-        <v>12091626</v>
+        <v>12162626</v>
       </c>
       <c r="F34" t="n">
-        <v>190.4560490606322</v>
+        <v>286.7977194591135</v>
       </c>
       <c r="G34" t="n">
-        <v>804.7588202724462</v>
+        <v>851.6041128013346</v>
       </c>
       <c r="H34" t="n">
-        <v>1.24</v>
+        <v>1.54</v>
       </c>
       <c r="I34" t="n">
-        <v>649427</v>
+        <v>637093</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1625507</v>
+        <v>1649440</v>
       </c>
       <c r="F35" t="n">
-        <v>218.287082531354</v>
+        <v>228.0126243974979</v>
       </c>
       <c r="G35" t="n">
-        <v>81.50207375257064</v>
+        <v>2.330860739023174</v>
       </c>
       <c r="H35" t="n">
-        <v>0.6</v>
+        <v>1.79</v>
       </c>
       <c r="I35" t="n">
-        <v>12159.08</v>
+        <v>12549.02</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14448058</v>
+        <v>14642588</v>
       </c>
       <c r="E36" t="n">
-        <v>69974252</v>
+        <v>70916389</v>
       </c>
       <c r="F36" t="n">
-        <v>4693.747060967643</v>
+        <v>3715.976548999737</v>
       </c>
       <c r="G36" t="n">
-        <v>10180.49924471664</v>
+        <v>8551.069056585129</v>
       </c>
       <c r="H36" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="I36" t="n">
-        <v>3802106</v>
+        <v>3768030</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1459014</v>
+        <v>1452347</v>
       </c>
       <c r="E37" t="n">
-        <v>9549207</v>
+        <v>9505570</v>
       </c>
       <c r="F37" t="n">
-        <v>21.72715153824079</v>
+        <v>20.11092969626062</v>
       </c>
       <c r="G37" t="n">
-        <v>67.28135233966235</v>
+        <v>40.05511600785641</v>
       </c>
       <c r="H37" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="I37" t="n">
-        <v>663341</v>
+        <v>692724</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1932450600</v>
+        <v>1928529577</v>
       </c>
       <c r="F38" t="n">
-        <v>75251.53844819141</v>
+        <v>77466.01787220295</v>
       </c>
       <c r="G38" t="n">
-        <v>73209.35582446201</v>
+        <v>74489.09476653187</v>
       </c>
       <c r="H38" t="n">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="I38" t="n">
-        <v>27424744</v>
+        <v>27653347</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31728156</v>
+        <v>31813700</v>
       </c>
       <c r="E39" t="n">
-        <v>98791297</v>
+        <v>99057654</v>
       </c>
       <c r="F39" t="n">
-        <v>11814.11410369216</v>
+        <v>3359.180737549668</v>
       </c>
       <c r="G39" t="n">
-        <v>6102.516846461267</v>
+        <v>9889.543099082297</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.19</v>
       </c>
       <c r="I39" t="n">
-        <v>11682997</v>
+        <v>11468209</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>204443550</v>
+        <v>205539632</v>
       </c>
       <c r="E40" t="n">
-        <v>1157684999</v>
+        <v>1163891689</v>
       </c>
       <c r="F40" t="n">
-        <v>39051.83127266364</v>
+        <v>46593.41480779993</v>
       </c>
       <c r="G40" t="n">
-        <v>84533.3082509495</v>
+        <v>79534.24925121911</v>
       </c>
       <c r="H40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I40" t="n">
-        <v>64760658</v>
+        <v>66228777</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>142942451</v>
+        <v>143166021</v>
       </c>
       <c r="E41" t="n">
-        <v>1058832972</v>
+        <v>1060489047</v>
       </c>
       <c r="F41" t="n">
-        <v>153736.3793002899</v>
+        <v>143025.8769601036</v>
       </c>
       <c r="G41" t="n">
-        <v>199841.5651240709</v>
+        <v>220315.5714798821</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>8966452</v>
+        <v>8659714</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>31809294</v>
+        <v>32170813</v>
       </c>
       <c r="E42" t="n">
-        <v>151114534</v>
+        <v>152831980</v>
       </c>
       <c r="F42" t="n">
-        <v>7024.53386440958</v>
+        <v>8492.139963644948</v>
       </c>
       <c r="G42" t="n">
-        <v>8552.523004467987</v>
+        <v>6979.869766554545</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="I42" t="n">
-        <v>1120676</v>
+        <v>1133758</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3417442</v>
+        <v>3401380</v>
       </c>
       <c r="E43" t="n">
-        <v>7980297</v>
+        <v>7942789</v>
       </c>
       <c r="F43" t="n">
-        <v>1561.468241254981</v>
+        <v>1371.683714851639</v>
       </c>
       <c r="G43" t="n">
-        <v>1002.911437282119</v>
+        <v>798.1263568694111</v>
       </c>
       <c r="H43" t="n">
-        <v>0.31</v>
+        <v>0.57</v>
       </c>
       <c r="I43" t="n">
-        <v>636046</v>
+        <v>625377</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>339691497</v>
+        <v>347056848</v>
       </c>
       <c r="E44" t="n">
-        <v>3056075346</v>
+        <v>3122338611</v>
       </c>
       <c r="F44" t="n">
-        <v>42307.25043868439</v>
+        <v>47341.05429274376</v>
       </c>
       <c r="G44" t="n">
-        <v>32674.82995445693</v>
+        <v>53811.92129776005</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>38530047</v>
+        <v>39600853</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>650881</v>
+        <v>646495</v>
       </c>
       <c r="F45" t="n">
-        <v>499.7236786507528</v>
+        <v>601.0450855206427</v>
       </c>
       <c r="G45" t="n">
-        <v>225.9957577914134</v>
+        <v>187.0129208780231</v>
       </c>
       <c r="H45" t="n">
         <v>0.95</v>
       </c>
       <c r="I45" t="n">
-        <v>3328.47</v>
+        <v>3580.71</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1577655</v>
+        <v>1577337</v>
       </c>
       <c r="E46" t="n">
-        <v>13147123</v>
+        <v>13144478</v>
       </c>
       <c r="F46" t="n">
-        <v>308.0517742722005</v>
+        <v>298.6139016540949</v>
       </c>
       <c r="G46" t="n">
-        <v>1475.464939083851</v>
+        <v>808.8844822592946</v>
       </c>
       <c r="H46" t="n">
-        <v>0.61</v>
+        <v>0.68</v>
       </c>
       <c r="I46" t="n">
-        <v>38570</v>
+        <v>37489</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4913859</v>
+        <v>4900406</v>
       </c>
       <c r="E47" t="n">
-        <v>17362950</v>
+        <v>17315415</v>
       </c>
       <c r="F47" t="n">
-        <v>876.9479307612158</v>
+        <v>829.0415013495488</v>
       </c>
       <c r="G47" t="n">
-        <v>1608.196339855662</v>
+        <v>1524.935123945423</v>
       </c>
       <c r="H47" t="n">
-        <v>0.46</v>
+        <v>0.06</v>
       </c>
       <c r="I47" t="n">
-        <v>88555</v>
+        <v>91261</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50260156</v>
+        <v>50152718</v>
       </c>
       <c r="E48" t="n">
-        <v>290985536</v>
+        <v>290363513</v>
       </c>
       <c r="F48" t="n">
-        <v>15930.53848420866</v>
+        <v>15794.4462609992</v>
       </c>
       <c r="G48" t="n">
-        <v>16219.42269791834</v>
+        <v>13971.00967287982</v>
       </c>
       <c r="H48" t="n">
-        <v>0.27</v>
+        <v>0.45</v>
       </c>
       <c r="I48" t="n">
-        <v>30035900</v>
+        <v>31868877</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2274490</v>
+        <v>2294788</v>
       </c>
       <c r="E49" t="n">
-        <v>12496438</v>
+        <v>12607959</v>
       </c>
       <c r="F49" t="n">
-        <v>246.2564477819331</v>
+        <v>235.7988852419488</v>
       </c>
       <c r="G49" t="n">
-        <v>2261.976933868455</v>
+        <v>2156.885787592527</v>
       </c>
       <c r="H49" t="n">
         <v>2.36</v>
       </c>
       <c r="I49" t="n">
-        <v>125679</v>
+        <v>125775</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13613354</v>
+        <v>13620424</v>
       </c>
       <c r="E50" t="n">
-        <v>13659682</v>
+        <v>13666775</v>
       </c>
       <c r="F50" t="n">
-        <v>4663.629129484418</v>
+        <v>4509.806391454933</v>
       </c>
       <c r="G50" t="n">
-        <v>8257.944314594748</v>
+        <v>11240.68697417711</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5750127</v>
+        <v>5888352</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22542011</v>
+        <v>22706934</v>
       </c>
       <c r="E51" t="n">
-        <v>67570582</v>
+        <v>68064947</v>
       </c>
       <c r="F51" t="n">
-        <v>11955.86695441661</v>
+        <v>13178.47019599964</v>
       </c>
       <c r="G51" t="n">
-        <v>25875.64154150143</v>
+        <v>26944.98707928338</v>
       </c>
       <c r="H51" t="n">
-        <v>0.51</v>
+        <v>0.62</v>
       </c>
       <c r="I51" t="n">
-        <v>3338456</v>
+        <v>3393589</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15754218</v>
+        <v>15736923</v>
       </c>
       <c r="E52" t="n">
-        <v>96562783</v>
+        <v>96456773</v>
       </c>
       <c r="F52" t="n">
-        <v>5908.746742591845</v>
+        <v>5976.629875058427</v>
       </c>
       <c r="G52" t="n">
-        <v>6705.447223505971</v>
+        <v>7422.601573964016</v>
       </c>
       <c r="H52" t="n">
-        <v>0.12</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>10554259</v>
+        <v>10332289</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47612849</v>
+        <v>48078152</v>
       </c>
       <c r="E53" t="n">
-        <v>205110948</v>
+        <v>207115421</v>
       </c>
       <c r="F53" t="n">
-        <v>22266.89477002435</v>
+        <v>22304.36871886083</v>
       </c>
       <c r="G53" t="n">
-        <v>25228.4901429997</v>
+        <v>26330.35428151888</v>
       </c>
       <c r="H53" t="n">
-        <v>0.31</v>
+        <v>0.2</v>
       </c>
       <c r="I53" t="n">
-        <v>8574806</v>
+        <v>8801388</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1038455</v>
+        <v>1044041</v>
       </c>
       <c r="E54" t="n">
-        <v>3035224</v>
+        <v>3051551</v>
       </c>
       <c r="F54" t="n">
-        <v>45.40799775903573</v>
+        <v>49.35811194729069</v>
       </c>
       <c r="G54" t="n">
-        <v>1274.824275426514</v>
+        <v>1305.892663524505</v>
       </c>
       <c r="H54" t="n">
-        <v>1.29</v>
+        <v>0.65</v>
       </c>
       <c r="I54" t="n">
-        <v>18859.7</v>
+        <v>18927.53</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>38096435</v>
+        <v>38146443</v>
       </c>
       <c r="E55" t="n">
-        <v>96060919</v>
+        <v>96187017</v>
       </c>
       <c r="F55" t="n">
-        <v>15118.72452766138</v>
+        <v>16592.84022568474</v>
       </c>
       <c r="G55" t="n">
-        <v>11104.08517696678</v>
+        <v>10344.63855044578</v>
       </c>
       <c r="H55" t="n">
-        <v>0.32</v>
+        <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>3416793</v>
+        <v>3422089</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28583224</v>
+        <v>28354574</v>
       </c>
       <c r="E56" t="n">
-        <v>67906634</v>
+        <v>67363419</v>
       </c>
       <c r="F56" t="n">
-        <v>10155.17317393657</v>
+        <v>13814.25012843184</v>
       </c>
       <c r="G56" t="n">
-        <v>13283.10587039587</v>
+        <v>13827.34335833401</v>
       </c>
       <c r="H56" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I56" t="n">
-        <v>435603</v>
+        <v>401964</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12750954</v>
+        <v>12714151</v>
       </c>
       <c r="E57" t="n">
-        <v>19409827</v>
+        <v>19353805</v>
       </c>
       <c r="F57" t="n">
-        <v>1224.450425175889</v>
+        <v>1211.690337054991</v>
       </c>
       <c r="G57" t="n">
-        <v>1495.352155219747</v>
+        <v>1599.481701385134</v>
       </c>
       <c r="H57" t="n">
-        <v>0.59</v>
+        <v>0.73</v>
       </c>
       <c r="I57" t="n">
-        <v>760718</v>
+        <v>776782</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>298456088</v>
+        <v>295827939</v>
       </c>
       <c r="E58" t="n">
-        <v>298456088</v>
+        <v>295827939</v>
       </c>
       <c r="F58" t="n">
-        <v>59256.79031127533</v>
+        <v>40827.08185417797</v>
       </c>
       <c r="G58" t="n">
-        <v>78051.33401522657</v>
+        <v>80594.49570769182</v>
       </c>
       <c r="H58" t="n">
         <v>0.05</v>
       </c>
       <c r="I58" t="n">
-        <v>61102174</v>
+        <v>76257235</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11606369</v>
+        <v>11633148</v>
       </c>
       <c r="F59" t="n">
-        <v>293.6912078027875</v>
+        <v>266.2981279408144</v>
       </c>
       <c r="G59" t="n">
-        <v>256.9307334219627</v>
+        <v>66.37431300047623</v>
       </c>
       <c r="H59" t="n">
         <v>1.21</v>
       </c>
       <c r="I59" t="n">
-        <v>95564</v>
+        <v>94932</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>91401749</v>
+        <v>91842631</v>
       </c>
       <c r="E60" t="n">
-        <v>526696299</v>
+        <v>529236852</v>
       </c>
       <c r="F60" t="n">
-        <v>113961.6139439489</v>
+        <v>97262.10617071166</v>
       </c>
       <c r="G60" t="n">
-        <v>91949.73081805554</v>
+        <v>98714.06579276119</v>
       </c>
       <c r="H60" t="n">
-        <v>0.11</v>
+        <v>0.19</v>
       </c>
       <c r="I60" t="n">
-        <v>16862583</v>
+        <v>16857946</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9302393</v>
+        <v>9309129</v>
       </c>
       <c r="E61" t="n">
-        <v>9302393</v>
+        <v>9309129</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.26</v>
+        <v>4.99</v>
       </c>
       <c r="I61" t="n">
-        <v>2090925</v>
+        <v>2083211</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30778990</v>
+        <v>30932426</v>
       </c>
       <c r="E62" t="n">
-        <v>137810164</v>
+        <v>138497161</v>
       </c>
       <c r="F62" t="n">
-        <v>15956.70284019309</v>
+        <v>16333.11102661666</v>
       </c>
       <c r="G62" t="n">
-        <v>33414.27342609402</v>
+        <v>20032.54537274704</v>
       </c>
       <c r="H62" t="n">
         <v>0.72</v>
       </c>
       <c r="I62" t="n">
-        <v>8705273</v>
+        <v>8566834</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13023764</v>
+        <v>13025983</v>
       </c>
       <c r="E63" t="n">
-        <v>26036156</v>
+        <v>26040593</v>
       </c>
       <c r="F63" t="n">
-        <v>2806.248268103129</v>
+        <v>2752.684320449781</v>
       </c>
       <c r="G63" t="n">
-        <v>2141.486883062693</v>
+        <v>2162.423878766261</v>
       </c>
       <c r="H63" t="n">
         <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>30467</v>
+        <v>33100</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1454513</v>
+        <v>1526418</v>
       </c>
       <c r="F64" t="n">
-        <v>130.6945117666739</v>
+        <v>24.13629821545554</v>
       </c>
       <c r="G64" t="n">
-        <v>183.1816639744962</v>
+        <v>10.80262849936151</v>
       </c>
       <c r="H64" t="n">
-        <v>2.17</v>
+        <v>3.68</v>
       </c>
       <c r="I64" t="n">
-        <v>52363</v>
+        <v>53979</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>49894728</v>
+        <v>50296732</v>
       </c>
       <c r="E65" t="n">
-        <v>323554034</v>
+        <v>326160922</v>
       </c>
       <c r="F65" t="n">
-        <v>13873.65267623702</v>
+        <v>19319.32789920485</v>
       </c>
       <c r="G65" t="n">
-        <v>19522.61408959173</v>
+        <v>20721.60469611482</v>
       </c>
       <c r="H65" t="n">
-        <v>0.28</v>
+        <v>0.15</v>
       </c>
       <c r="I65" t="n">
-        <v>16552594</v>
+        <v>16736641</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4777016</v>
+        <v>4774404</v>
       </c>
       <c r="F66" t="n">
-        <v>1224.006356555319</v>
+        <v>1176.725459749351</v>
       </c>
       <c r="G66" t="n">
-        <v>2349.672799136642</v>
+        <v>1556.171413950562</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>1.08</v>
       </c>
       <c r="I66" t="n">
-        <v>182307</v>
+        <v>198935</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125354785</v>
+        <v>125524606</v>
       </c>
       <c r="E67" t="n">
-        <v>2075977914</v>
+        <v>2078790280</v>
       </c>
       <c r="F67" t="n">
-        <v>23176.65134050339</v>
+        <v>21089.48503275574</v>
       </c>
       <c r="G67" t="n">
-        <v>26067.73621888343</v>
+        <v>21511.03674964447</v>
       </c>
       <c r="H67" t="n">
         <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>4823250</v>
+        <v>4699004</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24618931</v>
+        <v>24744495</v>
       </c>
       <c r="E68" t="n">
-        <v>147300015</v>
+        <v>148051290</v>
       </c>
       <c r="F68" t="n">
-        <v>42923.05329021005</v>
+        <v>45416.5980461479</v>
       </c>
       <c r="G68" t="n">
-        <v>8115.825364286748</v>
+        <v>44151.19349493005</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>12358802</v>
+        <v>12104466</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>22989626</v>
+        <v>23182407</v>
       </c>
       <c r="E70" t="n">
-        <v>22989626</v>
+        <v>23182407</v>
       </c>
       <c r="F70" t="n">
-        <v>15175.54098792836</v>
+        <v>14772.77564589096</v>
       </c>
       <c r="G70" t="n">
-        <v>2811.321941968139</v>
+        <v>6392.512109828428</v>
       </c>
       <c r="H70" t="n">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="I70" t="n">
-        <v>2073031</v>
+        <v>2097587</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35125201</v>
+        <v>35105283</v>
       </c>
       <c r="E71" t="n">
-        <v>175290945</v>
+        <v>175191544</v>
       </c>
       <c r="F71" t="n">
-        <v>18372.41042637294</v>
+        <v>19800.25218832831</v>
       </c>
       <c r="G71" t="n">
-        <v>38469.27123859688</v>
+        <v>39366.35021912371</v>
       </c>
       <c r="H71" t="n">
         <v>0.57</v>
       </c>
       <c r="I71" t="n">
-        <v>10293961</v>
+        <v>10365968</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>178951</v>
+        <v>186774</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>5.56</v>
+        <v>5.26</v>
       </c>
       <c r="I72" t="n">
-        <v>13602.59</v>
+        <v>13470.43</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>316585868</v>
+        <v>317782505</v>
       </c>
       <c r="E73" t="n">
-        <v>585756052</v>
+        <v>587970103</v>
       </c>
       <c r="F73" t="n">
-        <v>55421.26442064272</v>
+        <v>55650.96339826327</v>
       </c>
       <c r="G73" t="n">
-        <v>62601.48645202016</v>
+        <v>62001.68474180653</v>
       </c>
       <c r="H73" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>13542355</v>
+        <v>13931107</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11113089</v>
+        <v>11445255</v>
       </c>
       <c r="E74" t="n">
-        <v>32973270</v>
+        <v>33958829</v>
       </c>
       <c r="F74" t="n">
-        <v>1914.644643055949</v>
+        <v>2638.426476745929</v>
       </c>
       <c r="G74" t="n">
-        <v>2446.532417390069</v>
+        <v>2866.14455737045</v>
       </c>
       <c r="H74" t="n">
-        <v>0.53</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>7122025</v>
+        <v>7203768</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8423637</v>
+        <v>8421803</v>
       </c>
       <c r="E75" t="n">
-        <v>12001752</v>
+        <v>11999139</v>
       </c>
       <c r="F75" t="n">
-        <v>3689.483553920326</v>
+        <v>3673.277873380428</v>
       </c>
       <c r="G75" t="n">
-        <v>49.66205755870081</v>
+        <v>49.78441477066218</v>
       </c>
       <c r="H75" t="n">
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>427053</v>
+        <v>414077</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16304257</v>
+        <v>16297446</v>
       </c>
       <c r="F76" t="n">
-        <v>16.18911141235645</v>
+        <v>164.0411036440778</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6071379587538075</v>
+        <v>0.6071398355160349</v>
       </c>
       <c r="H76" t="n">
         <v>0.99</v>
       </c>
       <c r="I76" t="n">
-        <v>993405</v>
+        <v>998260</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>62213029</v>
+        <v>62422080</v>
       </c>
       <c r="E77" t="n">
-        <v>102925202</v>
+        <v>103271057</v>
       </c>
       <c r="F77" t="n">
-        <v>9799.451836806858</v>
+        <v>11375.60128901803</v>
       </c>
       <c r="G77" t="n">
-        <v>20228.1143103238</v>
+        <v>19618.72139804165</v>
       </c>
       <c r="H77" t="n">
-        <v>0.42</v>
+        <v>0.27</v>
       </c>
       <c r="I77" t="n">
-        <v>6654449</v>
+        <v>6631033</v>
       </c>
     </row>
     <row r="78">
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5910011</v>
+        <v>6412617</v>
       </c>
       <c r="E78" t="n">
-        <v>5910011</v>
+        <v>6412617</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>4.71</v>
+        <v>4.49</v>
       </c>
       <c r="I78" t="n">
-        <v>1156388</v>
+        <v>1217127</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>59867</v>
+        <v>59262</v>
       </c>
       <c r="E79" t="n">
-        <v>312364</v>
+        <v>309204</v>
       </c>
       <c r="F79" t="n">
-        <v>361.7406515734797</v>
+        <v>41.54395230996267</v>
       </c>
       <c r="G79" t="n">
-        <v>9.432056634055003</v>
+        <v>8.652779745135383</v>
       </c>
       <c r="H79" t="n">
-        <v>0.83</v>
+        <v>1.59</v>
       </c>
       <c r="I79" t="n">
-        <v>284728</v>
+        <v>290335</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26288864</v>
+        <v>26490199</v>
       </c>
       <c r="F80" t="n">
-        <v>1134.491639109756</v>
+        <v>804.4328600587966</v>
       </c>
       <c r="G80" t="n">
-        <v>3805.722913343819</v>
+        <v>3093.896560645495</v>
       </c>
       <c r="H80" t="n">
-        <v>0.15</v>
+        <v>0.83</v>
       </c>
       <c r="I80" t="n">
-        <v>60693</v>
+        <v>60707</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>610427962</v>
+        <v>611631851</v>
       </c>
       <c r="E81" t="n">
-        <v>2364097435</v>
+        <v>2368759918</v>
       </c>
       <c r="F81" t="n">
-        <v>178929.7602946645</v>
+        <v>179944.2383294384</v>
       </c>
       <c r="G81" t="n">
-        <v>184256.1541072856</v>
+        <v>293377.5507546137</v>
       </c>
       <c r="H81" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I81" t="n">
-        <v>32116461</v>
+        <v>32764274</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7348895</v>
+        <v>7347820</v>
       </c>
       <c r="E82" t="n">
-        <v>10529660</v>
+        <v>10528078</v>
       </c>
       <c r="F82" t="n">
-        <v>1112.076440816601</v>
+        <v>1452.015047129341</v>
       </c>
       <c r="G82" t="n">
-        <v>953.9748230088142</v>
+        <v>742.0313045939037</v>
       </c>
       <c r="H82" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>199577</v>
+        <v>198933</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>123163187</v>
+        <v>123296876</v>
       </c>
       <c r="E83" t="n">
-        <v>1070828210</v>
+        <v>1071990560</v>
       </c>
       <c r="F83" t="n">
-        <v>40685.69521234445</v>
+        <v>46244.56640520832</v>
       </c>
       <c r="G83" t="n">
-        <v>46736.79297714308</v>
+        <v>50191.65066914701</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>9135565</v>
+        <v>9147492</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1138186</v>
+        <v>1137491</v>
       </c>
       <c r="E84" t="n">
-        <v>4407306</v>
+        <v>4404612</v>
       </c>
       <c r="F84" t="n">
-        <v>607.5264688874026</v>
+        <v>565.1864626000033</v>
       </c>
       <c r="G84" t="n">
-        <v>777.1199804661891</v>
+        <v>821.19773802676</v>
       </c>
       <c r="H84" t="n">
         <v>1.13</v>
       </c>
       <c r="I84" t="n">
-        <v>368821</v>
+        <v>371746</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>121431442</v>
+        <v>122896258</v>
       </c>
       <c r="E85" t="n">
-        <v>465830556</v>
+        <v>471449826</v>
       </c>
       <c r="F85" t="n">
-        <v>65784.80931081838</v>
+        <v>73554.10713069206</v>
       </c>
       <c r="G85" t="n">
-        <v>76215.10980115905</v>
+        <v>84476.42902107519</v>
       </c>
       <c r="H85" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I85" t="n">
-        <v>31406429</v>
+        <v>30562427</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5152349</v>
+        <v>5258689</v>
       </c>
       <c r="E86" t="n">
-        <v>19186292</v>
+        <v>19582281</v>
       </c>
       <c r="F86" t="n">
-        <v>5665.536832500722</v>
+        <v>3865.221455538812</v>
       </c>
       <c r="G86" t="n">
-        <v>5818.98082846236</v>
+        <v>3112.367746441883</v>
       </c>
       <c r="H86" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>62299</v>
+        <v>70780</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31589109</v>
+        <v>31843552</v>
       </c>
       <c r="F87" t="n">
-        <v>3732.565418582044</v>
+        <v>1845.655653969</v>
       </c>
       <c r="G87" t="n">
-        <v>2984.971018990812</v>
+        <v>3380.00591558824</v>
       </c>
       <c r="H87" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I87" t="n">
-        <v>5399764</v>
+        <v>5359052</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24816825</v>
+        <v>24840176</v>
       </c>
       <c r="F88" t="n">
-        <v>1330.031098282667</v>
+        <v>1252.632838911075</v>
       </c>
       <c r="G88" t="n">
-        <v>1258.952278479802</v>
+        <v>1332.517958906405</v>
       </c>
       <c r="H88" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="I88" t="n">
-        <v>17665.83</v>
+        <v>16713.61</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88664052</v>
+        <v>89005814</v>
       </c>
       <c r="E89" t="n">
-        <v>327754281</v>
+        <v>329016118</v>
       </c>
       <c r="F89" t="n">
-        <v>1828.845811570083</v>
+        <v>1685.79747494413</v>
       </c>
       <c r="G89" t="n">
-        <v>1745.053964642405</v>
+        <v>881.9921762391421</v>
       </c>
       <c r="H89" t="n">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
       <c r="I89" t="n">
-        <v>240816</v>
+        <v>239252</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20580570</v>
+        <v>20647277</v>
       </c>
       <c r="E90" t="n">
-        <v>20580570</v>
+        <v>20647278</v>
       </c>
       <c r="F90" t="n">
-        <v>2915.278032012289</v>
+        <v>2354.898724489424</v>
       </c>
       <c r="G90" t="n">
-        <v>5051.374157621045</v>
+        <v>4885.31667474289</v>
       </c>
       <c r="H90" t="n">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
       <c r="I90" t="n">
-        <v>7157935</v>
+        <v>7034547</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3830931</v>
+        <v>3845880</v>
       </c>
       <c r="E91" t="n">
-        <v>8359043</v>
+        <v>8391660</v>
       </c>
       <c r="F91" t="n">
-        <v>1876.780161551365</v>
+        <v>1919.443538890135</v>
       </c>
       <c r="G91" t="n">
-        <v>3367.483591187504</v>
+        <v>2827.308365750004</v>
       </c>
       <c r="H91" t="n">
-        <v>0.36</v>
+        <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>1595671</v>
+        <v>1654722</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>495432508</v>
+        <v>498330311</v>
       </c>
       <c r="E92" t="n">
-        <v>1724559330</v>
+        <v>1734646339</v>
       </c>
       <c r="F92" t="n">
-        <v>175989.549205831</v>
+        <v>174696.6917326314</v>
       </c>
       <c r="G92" t="n">
-        <v>180610.435038401</v>
+        <v>179079.1595926358</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>30466391</v>
+        <v>30876293</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2631093</v>
+        <v>2631929</v>
       </c>
       <c r="E93" t="n">
-        <v>10524372</v>
+        <v>10527717</v>
       </c>
       <c r="F93" t="n">
-        <v>1910.590695012972</v>
+        <v>3165.279048856863</v>
       </c>
       <c r="G93" t="n">
-        <v>3677.94063972425</v>
+        <v>2874.241948880408</v>
       </c>
       <c r="H93" t="n">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="I93" t="n">
-        <v>6858163</v>
+        <v>6860962</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>226763653</v>
+        <v>229227366</v>
       </c>
       <c r="E94" t="n">
-        <v>697212897</v>
+        <v>704787887</v>
       </c>
       <c r="F94" t="n">
-        <v>117653.8420106334</v>
+        <v>109917.0494933686</v>
       </c>
       <c r="G94" t="n">
-        <v>103794.1167346725</v>
+        <v>100235.335423506</v>
       </c>
       <c r="H94" t="n">
         <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>14609203</v>
+        <v>15171962</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>151842455</v>
+        <v>148336981</v>
       </c>
       <c r="E95" t="n">
-        <v>396684201</v>
+        <v>387526249</v>
       </c>
       <c r="F95" t="n">
-        <v>31577.03757758716</v>
+        <v>30638.50579844391</v>
       </c>
       <c r="G95" t="n">
-        <v>31540.86009898842</v>
+        <v>31404.93032847159</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>7427956</v>
+        <v>7171582</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>402315210</v>
+        <v>405193101</v>
       </c>
       <c r="E96" t="n">
-        <v>2298944057</v>
+        <v>2315389147</v>
       </c>
       <c r="F96" t="n">
-        <v>19941.73336870045</v>
+        <v>21936.75357739196</v>
       </c>
       <c r="G96" t="n">
-        <v>43244.53181178613</v>
+        <v>48182.50266965563</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>38754091</v>
+        <v>39335091</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>609481703</v>
+        <v>609977785</v>
       </c>
       <c r="E2" t="n">
-        <v>1182666553</v>
+        <v>1183629172</v>
       </c>
       <c r="F2" t="n">
-        <v>27595.71350432689</v>
+        <v>27031.64536716215</v>
       </c>
       <c r="G2" t="n">
-        <v>34013.06505049949</v>
+        <v>30613.99139889736</v>
       </c>
       <c r="H2" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>18870950</v>
+        <v>18752653</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1354983</v>
+        <v>1346634</v>
       </c>
       <c r="E3" t="n">
-        <v>4379862</v>
+        <v>4352873</v>
       </c>
       <c r="F3" t="n">
-        <v>918.6598536600178</v>
+        <v>901.4408067720005</v>
       </c>
       <c r="G3" t="n">
-        <v>3072.02747636308</v>
+        <v>3203.070296310334</v>
       </c>
       <c r="H3" t="n">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>126541</v>
+        <v>126768</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249969520</v>
+        <v>248630681</v>
       </c>
       <c r="E4" t="n">
-        <v>1567523727</v>
+        <v>1559128054</v>
       </c>
       <c r="F4" t="n">
-        <v>145359.8400432763</v>
+        <v>137493.0459804141</v>
       </c>
       <c r="G4" t="n">
-        <v>139338.5110189209</v>
+        <v>137924.2496533838</v>
       </c>
       <c r="H4" t="n">
         <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>17404710</v>
+        <v>17628194</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>146979466</v>
+        <v>146579210</v>
       </c>
       <c r="E5" t="n">
-        <v>162876218</v>
+        <v>162432672</v>
       </c>
       <c r="F5" t="n">
-        <v>7752.058461952141</v>
+        <v>6045.321060171927</v>
       </c>
       <c r="G5" t="n">
-        <v>20058.81602989416</v>
+        <v>25150.95048563822</v>
       </c>
       <c r="H5" t="n">
         <v>0.61</v>
       </c>
       <c r="I5" t="n">
-        <v>37216024</v>
+        <v>37229213</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>694268</v>
+        <v>694429</v>
       </c>
       <c r="E6" t="n">
-        <v>13487656</v>
+        <v>13490793</v>
       </c>
       <c r="F6" t="n">
-        <v>202.5478961100551</v>
+        <v>202.5489090498418</v>
       </c>
       <c r="G6" t="n">
-        <v>207.9194789419547</v>
+        <v>207.9205187449676</v>
       </c>
       <c r="H6" t="n">
         <v>0.59</v>
       </c>
       <c r="I6" t="n">
-        <v>20121</v>
+        <v>20132</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>480317892</v>
+        <v>476977210</v>
       </c>
       <c r="E7" t="n">
-        <v>480317896</v>
+        <v>476977214</v>
       </c>
       <c r="F7" t="n">
-        <v>40540.69844791506</v>
+        <v>41844.33793307521</v>
       </c>
       <c r="G7" t="n">
-        <v>49516.0492002669</v>
+        <v>56359.94484160332</v>
       </c>
       <c r="H7" t="n">
         <v>0.04</v>
       </c>
       <c r="I7" t="n">
-        <v>69349129</v>
+        <v>68626772</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4722258</v>
+        <v>4715892</v>
       </c>
       <c r="E8" t="n">
-        <v>4722258</v>
+        <v>4715892</v>
       </c>
       <c r="F8" t="n">
-        <v>688.3721765099764</v>
+        <v>994.836401826681</v>
       </c>
       <c r="G8" t="n">
-        <v>1223.738221853039</v>
+        <v>1043.880211027105</v>
       </c>
       <c r="H8" t="n">
-        <v>0.58</v>
+        <v>0.41</v>
       </c>
       <c r="I8" t="n">
-        <v>2008858</v>
+        <v>2015118</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1708880</v>
+        <v>1719371</v>
       </c>
       <c r="F9" t="n">
-        <v>2692.23781523918</v>
+        <v>3460.994239847625</v>
       </c>
       <c r="G9" t="n">
-        <v>1682.756742849431</v>
+        <v>1659.838115100818</v>
       </c>
       <c r="H9" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="I9" t="n">
-        <v>148749</v>
+        <v>150087</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1509438</v>
+        <v>1509545</v>
       </c>
       <c r="F10" t="n">
-        <v>354.9963182880729</v>
+        <v>509.8884482376385</v>
       </c>
       <c r="G10" t="n">
-        <v>357.4354348539177</v>
+        <v>252.8910620172644</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="I10" t="n">
-        <v>290805</v>
+        <v>289298</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>111496339</v>
+        <v>111234363</v>
       </c>
       <c r="E11" t="n">
-        <v>210045886</v>
+        <v>209552354</v>
       </c>
       <c r="F11" t="n">
-        <v>1168.019669464466</v>
+        <v>1245.156905548697</v>
       </c>
       <c r="G11" t="n">
-        <v>378.2222633952437</v>
+        <v>578.2345679726591</v>
       </c>
       <c r="H11" t="n">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="I11" t="n">
-        <v>4312087</v>
+        <v>4301362</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12796104</v>
+        <v>12763977</v>
       </c>
       <c r="E12" t="n">
-        <v>31847188</v>
+        <v>31767229</v>
       </c>
       <c r="F12" t="n">
-        <v>1115.353925884227</v>
+        <v>1218.255739774467</v>
       </c>
       <c r="G12" t="n">
-        <v>885.2123622756761</v>
+        <v>621.428481965027</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="I12" t="n">
-        <v>1241262</v>
+        <v>1234935</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116206932</v>
+        <v>115861639</v>
       </c>
       <c r="E13" t="n">
-        <v>452088937</v>
+        <v>450735360</v>
       </c>
       <c r="F13" t="n">
-        <v>27796.55845827807</v>
+        <v>15432.01101589651</v>
       </c>
       <c r="G13" t="n">
-        <v>33923.97236285693</v>
+        <v>30582.03823989341</v>
       </c>
       <c r="H13" t="n">
         <v>0.13</v>
       </c>
       <c r="I13" t="n">
-        <v>9380242</v>
+        <v>9386848</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5175624</v>
+        <v>5229470</v>
       </c>
       <c r="E14" t="n">
-        <v>7618798</v>
+        <v>7698062</v>
       </c>
       <c r="F14" t="n">
-        <v>246.132601294157</v>
+        <v>401.7516466155301</v>
       </c>
       <c r="G14" t="n">
-        <v>668.8934745179273</v>
+        <v>690.9580230371164</v>
       </c>
       <c r="H14" t="n">
         <v>1.32</v>
       </c>
       <c r="I14" t="n">
-        <v>601841</v>
+        <v>608239</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>140134678</v>
+        <v>139697662</v>
       </c>
       <c r="E15" t="n">
-        <v>140134678</v>
+        <v>139697662</v>
       </c>
       <c r="F15" t="n">
-        <v>49727.8584357344</v>
+        <v>49551.35570559143</v>
       </c>
       <c r="G15" t="n">
-        <v>82531.22506401583</v>
+        <v>82481.17288184243</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>68061754</v>
+        <v>68145221</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>67126410</v>
+        <v>66646798</v>
       </c>
       <c r="E16" t="n">
-        <v>344237998</v>
+        <v>341778453</v>
       </c>
       <c r="F16" t="n">
-        <v>15307.89364829256</v>
+        <v>12251.24773495375</v>
       </c>
       <c r="G16" t="n">
-        <v>9616.054932049527</v>
+        <v>15178.5620364028</v>
       </c>
       <c r="H16" t="n">
         <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>22087116</v>
+        <v>22219146</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>258570269</v>
+        <v>257684251</v>
       </c>
       <c r="E17" t="n">
-        <v>258570269</v>
+        <v>257684251</v>
       </c>
       <c r="F17" t="n">
-        <v>65129.17384772466</v>
+        <v>58662.09672420506</v>
       </c>
       <c r="G17" t="n">
-        <v>48883.85848659502</v>
+        <v>51497.37643700092</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>14504273</v>
+        <v>14406929</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2557812</v>
+        <v>2556816</v>
       </c>
       <c r="E18" t="n">
-        <v>6539268</v>
+        <v>6536722</v>
       </c>
       <c r="F18" t="n">
-        <v>993.319539774511</v>
+        <v>1004.680027900539</v>
       </c>
       <c r="G18" t="n">
-        <v>995.2656804082667</v>
+        <v>957.5617394121513</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>109480</v>
+        <v>109354</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>83361989</v>
+        <v>82042446</v>
       </c>
       <c r="E19" t="n">
-        <v>233200969</v>
+        <v>229569759</v>
       </c>
       <c r="F19" t="n">
-        <v>13799.78683895035</v>
+        <v>17576.89368834985</v>
       </c>
       <c r="G19" t="n">
-        <v>20039.13968750426</v>
+        <v>18086.61535768123</v>
       </c>
       <c r="H19" t="n">
-        <v>0.06</v>
+        <v>0.14</v>
       </c>
       <c r="I19" t="n">
-        <v>44054211</v>
+        <v>44481066</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1619296</v>
+        <v>1615119</v>
       </c>
       <c r="E20" t="n">
-        <v>9297391</v>
+        <v>9273410</v>
       </c>
       <c r="F20" t="n">
-        <v>126.5340615574437</v>
+        <v>34.51375130231245</v>
       </c>
       <c r="G20" t="n">
-        <v>638.3261404163167</v>
+        <v>645.4955113675944</v>
       </c>
       <c r="H20" t="n">
-        <v>0.86</v>
+        <v>0.27</v>
       </c>
       <c r="I20" t="n">
-        <v>279635</v>
+        <v>277849</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>165308</v>
+        <v>164955</v>
       </c>
       <c r="E21" t="n">
-        <v>1116341</v>
+        <v>1113957</v>
       </c>
       <c r="F21" t="n">
-        <v>121.2734216012905</v>
+        <v>121.2576278156351</v>
       </c>
       <c r="G21" t="n">
-        <v>6.535987264460757</v>
+        <v>6.536002997613468</v>
       </c>
       <c r="H21" t="n">
         <v>0.65</v>
       </c>
       <c r="I21" t="n">
-        <v>2802795</v>
+        <v>2806557</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>265787</v>
+        <v>265640</v>
       </c>
       <c r="F22" t="n">
-        <v>69.23209575701706</v>
+        <v>69.23226240959623</v>
       </c>
       <c r="G22" t="n">
-        <v>50.61747672463513</v>
+        <v>50.61759856888894</v>
       </c>
       <c r="H22" t="n">
         <v>1.67</v>
       </c>
       <c r="I22" t="n">
-        <v>1696.12</v>
+        <v>1592.05</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>78255538</v>
+        <v>78441662</v>
       </c>
       <c r="E23" t="n">
-        <v>163202537</v>
+        <v>163590699</v>
       </c>
       <c r="F23" t="n">
-        <v>42128.29181347199</v>
+        <v>32855.65585178458</v>
       </c>
       <c r="G23" t="n">
-        <v>41941.48281136788</v>
+        <v>40906.3220129047</v>
       </c>
       <c r="H23" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="I23" t="n">
-        <v>17604682</v>
+        <v>17736835</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>205532152</v>
+        <v>205191713</v>
       </c>
       <c r="E24" t="n">
-        <v>714037271</v>
+        <v>712854557</v>
       </c>
       <c r="F24" t="n">
-        <v>62544.8118780215</v>
+        <v>62334.75625835796</v>
       </c>
       <c r="G24" t="n">
-        <v>61879.33484705817</v>
+        <v>63426.61226663151</v>
       </c>
       <c r="H24" t="n">
         <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>28122940</v>
+        <v>28101169</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>116390807</v>
+        <v>116051723</v>
       </c>
       <c r="E25" t="n">
-        <v>494448270</v>
+        <v>492985091</v>
       </c>
       <c r="F25" t="n">
-        <v>17288.14833241951</v>
+        <v>16558.16853432612</v>
       </c>
       <c r="G25" t="n">
-        <v>17060.20164036647</v>
+        <v>15697.24022116299</v>
       </c>
       <c r="H25" t="n">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="I25" t="n">
-        <v>15410461</v>
+        <v>15387102</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5822790</v>
+        <v>5815657</v>
       </c>
       <c r="E26" t="n">
-        <v>7910588</v>
+        <v>7900897</v>
       </c>
       <c r="F26" t="n">
-        <v>149.0997933771156</v>
+        <v>362.5886024321267</v>
       </c>
       <c r="G26" t="n">
-        <v>1348.149675474455</v>
+        <v>1450.022900221634</v>
       </c>
       <c r="H26" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
       <c r="I26" t="n">
-        <v>1330892</v>
+        <v>1328769</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>566841</v>
+        <v>567534</v>
       </c>
       <c r="E27" t="n">
-        <v>6875235</v>
+        <v>6883637</v>
       </c>
       <c r="F27" t="n">
-        <v>570.8155063507394</v>
+        <v>643.9343831352037</v>
       </c>
       <c r="G27" t="n">
-        <v>781.2589802266219</v>
+        <v>772.8222138014718</v>
       </c>
       <c r="H27" t="n">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="I27" t="n">
-        <v>2828901</v>
+        <v>2827836</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25747540</v>
+        <v>26105874</v>
       </c>
       <c r="E28" t="n">
-        <v>36393143</v>
+        <v>36899633</v>
       </c>
       <c r="F28" t="n">
-        <v>1.740544169111738</v>
+        <v>1.740548358876207</v>
       </c>
       <c r="G28" t="n">
-        <v>117.0163492000619</v>
+        <v>106.161437673623</v>
       </c>
       <c r="H28" t="n">
         <v>3.46</v>
       </c>
       <c r="I28" t="n">
-        <v>70390</v>
+        <v>71557</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1311308996</v>
+        <v>1303685598</v>
       </c>
       <c r="E29" t="n">
-        <v>6287995186</v>
+        <v>6251439432</v>
       </c>
       <c r="F29" t="n">
-        <v>194598.6458249986</v>
+        <v>184304.7712486236</v>
       </c>
       <c r="G29" t="n">
-        <v>239987.1588623808</v>
+        <v>242615.4838314854</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>166391564</v>
+        <v>165983778</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>274077591</v>
+        <v>271775792</v>
       </c>
       <c r="E30" t="n">
-        <v>1183071036</v>
+        <v>1173135191</v>
       </c>
       <c r="F30" t="n">
-        <v>196866.3797107871</v>
+        <v>182347.7436840133</v>
       </c>
       <c r="G30" t="n">
-        <v>179608.6241416419</v>
+        <v>183984.2946017564</v>
       </c>
       <c r="H30" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I30" t="n">
-        <v>98523697</v>
+        <v>100196031</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5342982</v>
+        <v>5314468</v>
       </c>
       <c r="E31" t="n">
-        <v>5349029</v>
+        <v>5320483</v>
       </c>
       <c r="F31" t="n">
-        <v>106.4917075211076</v>
+        <v>106.4919638628454</v>
       </c>
       <c r="G31" t="n">
-        <v>172.3713270735078</v>
+        <v>172.3717419975104</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>148304</v>
+        <v>147185</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19617661</v>
+        <v>19506534</v>
       </c>
       <c r="E32" t="n">
-        <v>49044153</v>
+        <v>48766334</v>
       </c>
       <c r="F32" t="n">
-        <v>2749.538092131127</v>
+        <v>2735.259642339255</v>
       </c>
       <c r="G32" t="n">
-        <v>4198.006994487394</v>
+        <v>4053.986760312538</v>
       </c>
       <c r="H32" t="n">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="I32" t="n">
-        <v>2061624</v>
+        <v>2065367</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19819963</v>
+        <v>19828895</v>
       </c>
       <c r="F33" t="n">
-        <v>813.9218731887671</v>
+        <v>907.3616139216604</v>
       </c>
       <c r="G33" t="n">
-        <v>1620.29543789374</v>
+        <v>1542.21997234295</v>
       </c>
       <c r="H33" t="n">
         <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>55864</v>
+        <v>56190</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4222437</v>
+        <v>4194667</v>
       </c>
       <c r="E34" t="n">
-        <v>12162626</v>
+        <v>12082636</v>
       </c>
       <c r="F34" t="n">
-        <v>286.7977194591135</v>
+        <v>233.9748239643416</v>
       </c>
       <c r="G34" t="n">
-        <v>851.6041128013346</v>
+        <v>355.6552169154517</v>
       </c>
       <c r="H34" t="n">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="I34" t="n">
-        <v>637093</v>
+        <v>631870</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1649440</v>
+        <v>1649690</v>
       </c>
       <c r="F35" t="n">
-        <v>228.0126243974979</v>
+        <v>307.4992408379496</v>
       </c>
       <c r="G35" t="n">
-        <v>2.330860739023174</v>
+        <v>50.55508002603892</v>
       </c>
       <c r="H35" t="n">
         <v>1.79</v>
       </c>
       <c r="I35" t="n">
-        <v>12549.02</v>
+        <v>12686.67</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14642588</v>
+        <v>14595024</v>
       </c>
       <c r="E36" t="n">
-        <v>70916389</v>
+        <v>70686029</v>
       </c>
       <c r="F36" t="n">
-        <v>3715.976548999737</v>
+        <v>2793.298588107586</v>
       </c>
       <c r="G36" t="n">
-        <v>8551.069056585129</v>
+        <v>8461.573816088689</v>
       </c>
       <c r="H36" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I36" t="n">
-        <v>3768030</v>
+        <v>3802888</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1452347</v>
+        <v>1463969</v>
       </c>
       <c r="E37" t="n">
-        <v>9505570</v>
+        <v>9581639</v>
       </c>
       <c r="F37" t="n">
-        <v>20.11092969626062</v>
+        <v>546.8546622264225</v>
       </c>
       <c r="G37" t="n">
-        <v>40.05511600785641</v>
+        <v>33.86909527894022</v>
       </c>
       <c r="H37" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="I37" t="n">
-        <v>692724</v>
+        <v>706520</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1928529577</v>
+        <v>1919861201</v>
       </c>
       <c r="F38" t="n">
-        <v>77466.01787220295</v>
+        <v>79444.99390177541</v>
       </c>
       <c r="G38" t="n">
-        <v>74489.09476653187</v>
+        <v>77425.66833998756</v>
       </c>
       <c r="H38" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="I38" t="n">
-        <v>27653347</v>
+        <v>27743027</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31813700</v>
+        <v>31783213</v>
       </c>
       <c r="E39" t="n">
-        <v>99057654</v>
+        <v>98962726</v>
       </c>
       <c r="F39" t="n">
-        <v>3359.180737549668</v>
+        <v>3384.443766514969</v>
       </c>
       <c r="G39" t="n">
-        <v>9889.543099082297</v>
+        <v>10919.99409508232</v>
       </c>
       <c r="H39" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I39" t="n">
-        <v>11468209</v>
+        <v>11347883</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>205539632</v>
+        <v>205582629</v>
       </c>
       <c r="E40" t="n">
-        <v>1163891689</v>
+        <v>1164135166</v>
       </c>
       <c r="F40" t="n">
-        <v>46593.41480779993</v>
+        <v>41376.92555982495</v>
       </c>
       <c r="G40" t="n">
-        <v>79534.24925121911</v>
+        <v>85672.19739232442</v>
       </c>
       <c r="H40" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I40" t="n">
-        <v>66228777</v>
+        <v>66332472</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>143166021</v>
+        <v>142990463</v>
       </c>
       <c r="E41" t="n">
-        <v>1060489047</v>
+        <v>1059188615</v>
       </c>
       <c r="F41" t="n">
-        <v>143025.8769601036</v>
+        <v>141630.8798369258</v>
       </c>
       <c r="G41" t="n">
-        <v>220315.5714798821</v>
+        <v>220197.5979587637</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I41" t="n">
-        <v>8659714</v>
+        <v>8588191</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32170813</v>
+        <v>32188501</v>
       </c>
       <c r="E42" t="n">
-        <v>152831980</v>
+        <v>152915212</v>
       </c>
       <c r="F42" t="n">
-        <v>8492.139963644948</v>
+        <v>7819.389651347748</v>
       </c>
       <c r="G42" t="n">
-        <v>6979.869766554545</v>
+        <v>6893.048193161819</v>
       </c>
       <c r="H42" t="n">
-        <v>0.46</v>
+        <v>0.39</v>
       </c>
       <c r="I42" t="n">
-        <v>1133758</v>
+        <v>1129234</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3401380</v>
+        <v>3396323</v>
       </c>
       <c r="E43" t="n">
-        <v>7942789</v>
+        <v>7930980</v>
       </c>
       <c r="F43" t="n">
-        <v>1371.683714851639</v>
+        <v>1128.492870567596</v>
       </c>
       <c r="G43" t="n">
-        <v>798.1263568694111</v>
+        <v>859.9025755203349</v>
       </c>
       <c r="H43" t="n">
-        <v>0.57</v>
+        <v>1.85</v>
       </c>
       <c r="I43" t="n">
-        <v>625377</v>
+        <v>623165</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>347056848</v>
+        <v>344882920</v>
       </c>
       <c r="E44" t="n">
-        <v>3122338611</v>
+        <v>3102780603</v>
       </c>
       <c r="F44" t="n">
-        <v>47341.05429274376</v>
+        <v>48601.6269423881</v>
       </c>
       <c r="G44" t="n">
-        <v>53811.92129776005</v>
+        <v>50615.95303007177</v>
       </c>
       <c r="H44" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>39600853</v>
+        <v>40072617</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>646495</v>
+        <v>646213</v>
       </c>
       <c r="F45" t="n">
-        <v>601.0450855206427</v>
+        <v>626.075077225853</v>
       </c>
       <c r="G45" t="n">
-        <v>187.0129208780231</v>
+        <v>187.0133710476339</v>
       </c>
       <c r="H45" t="n">
         <v>0.95</v>
       </c>
       <c r="I45" t="n">
-        <v>3580.71</v>
+        <v>3529.96</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1577337</v>
+        <v>1573413</v>
       </c>
       <c r="E46" t="n">
-        <v>13144478</v>
+        <v>13111777</v>
       </c>
       <c r="F46" t="n">
-        <v>298.6139016540949</v>
+        <v>255.2535936811098</v>
       </c>
       <c r="G46" t="n">
-        <v>808.8844822592946</v>
+        <v>807.0906248064034</v>
       </c>
       <c r="H46" t="n">
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
       <c r="I46" t="n">
-        <v>37489</v>
+        <v>35782</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4900406</v>
+        <v>4926179</v>
       </c>
       <c r="E47" t="n">
-        <v>17315415</v>
+        <v>17406481</v>
       </c>
       <c r="F47" t="n">
-        <v>829.0415013495488</v>
+        <v>1094.096596955286</v>
       </c>
       <c r="G47" t="n">
-        <v>1524.935123945423</v>
+        <v>1438.756942878657</v>
       </c>
       <c r="H47" t="n">
-        <v>0.06</v>
+        <v>0.46</v>
       </c>
       <c r="I47" t="n">
-        <v>91261</v>
+        <v>96669</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50152718</v>
+        <v>50010689</v>
       </c>
       <c r="E48" t="n">
-        <v>290363513</v>
+        <v>289541226</v>
       </c>
       <c r="F48" t="n">
-        <v>15794.4462609992</v>
+        <v>15631.77131080419</v>
       </c>
       <c r="G48" t="n">
-        <v>13971.00967287982</v>
+        <v>14067.93561853308</v>
       </c>
       <c r="H48" t="n">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="I48" t="n">
-        <v>31868877</v>
+        <v>32410015</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2294788</v>
+        <v>2296797</v>
       </c>
       <c r="E49" t="n">
-        <v>12607959</v>
+        <v>12618996</v>
       </c>
       <c r="F49" t="n">
-        <v>235.7988852419488</v>
+        <v>158.6435024804481</v>
       </c>
       <c r="G49" t="n">
-        <v>2156.885787592527</v>
+        <v>2218.020156887299</v>
       </c>
       <c r="H49" t="n">
         <v>2.36</v>
       </c>
       <c r="I49" t="n">
-        <v>125775</v>
+        <v>125337</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13620424</v>
+        <v>13597064</v>
       </c>
       <c r="E50" t="n">
-        <v>13666775</v>
+        <v>13643336</v>
       </c>
       <c r="F50" t="n">
-        <v>4509.806391454933</v>
+        <v>4471.922655760934</v>
       </c>
       <c r="G50" t="n">
-        <v>11240.68697417711</v>
+        <v>4334.214206536601</v>
       </c>
       <c r="H50" t="n">
         <v>0.65</v>
       </c>
       <c r="I50" t="n">
-        <v>5888352</v>
+        <v>5888828</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22706934</v>
+        <v>22748213</v>
       </c>
       <c r="E51" t="n">
-        <v>68064947</v>
+        <v>68188682</v>
       </c>
       <c r="F51" t="n">
-        <v>13178.47019599964</v>
+        <v>25742.89541997129</v>
       </c>
       <c r="G51" t="n">
-        <v>26944.98707928338</v>
+        <v>23267.47256161134</v>
       </c>
       <c r="H51" t="n">
-        <v>0.62</v>
+        <v>0.44</v>
       </c>
       <c r="I51" t="n">
-        <v>3393589</v>
+        <v>3366929</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15736923</v>
+        <v>15709878</v>
       </c>
       <c r="E52" t="n">
-        <v>96456773</v>
+        <v>96291010</v>
       </c>
       <c r="F52" t="n">
-        <v>5976.629875058427</v>
+        <v>5238.891604869326</v>
       </c>
       <c r="G52" t="n">
-        <v>7422.601573964016</v>
+        <v>6930.213901097069</v>
       </c>
       <c r="H52" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I52" t="n">
-        <v>10332289</v>
+        <v>8771130</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>48078152</v>
+        <v>47781173</v>
       </c>
       <c r="E53" t="n">
-        <v>207115421</v>
+        <v>205836067</v>
       </c>
       <c r="F53" t="n">
-        <v>22304.36871886083</v>
+        <v>22777.59393591744</v>
       </c>
       <c r="G53" t="n">
-        <v>26330.35428151888</v>
+        <v>26235.31162017966</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2</v>
+        <v>0.31</v>
       </c>
       <c r="I53" t="n">
-        <v>8801388</v>
+        <v>8817033</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1044041</v>
+        <v>1040140</v>
       </c>
       <c r="E54" t="n">
-        <v>3051551</v>
+        <v>3040148</v>
       </c>
       <c r="F54" t="n">
-        <v>49.35811194729069</v>
+        <v>49.35823075977371</v>
       </c>
       <c r="G54" t="n">
-        <v>1305.892663524505</v>
+        <v>1305.895807006778</v>
       </c>
       <c r="H54" t="n">
         <v>0.65</v>
       </c>
       <c r="I54" t="n">
-        <v>18927.53</v>
+        <v>18879.42</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>38146443</v>
+        <v>38098249</v>
       </c>
       <c r="E55" t="n">
-        <v>96187017</v>
+        <v>96065493</v>
       </c>
       <c r="F55" t="n">
-        <v>16592.84022568474</v>
+        <v>13054.57081300289</v>
       </c>
       <c r="G55" t="n">
-        <v>10344.63855044578</v>
+        <v>9719.980949262528</v>
       </c>
       <c r="H55" t="n">
         <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>3422089</v>
+        <v>3427280</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28354574</v>
+        <v>28332630</v>
       </c>
       <c r="E56" t="n">
-        <v>67363419</v>
+        <v>67311285</v>
       </c>
       <c r="F56" t="n">
-        <v>13814.25012843184</v>
+        <v>13959.24686923983</v>
       </c>
       <c r="G56" t="n">
-        <v>13827.34335833401</v>
+        <v>13540.67446187171</v>
       </c>
       <c r="H56" t="n">
         <v>0.3</v>
       </c>
       <c r="I56" t="n">
-        <v>401964</v>
+        <v>401640</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12714151</v>
+        <v>12710755</v>
       </c>
       <c r="E57" t="n">
-        <v>19353805</v>
+        <v>19348636</v>
       </c>
       <c r="F57" t="n">
-        <v>1211.690337054991</v>
+        <v>2073.317059714357</v>
       </c>
       <c r="G57" t="n">
-        <v>1599.481701385134</v>
+        <v>2223.518653565266</v>
       </c>
       <c r="H57" t="n">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="I57" t="n">
-        <v>776782</v>
+        <v>771217</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>295827939</v>
+        <v>296574320</v>
       </c>
       <c r="E58" t="n">
-        <v>295827939</v>
+        <v>296574320</v>
       </c>
       <c r="F58" t="n">
-        <v>40827.08185417797</v>
+        <v>49379.38468424023</v>
       </c>
       <c r="G58" t="n">
-        <v>80594.49570769182</v>
+        <v>78765.49806994339</v>
       </c>
       <c r="H58" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>76257235</v>
+        <v>76836931</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11633148</v>
+        <v>11654609</v>
       </c>
       <c r="F59" t="n">
-        <v>266.2981279408144</v>
+        <v>264.6258130816923</v>
       </c>
       <c r="G59" t="n">
-        <v>66.37431300047623</v>
+        <v>101.6457359358941</v>
       </c>
       <c r="H59" t="n">
         <v>1.21</v>
       </c>
       <c r="I59" t="n">
-        <v>94932</v>
+        <v>93774</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>91842631</v>
+        <v>91307855</v>
       </c>
       <c r="E60" t="n">
-        <v>529236852</v>
+        <v>526155241</v>
       </c>
       <c r="F60" t="n">
-        <v>97262.10617071166</v>
+        <v>99273.04662431344</v>
       </c>
       <c r="G60" t="n">
-        <v>98714.06579276119</v>
+        <v>90359.69316452729</v>
       </c>
       <c r="H60" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="I60" t="n">
-        <v>16857946</v>
+        <v>16869476</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9309129</v>
+        <v>9293216</v>
       </c>
       <c r="E61" t="n">
-        <v>9309129</v>
+        <v>9293216</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.99</v>
+        <v>4.92</v>
       </c>
       <c r="I61" t="n">
-        <v>2083211</v>
+        <v>2112118</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30932426</v>
+        <v>30809902</v>
       </c>
       <c r="E62" t="n">
-        <v>138497161</v>
+        <v>137948571</v>
       </c>
       <c r="F62" t="n">
-        <v>16333.11102661666</v>
+        <v>26636.32998753092</v>
       </c>
       <c r="G62" t="n">
-        <v>20032.54537274704</v>
+        <v>13670.86504306588</v>
       </c>
       <c r="H62" t="n">
         <v>0.72</v>
       </c>
       <c r="I62" t="n">
-        <v>8566834</v>
+        <v>8590420</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13025983</v>
+        <v>13002616</v>
       </c>
       <c r="E63" t="n">
-        <v>26040593</v>
+        <v>25993878</v>
       </c>
       <c r="F63" t="n">
-        <v>2752.684320449781</v>
+        <v>2751.522698900775</v>
       </c>
       <c r="G63" t="n">
-        <v>2162.423878766261</v>
+        <v>2107.81594979383</v>
       </c>
       <c r="H63" t="n">
         <v>0.65</v>
       </c>
       <c r="I63" t="n">
-        <v>33100</v>
+        <v>33145</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1526418</v>
+        <v>1523981</v>
       </c>
       <c r="F64" t="n">
-        <v>24.13629821545554</v>
+        <v>57.6019150889971</v>
       </c>
       <c r="G64" t="n">
-        <v>10.80262849936151</v>
+        <v>118.014909189826</v>
       </c>
       <c r="H64" t="n">
-        <v>3.68</v>
+        <v>2.11</v>
       </c>
       <c r="I64" t="n">
-        <v>53979</v>
+        <v>53825</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>50296732</v>
+        <v>50202590</v>
       </c>
       <c r="E65" t="n">
-        <v>326160922</v>
+        <v>325550436</v>
       </c>
       <c r="F65" t="n">
-        <v>19319.32789920485</v>
+        <v>20008.05218905801</v>
       </c>
       <c r="G65" t="n">
-        <v>20721.60469611482</v>
+        <v>16991.71779551108</v>
       </c>
       <c r="H65" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="I65" t="n">
-        <v>16736641</v>
+        <v>16573838</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4774404</v>
+        <v>4789581</v>
       </c>
       <c r="F66" t="n">
-        <v>1176.725459749351</v>
+        <v>1295.214873588249</v>
       </c>
       <c r="G66" t="n">
-        <v>1556.171413950562</v>
+        <v>1589.153154655033</v>
       </c>
       <c r="H66" t="n">
-        <v>1.08</v>
+        <v>0.83</v>
       </c>
       <c r="I66" t="n">
-        <v>198935</v>
+        <v>199383</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125524606</v>
+        <v>125420326</v>
       </c>
       <c r="E67" t="n">
-        <v>2078790280</v>
+        <v>2077063316</v>
       </c>
       <c r="F67" t="n">
-        <v>21089.48503275574</v>
+        <v>21088.4051295977</v>
       </c>
       <c r="G67" t="n">
-        <v>21511.03674964447</v>
+        <v>26501.58206891179</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I67" t="n">
-        <v>4699004</v>
+        <v>4690842</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24744495</v>
+        <v>24589973</v>
       </c>
       <c r="E68" t="n">
-        <v>148051290</v>
+        <v>147126749</v>
       </c>
       <c r="F68" t="n">
-        <v>45416.5980461479</v>
+        <v>42620.60350610789</v>
       </c>
       <c r="G68" t="n">
-        <v>44151.19349493005</v>
+        <v>6872.610914810292</v>
       </c>
       <c r="H68" t="n">
         <v>0.14</v>
       </c>
       <c r="I68" t="n">
-        <v>12104466</v>
+        <v>12336704</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23182407</v>
+        <v>23246139</v>
       </c>
       <c r="E70" t="n">
-        <v>23182407</v>
+        <v>23246139</v>
       </c>
       <c r="F70" t="n">
-        <v>14772.77564589096</v>
+        <v>14502.93067802897</v>
       </c>
       <c r="G70" t="n">
-        <v>6392.512109828428</v>
+        <v>3997.876311194132</v>
       </c>
       <c r="H70" t="n">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>2097587</v>
+        <v>2088801</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35105283</v>
+        <v>34877316</v>
       </c>
       <c r="E71" t="n">
-        <v>175191544</v>
+        <v>174053884</v>
       </c>
       <c r="F71" t="n">
-        <v>19800.25218832831</v>
+        <v>17760.61075618331</v>
       </c>
       <c r="G71" t="n">
-        <v>39366.35021912371</v>
+        <v>34511.15388374894</v>
       </c>
       <c r="H71" t="n">
         <v>0.57</v>
       </c>
       <c r="I71" t="n">
-        <v>10365968</v>
+        <v>10462720</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>186774</v>
+        <v>186903</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.26</v>
       </c>
       <c r="I72" t="n">
-        <v>13470.43</v>
+        <v>13483.46</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>317782505</v>
+        <v>317253607</v>
       </c>
       <c r="E73" t="n">
-        <v>587970103</v>
+        <v>586991522</v>
       </c>
       <c r="F73" t="n">
-        <v>55650.96339826327</v>
+        <v>57408.79767256951</v>
       </c>
       <c r="G73" t="n">
-        <v>62001.68474180653</v>
+        <v>60776.66874637809</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I73" t="n">
-        <v>13931107</v>
+        <v>13920446</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11445255</v>
+        <v>11558924</v>
       </c>
       <c r="E74" t="n">
-        <v>33958829</v>
+        <v>34296093</v>
       </c>
       <c r="F74" t="n">
-        <v>2638.426476745929</v>
+        <v>1810.443530199222</v>
       </c>
       <c r="G74" t="n">
-        <v>2866.14455737045</v>
+        <v>2920.611002213398</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="I74" t="n">
-        <v>7203768</v>
+        <v>7256022</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8421803</v>
+        <v>8405405</v>
       </c>
       <c r="E75" t="n">
-        <v>11999139</v>
+        <v>11975776</v>
       </c>
       <c r="F75" t="n">
-        <v>3673.277873380428</v>
+        <v>3792.731851133608</v>
       </c>
       <c r="G75" t="n">
-        <v>49.78441477066218</v>
+        <v>31.01795285016672</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="I75" t="n">
-        <v>414077</v>
+        <v>404064</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16297446</v>
+        <v>16283958</v>
       </c>
       <c r="F76" t="n">
-        <v>164.0411036440778</v>
+        <v>163.8654660158741</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6071398355160349</v>
+        <v>0.6071412969974244</v>
       </c>
       <c r="H76" t="n">
         <v>0.99</v>
       </c>
       <c r="I76" t="n">
-        <v>998260</v>
+        <v>999930</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>62422080</v>
+        <v>62358720</v>
       </c>
       <c r="E77" t="n">
-        <v>103271057</v>
+        <v>103166234</v>
       </c>
       <c r="F77" t="n">
-        <v>11375.60128901803</v>
+        <v>12227.85469567765</v>
       </c>
       <c r="G77" t="n">
-        <v>19618.72139804165</v>
+        <v>19295.46246131702</v>
       </c>
       <c r="H77" t="n">
-        <v>0.27</v>
+        <v>0.4</v>
       </c>
       <c r="I77" t="n">
-        <v>6631033</v>
+        <v>6698374</v>
       </c>
     </row>
     <row r="78">
@@ -3149,10 +3149,10 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6412617</v>
+        <v>6402303</v>
       </c>
       <c r="E78" t="n">
-        <v>6412617</v>
+        <v>6402303</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>4.49</v>
       </c>
       <c r="I78" t="n">
-        <v>1217127</v>
+        <v>1213679</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>59262</v>
+        <v>59479</v>
       </c>
       <c r="E79" t="n">
-        <v>309204</v>
+        <v>310339</v>
       </c>
       <c r="F79" t="n">
-        <v>41.54395230996267</v>
+        <v>107.1295164107971</v>
       </c>
       <c r="G79" t="n">
-        <v>8.652779745135383</v>
+        <v>23.66249582608182</v>
       </c>
       <c r="H79" t="n">
-        <v>1.59</v>
+        <v>1.15</v>
       </c>
       <c r="I79" t="n">
-        <v>290335</v>
+        <v>290620</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26490199</v>
+        <v>26516368</v>
       </c>
       <c r="F80" t="n">
-        <v>804.4328600587966</v>
+        <v>814.6636085836316</v>
       </c>
       <c r="G80" t="n">
-        <v>3093.896560645495</v>
+        <v>3535.859214787319</v>
       </c>
       <c r="H80" t="n">
-        <v>0.83</v>
+        <v>1.43</v>
       </c>
       <c r="I80" t="n">
-        <v>60707</v>
+        <v>58592</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>611631851</v>
+        <v>609620370</v>
       </c>
       <c r="E81" t="n">
-        <v>2368759918</v>
+        <v>2360969751</v>
       </c>
       <c r="F81" t="n">
-        <v>179944.2383294384</v>
+        <v>168892.3066713022</v>
       </c>
       <c r="G81" t="n">
-        <v>293377.5507546137</v>
+        <v>177983.0858702484</v>
       </c>
       <c r="H81" t="n">
         <v>0.02</v>
       </c>
       <c r="I81" t="n">
-        <v>32764274</v>
+        <v>32787739</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7347820</v>
+        <v>7305043</v>
       </c>
       <c r="E82" t="n">
-        <v>10528078</v>
+        <v>10466786</v>
       </c>
       <c r="F82" t="n">
-        <v>1452.015047129341</v>
+        <v>857.2036481851595</v>
       </c>
       <c r="G82" t="n">
-        <v>742.0313045939037</v>
+        <v>2525.00385619039</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="I82" t="n">
-        <v>198933</v>
+        <v>197359</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>123296876</v>
+        <v>122855046</v>
       </c>
       <c r="E83" t="n">
-        <v>1071990560</v>
+        <v>1068149113</v>
       </c>
       <c r="F83" t="n">
-        <v>46244.56640520832</v>
+        <v>41273.09352523094</v>
       </c>
       <c r="G83" t="n">
-        <v>50191.65066914701</v>
+        <v>43946.45007925203</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>9147492</v>
+        <v>9265512</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1137491</v>
+        <v>1135546</v>
       </c>
       <c r="E84" t="n">
-        <v>4404612</v>
+        <v>4397083</v>
       </c>
       <c r="F84" t="n">
-        <v>565.1864626000033</v>
+        <v>555.2636747893338</v>
       </c>
       <c r="G84" t="n">
-        <v>821.19773802676</v>
+        <v>793.5523602254699</v>
       </c>
       <c r="H84" t="n">
         <v>1.13</v>
       </c>
       <c r="I84" t="n">
-        <v>371746</v>
+        <v>368617</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>122896258</v>
+        <v>122779665</v>
       </c>
       <c r="E85" t="n">
-        <v>471449826</v>
+        <v>471002557</v>
       </c>
       <c r="F85" t="n">
-        <v>73554.10713069206</v>
+        <v>69998.51172583825</v>
       </c>
       <c r="G85" t="n">
-        <v>84476.42902107519</v>
+        <v>74631.91805046189</v>
       </c>
       <c r="H85" t="n">
         <v>0.13</v>
       </c>
       <c r="I85" t="n">
-        <v>30562427</v>
+        <v>30907911</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5258689</v>
+        <v>5291890</v>
       </c>
       <c r="E86" t="n">
-        <v>19582281</v>
+        <v>19705914</v>
       </c>
       <c r="F86" t="n">
-        <v>3865.221455538812</v>
+        <v>3706.575861152261</v>
       </c>
       <c r="G86" t="n">
-        <v>3112.367746441883</v>
+        <v>170.5487115489981</v>
       </c>
       <c r="H86" t="n">
-        <v>0.05</v>
+        <v>0.66</v>
       </c>
       <c r="I86" t="n">
-        <v>70780</v>
+        <v>72395</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>31843552</v>
+        <v>32043285</v>
       </c>
       <c r="F87" t="n">
-        <v>1845.655653969</v>
+        <v>2349.839214748456</v>
       </c>
       <c r="G87" t="n">
-        <v>3380.00591558824</v>
+        <v>5221.538500951467</v>
       </c>
       <c r="H87" t="n">
-        <v>0.22</v>
+        <v>0.44</v>
       </c>
       <c r="I87" t="n">
-        <v>5359052</v>
+        <v>5428370</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24840176</v>
+        <v>24834273</v>
       </c>
       <c r="F88" t="n">
-        <v>1252.632838911075</v>
+        <v>1096.09809149287</v>
       </c>
       <c r="G88" t="n">
-        <v>1332.517958906405</v>
+        <v>1484.350599873077</v>
       </c>
       <c r="H88" t="n">
-        <v>0.82</v>
+        <v>0.74</v>
       </c>
       <c r="I88" t="n">
-        <v>16713.61</v>
+        <v>16696.93</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>89005814</v>
+        <v>88990719</v>
       </c>
       <c r="E89" t="n">
-        <v>329016118</v>
+        <v>328960320</v>
       </c>
       <c r="F89" t="n">
-        <v>1685.79747494413</v>
+        <v>1702.433393678809</v>
       </c>
       <c r="G89" t="n">
-        <v>881.9921762391421</v>
+        <v>1636.800984913154</v>
       </c>
       <c r="H89" t="n">
         <v>0.22</v>
       </c>
       <c r="I89" t="n">
-        <v>239252</v>
+        <v>235753</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20647277</v>
+        <v>20570479</v>
       </c>
       <c r="E90" t="n">
-        <v>20647278</v>
+        <v>20570480</v>
       </c>
       <c r="F90" t="n">
-        <v>2354.898724489424</v>
+        <v>2422.683068055432</v>
       </c>
       <c r="G90" t="n">
-        <v>4885.31667474289</v>
+        <v>4297.743450407206</v>
       </c>
       <c r="H90" t="n">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="I90" t="n">
-        <v>7034547</v>
+        <v>6928857</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3845880</v>
+        <v>3847592</v>
       </c>
       <c r="E91" t="n">
-        <v>8391660</v>
+        <v>8395395</v>
       </c>
       <c r="F91" t="n">
-        <v>1919.443538890135</v>
+        <v>1805.530668613543</v>
       </c>
       <c r="G91" t="n">
-        <v>2827.308365750004</v>
+        <v>2712.949864166548</v>
       </c>
       <c r="H91" t="n">
         <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>1654722</v>
+        <v>1672632</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>498330311</v>
+        <v>497085188</v>
       </c>
       <c r="E92" t="n">
-        <v>1734646339</v>
+        <v>1730312169</v>
       </c>
       <c r="F92" t="n">
-        <v>174696.6917326314</v>
+        <v>175961.8031348352</v>
       </c>
       <c r="G92" t="n">
-        <v>179079.1595926358</v>
+        <v>176637.8458880393</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>30876293</v>
+        <v>30640945</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2631929</v>
+        <v>2635114</v>
       </c>
       <c r="E93" t="n">
-        <v>10527717</v>
+        <v>10540455</v>
       </c>
       <c r="F93" t="n">
-        <v>3165.279048856863</v>
+        <v>2353.034334866114</v>
       </c>
       <c r="G93" t="n">
-        <v>2874.241948880408</v>
+        <v>3552.476485957774</v>
       </c>
       <c r="H93" t="n">
-        <v>0.66</v>
+        <v>0.85</v>
       </c>
       <c r="I93" t="n">
-        <v>6860962</v>
+        <v>6858433</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>229227366</v>
+        <v>227635638</v>
       </c>
       <c r="E94" t="n">
-        <v>704787887</v>
+        <v>699893922</v>
       </c>
       <c r="F94" t="n">
-        <v>109917.0494933686</v>
+        <v>109801.8635803745</v>
       </c>
       <c r="G94" t="n">
-        <v>100235.335423506</v>
+        <v>112870.1195510799</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>15171962</v>
+        <v>15257445</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>148336981</v>
+        <v>148172739</v>
       </c>
       <c r="E95" t="n">
-        <v>387526249</v>
+        <v>387097170</v>
       </c>
       <c r="F95" t="n">
-        <v>30638.50579844391</v>
+        <v>27022.0913827021</v>
       </c>
       <c r="G95" t="n">
-        <v>31404.93032847159</v>
+        <v>26754.59571727285</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="I95" t="n">
-        <v>7171582</v>
+        <v>7716647</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>405193101</v>
+        <v>404398007</v>
       </c>
       <c r="E96" t="n">
-        <v>2315389147</v>
+        <v>2310845756</v>
       </c>
       <c r="F96" t="n">
-        <v>21936.75357739196</v>
+        <v>19799.41435753299</v>
       </c>
       <c r="G96" t="n">
-        <v>48182.50266965563</v>
+        <v>48208.21463650742</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>39335091</v>
+        <v>39316121</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>609977785</v>
+        <v>609131903</v>
       </c>
       <c r="E2" t="n">
-        <v>1183629172</v>
+        <v>1181993055</v>
       </c>
       <c r="F2" t="n">
-        <v>27031.64536716215</v>
+        <v>22287.93458464805</v>
       </c>
       <c r="G2" t="n">
-        <v>30613.99139889736</v>
+        <v>32761.82182693187</v>
       </c>
       <c r="H2" t="n">
         <v>0.13</v>
       </c>
       <c r="I2" t="n">
-        <v>18752653</v>
+        <v>19004096</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1346634</v>
+        <v>1361610</v>
       </c>
       <c r="E3" t="n">
-        <v>4352873</v>
+        <v>4401281</v>
       </c>
       <c r="F3" t="n">
-        <v>901.4408067720005</v>
+        <v>1116.11070326159</v>
       </c>
       <c r="G3" t="n">
-        <v>3203.070296310334</v>
+        <v>4140.571665098992</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="I3" t="n">
-        <v>126768</v>
+        <v>133862</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>248630681</v>
+        <v>248774205</v>
       </c>
       <c r="E4" t="n">
-        <v>1559128054</v>
+        <v>1560028073</v>
       </c>
       <c r="F4" t="n">
-        <v>137493.0459804141</v>
+        <v>139448.7846036094</v>
       </c>
       <c r="G4" t="n">
-        <v>137924.2496533838</v>
+        <v>142258.225464084</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>17628194</v>
+        <v>17519151</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>146579210</v>
+        <v>148177480</v>
       </c>
       <c r="E5" t="n">
-        <v>162432672</v>
+        <v>164203805</v>
       </c>
       <c r="F5" t="n">
-        <v>6045.321060171927</v>
+        <v>7899.758914204737</v>
       </c>
       <c r="G5" t="n">
-        <v>25150.95048563822</v>
+        <v>21050.44999192808</v>
       </c>
       <c r="H5" t="n">
         <v>0.61</v>
       </c>
       <c r="I5" t="n">
-        <v>37229213</v>
+        <v>37810710</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>694429</v>
+        <v>694752</v>
       </c>
       <c r="E6" t="n">
-        <v>13490793</v>
+        <v>13497061</v>
       </c>
       <c r="F6" t="n">
-        <v>202.5489090498418</v>
+        <v>145.2914350652967</v>
       </c>
       <c r="G6" t="n">
-        <v>207.9205187449676</v>
+        <v>207.8227682361717</v>
       </c>
       <c r="H6" t="n">
         <v>0.59</v>
       </c>
       <c r="I6" t="n">
-        <v>20132</v>
+        <v>20340</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>476977210</v>
+        <v>478385106</v>
       </c>
       <c r="E7" t="n">
-        <v>476977214</v>
+        <v>478385111</v>
       </c>
       <c r="F7" t="n">
-        <v>41844.33793307521</v>
+        <v>33274.26448407987</v>
       </c>
       <c r="G7" t="n">
-        <v>56359.94484160332</v>
+        <v>51381.07497832796</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>68626772</v>
+        <v>65338727</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4715892</v>
+        <v>4755173</v>
       </c>
       <c r="E8" t="n">
-        <v>4715892</v>
+        <v>4755173</v>
       </c>
       <c r="F8" t="n">
-        <v>994.836401826681</v>
+        <v>380.0180601977513</v>
       </c>
       <c r="G8" t="n">
-        <v>1043.880211027105</v>
+        <v>800.7076914098627</v>
       </c>
       <c r="H8" t="n">
-        <v>0.41</v>
+        <v>0.63</v>
       </c>
       <c r="I8" t="n">
-        <v>2015118</v>
+        <v>1916249</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1719371</v>
+        <v>1721420</v>
       </c>
       <c r="F9" t="n">
-        <v>3460.994239847625</v>
+        <v>6892.760769152121</v>
       </c>
       <c r="G9" t="n">
-        <v>1659.838115100818</v>
+        <v>2599.508444842284</v>
       </c>
       <c r="H9" t="n">
-        <v>1.1</v>
+        <v>0.25</v>
       </c>
       <c r="I9" t="n">
-        <v>150087</v>
+        <v>155883</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1509545</v>
+        <v>1489420</v>
       </c>
       <c r="F10" t="n">
-        <v>509.8884482376385</v>
+        <v>324.7629917488162</v>
       </c>
       <c r="G10" t="n">
-        <v>252.8910620172644</v>
+        <v>178.4339781868713</v>
       </c>
       <c r="H10" t="n">
-        <v>0.92</v>
+        <v>0.61</v>
       </c>
       <c r="I10" t="n">
-        <v>289298</v>
+        <v>293861</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>111234363</v>
+        <v>111457964</v>
       </c>
       <c r="E11" t="n">
-        <v>209552354</v>
+        <v>209973592</v>
       </c>
       <c r="F11" t="n">
-        <v>1245.156905548697</v>
+        <v>1512.327426168669</v>
       </c>
       <c r="G11" t="n">
-        <v>578.2345679726591</v>
+        <v>109.0957594664398</v>
       </c>
       <c r="H11" t="n">
-        <v>1.59</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>4301362</v>
+        <v>4290353</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12763977</v>
+        <v>12786229</v>
       </c>
       <c r="E12" t="n">
-        <v>31767229</v>
+        <v>31822611</v>
       </c>
       <c r="F12" t="n">
-        <v>1218.255739774467</v>
+        <v>1222.396886379476</v>
       </c>
       <c r="G12" t="n">
-        <v>621.428481965027</v>
+        <v>711.5394824201559</v>
       </c>
       <c r="H12" t="n">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>1234935</v>
+        <v>1237311</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115861639</v>
+        <v>116826096</v>
       </c>
       <c r="E13" t="n">
-        <v>450735360</v>
+        <v>454463725</v>
       </c>
       <c r="F13" t="n">
-        <v>15432.01101589651</v>
+        <v>28218.01058257719</v>
       </c>
       <c r="G13" t="n">
-        <v>30582.03823989341</v>
+        <v>33814.85971064575</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13</v>
+        <v>0.31</v>
       </c>
       <c r="I13" t="n">
-        <v>9386848</v>
+        <v>9452374</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5229470</v>
+        <v>5407971</v>
       </c>
       <c r="E14" t="n">
-        <v>7698062</v>
+        <v>7960827</v>
       </c>
       <c r="F14" t="n">
-        <v>401.7516466155301</v>
+        <v>317.4833618135966</v>
       </c>
       <c r="G14" t="n">
-        <v>690.9580230371164</v>
+        <v>731.3201830793464</v>
       </c>
       <c r="H14" t="n">
         <v>1.32</v>
       </c>
       <c r="I14" t="n">
-        <v>608239</v>
+        <v>667000</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>139697662</v>
+        <v>141457637</v>
       </c>
       <c r="E15" t="n">
-        <v>139697662</v>
+        <v>141457637</v>
       </c>
       <c r="F15" t="n">
-        <v>49551.35570559143</v>
+        <v>43821.57321090009</v>
       </c>
       <c r="G15" t="n">
-        <v>82481.17288184243</v>
+        <v>89378.88537341764</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>68145221</v>
+        <v>69699156</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66646798</v>
+        <v>68071047</v>
       </c>
       <c r="E16" t="n">
-        <v>341778453</v>
+        <v>349082291</v>
       </c>
       <c r="F16" t="n">
-        <v>12251.24773495375</v>
+        <v>6247.59334803767</v>
       </c>
       <c r="G16" t="n">
-        <v>15178.5620364028</v>
+        <v>32497.84667264546</v>
       </c>
       <c r="H16" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>22219146</v>
+        <v>24433161</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>257684251</v>
+        <v>261684200</v>
       </c>
       <c r="E17" t="n">
-        <v>257684251</v>
+        <v>261684200</v>
       </c>
       <c r="F17" t="n">
-        <v>58662.09672420506</v>
+        <v>56109.37362242225</v>
       </c>
       <c r="G17" t="n">
-        <v>51497.37643700092</v>
+        <v>57774.53220329477</v>
       </c>
       <c r="H17" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>14406929</v>
+        <v>14814529</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2556816</v>
+        <v>2556597</v>
       </c>
       <c r="E18" t="n">
-        <v>6536722</v>
+        <v>6536161</v>
       </c>
       <c r="F18" t="n">
-        <v>1004.680027900539</v>
+        <v>981.9592920352296</v>
       </c>
       <c r="G18" t="n">
-        <v>957.5617394121513</v>
+        <v>1507.650537742808</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>109354</v>
+        <v>109361</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>82042446</v>
+        <v>83401487</v>
       </c>
       <c r="E19" t="n">
-        <v>229569759</v>
+        <v>233311748</v>
       </c>
       <c r="F19" t="n">
-        <v>17576.89368834985</v>
+        <v>17385.85107791184</v>
       </c>
       <c r="G19" t="n">
-        <v>18086.61535768123</v>
+        <v>18057.70296824415</v>
       </c>
       <c r="H19" t="n">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="I19" t="n">
-        <v>44481066</v>
+        <v>43746291</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1615119</v>
+        <v>1628302</v>
       </c>
       <c r="E20" t="n">
-        <v>9273410</v>
+        <v>9349101</v>
       </c>
       <c r="F20" t="n">
-        <v>34.51375130231245</v>
+        <v>162.8519581002486</v>
       </c>
       <c r="G20" t="n">
-        <v>645.4955113675944</v>
+        <v>220.3988474543007</v>
       </c>
       <c r="H20" t="n">
-        <v>0.27</v>
+        <v>0.59</v>
       </c>
       <c r="I20" t="n">
-        <v>277849</v>
+        <v>281858</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>164955</v>
+        <v>169565</v>
       </c>
       <c r="E21" t="n">
-        <v>1113957</v>
+        <v>1145091</v>
       </c>
       <c r="F21" t="n">
-        <v>121.2576278156351</v>
+        <v>77.34212827860695</v>
       </c>
       <c r="G21" t="n">
-        <v>6.536002997613468</v>
+        <v>8.057064986985338</v>
       </c>
       <c r="H21" t="n">
-        <v>0.65</v>
+        <v>0.21</v>
       </c>
       <c r="I21" t="n">
-        <v>2806557</v>
+        <v>2813204</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>265640</v>
+        <v>265738</v>
       </c>
       <c r="F22" t="n">
-        <v>69.23226240959623</v>
+        <v>69.23433984479072</v>
       </c>
       <c r="G22" t="n">
-        <v>50.61759856888894</v>
+        <v>49.88204924073578</v>
       </c>
       <c r="H22" t="n">
         <v>1.67</v>
       </c>
       <c r="I22" t="n">
-        <v>1592.05</v>
+        <v>1588.38</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>78441662</v>
+        <v>78584792</v>
       </c>
       <c r="E23" t="n">
-        <v>163590699</v>
+        <v>163889198</v>
       </c>
       <c r="F23" t="n">
-        <v>32855.65585178458</v>
+        <v>38498.787685413</v>
       </c>
       <c r="G23" t="n">
-        <v>40906.3220129047</v>
+        <v>40529.83750293615</v>
       </c>
       <c r="H23" t="n">
         <v>0.23</v>
       </c>
       <c r="I23" t="n">
-        <v>17736835</v>
+        <v>18622626</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>205191713</v>
+        <v>208070779</v>
       </c>
       <c r="E24" t="n">
-        <v>712854557</v>
+        <v>722856690</v>
       </c>
       <c r="F24" t="n">
-        <v>62334.75625835796</v>
+        <v>62315.15788392831</v>
       </c>
       <c r="G24" t="n">
-        <v>63426.61226663151</v>
+        <v>61053.114774186</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>28101169</v>
+        <v>29284849</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>116051723</v>
+        <v>117000279</v>
       </c>
       <c r="E25" t="n">
-        <v>492985091</v>
+        <v>496970166</v>
       </c>
       <c r="F25" t="n">
-        <v>16558.16853432612</v>
+        <v>16815.62413167641</v>
       </c>
       <c r="G25" t="n">
-        <v>15697.24022116299</v>
+        <v>15570.79406504904</v>
       </c>
       <c r="H25" t="n">
         <v>0.32</v>
       </c>
       <c r="I25" t="n">
-        <v>15387102</v>
+        <v>15641399</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5815657</v>
+        <v>5782095</v>
       </c>
       <c r="E26" t="n">
-        <v>7900897</v>
+        <v>7855302</v>
       </c>
       <c r="F26" t="n">
-        <v>362.5886024321267</v>
+        <v>1230.307044394651</v>
       </c>
       <c r="G26" t="n">
-        <v>1450.022900221634</v>
+        <v>764.712266159965</v>
       </c>
       <c r="H26" t="n">
-        <v>0.14</v>
+        <v>0.75</v>
       </c>
       <c r="I26" t="n">
-        <v>1328769</v>
+        <v>5618934</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>567534</v>
+        <v>570049</v>
       </c>
       <c r="E27" t="n">
-        <v>6883637</v>
+        <v>6914139</v>
       </c>
       <c r="F27" t="n">
-        <v>643.9343831352037</v>
+        <v>710.8950072007096</v>
       </c>
       <c r="G27" t="n">
-        <v>772.8222138014718</v>
+        <v>891.3111111134707</v>
       </c>
       <c r="H27" t="n">
-        <v>1.11</v>
+        <v>0.85</v>
       </c>
       <c r="I27" t="n">
-        <v>2827836</v>
+        <v>2811442</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26105874</v>
+        <v>26134088</v>
       </c>
       <c r="E28" t="n">
-        <v>36899633</v>
+        <v>36939513</v>
       </c>
       <c r="F28" t="n">
-        <v>1.740548358876207</v>
+        <v>1.740600587075786</v>
       </c>
       <c r="G28" t="n">
-        <v>106.161437673623</v>
+        <v>1264.61453064929</v>
       </c>
       <c r="H28" t="n">
-        <v>3.46</v>
+        <v>1.85</v>
       </c>
       <c r="I28" t="n">
-        <v>71557</v>
+        <v>58752</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1303685598</v>
+        <v>1305017304</v>
       </c>
       <c r="E29" t="n">
-        <v>6251439432</v>
+        <v>6257825236</v>
       </c>
       <c r="F29" t="n">
-        <v>184304.7712486236</v>
+        <v>169449.9839270061</v>
       </c>
       <c r="G29" t="n">
-        <v>242615.4838314854</v>
+        <v>243226.2797739588</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>165983778</v>
+        <v>166055922</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>271775792</v>
+        <v>272332396</v>
       </c>
       <c r="E30" t="n">
-        <v>1173135191</v>
+        <v>1175537804</v>
       </c>
       <c r="F30" t="n">
-        <v>182347.7436840133</v>
+        <v>158949.3789252593</v>
       </c>
       <c r="G30" t="n">
-        <v>183984.2946017564</v>
+        <v>223159.8552525322</v>
       </c>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I30" t="n">
-        <v>100196031</v>
+        <v>100847307</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5314468</v>
+        <v>5340621</v>
       </c>
       <c r="E31" t="n">
-        <v>5320483</v>
+        <v>5346666</v>
       </c>
       <c r="F31" t="n">
-        <v>106.4919638628454</v>
+        <v>93.57664628289692</v>
       </c>
       <c r="G31" t="n">
-        <v>172.3717419975104</v>
+        <v>181.9385799425162</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>147185</v>
+        <v>147099</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19506534</v>
+        <v>19474332</v>
       </c>
       <c r="E32" t="n">
-        <v>48766334</v>
+        <v>48685830</v>
       </c>
       <c r="F32" t="n">
-        <v>2735.259642339255</v>
+        <v>1916.0994674993</v>
       </c>
       <c r="G32" t="n">
-        <v>4053.986760312538</v>
+        <v>4676.355085689497</v>
       </c>
       <c r="H32" t="n">
-        <v>0.34</v>
+        <v>0.61</v>
       </c>
       <c r="I32" t="n">
-        <v>2065367</v>
+        <v>2052750</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19828895</v>
+        <v>19761069</v>
       </c>
       <c r="F33" t="n">
-        <v>907.3616139216604</v>
+        <v>778.0496656811332</v>
       </c>
       <c r="G33" t="n">
-        <v>1542.21997234295</v>
+        <v>1596.759167228899</v>
       </c>
       <c r="H33" t="n">
         <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>56190</v>
+        <v>52306</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4194667</v>
+        <v>4327374</v>
       </c>
       <c r="E34" t="n">
-        <v>12082636</v>
+        <v>12464896</v>
       </c>
       <c r="F34" t="n">
-        <v>233.9748239643416</v>
+        <v>1778.774954483508</v>
       </c>
       <c r="G34" t="n">
-        <v>355.6552169154517</v>
+        <v>1346.672745896986</v>
       </c>
       <c r="H34" t="n">
-        <v>1.24</v>
+        <v>0.87</v>
       </c>
       <c r="I34" t="n">
-        <v>631870</v>
+        <v>617331</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1649690</v>
+        <v>1638230</v>
       </c>
       <c r="F35" t="n">
-        <v>307.4992408379496</v>
+        <v>304.8307911780281</v>
       </c>
       <c r="G35" t="n">
-        <v>50.55508002603892</v>
+        <v>1.55110191476108</v>
       </c>
       <c r="H35" t="n">
-        <v>1.79</v>
+        <v>0.61</v>
       </c>
       <c r="I35" t="n">
-        <v>12686.67</v>
+        <v>12831.38</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14595024</v>
+        <v>14890670</v>
       </c>
       <c r="E36" t="n">
-        <v>70686029</v>
+        <v>72117893</v>
       </c>
       <c r="F36" t="n">
-        <v>2793.298588107586</v>
+        <v>3079.826161837995</v>
       </c>
       <c r="G36" t="n">
-        <v>8461.573816088689</v>
+        <v>18333.86537981539</v>
       </c>
       <c r="H36" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="I36" t="n">
-        <v>3802888</v>
+        <v>3932319</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1463969</v>
+        <v>1450246</v>
       </c>
       <c r="E37" t="n">
-        <v>9581639</v>
+        <v>9491818</v>
       </c>
       <c r="F37" t="n">
-        <v>546.8546622264225</v>
+        <v>178.6834550323693</v>
       </c>
       <c r="G37" t="n">
-        <v>33.86909527894022</v>
+        <v>85.70878577378302</v>
       </c>
       <c r="H37" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="I37" t="n">
-        <v>706520</v>
+        <v>714966</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1919861201</v>
+        <v>1925406140</v>
       </c>
       <c r="F38" t="n">
-        <v>79444.99390177541</v>
+        <v>76794.38076966169</v>
       </c>
       <c r="G38" t="n">
-        <v>77425.66833998756</v>
+        <v>77738.93062962871</v>
       </c>
       <c r="H38" t="n">
         <v>0.67</v>
       </c>
       <c r="I38" t="n">
-        <v>27743027</v>
+        <v>27712087</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31783213</v>
+        <v>31617236</v>
       </c>
       <c r="E39" t="n">
-        <v>98962726</v>
+        <v>98445927</v>
       </c>
       <c r="F39" t="n">
-        <v>3384.443766514969</v>
+        <v>4625.937467764248</v>
       </c>
       <c r="G39" t="n">
-        <v>10919.99409508232</v>
+        <v>11776.68054803885</v>
       </c>
       <c r="H39" t="n">
-        <v>0.15</v>
+        <v>0.47</v>
       </c>
       <c r="I39" t="n">
-        <v>11347883</v>
+        <v>10805814</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>205582629</v>
+        <v>205638160</v>
       </c>
       <c r="E40" t="n">
-        <v>1164135166</v>
+        <v>1164449613</v>
       </c>
       <c r="F40" t="n">
-        <v>41376.92555982495</v>
+        <v>42350.66422103732</v>
       </c>
       <c r="G40" t="n">
-        <v>85672.19739232442</v>
+        <v>81959.20447490126</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="I40" t="n">
-        <v>66332472</v>
+        <v>67205187</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>142990463</v>
+        <v>143382269</v>
       </c>
       <c r="E41" t="n">
-        <v>1059188615</v>
+        <v>1062090881</v>
       </c>
       <c r="F41" t="n">
-        <v>141630.8798369258</v>
+        <v>156317.1858536786</v>
       </c>
       <c r="G41" t="n">
-        <v>220197.5979587637</v>
+        <v>219791.0198875815</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>8588191</v>
+        <v>8469028</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32188501</v>
+        <v>32728909</v>
       </c>
       <c r="E42" t="n">
-        <v>152915212</v>
+        <v>155482482</v>
       </c>
       <c r="F42" t="n">
-        <v>7819.389651347748</v>
+        <v>8140.395921398189</v>
       </c>
       <c r="G42" t="n">
-        <v>6893.048193161819</v>
+        <v>4227.589124242822</v>
       </c>
       <c r="H42" t="n">
-        <v>0.39</v>
+        <v>0.32</v>
       </c>
       <c r="I42" t="n">
-        <v>1129234</v>
+        <v>1141199</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3396323</v>
+        <v>3391485</v>
       </c>
       <c r="E43" t="n">
-        <v>7930980</v>
+        <v>7919683</v>
       </c>
       <c r="F43" t="n">
-        <v>1128.492870567596</v>
+        <v>1438.403640202745</v>
       </c>
       <c r="G43" t="n">
-        <v>859.9025755203349</v>
+        <v>2924.520319109037</v>
       </c>
       <c r="H43" t="n">
-        <v>1.85</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I43" t="n">
-        <v>623165</v>
+        <v>618191</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>344882920</v>
+        <v>346336344</v>
       </c>
       <c r="E44" t="n">
-        <v>3102780603</v>
+        <v>3115856511</v>
       </c>
       <c r="F44" t="n">
-        <v>48601.6269423881</v>
+        <v>47253.60755031824</v>
       </c>
       <c r="G44" t="n">
-        <v>50615.95303007177</v>
+        <v>55250.93318837942</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>40072617</v>
+        <v>44020453</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>646213</v>
+        <v>641883</v>
       </c>
       <c r="F45" t="n">
-        <v>626.075077225853</v>
+        <v>326.5338130471974</v>
       </c>
       <c r="G45" t="n">
-        <v>187.0133710476339</v>
+        <v>165.4930070395742</v>
       </c>
       <c r="H45" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="I45" t="n">
-        <v>3529.96</v>
+        <v>4940.63</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1573413</v>
+        <v>1574221</v>
       </c>
       <c r="E46" t="n">
-        <v>13111777</v>
+        <v>13118505</v>
       </c>
       <c r="F46" t="n">
-        <v>255.2535936811098</v>
+        <v>245.2962132041157</v>
       </c>
       <c r="G46" t="n">
-        <v>807.0906248064034</v>
+        <v>1047.834129826289</v>
       </c>
       <c r="H46" t="n">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
       <c r="I46" t="n">
-        <v>35782</v>
+        <v>24287</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4926179</v>
+        <v>4920816</v>
       </c>
       <c r="E47" t="n">
-        <v>17406481</v>
+        <v>17387531</v>
       </c>
       <c r="F47" t="n">
-        <v>1094.096596955286</v>
+        <v>929.0227832123738</v>
       </c>
       <c r="G47" t="n">
-        <v>1438.756942878657</v>
+        <v>1688.468209844604</v>
       </c>
       <c r="H47" t="n">
         <v>0.46</v>
       </c>
       <c r="I47" t="n">
-        <v>96669</v>
+        <v>96708</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50010689</v>
+        <v>49688518</v>
       </c>
       <c r="E48" t="n">
-        <v>289541226</v>
+        <v>287675990</v>
       </c>
       <c r="F48" t="n">
-        <v>15631.77131080419</v>
+        <v>11489.2197312461</v>
       </c>
       <c r="G48" t="n">
-        <v>14067.93561853308</v>
+        <v>14470.92426086702</v>
       </c>
       <c r="H48" t="n">
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="I48" t="n">
-        <v>32410015</v>
+        <v>33300963</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2296797</v>
+        <v>2288297</v>
       </c>
       <c r="E49" t="n">
-        <v>12618996</v>
+        <v>12572297</v>
       </c>
       <c r="F49" t="n">
-        <v>158.6435024804481</v>
+        <v>264.8367812183645</v>
       </c>
       <c r="G49" t="n">
-        <v>2218.020156887299</v>
+        <v>2232.067603198198</v>
       </c>
       <c r="H49" t="n">
-        <v>2.36</v>
+        <v>0.79</v>
       </c>
       <c r="I49" t="n">
-        <v>125337</v>
+        <v>121586</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13597064</v>
+        <v>13734336</v>
       </c>
       <c r="E50" t="n">
-        <v>13643336</v>
+        <v>13781076</v>
       </c>
       <c r="F50" t="n">
-        <v>4471.922655760934</v>
+        <v>4352.319389240894</v>
       </c>
       <c r="G50" t="n">
-        <v>4334.214206536601</v>
+        <v>3912.933158276398</v>
       </c>
       <c r="H50" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I50" t="n">
-        <v>5888828</v>
+        <v>5854545</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22748213</v>
+        <v>22980735</v>
       </c>
       <c r="E51" t="n">
-        <v>68188682</v>
+        <v>68885677</v>
       </c>
       <c r="F51" t="n">
-        <v>25742.89541997129</v>
+        <v>11711.72783641278</v>
       </c>
       <c r="G51" t="n">
-        <v>23267.47256161134</v>
+        <v>26029.32157177541</v>
       </c>
       <c r="H51" t="n">
-        <v>0.44</v>
+        <v>0.27</v>
       </c>
       <c r="I51" t="n">
-        <v>3366929</v>
+        <v>3452033</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15709878</v>
+        <v>15791371</v>
       </c>
       <c r="E52" t="n">
-        <v>96291010</v>
+        <v>96790504</v>
       </c>
       <c r="F52" t="n">
-        <v>5238.891604869326</v>
+        <v>5917.450226045406</v>
       </c>
       <c r="G52" t="n">
-        <v>6930.213901097069</v>
+        <v>10984.22013261018</v>
       </c>
       <c r="H52" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I52" t="n">
-        <v>8771130</v>
+        <v>10235945</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>47781173</v>
+        <v>50394470</v>
       </c>
       <c r="E53" t="n">
-        <v>205836067</v>
+        <v>217093868</v>
       </c>
       <c r="F53" t="n">
-        <v>22777.59393591744</v>
+        <v>21373.09146683334</v>
       </c>
       <c r="G53" t="n">
-        <v>26235.31162017966</v>
+        <v>26432.55582940092</v>
       </c>
       <c r="H53" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I53" t="n">
-        <v>8817033</v>
+        <v>9856146</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1040140</v>
+        <v>1043224</v>
       </c>
       <c r="E54" t="n">
-        <v>3040148</v>
+        <v>3049164</v>
       </c>
       <c r="F54" t="n">
-        <v>49.35823075977371</v>
+        <v>60.3954696420663</v>
       </c>
       <c r="G54" t="n">
-        <v>1305.895807006778</v>
+        <v>1288.683175878881</v>
       </c>
       <c r="H54" t="n">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="I54" t="n">
-        <v>18879.42</v>
+        <v>18887.31</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>38098249</v>
+        <v>37744679</v>
       </c>
       <c r="E55" t="n">
-        <v>96065493</v>
+        <v>95173960</v>
       </c>
       <c r="F55" t="n">
-        <v>13054.57081300289</v>
+        <v>11096.25000296716</v>
       </c>
       <c r="G55" t="n">
-        <v>9719.980949262528</v>
+        <v>11289.08394512461</v>
       </c>
       <c r="H55" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3427280</v>
+        <v>3411367</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28332630</v>
+        <v>28285870</v>
       </c>
       <c r="E56" t="n">
-        <v>67311285</v>
+        <v>67200194</v>
       </c>
       <c r="F56" t="n">
-        <v>13959.24686923983</v>
+        <v>10291.54399074517</v>
       </c>
       <c r="G56" t="n">
-        <v>13540.67446187171</v>
+        <v>10274.52269744571</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>401640</v>
+        <v>397193</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12710755</v>
+        <v>12713296</v>
       </c>
       <c r="E57" t="n">
-        <v>19348636</v>
+        <v>19352503</v>
       </c>
       <c r="F57" t="n">
-        <v>2073.317059714357</v>
+        <v>2884.420704836401</v>
       </c>
       <c r="G57" t="n">
-        <v>2223.518653565266</v>
+        <v>3465.269500262358</v>
       </c>
       <c r="H57" t="n">
         <v>0.5</v>
       </c>
       <c r="I57" t="n">
-        <v>771217</v>
+        <v>744755</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>296574320</v>
+        <v>301957688</v>
       </c>
       <c r="E58" t="n">
-        <v>296574320</v>
+        <v>301957688</v>
       </c>
       <c r="F58" t="n">
-        <v>49379.38468424023</v>
+        <v>44837.61409140526</v>
       </c>
       <c r="G58" t="n">
-        <v>78765.49806994339</v>
+        <v>80770.65769015839</v>
       </c>
       <c r="H58" t="n">
         <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>76836931</v>
+        <v>80040971</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11654609</v>
+        <v>11716847</v>
       </c>
       <c r="F59" t="n">
-        <v>264.6258130816923</v>
+        <v>275.9748677985046</v>
       </c>
       <c r="G59" t="n">
-        <v>101.6457359358941</v>
+        <v>44.8875472651189</v>
       </c>
       <c r="H59" t="n">
         <v>1.21</v>
       </c>
       <c r="I59" t="n">
-        <v>93774</v>
+        <v>91778</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>91307855</v>
+        <v>91923969</v>
       </c>
       <c r="E60" t="n">
-        <v>526155241</v>
+        <v>529705558</v>
       </c>
       <c r="F60" t="n">
-        <v>99273.04662431344</v>
+        <v>94853.24851017912</v>
       </c>
       <c r="G60" t="n">
-        <v>90359.69316452729</v>
+        <v>93637.36370344568</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I60" t="n">
-        <v>16869476</v>
+        <v>16931855</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9293216</v>
+        <v>9352492</v>
       </c>
       <c r="E61" t="n">
-        <v>9293216</v>
+        <v>9352492</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.92</v>
+        <v>5.87</v>
       </c>
       <c r="I61" t="n">
-        <v>2112118</v>
+        <v>2106782</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>30809902</v>
+        <v>31049206</v>
       </c>
       <c r="E62" t="n">
-        <v>137948571</v>
+        <v>139020034</v>
       </c>
       <c r="F62" t="n">
-        <v>26636.32998753092</v>
+        <v>26353.18746447884</v>
       </c>
       <c r="G62" t="n">
-        <v>13670.86504306588</v>
+        <v>19662.49559370329</v>
       </c>
       <c r="H62" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="I62" t="n">
-        <v>8590420</v>
+        <v>8562928</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>13002616</v>
+        <v>12965864</v>
       </c>
       <c r="E63" t="n">
-        <v>25993878</v>
+        <v>25920407</v>
       </c>
       <c r="F63" t="n">
-        <v>2751.522698900775</v>
+        <v>2384.742946079995</v>
       </c>
       <c r="G63" t="n">
-        <v>2107.81594979383</v>
+        <v>2266.728110422128</v>
       </c>
       <c r="H63" t="n">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="I63" t="n">
-        <v>33145</v>
+        <v>32311</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1523981</v>
+        <v>1489558</v>
       </c>
       <c r="F64" t="n">
-        <v>57.6019150889971</v>
+        <v>79.55378471893411</v>
       </c>
       <c r="G64" t="n">
-        <v>118.014909189826</v>
+        <v>9.641069273619765</v>
       </c>
       <c r="H64" t="n">
-        <v>2.11</v>
+        <v>3.74</v>
       </c>
       <c r="I64" t="n">
-        <v>53825</v>
+        <v>49616</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>50202590</v>
+        <v>51158695</v>
       </c>
       <c r="E65" t="n">
-        <v>325550436</v>
+        <v>331750524</v>
       </c>
       <c r="F65" t="n">
-        <v>20008.05218905801</v>
+        <v>20396.74653345826</v>
       </c>
       <c r="G65" t="n">
-        <v>16991.71779551108</v>
+        <v>21432.42170931949</v>
       </c>
       <c r="H65" t="n">
-        <v>0.28</v>
+        <v>0.33</v>
       </c>
       <c r="I65" t="n">
-        <v>16573838</v>
+        <v>16924553</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4789581</v>
+        <v>4794423</v>
       </c>
       <c r="F66" t="n">
-        <v>1295.214873588249</v>
+        <v>1070.340594414279</v>
       </c>
       <c r="G66" t="n">
-        <v>1589.153154655033</v>
+        <v>1255.402737511694</v>
       </c>
       <c r="H66" t="n">
-        <v>0.83</v>
+        <v>0.92</v>
       </c>
       <c r="I66" t="n">
-        <v>199383</v>
+        <v>196191</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125420326</v>
+        <v>125368446</v>
       </c>
       <c r="E67" t="n">
-        <v>2077063316</v>
+        <v>2076204141</v>
       </c>
       <c r="F67" t="n">
-        <v>21088.4051295977</v>
+        <v>21675.98346088513</v>
       </c>
       <c r="G67" t="n">
-        <v>26501.58206891179</v>
+        <v>25561.4391006306</v>
       </c>
       <c r="H67" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>4690842</v>
+        <v>4494398</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24589973</v>
+        <v>24755339</v>
       </c>
       <c r="E68" t="n">
-        <v>147126749</v>
+        <v>148116172</v>
       </c>
       <c r="F68" t="n">
-        <v>42620.60350610789</v>
+        <v>44069.71331749226</v>
       </c>
       <c r="G68" t="n">
-        <v>6872.610914810292</v>
+        <v>45410.3270829434</v>
       </c>
       <c r="H68" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I68" t="n">
-        <v>12336704</v>
+        <v>12613920</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23246139</v>
+        <v>23084514</v>
       </c>
       <c r="E70" t="n">
-        <v>23246139</v>
+        <v>23084514</v>
       </c>
       <c r="F70" t="n">
-        <v>14502.93067802897</v>
+        <v>14801.95170966335</v>
       </c>
       <c r="G70" t="n">
-        <v>3997.876311194132</v>
+        <v>4674.42726761972</v>
       </c>
       <c r="H70" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="I70" t="n">
-        <v>2088801</v>
+        <v>1956128</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34877316</v>
+        <v>34860663</v>
       </c>
       <c r="E71" t="n">
-        <v>174053884</v>
+        <v>173970781</v>
       </c>
       <c r="F71" t="n">
-        <v>17760.61075618331</v>
+        <v>18814.39330754887</v>
       </c>
       <c r="G71" t="n">
-        <v>34511.15388374894</v>
+        <v>38745.57470158985</v>
       </c>
       <c r="H71" t="n">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="I71" t="n">
-        <v>10462720</v>
+        <v>10217827</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>186903</v>
+        <v>178976</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.26</v>
       </c>
       <c r="I72" t="n">
-        <v>13483.46</v>
+        <v>12894.53</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>317253607</v>
+        <v>319861095</v>
       </c>
       <c r="E73" t="n">
-        <v>586991522</v>
+        <v>591815969</v>
       </c>
       <c r="F73" t="n">
-        <v>57408.79767256951</v>
+        <v>50233.47409845108</v>
       </c>
       <c r="G73" t="n">
-        <v>60776.66874637809</v>
+        <v>63922.02505965051</v>
       </c>
       <c r="H73" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>13920446</v>
+        <v>14096235</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11558924</v>
+        <v>11290934</v>
       </c>
       <c r="E74" t="n">
-        <v>34296093</v>
+        <v>33494908</v>
       </c>
       <c r="F74" t="n">
-        <v>1810.443530199222</v>
+        <v>1110.013627142236</v>
       </c>
       <c r="G74" t="n">
-        <v>2920.611002213398</v>
+        <v>2328.456941261018</v>
       </c>
       <c r="H74" t="n">
-        <v>0.29</v>
+        <v>0.52</v>
       </c>
       <c r="I74" t="n">
-        <v>7256022</v>
+        <v>7382314</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8405405</v>
+        <v>8368129</v>
       </c>
       <c r="E75" t="n">
-        <v>11975776</v>
+        <v>11922666</v>
       </c>
       <c r="F75" t="n">
-        <v>3792.731851133608</v>
+        <v>3411.59455699448</v>
       </c>
       <c r="G75" t="n">
-        <v>31.01795285016672</v>
+        <v>121.4631632163167</v>
       </c>
       <c r="H75" t="n">
-        <v>0.92</v>
+        <v>0.75</v>
       </c>
       <c r="I75" t="n">
-        <v>404064</v>
+        <v>393303</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16283958</v>
+        <v>16456384</v>
       </c>
       <c r="F76" t="n">
-        <v>163.8654660158741</v>
+        <v>16.18968621069135</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6071412969974244</v>
+        <v>0.6071595153345769</v>
       </c>
       <c r="H76" t="n">
         <v>0.99</v>
       </c>
       <c r="I76" t="n">
-        <v>999930</v>
+        <v>1008694</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>62358720</v>
+        <v>62601085</v>
       </c>
       <c r="E77" t="n">
-        <v>103166234</v>
+        <v>103567203</v>
       </c>
       <c r="F77" t="n">
-        <v>12227.85469567765</v>
+        <v>11206.69192178231</v>
       </c>
       <c r="G77" t="n">
-        <v>19295.46246131702</v>
+        <v>19467.3052881869</v>
       </c>
       <c r="H77" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="I77" t="n">
-        <v>6698374</v>
+        <v>6614710</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6402303</v>
+        <v>6176173</v>
       </c>
       <c r="E78" t="n">
-        <v>6402303</v>
+        <v>6176173</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>355.0849322812618</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>7.447478460738658</v>
       </c>
       <c r="H78" t="n">
-        <v>4.49</v>
+        <v>2.27</v>
       </c>
       <c r="I78" t="n">
-        <v>1213679</v>
+        <v>1215953</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>59479</v>
+        <v>59431</v>
       </c>
       <c r="E79" t="n">
-        <v>310339</v>
+        <v>310086</v>
       </c>
       <c r="F79" t="n">
-        <v>107.1295164107971</v>
+        <v>48.36803928706433</v>
       </c>
       <c r="G79" t="n">
-        <v>23.66249582608182</v>
+        <v>6.557216382780363</v>
       </c>
       <c r="H79" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="I79" t="n">
-        <v>290620</v>
+        <v>287913</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26516368</v>
+        <v>26771546</v>
       </c>
       <c r="F80" t="n">
-        <v>814.6636085836316</v>
+        <v>2126.661064289347</v>
       </c>
       <c r="G80" t="n">
-        <v>3535.859214787319</v>
+        <v>8516.594866467934</v>
       </c>
       <c r="H80" t="n">
-        <v>1.43</v>
+        <v>0.11</v>
       </c>
       <c r="I80" t="n">
-        <v>58592</v>
+        <v>59123</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>609620370</v>
+        <v>618868067</v>
       </c>
       <c r="E81" t="n">
-        <v>2360969751</v>
+        <v>2396784714</v>
       </c>
       <c r="F81" t="n">
-        <v>168892.3066713022</v>
+        <v>182250.5257983087</v>
       </c>
       <c r="G81" t="n">
-        <v>177983.0858702484</v>
+        <v>292794.3010618193</v>
       </c>
       <c r="H81" t="n">
         <v>0.02</v>
       </c>
       <c r="I81" t="n">
-        <v>32787739</v>
+        <v>33579566</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7305043</v>
+        <v>7231863</v>
       </c>
       <c r="E82" t="n">
-        <v>10466786</v>
+        <v>10361909</v>
       </c>
       <c r="F82" t="n">
-        <v>857.2036481851595</v>
+        <v>1252.255404776104</v>
       </c>
       <c r="G82" t="n">
-        <v>2525.00385619039</v>
+        <v>753.0692529768562</v>
       </c>
       <c r="H82" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="I82" t="n">
-        <v>197359</v>
+        <v>192498</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>122855046</v>
+        <v>115316696</v>
       </c>
       <c r="E83" t="n">
-        <v>1068149113</v>
+        <v>1071440619</v>
       </c>
       <c r="F83" t="n">
-        <v>41273.09352523094</v>
+        <v>38994.8555200143</v>
       </c>
       <c r="G83" t="n">
-        <v>43946.45007925203</v>
+        <v>43310.53131839979</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>9265512</v>
+        <v>9275084</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1135546</v>
+        <v>1133765</v>
       </c>
       <c r="E84" t="n">
-        <v>4397083</v>
+        <v>4390185</v>
       </c>
       <c r="F84" t="n">
-        <v>555.2636747893338</v>
+        <v>620.3474268709696</v>
       </c>
       <c r="G84" t="n">
-        <v>793.5523602254699</v>
+        <v>956.7513336225597</v>
       </c>
       <c r="H84" t="n">
-        <v>1.13</v>
+        <v>0.46</v>
       </c>
       <c r="I84" t="n">
-        <v>368617</v>
+        <v>357114</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>122779665</v>
+        <v>125389023</v>
       </c>
       <c r="E85" t="n">
-        <v>471002557</v>
+        <v>481012476</v>
       </c>
       <c r="F85" t="n">
-        <v>69998.51172583825</v>
+        <v>79089.74919846471</v>
       </c>
       <c r="G85" t="n">
-        <v>74631.91805046189</v>
+        <v>78920.77685473913</v>
       </c>
       <c r="H85" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="I85" t="n">
-        <v>30907911</v>
+        <v>32011283</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5291890</v>
+        <v>5268266</v>
       </c>
       <c r="E86" t="n">
-        <v>19705914</v>
+        <v>19617943</v>
       </c>
       <c r="F86" t="n">
-        <v>3706.575861152261</v>
+        <v>3718.19271391422</v>
       </c>
       <c r="G86" t="n">
-        <v>170.5487115489981</v>
+        <v>3373.05179792844</v>
       </c>
       <c r="H86" t="n">
-        <v>0.66</v>
+        <v>0.25</v>
       </c>
       <c r="I86" t="n">
-        <v>72395</v>
+        <v>76285</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>32043285</v>
+        <v>32560363</v>
       </c>
       <c r="F87" t="n">
-        <v>2349.839214748456</v>
+        <v>4380.409328216317</v>
       </c>
       <c r="G87" t="n">
-        <v>5221.538500951467</v>
+        <v>4053.245494672108</v>
       </c>
       <c r="H87" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I87" t="n">
-        <v>5428370</v>
+        <v>5570501</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24834273</v>
+        <v>24729125</v>
       </c>
       <c r="F88" t="n">
-        <v>1096.09809149287</v>
+        <v>1290.344373074517</v>
       </c>
       <c r="G88" t="n">
-        <v>1484.350599873077</v>
+        <v>1338.614629374308</v>
       </c>
       <c r="H88" t="n">
-        <v>0.74</v>
+        <v>0.82</v>
       </c>
       <c r="I88" t="n">
-        <v>16696.93</v>
+        <v>16752.12</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88990719</v>
+        <v>89001938</v>
       </c>
       <c r="E89" t="n">
-        <v>328960320</v>
+        <v>328999525</v>
       </c>
       <c r="F89" t="n">
-        <v>1702.433393678809</v>
+        <v>1343.22809056671</v>
       </c>
       <c r="G89" t="n">
-        <v>1636.800984913154</v>
+        <v>1637.467589523691</v>
       </c>
       <c r="H89" t="n">
-        <v>0.22</v>
+        <v>0.88</v>
       </c>
       <c r="I89" t="n">
-        <v>235753</v>
+        <v>231100</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20570479</v>
+        <v>20233442</v>
       </c>
       <c r="E90" t="n">
-        <v>20570480</v>
+        <v>20233442</v>
       </c>
       <c r="F90" t="n">
-        <v>2422.683068055432</v>
+        <v>3483.47440581802</v>
       </c>
       <c r="G90" t="n">
-        <v>4297.743450407206</v>
+        <v>4961.502772292342</v>
       </c>
       <c r="H90" t="n">
-        <v>0.73</v>
+        <v>0.31</v>
       </c>
       <c r="I90" t="n">
-        <v>6928857</v>
+        <v>7070236</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3847592</v>
+        <v>3808904</v>
       </c>
       <c r="E91" t="n">
-        <v>8395395</v>
+        <v>8310979</v>
       </c>
       <c r="F91" t="n">
-        <v>1805.530668613543</v>
+        <v>1805.597158363511</v>
       </c>
       <c r="G91" t="n">
-        <v>2712.949864166548</v>
+        <v>2255.110701964591</v>
       </c>
       <c r="H91" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="I91" t="n">
-        <v>1672632</v>
+        <v>53563</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>497085188</v>
+        <v>501151441</v>
       </c>
       <c r="E92" t="n">
-        <v>1730312169</v>
+        <v>1744466458</v>
       </c>
       <c r="F92" t="n">
-        <v>175961.8031348352</v>
+        <v>170985.3672999987</v>
       </c>
       <c r="G92" t="n">
-        <v>176637.8458880393</v>
+        <v>176288.3165133357</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>30640945</v>
+        <v>31654526</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2635114</v>
+        <v>2626705</v>
       </c>
       <c r="E93" t="n">
-        <v>10540455</v>
+        <v>10506818</v>
       </c>
       <c r="F93" t="n">
-        <v>2353.034334866114</v>
+        <v>3912.884056337593</v>
       </c>
       <c r="G93" t="n">
-        <v>3552.476485957774</v>
+        <v>2085.294069028293</v>
       </c>
       <c r="H93" t="n">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="I93" t="n">
-        <v>6858433</v>
+        <v>6888766</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>227635638</v>
+        <v>229315899</v>
       </c>
       <c r="E94" t="n">
-        <v>699893922</v>
+        <v>705060093</v>
       </c>
       <c r="F94" t="n">
-        <v>109801.8635803745</v>
+        <v>108625.2681372529</v>
       </c>
       <c r="G94" t="n">
-        <v>112870.1195510799</v>
+        <v>105143.0965085916</v>
       </c>
       <c r="H94" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I94" t="n">
-        <v>15257445</v>
+        <v>16117365</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>148172739</v>
+        <v>143426714</v>
       </c>
       <c r="E95" t="n">
-        <v>387097170</v>
+        <v>374698312</v>
       </c>
       <c r="F95" t="n">
-        <v>27022.0913827021</v>
+        <v>12380.50388657402</v>
       </c>
       <c r="G95" t="n">
-        <v>26754.59571727285</v>
+        <v>29250.94859323254</v>
       </c>
       <c r="H95" t="n">
         <v>0.13</v>
       </c>
       <c r="I95" t="n">
-        <v>7716647</v>
+        <v>8471139</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>404398007</v>
+        <v>405131613</v>
       </c>
       <c r="E96" t="n">
-        <v>2310845756</v>
+        <v>2315037789</v>
       </c>
       <c r="F96" t="n">
-        <v>19799.41435753299</v>
+        <v>23254.99477687262</v>
       </c>
       <c r="G96" t="n">
-        <v>48208.21463650742</v>
+        <v>47803.90284682107</v>
       </c>
       <c r="H96" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I96" t="n">
-        <v>39316121</v>
+        <v>39724321</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>609131903</v>
+        <v>615731752</v>
       </c>
       <c r="E2" t="n">
-        <v>1181993055</v>
+        <v>1194800022</v>
       </c>
       <c r="F2" t="n">
-        <v>22287.93458464805</v>
+        <v>23417.94665157018</v>
       </c>
       <c r="G2" t="n">
-        <v>32761.82182693187</v>
+        <v>35896.89842809689</v>
       </c>
       <c r="H2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>19004096</v>
+        <v>20293379</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1361610</v>
+        <v>1358479</v>
       </c>
       <c r="E3" t="n">
-        <v>4401281</v>
+        <v>4391161</v>
       </c>
       <c r="F3" t="n">
-        <v>1116.11070326159</v>
+        <v>2478.430632127149</v>
       </c>
       <c r="G3" t="n">
-        <v>4140.571665098992</v>
+        <v>3309.157436093044</v>
       </c>
       <c r="H3" t="n">
         <v>0.9</v>
       </c>
       <c r="I3" t="n">
-        <v>133862</v>
+        <v>133941</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>248774205</v>
+        <v>249953270</v>
       </c>
       <c r="E4" t="n">
-        <v>1560028073</v>
+        <v>1567421821</v>
       </c>
       <c r="F4" t="n">
-        <v>139448.7846036094</v>
+        <v>134723.5397058506</v>
       </c>
       <c r="G4" t="n">
-        <v>142258.225464084</v>
+        <v>135448.5191318867</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="I4" t="n">
-        <v>17519151</v>
+        <v>18329369</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148177480</v>
+        <v>149214893</v>
       </c>
       <c r="E5" t="n">
-        <v>164203805</v>
+        <v>165353421</v>
       </c>
       <c r="F5" t="n">
-        <v>7899.758914204737</v>
+        <v>9276.493499935508</v>
       </c>
       <c r="G5" t="n">
-        <v>21050.44999192808</v>
+        <v>16250.25848167353</v>
       </c>
       <c r="H5" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="I5" t="n">
-        <v>37810710</v>
+        <v>38546899</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>694752</v>
+        <v>706934</v>
       </c>
       <c r="E6" t="n">
-        <v>13497061</v>
+        <v>13733725</v>
       </c>
       <c r="F6" t="n">
-        <v>145.2914350652967</v>
+        <v>7230.744120934942</v>
       </c>
       <c r="G6" t="n">
-        <v>207.8227682361717</v>
+        <v>215.3184241678708</v>
       </c>
       <c r="H6" t="n">
-        <v>0.59</v>
+        <v>1.11</v>
       </c>
       <c r="I6" t="n">
-        <v>20340</v>
+        <v>25148</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>478385106</v>
+        <v>485560161</v>
       </c>
       <c r="E7" t="n">
-        <v>478385111</v>
+        <v>485560167</v>
       </c>
       <c r="F7" t="n">
-        <v>33274.26448407987</v>
+        <v>25781.88611640493</v>
       </c>
       <c r="G7" t="n">
-        <v>51381.07497832796</v>
+        <v>47375.56607407668</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
       <c r="I7" t="n">
-        <v>65338727</v>
+        <v>77385604</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4755173</v>
+        <v>4752823</v>
       </c>
       <c r="E8" t="n">
-        <v>4755173</v>
+        <v>4752823</v>
       </c>
       <c r="F8" t="n">
-        <v>380.0180601977513</v>
+        <v>181.1240917018877</v>
       </c>
       <c r="G8" t="n">
-        <v>800.7076914098627</v>
+        <v>893.1856596363438</v>
       </c>
       <c r="H8" t="n">
-        <v>0.63</v>
+        <v>1.03</v>
       </c>
       <c r="I8" t="n">
-        <v>1916249</v>
+        <v>1999988</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1721420</v>
+        <v>1730056</v>
       </c>
       <c r="F9" t="n">
-        <v>6892.760769152121</v>
+        <v>6731.728781298199</v>
       </c>
       <c r="G9" t="n">
-        <v>2599.508444842284</v>
+        <v>3680.214043054216</v>
       </c>
       <c r="H9" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="I9" t="n">
-        <v>155883</v>
+        <v>157994</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1489420</v>
+        <v>1465967</v>
       </c>
       <c r="F10" t="n">
-        <v>324.7629917488162</v>
+        <v>300.7224088396968</v>
       </c>
       <c r="G10" t="n">
-        <v>178.4339781868713</v>
+        <v>279.3051450141093</v>
       </c>
       <c r="H10" t="n">
-        <v>0.61</v>
+        <v>1.16</v>
       </c>
       <c r="I10" t="n">
-        <v>293861</v>
+        <v>291146</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>111457964</v>
+        <v>111831503</v>
       </c>
       <c r="E11" t="n">
-        <v>209973592</v>
+        <v>210677296</v>
       </c>
       <c r="F11" t="n">
-        <v>1512.327426168669</v>
+        <v>527.4461008185011</v>
       </c>
       <c r="G11" t="n">
-        <v>109.0957594664398</v>
+        <v>107.2038871041944</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>1.73</v>
       </c>
       <c r="I11" t="n">
-        <v>4290353</v>
+        <v>4294691</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12786229</v>
+        <v>12777131</v>
       </c>
       <c r="E12" t="n">
-        <v>31822611</v>
+        <v>31799968</v>
       </c>
       <c r="F12" t="n">
-        <v>1222.396886379476</v>
+        <v>1100.361076231608</v>
       </c>
       <c r="G12" t="n">
-        <v>711.5394824201559</v>
+        <v>649.7883159952734</v>
       </c>
       <c r="H12" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>1237311</v>
+        <v>1249447</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116826096</v>
+        <v>116701377</v>
       </c>
       <c r="E13" t="n">
-        <v>454463725</v>
+        <v>453961675</v>
       </c>
       <c r="F13" t="n">
-        <v>28218.01058257719</v>
+        <v>15735.33608749174</v>
       </c>
       <c r="G13" t="n">
-        <v>33814.85971064575</v>
+        <v>37793.72181231045</v>
       </c>
       <c r="H13" t="n">
-        <v>0.31</v>
+        <v>0.02</v>
       </c>
       <c r="I13" t="n">
-        <v>9452374</v>
+        <v>9323073</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5407971</v>
+        <v>5402488</v>
       </c>
       <c r="E14" t="n">
-        <v>7960827</v>
+        <v>7952756</v>
       </c>
       <c r="F14" t="n">
-        <v>317.4833618135966</v>
+        <v>84.09475805956738</v>
       </c>
       <c r="G14" t="n">
-        <v>731.3201830793464</v>
+        <v>166.6207340819431</v>
       </c>
       <c r="H14" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="I14" t="n">
-        <v>667000</v>
+        <v>653514</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>141457637</v>
+        <v>143147077</v>
       </c>
       <c r="E15" t="n">
-        <v>141457637</v>
+        <v>143147077</v>
       </c>
       <c r="F15" t="n">
-        <v>43821.57321090009</v>
+        <v>41259.15341702348</v>
       </c>
       <c r="G15" t="n">
-        <v>89378.88537341764</v>
+        <v>72683.7386239359</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.14</v>
       </c>
       <c r="I15" t="n">
-        <v>69699156</v>
+        <v>71226969</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>68071047</v>
+        <v>68427863</v>
       </c>
       <c r="E16" t="n">
-        <v>349082291</v>
+        <v>350912116</v>
       </c>
       <c r="F16" t="n">
-        <v>6247.59334803767</v>
+        <v>6601.419468704649</v>
       </c>
       <c r="G16" t="n">
-        <v>32497.84667264546</v>
+        <v>31146.64517890112</v>
       </c>
       <c r="H16" t="n">
-        <v>0.06</v>
+        <v>0.24</v>
       </c>
       <c r="I16" t="n">
-        <v>24433161</v>
+        <v>24840043</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>261684200</v>
+        <v>264115624</v>
       </c>
       <c r="E17" t="n">
-        <v>261684200</v>
+        <v>264115624</v>
       </c>
       <c r="F17" t="n">
-        <v>56109.37362242225</v>
+        <v>48594.52241128912</v>
       </c>
       <c r="G17" t="n">
-        <v>57774.53220329477</v>
+        <v>51698.04056805496</v>
       </c>
       <c r="H17" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>14814529</v>
+        <v>18586267</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2556597</v>
+        <v>2557389</v>
       </c>
       <c r="E18" t="n">
-        <v>6536161</v>
+        <v>6538187</v>
       </c>
       <c r="F18" t="n">
-        <v>981.9592920352296</v>
+        <v>1071.89514643653</v>
       </c>
       <c r="G18" t="n">
-        <v>1507.650537742808</v>
+        <v>1104.035024524324</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I18" t="n">
-        <v>109361</v>
+        <v>109028</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>83401487</v>
+        <v>84809181</v>
       </c>
       <c r="E19" t="n">
-        <v>233311748</v>
+        <v>237310445</v>
       </c>
       <c r="F19" t="n">
-        <v>17385.85107791184</v>
+        <v>12943.12328626213</v>
       </c>
       <c r="G19" t="n">
-        <v>18057.70296824415</v>
+        <v>18296.11930799436</v>
       </c>
       <c r="H19" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>43746291</v>
+        <v>49885186</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1628302</v>
+        <v>1632559</v>
       </c>
       <c r="E20" t="n">
-        <v>9349101</v>
+        <v>9373543</v>
       </c>
       <c r="F20" t="n">
-        <v>162.8519581002486</v>
+        <v>178.2001853718794</v>
       </c>
       <c r="G20" t="n">
-        <v>220.3988474543007</v>
+        <v>647.7090362686598</v>
       </c>
       <c r="H20" t="n">
-        <v>0.59</v>
+        <v>1.17</v>
       </c>
       <c r="I20" t="n">
-        <v>281858</v>
+        <v>288087</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>169565</v>
+        <v>170394</v>
       </c>
       <c r="E21" t="n">
-        <v>1145091</v>
+        <v>1150689</v>
       </c>
       <c r="F21" t="n">
-        <v>77.34212827860695</v>
+        <v>6.469903632324724</v>
       </c>
       <c r="G21" t="n">
-        <v>8.057064986985338</v>
+        <v>512.3131744408182</v>
       </c>
       <c r="H21" t="n">
-        <v>0.21</v>
+        <v>0.64</v>
       </c>
       <c r="I21" t="n">
-        <v>2813204</v>
+        <v>2832072</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>265738</v>
+        <v>265816</v>
       </c>
       <c r="F22" t="n">
-        <v>69.23433984479072</v>
+        <v>92.03626103969191</v>
       </c>
       <c r="G22" t="n">
-        <v>49.88204924073578</v>
+        <v>27.51217331495233</v>
       </c>
       <c r="H22" t="n">
         <v>1.67</v>
       </c>
       <c r="I22" t="n">
-        <v>1588.38</v>
+        <v>1670.33</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>78584792</v>
+        <v>79258660</v>
       </c>
       <c r="E23" t="n">
-        <v>163889198</v>
+        <v>165294554</v>
       </c>
       <c r="F23" t="n">
-        <v>38498.787685413</v>
+        <v>34844.60947347185</v>
       </c>
       <c r="G23" t="n">
-        <v>40529.83750293615</v>
+        <v>33077.24336229885</v>
       </c>
       <c r="H23" t="n">
-        <v>0.23</v>
+        <v>0.44</v>
       </c>
       <c r="I23" t="n">
-        <v>18622626</v>
+        <v>19318285</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>208070779</v>
+        <v>209794835</v>
       </c>
       <c r="E24" t="n">
-        <v>722856690</v>
+        <v>728846218</v>
       </c>
       <c r="F24" t="n">
-        <v>62315.15788392831</v>
+        <v>63185.22026404314</v>
       </c>
       <c r="G24" t="n">
-        <v>61053.114774186</v>
+        <v>63219.30642999905</v>
       </c>
       <c r="H24" t="n">
         <v>0.1</v>
       </c>
       <c r="I24" t="n">
-        <v>29284849</v>
+        <v>30213771</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>117000279</v>
+        <v>118415538</v>
       </c>
       <c r="E25" t="n">
-        <v>496970166</v>
+        <v>502946594</v>
       </c>
       <c r="F25" t="n">
-        <v>16815.62413167641</v>
+        <v>19056.54421326096</v>
       </c>
       <c r="G25" t="n">
-        <v>15570.79406504904</v>
+        <v>16373.98228908704</v>
       </c>
       <c r="H25" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="I25" t="n">
-        <v>15641399</v>
+        <v>15891485</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5782095</v>
+        <v>5774855</v>
       </c>
       <c r="E26" t="n">
-        <v>7855302</v>
+        <v>7845465</v>
       </c>
       <c r="F26" t="n">
-        <v>1230.307044394651</v>
+        <v>1049.872357205046</v>
       </c>
       <c r="G26" t="n">
-        <v>764.712266159965</v>
+        <v>1297.673730813165</v>
       </c>
       <c r="H26" t="n">
-        <v>0.75</v>
+        <v>0.41</v>
       </c>
       <c r="I26" t="n">
-        <v>5618934</v>
+        <v>5595952</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>570049</v>
+        <v>571929</v>
       </c>
       <c r="E27" t="n">
-        <v>6914139</v>
+        <v>6936936</v>
       </c>
       <c r="F27" t="n">
-        <v>710.8950072007096</v>
+        <v>248.5532418968207</v>
       </c>
       <c r="G27" t="n">
-        <v>891.3111111134707</v>
+        <v>873.680282773523</v>
       </c>
       <c r="H27" t="n">
-        <v>0.85</v>
+        <v>1.06</v>
       </c>
       <c r="I27" t="n">
-        <v>2811442</v>
+        <v>2812251</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26134088</v>
+        <v>26180717</v>
       </c>
       <c r="E28" t="n">
-        <v>36939513</v>
+        <v>37005421</v>
       </c>
       <c r="F28" t="n">
-        <v>1.740600587075786</v>
+        <v>453.9871948217236</v>
       </c>
       <c r="G28" t="n">
-        <v>1264.61453064929</v>
+        <v>3012.829465429517</v>
       </c>
       <c r="H28" t="n">
-        <v>1.85</v>
+        <v>0.23</v>
       </c>
       <c r="I28" t="n">
-        <v>58752</v>
+        <v>73447</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1305017304</v>
+        <v>1324096556</v>
       </c>
       <c r="E29" t="n">
-        <v>6257825236</v>
+        <v>6349314155</v>
       </c>
       <c r="F29" t="n">
-        <v>169449.9839270061</v>
+        <v>149096.0003372503</v>
       </c>
       <c r="G29" t="n">
-        <v>243226.2797739588</v>
+        <v>197515.1682000145</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I29" t="n">
-        <v>166055922</v>
+        <v>170664587</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>272332396</v>
+        <v>275861406</v>
       </c>
       <c r="E30" t="n">
-        <v>1175537804</v>
+        <v>1190770968</v>
       </c>
       <c r="F30" t="n">
-        <v>158949.3789252593</v>
+        <v>168593.2026535998</v>
       </c>
       <c r="G30" t="n">
-        <v>223159.8552525322</v>
+        <v>206615.5305028184</v>
       </c>
       <c r="H30" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I30" t="n">
-        <v>100847307</v>
+        <v>103472026</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5340621</v>
+        <v>5339569</v>
       </c>
       <c r="E31" t="n">
-        <v>5346666</v>
+        <v>5345612</v>
       </c>
       <c r="F31" t="n">
-        <v>93.57664628289692</v>
+        <v>93.5736231693685</v>
       </c>
       <c r="G31" t="n">
-        <v>181.9385799425162</v>
+        <v>181.939531447621</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>147099</v>
+        <v>146068</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19474332</v>
+        <v>19468260</v>
       </c>
       <c r="E32" t="n">
-        <v>48685830</v>
+        <v>48670650</v>
       </c>
       <c r="F32" t="n">
-        <v>1916.0994674993</v>
+        <v>1933.194751031825</v>
       </c>
       <c r="G32" t="n">
-        <v>4676.355085689497</v>
+        <v>5101.297612074652</v>
       </c>
       <c r="H32" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="I32" t="n">
-        <v>2052750</v>
+        <v>2077259</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19761069</v>
+        <v>19817055</v>
       </c>
       <c r="F33" t="n">
-        <v>778.0496656811332</v>
+        <v>790.6373064861058</v>
       </c>
       <c r="G33" t="n">
-        <v>1596.759167228899</v>
+        <v>1637.059822330782</v>
       </c>
       <c r="H33" t="n">
         <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>52306</v>
+        <v>41577</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4327374</v>
+        <v>4273183</v>
       </c>
       <c r="E34" t="n">
-        <v>12464896</v>
+        <v>12308798</v>
       </c>
       <c r="F34" t="n">
-        <v>1778.774954483508</v>
+        <v>1575.403795541718</v>
       </c>
       <c r="G34" t="n">
-        <v>1346.672745896986</v>
+        <v>1930.363441597077</v>
       </c>
       <c r="H34" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I34" t="n">
-        <v>617331</v>
+        <v>602878</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1638230</v>
+        <v>1626974</v>
       </c>
       <c r="F35" t="n">
-        <v>304.8307911780281</v>
+        <v>45.17085703584363</v>
       </c>
       <c r="G35" t="n">
-        <v>1.55110191476108</v>
+        <v>431.6666460995313</v>
       </c>
       <c r="H35" t="n">
-        <v>0.61</v>
+        <v>1.83</v>
       </c>
       <c r="I35" t="n">
-        <v>12831.38</v>
+        <v>12844.68</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>14890670</v>
+        <v>15261488</v>
       </c>
       <c r="E36" t="n">
-        <v>72117893</v>
+        <v>73913824</v>
       </c>
       <c r="F36" t="n">
-        <v>3079.826161837995</v>
+        <v>2701.434777375241</v>
       </c>
       <c r="G36" t="n">
-        <v>18333.86537981539</v>
+        <v>5778.077332892773</v>
       </c>
       <c r="H36" t="n">
-        <v>0.21</v>
+        <v>0.29</v>
       </c>
       <c r="I36" t="n">
-        <v>3932319</v>
+        <v>4015099</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1450246</v>
+        <v>1440268</v>
       </c>
       <c r="E37" t="n">
-        <v>9491818</v>
+        <v>9426518</v>
       </c>
       <c r="F37" t="n">
-        <v>178.6834550323693</v>
+        <v>597.0229036285273</v>
       </c>
       <c r="G37" t="n">
-        <v>85.70878577378302</v>
+        <v>4.604944622966255</v>
       </c>
       <c r="H37" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="I37" t="n">
-        <v>714966</v>
+        <v>703094</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1925406140</v>
+        <v>1931807915</v>
       </c>
       <c r="F38" t="n">
-        <v>76794.38076966169</v>
+        <v>66106.51097830549</v>
       </c>
       <c r="G38" t="n">
-        <v>77738.93062962871</v>
+        <v>78349.7043224426</v>
       </c>
       <c r="H38" t="n">
-        <v>0.67</v>
+        <v>0.36</v>
       </c>
       <c r="I38" t="n">
-        <v>27712087</v>
+        <v>27649029</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31617236</v>
+        <v>31581408</v>
       </c>
       <c r="E39" t="n">
-        <v>98445927</v>
+        <v>98334371</v>
       </c>
       <c r="F39" t="n">
-        <v>4625.937467764248</v>
+        <v>4225.37004013473</v>
       </c>
       <c r="G39" t="n">
-        <v>11776.68054803885</v>
+        <v>11836.52337949602</v>
       </c>
       <c r="H39" t="n">
-        <v>0.47</v>
+        <v>0.11</v>
       </c>
       <c r="I39" t="n">
-        <v>10805814</v>
+        <v>10638074</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>205638160</v>
+        <v>208471793</v>
       </c>
       <c r="E40" t="n">
-        <v>1164449613</v>
+        <v>1180495387</v>
       </c>
       <c r="F40" t="n">
-        <v>42350.66422103732</v>
+        <v>30971.55125789672</v>
       </c>
       <c r="G40" t="n">
-        <v>81959.20447490126</v>
+        <v>60766.00436361491</v>
       </c>
       <c r="H40" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I40" t="n">
-        <v>67205187</v>
+        <v>68833633</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>143382269</v>
+        <v>143742114</v>
       </c>
       <c r="E41" t="n">
-        <v>1062090881</v>
+        <v>1064756401</v>
       </c>
       <c r="F41" t="n">
-        <v>156317.1858536786</v>
+        <v>148179.2698260967</v>
       </c>
       <c r="G41" t="n">
-        <v>219791.0198875815</v>
+        <v>194679.2773429327</v>
       </c>
       <c r="H41" t="n">
         <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>8469028</v>
+        <v>8392750</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32728909</v>
+        <v>33077579</v>
       </c>
       <c r="E42" t="n">
-        <v>155482482</v>
+        <v>157069374</v>
       </c>
       <c r="F42" t="n">
-        <v>8140.395921398189</v>
+        <v>8226.040376038842</v>
       </c>
       <c r="G42" t="n">
-        <v>4227.589124242822</v>
+        <v>4042.914858662757</v>
       </c>
       <c r="H42" t="n">
-        <v>0.32</v>
+        <v>0.45</v>
       </c>
       <c r="I42" t="n">
-        <v>1141199</v>
+        <v>1101188</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3391485</v>
+        <v>3388346</v>
       </c>
       <c r="E43" t="n">
-        <v>7919683</v>
+        <v>7912353</v>
       </c>
       <c r="F43" t="n">
-        <v>1438.403640202745</v>
+        <v>1025.628808660871</v>
       </c>
       <c r="G43" t="n">
-        <v>2924.520319109037</v>
+        <v>2693.501179066381</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="I43" t="n">
-        <v>618191</v>
+        <v>617950</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>346336344</v>
+        <v>349314093</v>
       </c>
       <c r="E44" t="n">
-        <v>3115856511</v>
+        <v>3142646185</v>
       </c>
       <c r="F44" t="n">
-        <v>47253.60755031824</v>
+        <v>46283.09281161699</v>
       </c>
       <c r="G44" t="n">
-        <v>55250.93318837942</v>
+        <v>55100.94132847279</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I44" t="n">
-        <v>44020453</v>
+        <v>42024289</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>641883</v>
+        <v>637623</v>
       </c>
       <c r="F45" t="n">
-        <v>326.5338130471974</v>
+        <v>359.4592693030004</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4930070395742</v>
+        <v>63.08555140334589</v>
       </c>
       <c r="H45" t="n">
         <v>0.97</v>
       </c>
       <c r="I45" t="n">
-        <v>4940.63</v>
+        <v>5055.14</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1574221</v>
+        <v>1574479</v>
       </c>
       <c r="E46" t="n">
-        <v>13118505</v>
+        <v>13120659</v>
       </c>
       <c r="F46" t="n">
-        <v>245.2962132041157</v>
+        <v>416.460992641466</v>
       </c>
       <c r="G46" t="n">
-        <v>1047.834129826289</v>
+        <v>1506.224709067606</v>
       </c>
       <c r="H46" t="n">
-        <v>0.23</v>
+        <v>0.61</v>
       </c>
       <c r="I46" t="n">
-        <v>24287</v>
+        <v>24597</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4920816</v>
+        <v>4891234</v>
       </c>
       <c r="E47" t="n">
-        <v>17387531</v>
+        <v>17283005</v>
       </c>
       <c r="F47" t="n">
-        <v>929.0227832123738</v>
+        <v>890.5644172702806</v>
       </c>
       <c r="G47" t="n">
-        <v>1688.468209844604</v>
+        <v>1709.167314743319</v>
       </c>
       <c r="H47" t="n">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>96708</v>
+        <v>100011</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>49688518</v>
+        <v>49395798</v>
       </c>
       <c r="E48" t="n">
-        <v>287675990</v>
+        <v>285981262</v>
       </c>
       <c r="F48" t="n">
-        <v>11489.2197312461</v>
+        <v>10775.69278005144</v>
       </c>
       <c r="G48" t="n">
-        <v>14470.92426086702</v>
+        <v>13644.72429469402</v>
       </c>
       <c r="H48" t="n">
-        <v>0.45</v>
+        <v>0.38</v>
       </c>
       <c r="I48" t="n">
-        <v>33300963</v>
+        <v>34254285</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2288297</v>
+        <v>2299983</v>
       </c>
       <c r="E49" t="n">
-        <v>12572297</v>
+        <v>12636499</v>
       </c>
       <c r="F49" t="n">
-        <v>264.8367812183645</v>
+        <v>205.1985630060845</v>
       </c>
       <c r="G49" t="n">
-        <v>2232.067603198198</v>
+        <v>915.1572973083257</v>
       </c>
       <c r="H49" t="n">
-        <v>0.79</v>
+        <v>2.34</v>
       </c>
       <c r="I49" t="n">
-        <v>121586</v>
+        <v>116199</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13734336</v>
+        <v>13781602</v>
       </c>
       <c r="E50" t="n">
-        <v>13781076</v>
+        <v>13828502</v>
       </c>
       <c r="F50" t="n">
-        <v>4352.319389240894</v>
+        <v>4538.187596108068</v>
       </c>
       <c r="G50" t="n">
-        <v>3912.933158276398</v>
+        <v>3729.448925186768</v>
       </c>
       <c r="H50" t="n">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="I50" t="n">
-        <v>5854545</v>
+        <v>6077804</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22980735</v>
+        <v>23003387</v>
       </c>
       <c r="E51" t="n">
-        <v>68885677</v>
+        <v>68953577</v>
       </c>
       <c r="F51" t="n">
-        <v>11711.72783641278</v>
+        <v>22312.26531987345</v>
       </c>
       <c r="G51" t="n">
-        <v>26029.32157177541</v>
+        <v>23200.98182121184</v>
       </c>
       <c r="H51" t="n">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
       <c r="I51" t="n">
-        <v>3452033</v>
+        <v>3480233</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15791371</v>
+        <v>15908443</v>
       </c>
       <c r="E52" t="n">
-        <v>96790504</v>
+        <v>97508079</v>
       </c>
       <c r="F52" t="n">
-        <v>5917.450226045406</v>
+        <v>5522.272858103282</v>
       </c>
       <c r="G52" t="n">
-        <v>10984.22013261018</v>
+        <v>8578.782247725754</v>
       </c>
       <c r="H52" t="n">
         <v>0.24</v>
       </c>
       <c r="I52" t="n">
-        <v>10235945</v>
+        <v>10291174</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50394470</v>
+        <v>50414378</v>
       </c>
       <c r="E53" t="n">
-        <v>217093868</v>
+        <v>217179627</v>
       </c>
       <c r="F53" t="n">
-        <v>21373.09146683334</v>
+        <v>19746.65923301403</v>
       </c>
       <c r="G53" t="n">
-        <v>26432.55582940092</v>
+        <v>25587.10296744902</v>
       </c>
       <c r="H53" t="n">
         <v>0.29</v>
       </c>
       <c r="I53" t="n">
-        <v>9856146</v>
+        <v>10010504</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1043224</v>
+        <v>1044150</v>
       </c>
       <c r="E54" t="n">
-        <v>3049164</v>
+        <v>3051868</v>
       </c>
       <c r="F54" t="n">
-        <v>60.3954696420663</v>
+        <v>65.97412673642737</v>
       </c>
       <c r="G54" t="n">
-        <v>1288.683175878881</v>
+        <v>856.8823922226886</v>
       </c>
       <c r="H54" t="n">
         <v>0.97</v>
       </c>
       <c r="I54" t="n">
-        <v>18887.31</v>
+        <v>19236.97</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37744679</v>
+        <v>37531496</v>
       </c>
       <c r="E55" t="n">
-        <v>95173960</v>
+        <v>94636414</v>
       </c>
       <c r="F55" t="n">
-        <v>11096.25000296716</v>
+        <v>15918.01716244454</v>
       </c>
       <c r="G55" t="n">
-        <v>11289.08394512461</v>
+        <v>11489.92781241729</v>
       </c>
       <c r="H55" t="n">
         <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3411367</v>
+        <v>3482452</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28285870</v>
+        <v>28252938</v>
       </c>
       <c r="E56" t="n">
-        <v>67200194</v>
+        <v>67121957</v>
       </c>
       <c r="F56" t="n">
-        <v>10291.54399074517</v>
+        <v>14125.14040131881</v>
       </c>
       <c r="G56" t="n">
-        <v>10274.52269744571</v>
+        <v>14156.1803008467</v>
       </c>
       <c r="H56" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I56" t="n">
-        <v>397193</v>
+        <v>416188</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12713296</v>
+        <v>12712255</v>
       </c>
       <c r="E57" t="n">
-        <v>19352503</v>
+        <v>19350919</v>
       </c>
       <c r="F57" t="n">
-        <v>2884.420704836401</v>
+        <v>4194.558855125029</v>
       </c>
       <c r="G57" t="n">
-        <v>3465.269500262358</v>
+        <v>3088.040151321622</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5</v>
+        <v>0.37</v>
       </c>
       <c r="I57" t="n">
-        <v>744755</v>
+        <v>684031</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>301957688</v>
+        <v>303568433</v>
       </c>
       <c r="E58" t="n">
-        <v>301957688</v>
+        <v>303568433</v>
       </c>
       <c r="F58" t="n">
-        <v>44837.61409140526</v>
+        <v>51270.7491181882</v>
       </c>
       <c r="G58" t="n">
-        <v>80770.65769015839</v>
+        <v>73057.54035678292</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>80040971</v>
+        <v>81058235</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11716847</v>
+        <v>11706294</v>
       </c>
       <c r="F59" t="n">
-        <v>275.9748677985046</v>
+        <v>259.6137855739474</v>
       </c>
       <c r="G59" t="n">
-        <v>44.8875472651189</v>
+        <v>44.48905672268719</v>
       </c>
       <c r="H59" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="I59" t="n">
-        <v>91778</v>
+        <v>91294</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>91923969</v>
+        <v>92353141</v>
       </c>
       <c r="E60" t="n">
-        <v>529705558</v>
+        <v>532178634</v>
       </c>
       <c r="F60" t="n">
-        <v>94853.24851017912</v>
+        <v>98895.05071789764</v>
       </c>
       <c r="G60" t="n">
-        <v>93637.36370344568</v>
+        <v>96336.95108769601</v>
       </c>
       <c r="H60" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="I60" t="n">
-        <v>16931855</v>
+        <v>17507708</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9352492</v>
+        <v>9369736</v>
       </c>
       <c r="E61" t="n">
-        <v>9352492</v>
+        <v>9369736</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.87</v>
+        <v>5.73</v>
       </c>
       <c r="I61" t="n">
-        <v>2106782</v>
+        <v>2108338</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>31049206</v>
+        <v>31172332</v>
       </c>
       <c r="E62" t="n">
-        <v>139020034</v>
+        <v>139571317</v>
       </c>
       <c r="F62" t="n">
-        <v>26353.18746447884</v>
+        <v>16134.95505831488</v>
       </c>
       <c r="G62" t="n">
-        <v>19662.49559370329</v>
+        <v>18196.91749745472</v>
       </c>
       <c r="H62" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I62" t="n">
-        <v>8562928</v>
+        <v>8562133</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12965864</v>
+        <v>12967116</v>
       </c>
       <c r="E63" t="n">
-        <v>25920407</v>
+        <v>25922909</v>
       </c>
       <c r="F63" t="n">
-        <v>2384.742946079995</v>
+        <v>2332.602257098443</v>
       </c>
       <c r="G63" t="n">
-        <v>2266.728110422128</v>
+        <v>2199.542548223101</v>
       </c>
       <c r="H63" t="n">
         <v>0.66</v>
       </c>
       <c r="I63" t="n">
-        <v>32311</v>
+        <v>32420</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1489558</v>
+        <v>1455304</v>
       </c>
       <c r="F64" t="n">
-        <v>79.55378471893411</v>
+        <v>134.5124257502866</v>
       </c>
       <c r="G64" t="n">
-        <v>9.641069273619765</v>
+        <v>9.314898392328002</v>
       </c>
       <c r="H64" t="n">
-        <v>3.74</v>
+        <v>2.7</v>
       </c>
       <c r="I64" t="n">
-        <v>49616</v>
+        <v>33943</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>51158695</v>
+        <v>51694847</v>
       </c>
       <c r="E65" t="n">
-        <v>331750524</v>
+        <v>335227326</v>
       </c>
       <c r="F65" t="n">
-        <v>20396.74653345826</v>
+        <v>13246.35485127213</v>
       </c>
       <c r="G65" t="n">
-        <v>21432.42170931949</v>
+        <v>21274.53752174487</v>
       </c>
       <c r="H65" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="I65" t="n">
-        <v>16924553</v>
+        <v>17258629</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4794423</v>
+        <v>4796608</v>
       </c>
       <c r="F66" t="n">
-        <v>1070.340594414279</v>
+        <v>1158.672796669816</v>
       </c>
       <c r="G66" t="n">
-        <v>1255.402737511694</v>
+        <v>1694.432863199848</v>
       </c>
       <c r="H66" t="n">
-        <v>0.92</v>
+        <v>0.84</v>
       </c>
       <c r="I66" t="n">
-        <v>196191</v>
+        <v>195302</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125368446</v>
+        <v>125306819</v>
       </c>
       <c r="E67" t="n">
-        <v>2076204141</v>
+        <v>2075183547</v>
       </c>
       <c r="F67" t="n">
-        <v>21675.98346088513</v>
+        <v>18306.13320083487</v>
       </c>
       <c r="G67" t="n">
-        <v>25561.4391006306</v>
+        <v>23286.21148219911</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I67" t="n">
-        <v>4494398</v>
+        <v>4525334</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24755339</v>
+        <v>24907474</v>
       </c>
       <c r="E68" t="n">
-        <v>148116172</v>
+        <v>149026425</v>
       </c>
       <c r="F68" t="n">
-        <v>44069.71331749226</v>
+        <v>40850.38757144389</v>
       </c>
       <c r="G68" t="n">
-        <v>45410.3270829434</v>
+        <v>42951.31242362937</v>
       </c>
       <c r="H68" t="n">
         <v>0.2</v>
       </c>
       <c r="I68" t="n">
-        <v>12613920</v>
+        <v>12830839</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23084514</v>
+        <v>23010230</v>
       </c>
       <c r="E70" t="n">
-        <v>23084514</v>
+        <v>23010230</v>
       </c>
       <c r="F70" t="n">
-        <v>14801.95170966335</v>
+        <v>9858.103865384526</v>
       </c>
       <c r="G70" t="n">
-        <v>4674.42726761972</v>
+        <v>2711.856914881298</v>
       </c>
       <c r="H70" t="n">
-        <v>0.28</v>
+        <v>0.55</v>
       </c>
       <c r="I70" t="n">
-        <v>1956128</v>
+        <v>1980352</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>34860663</v>
+        <v>35009006</v>
       </c>
       <c r="E71" t="n">
-        <v>173970781</v>
+        <v>174711077</v>
       </c>
       <c r="F71" t="n">
-        <v>18814.39330754887</v>
+        <v>21211.57542826969</v>
       </c>
       <c r="G71" t="n">
-        <v>38745.57470158985</v>
+        <v>27440.40478334276</v>
       </c>
       <c r="H71" t="n">
-        <v>1.14</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>10217827</v>
+        <v>10767807</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>178976</v>
+        <v>187610</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.26</v>
       </c>
       <c r="I72" t="n">
-        <v>12894.53</v>
+        <v>13069.66</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>319861095</v>
+        <v>322344879</v>
       </c>
       <c r="E73" t="n">
-        <v>591815969</v>
+        <v>596411536</v>
       </c>
       <c r="F73" t="n">
-        <v>50233.47409845108</v>
+        <v>64865.04795627134</v>
       </c>
       <c r="G73" t="n">
-        <v>63922.02505965051</v>
+        <v>65043.79980422825</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I73" t="n">
-        <v>14096235</v>
+        <v>14199121</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11290934</v>
+        <v>11554568</v>
       </c>
       <c r="E74" t="n">
-        <v>33494908</v>
+        <v>34276987</v>
       </c>
       <c r="F74" t="n">
-        <v>1110.013627142236</v>
+        <v>1580.636476120246</v>
       </c>
       <c r="G74" t="n">
-        <v>2328.456941261018</v>
+        <v>1427.166441665114</v>
       </c>
       <c r="H74" t="n">
-        <v>0.52</v>
+        <v>0.57</v>
       </c>
       <c r="I74" t="n">
-        <v>7382314</v>
+        <v>7415599</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8368129</v>
+        <v>8355545</v>
       </c>
       <c r="E75" t="n">
-        <v>11922666</v>
+        <v>11904736</v>
       </c>
       <c r="F75" t="n">
-        <v>3411.59455699448</v>
+        <v>3974.550869785994</v>
       </c>
       <c r="G75" t="n">
-        <v>121.4631632163167</v>
+        <v>1083.606081750046</v>
       </c>
       <c r="H75" t="n">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="I75" t="n">
-        <v>393303</v>
+        <v>392269</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16456384</v>
+        <v>16422789</v>
       </c>
       <c r="F76" t="n">
-        <v>16.18968621069135</v>
+        <v>16.18916318212228</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6071595153345769</v>
+        <v>0.6071399002680231</v>
       </c>
       <c r="H76" t="n">
         <v>0.99</v>
       </c>
       <c r="I76" t="n">
-        <v>1008694</v>
+        <v>1011993</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>62601085</v>
+        <v>62679921</v>
       </c>
       <c r="E77" t="n">
-        <v>103567203</v>
+        <v>103697628</v>
       </c>
       <c r="F77" t="n">
-        <v>11206.69192178231</v>
+        <v>10498.54690585552</v>
       </c>
       <c r="G77" t="n">
-        <v>19467.3052881869</v>
+        <v>13381.94350645097</v>
       </c>
       <c r="H77" t="n">
-        <v>0.5</v>
+        <v>0.11</v>
       </c>
       <c r="I77" t="n">
-        <v>6614710</v>
+        <v>6625132</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6176173</v>
+        <v>5910896</v>
       </c>
       <c r="E78" t="n">
-        <v>6176173</v>
+        <v>5910896</v>
       </c>
       <c r="F78" t="n">
-        <v>355.0849322812618</v>
+        <v>113.6113948498309</v>
       </c>
       <c r="G78" t="n">
-        <v>7.447478460738658</v>
+        <v>19.52976087577579</v>
       </c>
       <c r="H78" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="I78" t="n">
-        <v>1215953</v>
+        <v>194718</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>59431</v>
+        <v>58729</v>
       </c>
       <c r="E79" t="n">
-        <v>310086</v>
+        <v>306426</v>
       </c>
       <c r="F79" t="n">
-        <v>48.36803928706433</v>
+        <v>422.0685720755805</v>
       </c>
       <c r="G79" t="n">
-        <v>6.557216382780363</v>
+        <v>29.697996857779</v>
       </c>
       <c r="H79" t="n">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="I79" t="n">
-        <v>287913</v>
+        <v>279228</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26771546</v>
+        <v>26390009</v>
       </c>
       <c r="F80" t="n">
-        <v>2126.661064289347</v>
+        <v>774.1336926281505</v>
       </c>
       <c r="G80" t="n">
-        <v>8516.594866467934</v>
+        <v>14924.2109305465</v>
       </c>
       <c r="H80" t="n">
-        <v>0.11</v>
+        <v>0.9</v>
       </c>
       <c r="I80" t="n">
-        <v>59123</v>
+        <v>57260</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>618868067</v>
+        <v>625414746</v>
       </c>
       <c r="E81" t="n">
-        <v>2396784714</v>
+        <v>2422139038</v>
       </c>
       <c r="F81" t="n">
-        <v>182250.5257983087</v>
+        <v>180457.7038626986</v>
       </c>
       <c r="G81" t="n">
-        <v>292794.3010618193</v>
+        <v>286554.9431895764</v>
       </c>
       <c r="H81" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="I81" t="n">
-        <v>33579566</v>
+        <v>32779047</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7231863</v>
+        <v>7326451</v>
       </c>
       <c r="E82" t="n">
-        <v>10361909</v>
+        <v>10497413</v>
       </c>
       <c r="F82" t="n">
-        <v>1252.255404776104</v>
+        <v>1089.094734197114</v>
       </c>
       <c r="G82" t="n">
-        <v>753.0692529768562</v>
+        <v>4447.940572685588</v>
       </c>
       <c r="H82" t="n">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>192498</v>
+        <v>195311</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>115316696</v>
+        <v>115652938</v>
       </c>
       <c r="E83" t="n">
-        <v>1071440619</v>
+        <v>1074564740</v>
       </c>
       <c r="F83" t="n">
-        <v>38994.8555200143</v>
+        <v>46793.69237861451</v>
       </c>
       <c r="G83" t="n">
-        <v>43310.53131839979</v>
+        <v>48181.00364810653</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>9275084</v>
+        <v>9474739</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1133765</v>
+        <v>1136363</v>
       </c>
       <c r="E84" t="n">
-        <v>4390185</v>
+        <v>4400245</v>
       </c>
       <c r="F84" t="n">
-        <v>620.3474268709696</v>
+        <v>778.5119626631795</v>
       </c>
       <c r="G84" t="n">
-        <v>956.7513336225597</v>
+        <v>584.1042691643303</v>
       </c>
       <c r="H84" t="n">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="I84" t="n">
-        <v>357114</v>
+        <v>229902</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>125389023</v>
+        <v>126639276</v>
       </c>
       <c r="E85" t="n">
-        <v>481012476</v>
+        <v>485808647</v>
       </c>
       <c r="F85" t="n">
-        <v>79089.74919846471</v>
+        <v>69398.86600682343</v>
       </c>
       <c r="G85" t="n">
-        <v>78920.77685473913</v>
+        <v>60191.99695466028</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I85" t="n">
-        <v>32011283</v>
+        <v>33383560</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5268266</v>
+        <v>5283276</v>
       </c>
       <c r="E86" t="n">
-        <v>19617943</v>
+        <v>19632754</v>
       </c>
       <c r="F86" t="n">
-        <v>3718.19271391422</v>
+        <v>3486.549224390096</v>
       </c>
       <c r="G86" t="n">
-        <v>3373.05179792844</v>
+        <v>1242.21868363081</v>
       </c>
       <c r="H86" t="n">
-        <v>0.25</v>
+        <v>0.76</v>
       </c>
       <c r="I86" t="n">
-        <v>76285</v>
+        <v>72860</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>32560363</v>
+        <v>34852798</v>
       </c>
       <c r="F87" t="n">
-        <v>4380.409328216317</v>
+        <v>4722.080525442173</v>
       </c>
       <c r="G87" t="n">
-        <v>4053.245494672108</v>
+        <v>1277.848663093873</v>
       </c>
       <c r="H87" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I87" t="n">
-        <v>5570501</v>
+        <v>5990983</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24729125</v>
+        <v>24753538</v>
       </c>
       <c r="F88" t="n">
-        <v>1290.344373074517</v>
+        <v>679.5708136501454</v>
       </c>
       <c r="G88" t="n">
-        <v>1338.614629374308</v>
+        <v>763.3860777493719</v>
       </c>
       <c r="H88" t="n">
-        <v>0.82</v>
+        <v>0.27</v>
       </c>
       <c r="I88" t="n">
-        <v>16752.12</v>
+        <v>16898.37</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>89001938</v>
+        <v>89182590</v>
       </c>
       <c r="E89" t="n">
-        <v>328999525</v>
+        <v>329666806</v>
       </c>
       <c r="F89" t="n">
-        <v>1343.22809056671</v>
+        <v>1248.76089432011</v>
       </c>
       <c r="G89" t="n">
-        <v>1637.467589523691</v>
+        <v>1639.103871818115</v>
       </c>
       <c r="H89" t="n">
-        <v>0.88</v>
+        <v>0.66</v>
       </c>
       <c r="I89" t="n">
-        <v>231100</v>
+        <v>232293</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20233442</v>
+        <v>19878420</v>
       </c>
       <c r="E90" t="n">
-        <v>20233442</v>
+        <v>19878420</v>
       </c>
       <c r="F90" t="n">
-        <v>3483.47440581802</v>
+        <v>2234.828532351033</v>
       </c>
       <c r="G90" t="n">
-        <v>4961.502772292342</v>
+        <v>4740.51916372975</v>
       </c>
       <c r="H90" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="I90" t="n">
-        <v>7070236</v>
+        <v>7055160</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3808904</v>
+        <v>3818422</v>
       </c>
       <c r="E91" t="n">
-        <v>8310979</v>
+        <v>8331748</v>
       </c>
       <c r="F91" t="n">
-        <v>1805.597158363511</v>
+        <v>1782.31223931163</v>
       </c>
       <c r="G91" t="n">
-        <v>2255.110701964591</v>
+        <v>2461.07044679869</v>
       </c>
       <c r="H91" t="n">
         <v>0.6</v>
       </c>
       <c r="I91" t="n">
-        <v>53563</v>
+        <v>1814768</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>501151441</v>
+        <v>504692552</v>
       </c>
       <c r="E92" t="n">
-        <v>1744466458</v>
+        <v>1756792771</v>
       </c>
       <c r="F92" t="n">
-        <v>170985.3672999987</v>
+        <v>124138.775431765</v>
       </c>
       <c r="G92" t="n">
-        <v>176288.3165133357</v>
+        <v>160424.8998209409</v>
       </c>
       <c r="H92" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I92" t="n">
-        <v>31654526</v>
+        <v>32330579</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2626705</v>
+        <v>2661908</v>
       </c>
       <c r="E93" t="n">
-        <v>10506818</v>
+        <v>10647630</v>
       </c>
       <c r="F93" t="n">
-        <v>3912.884056337593</v>
+        <v>2947.656705631918</v>
       </c>
       <c r="G93" t="n">
-        <v>2085.294069028293</v>
+        <v>3181.412219448009</v>
       </c>
       <c r="H93" t="n">
-        <v>0.66</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I93" t="n">
-        <v>6888766</v>
+        <v>6981882</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>229315899</v>
+        <v>228964341</v>
       </c>
       <c r="E94" t="n">
-        <v>705060093</v>
+        <v>703979185</v>
       </c>
       <c r="F94" t="n">
-        <v>108625.2681372529</v>
+        <v>98630.41925762098</v>
       </c>
       <c r="G94" t="n">
-        <v>105143.0965085916</v>
+        <v>92663.03781971324</v>
       </c>
       <c r="H94" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>16117365</v>
+        <v>16338567</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>143426714</v>
+        <v>144716690</v>
       </c>
       <c r="E95" t="n">
-        <v>374698312</v>
+        <v>378068338</v>
       </c>
       <c r="F95" t="n">
-        <v>12380.50388657402</v>
+        <v>23373.5355842296</v>
       </c>
       <c r="G95" t="n">
-        <v>29250.94859323254</v>
+        <v>24754.79467437345</v>
       </c>
       <c r="H95" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I95" t="n">
-        <v>8471139</v>
+        <v>8464463</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>405131613</v>
+        <v>408508602</v>
       </c>
       <c r="E96" t="n">
-        <v>2315037789</v>
+        <v>2334334868</v>
       </c>
       <c r="F96" t="n">
-        <v>23254.99477687262</v>
+        <v>16223.26870428335</v>
       </c>
       <c r="G96" t="n">
-        <v>47803.90284682107</v>
+        <v>41915.20973527431</v>
       </c>
       <c r="H96" t="n">
         <v>0.18</v>
       </c>
       <c r="I96" t="n">
-        <v>39724321</v>
+        <v>41051777</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>615731752</v>
+        <v>620269343</v>
       </c>
       <c r="E2" t="n">
-        <v>1194800022</v>
+        <v>1203605168</v>
       </c>
       <c r="F2" t="n">
-        <v>23417.94665157018</v>
+        <v>25084.17154950707</v>
       </c>
       <c r="G2" t="n">
-        <v>35896.89842809689</v>
+        <v>29425.90866961972</v>
       </c>
       <c r="H2" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="I2" t="n">
-        <v>20293379</v>
+        <v>20815311</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1358479</v>
+        <v>1354619</v>
       </c>
       <c r="E3" t="n">
-        <v>4391161</v>
+        <v>4378684</v>
       </c>
       <c r="F3" t="n">
-        <v>2478.430632127149</v>
+        <v>2960.033148581701</v>
       </c>
       <c r="G3" t="n">
-        <v>3309.157436093044</v>
+        <v>4934.918795205414</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="I3" t="n">
-        <v>133941</v>
+        <v>133215</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249953270</v>
+        <v>252833996</v>
       </c>
       <c r="E4" t="n">
-        <v>1567421821</v>
+        <v>1585486453</v>
       </c>
       <c r="F4" t="n">
-        <v>134723.5397058506</v>
+        <v>151335.3426497322</v>
       </c>
       <c r="G4" t="n">
-        <v>135448.5191318867</v>
+        <v>151362.349667295</v>
       </c>
       <c r="H4" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>18329369</v>
+        <v>18417698</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149214893</v>
+        <v>150803999</v>
       </c>
       <c r="E5" t="n">
-        <v>165353421</v>
+        <v>167114399</v>
       </c>
       <c r="F5" t="n">
-        <v>9276.493499935508</v>
+        <v>6427.393960909415</v>
       </c>
       <c r="G5" t="n">
-        <v>16250.25848167353</v>
+        <v>13290.85380057527</v>
       </c>
       <c r="H5" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="I5" t="n">
-        <v>38546899</v>
+        <v>39191369</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>706934</v>
+        <v>718565</v>
       </c>
       <c r="E6" t="n">
-        <v>13733725</v>
+        <v>13959690</v>
       </c>
       <c r="F6" t="n">
-        <v>7230.744120934942</v>
+        <v>156.6675697580729</v>
       </c>
       <c r="G6" t="n">
-        <v>215.3184241678708</v>
+        <v>231.816094572685</v>
       </c>
       <c r="H6" t="n">
-        <v>1.11</v>
+        <v>0.57</v>
       </c>
       <c r="I6" t="n">
-        <v>25148</v>
+        <v>25665</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>485560161</v>
+        <v>492965666</v>
       </c>
       <c r="E7" t="n">
-        <v>485560167</v>
+        <v>492965673</v>
       </c>
       <c r="F7" t="n">
-        <v>25781.88611640493</v>
+        <v>39619.59322937569</v>
       </c>
       <c r="G7" t="n">
-        <v>47375.56607407668</v>
+        <v>50734.12785067213</v>
       </c>
       <c r="H7" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="I7" t="n">
-        <v>77385604</v>
+        <v>66181040</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4752823</v>
+        <v>4774925</v>
       </c>
       <c r="E8" t="n">
-        <v>4752823</v>
+        <v>4774925</v>
       </c>
       <c r="F8" t="n">
-        <v>181.1240917018877</v>
+        <v>667.4605195354313</v>
       </c>
       <c r="G8" t="n">
-        <v>893.1856596363438</v>
+        <v>1597.472810490906</v>
       </c>
       <c r="H8" t="n">
-        <v>1.03</v>
+        <v>0.22</v>
       </c>
       <c r="I8" t="n">
-        <v>1999988</v>
+        <v>2011921</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1730056</v>
+        <v>1722310</v>
       </c>
       <c r="F9" t="n">
-        <v>6731.728781298199</v>
+        <v>3495.381189211716</v>
       </c>
       <c r="G9" t="n">
-        <v>3680.214043054216</v>
+        <v>1751.20828886707</v>
       </c>
       <c r="H9" t="n">
-        <v>0.12</v>
+        <v>0.61</v>
       </c>
       <c r="I9" t="n">
-        <v>157994</v>
+        <v>157116</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1465967</v>
+        <v>1459214</v>
       </c>
       <c r="F10" t="n">
-        <v>300.7224088396968</v>
+        <v>303.9502222605868</v>
       </c>
       <c r="G10" t="n">
-        <v>279.3051450141093</v>
+        <v>204.8751023502012</v>
       </c>
       <c r="H10" t="n">
-        <v>1.16</v>
+        <v>0.75</v>
       </c>
       <c r="I10" t="n">
-        <v>291146</v>
+        <v>243077</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>111831503</v>
+        <v>111348280</v>
       </c>
       <c r="E11" t="n">
-        <v>210677296</v>
+        <v>209766959</v>
       </c>
       <c r="F11" t="n">
-        <v>527.4461008185011</v>
+        <v>1489.594698416276</v>
       </c>
       <c r="G11" t="n">
-        <v>107.2038871041944</v>
+        <v>134.4059824692282</v>
       </c>
       <c r="H11" t="n">
-        <v>1.73</v>
+        <v>0.7</v>
       </c>
       <c r="I11" t="n">
-        <v>4294691</v>
+        <v>4260285</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12777131</v>
+        <v>12788000</v>
       </c>
       <c r="E12" t="n">
-        <v>31799968</v>
+        <v>31827019</v>
       </c>
       <c r="F12" t="n">
-        <v>1100.361076231608</v>
+        <v>1406.098568757581</v>
       </c>
       <c r="G12" t="n">
-        <v>649.7883159952734</v>
+        <v>448.3168746875299</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>1249447</v>
+        <v>1249412</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116701377</v>
+        <v>117417421</v>
       </c>
       <c r="E13" t="n">
-        <v>453961675</v>
+        <v>456737647</v>
       </c>
       <c r="F13" t="n">
-        <v>15735.33608749174</v>
+        <v>28595.38400474889</v>
       </c>
       <c r="G13" t="n">
-        <v>37793.72181231045</v>
+        <v>32323.61549559593</v>
       </c>
       <c r="H13" t="n">
-        <v>0.02</v>
+        <v>0.33</v>
       </c>
       <c r="I13" t="n">
-        <v>9323073</v>
+        <v>9690940</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5402488</v>
+        <v>5370860</v>
       </c>
       <c r="E14" t="n">
-        <v>7952756</v>
+        <v>7906197</v>
       </c>
       <c r="F14" t="n">
-        <v>84.09475805956738</v>
+        <v>46.55462678446701</v>
       </c>
       <c r="G14" t="n">
-        <v>166.6207340819431</v>
+        <v>201.2216511320589</v>
       </c>
       <c r="H14" t="n">
         <v>1.33</v>
       </c>
       <c r="I14" t="n">
-        <v>653514</v>
+        <v>587765</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>143147077</v>
+        <v>144764227</v>
       </c>
       <c r="E15" t="n">
-        <v>143147077</v>
+        <v>144764227</v>
       </c>
       <c r="F15" t="n">
-        <v>41259.15341702348</v>
+        <v>54074.2989287502</v>
       </c>
       <c r="G15" t="n">
-        <v>72683.7386239359</v>
+        <v>74377.79419014561</v>
       </c>
       <c r="H15" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I15" t="n">
-        <v>71226969</v>
+        <v>72201270</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>68427863</v>
+        <v>68632355</v>
       </c>
       <c r="E16" t="n">
-        <v>350912116</v>
+        <v>351960795</v>
       </c>
       <c r="F16" t="n">
-        <v>6601.419468704649</v>
+        <v>9231.080681221396</v>
       </c>
       <c r="G16" t="n">
-        <v>31146.64517890112</v>
+        <v>29358.74291972458</v>
       </c>
       <c r="H16" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I16" t="n">
-        <v>24840043</v>
+        <v>25420327</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>264115624</v>
+        <v>268272727</v>
       </c>
       <c r="E17" t="n">
-        <v>264115624</v>
+        <v>268272727</v>
       </c>
       <c r="F17" t="n">
-        <v>48594.52241128912</v>
+        <v>70881.890637249</v>
       </c>
       <c r="G17" t="n">
-        <v>51698.04056805496</v>
+        <v>53974.21177788595</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>18586267</v>
+        <v>15739128</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2557389</v>
+        <v>2556328</v>
       </c>
       <c r="E18" t="n">
-        <v>6538187</v>
+        <v>6535474</v>
       </c>
       <c r="F18" t="n">
-        <v>1071.89514643653</v>
+        <v>897.9292418876103</v>
       </c>
       <c r="G18" t="n">
-        <v>1104.035024524324</v>
+        <v>815.4524511590422</v>
       </c>
       <c r="H18" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="I18" t="n">
-        <v>109028</v>
+        <v>109711</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>84809181</v>
+        <v>85952876</v>
       </c>
       <c r="E19" t="n">
-        <v>237310445</v>
+        <v>240410302</v>
       </c>
       <c r="F19" t="n">
-        <v>12943.12328626213</v>
+        <v>18483.26707676929</v>
       </c>
       <c r="G19" t="n">
-        <v>18296.11930799436</v>
+        <v>20630.76690556029</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I19" t="n">
-        <v>49885186</v>
+        <v>50521349</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1632559</v>
+        <v>1645612</v>
       </c>
       <c r="E20" t="n">
-        <v>9373543</v>
+        <v>9448488</v>
       </c>
       <c r="F20" t="n">
-        <v>178.2001853718794</v>
+        <v>284.9076198955345</v>
       </c>
       <c r="G20" t="n">
-        <v>647.7090362686598</v>
+        <v>639.0143000087862</v>
       </c>
       <c r="H20" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="I20" t="n">
-        <v>288087</v>
+        <v>289959</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>170394</v>
+        <v>169602</v>
       </c>
       <c r="E21" t="n">
-        <v>1150689</v>
+        <v>1145343</v>
       </c>
       <c r="F21" t="n">
-        <v>6.469903632324724</v>
+        <v>157.9827584878144</v>
       </c>
       <c r="G21" t="n">
-        <v>512.3131744408182</v>
+        <v>52.47855244561006</v>
       </c>
       <c r="H21" t="n">
-        <v>0.64</v>
+        <v>0.42</v>
       </c>
       <c r="I21" t="n">
-        <v>2832072</v>
+        <v>2836969</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>265816</v>
+        <v>263623</v>
       </c>
       <c r="F22" t="n">
-        <v>92.03626103969191</v>
+        <v>35.03949745547015</v>
       </c>
       <c r="G22" t="n">
-        <v>27.51217331495233</v>
+        <v>146.8097394052697</v>
       </c>
       <c r="H22" t="n">
-        <v>1.67</v>
+        <v>1.72</v>
       </c>
       <c r="I22" t="n">
-        <v>1670.33</v>
+        <v>2749.47</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79258660</v>
+        <v>80690839</v>
       </c>
       <c r="E23" t="n">
-        <v>165294554</v>
+        <v>168281377</v>
       </c>
       <c r="F23" t="n">
-        <v>34844.60947347185</v>
+        <v>38116.57917061417</v>
       </c>
       <c r="G23" t="n">
-        <v>33077.24336229885</v>
+        <v>55623.14445221959</v>
       </c>
       <c r="H23" t="n">
         <v>0.44</v>
       </c>
       <c r="I23" t="n">
-        <v>19318285</v>
+        <v>19852543</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>209794835</v>
+        <v>210239690</v>
       </c>
       <c r="E24" t="n">
-        <v>728846218</v>
+        <v>730391682</v>
       </c>
       <c r="F24" t="n">
-        <v>63185.22026404314</v>
+        <v>57431.28819746372</v>
       </c>
       <c r="G24" t="n">
-        <v>63219.30642999905</v>
+        <v>62768.63199350661</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I24" t="n">
-        <v>30213771</v>
+        <v>29912349</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>118415538</v>
+        <v>119717291</v>
       </c>
       <c r="E25" t="n">
-        <v>502946594</v>
+        <v>508454446</v>
       </c>
       <c r="F25" t="n">
-        <v>19056.54421326096</v>
+        <v>20183.8123958773</v>
       </c>
       <c r="G25" t="n">
-        <v>16373.98228908704</v>
+        <v>14761.45199367571</v>
       </c>
       <c r="H25" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="I25" t="n">
-        <v>15891485</v>
+        <v>16046831</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5774855</v>
+        <v>5772949</v>
       </c>
       <c r="E26" t="n">
-        <v>7845465</v>
+        <v>7842876</v>
       </c>
       <c r="F26" t="n">
-        <v>1049.872357205046</v>
+        <v>861.7384397272268</v>
       </c>
       <c r="G26" t="n">
-        <v>1297.673730813165</v>
+        <v>1337.239913986368</v>
       </c>
       <c r="H26" t="n">
         <v>0.41</v>
       </c>
       <c r="I26" t="n">
-        <v>5595952</v>
+        <v>5617469</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>571929</v>
+        <v>572213</v>
       </c>
       <c r="E27" t="n">
-        <v>6936936</v>
+        <v>6940391</v>
       </c>
       <c r="F27" t="n">
-        <v>248.5532418968207</v>
+        <v>662.8129178878216</v>
       </c>
       <c r="G27" t="n">
-        <v>873.680282773523</v>
+        <v>814.3293634044876</v>
       </c>
       <c r="H27" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I27" t="n">
-        <v>2812251</v>
+        <v>2676401</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26180717</v>
+        <v>26799795</v>
       </c>
       <c r="E28" t="n">
-        <v>37005421</v>
+        <v>37880200</v>
       </c>
       <c r="F28" t="n">
-        <v>453.9871948217236</v>
+        <v>7.175655931600685</v>
       </c>
       <c r="G28" t="n">
-        <v>3012.829465429517</v>
+        <v>1.768517718037895</v>
       </c>
       <c r="H28" t="n">
-        <v>0.23</v>
+        <v>3.08</v>
       </c>
       <c r="I28" t="n">
-        <v>73447</v>
+        <v>79382</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1324096556</v>
+        <v>1339525207</v>
       </c>
       <c r="E29" t="n">
-        <v>6349314155</v>
+        <v>6423297694</v>
       </c>
       <c r="F29" t="n">
-        <v>149096.0003372503</v>
+        <v>185118.9505754017</v>
       </c>
       <c r="G29" t="n">
-        <v>197515.1682000145</v>
+        <v>237966.1469960208</v>
       </c>
       <c r="H29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>170664587</v>
+        <v>176640186</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>275861406</v>
+        <v>278669347</v>
       </c>
       <c r="E30" t="n">
-        <v>1190770968</v>
+        <v>1202891604</v>
       </c>
       <c r="F30" t="n">
-        <v>168593.2026535998</v>
+        <v>170710.7071979956</v>
       </c>
       <c r="G30" t="n">
-        <v>206615.5305028184</v>
+        <v>219617.9982752297</v>
       </c>
       <c r="H30" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>103472026</v>
+        <v>106911574</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5339569</v>
+        <v>5344082</v>
       </c>
       <c r="E31" t="n">
-        <v>5345612</v>
+        <v>5350131</v>
       </c>
       <c r="F31" t="n">
-        <v>93.5736231693685</v>
+        <v>93.56490602573952</v>
       </c>
       <c r="G31" t="n">
-        <v>181.939531447621</v>
+        <v>181.9259966088281</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>146068</v>
+        <v>146292</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19468260</v>
+        <v>19685364</v>
       </c>
       <c r="E32" t="n">
-        <v>48670650</v>
+        <v>49213410</v>
       </c>
       <c r="F32" t="n">
-        <v>1933.194751031825</v>
+        <v>2193.48821509798</v>
       </c>
       <c r="G32" t="n">
-        <v>5101.297612074652</v>
+        <v>5513.552254264886</v>
       </c>
       <c r="H32" t="n">
-        <v>0.55</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I32" t="n">
-        <v>2077259</v>
+        <v>1968521</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19817055</v>
+        <v>19900835</v>
       </c>
       <c r="F33" t="n">
-        <v>790.6373064861058</v>
+        <v>765.9410993322354</v>
       </c>
       <c r="G33" t="n">
-        <v>1637.059822330782</v>
+        <v>732.023737550693</v>
       </c>
       <c r="H33" t="n">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="I33" t="n">
-        <v>41577</v>
+        <v>37629</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4273183</v>
+        <v>4271310</v>
       </c>
       <c r="E34" t="n">
-        <v>12308798</v>
+        <v>12303405</v>
       </c>
       <c r="F34" t="n">
-        <v>1575.403795541718</v>
+        <v>1558.624256545806</v>
       </c>
       <c r="G34" t="n">
-        <v>1930.363441597077</v>
+        <v>1401.808705590634</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="I34" t="n">
-        <v>602878</v>
+        <v>614067</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1626974</v>
+        <v>1625872</v>
       </c>
       <c r="F35" t="n">
-        <v>45.17085703584363</v>
+        <v>100.4107941527601</v>
       </c>
       <c r="G35" t="n">
-        <v>431.6666460995313</v>
+        <v>431.6324275470473</v>
       </c>
       <c r="H35" t="n">
         <v>1.83</v>
       </c>
       <c r="I35" t="n">
-        <v>12844.68</v>
+        <v>12838.21</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15261488</v>
+        <v>15542929</v>
       </c>
       <c r="E36" t="n">
-        <v>73913824</v>
+        <v>75276884</v>
       </c>
       <c r="F36" t="n">
-        <v>2701.434777375241</v>
+        <v>5310.708739133504</v>
       </c>
       <c r="G36" t="n">
-        <v>5778.077332892773</v>
+        <v>6438.784508038892</v>
       </c>
       <c r="H36" t="n">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="I36" t="n">
-        <v>4015099</v>
+        <v>4096536</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1440268</v>
+        <v>1480724</v>
       </c>
       <c r="E37" t="n">
-        <v>9426518</v>
+        <v>9691299</v>
       </c>
       <c r="F37" t="n">
-        <v>597.0229036285273</v>
+        <v>9.178407001243713</v>
       </c>
       <c r="G37" t="n">
-        <v>4.604944622966255</v>
+        <v>10.09203516719007</v>
       </c>
       <c r="H37" t="n">
-        <v>1.02</v>
+        <v>2.06</v>
       </c>
       <c r="I37" t="n">
-        <v>703094</v>
+        <v>701508</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1931807915</v>
+        <v>1932228312</v>
       </c>
       <c r="F38" t="n">
-        <v>66106.51097830549</v>
+        <v>75894.56681805014</v>
       </c>
       <c r="G38" t="n">
-        <v>78349.7043224426</v>
+        <v>75578.04488159952</v>
       </c>
       <c r="H38" t="n">
-        <v>0.36</v>
+        <v>0.62</v>
       </c>
       <c r="I38" t="n">
-        <v>27649029</v>
+        <v>27744724</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31581408</v>
+        <v>31876025</v>
       </c>
       <c r="E39" t="n">
-        <v>98334371</v>
+        <v>99251714</v>
       </c>
       <c r="F39" t="n">
-        <v>4225.37004013473</v>
+        <v>4781.997774313018</v>
       </c>
       <c r="G39" t="n">
-        <v>11836.52337949602</v>
+        <v>11451.8420739796</v>
       </c>
       <c r="H39" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I39" t="n">
-        <v>10638074</v>
+        <v>10640751</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>208471793</v>
+        <v>209707482</v>
       </c>
       <c r="E40" t="n">
-        <v>1180495387</v>
+        <v>1187492615</v>
       </c>
       <c r="F40" t="n">
-        <v>30971.55125789672</v>
+        <v>46715.67063780272</v>
       </c>
       <c r="G40" t="n">
-        <v>60766.00436361491</v>
+        <v>82821.49075515536</v>
       </c>
       <c r="H40" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="I40" t="n">
-        <v>68833633</v>
+        <v>70088202</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>143742114</v>
+        <v>144140319</v>
       </c>
       <c r="E41" t="n">
-        <v>1064756401</v>
+        <v>1067706066</v>
       </c>
       <c r="F41" t="n">
-        <v>148179.2698260967</v>
+        <v>155134.1296686055</v>
       </c>
       <c r="G41" t="n">
-        <v>194679.2773429327</v>
+        <v>216599.3260624426</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I41" t="n">
-        <v>8392750</v>
+        <v>8442321</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>33077579</v>
+        <v>32998613</v>
       </c>
       <c r="E42" t="n">
-        <v>157069374</v>
+        <v>156694406</v>
       </c>
       <c r="F42" t="n">
-        <v>8226.040376038842</v>
+        <v>7553.231051097375</v>
       </c>
       <c r="G42" t="n">
-        <v>4042.914858662757</v>
+        <v>6785.320601136636</v>
       </c>
       <c r="H42" t="n">
-        <v>0.45</v>
+        <v>0.77</v>
       </c>
       <c r="I42" t="n">
-        <v>1101188</v>
+        <v>1204139</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3388346</v>
+        <v>3388176</v>
       </c>
       <c r="E43" t="n">
-        <v>7912353</v>
+        <v>7911956</v>
       </c>
       <c r="F43" t="n">
-        <v>1025.628808660871</v>
+        <v>953.5582004603305</v>
       </c>
       <c r="G43" t="n">
-        <v>2693.501179066381</v>
+        <v>2242.679018732093</v>
       </c>
       <c r="H43" t="n">
-        <v>0.76</v>
+        <v>1.3</v>
       </c>
       <c r="I43" t="n">
-        <v>617950</v>
+        <v>618326</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>349314093</v>
+        <v>348708300</v>
       </c>
       <c r="E44" t="n">
-        <v>3142646185</v>
+        <v>3137196093</v>
       </c>
       <c r="F44" t="n">
-        <v>46283.09281161699</v>
+        <v>51281.07221420475</v>
       </c>
       <c r="G44" t="n">
-        <v>55100.94132847279</v>
+        <v>50976.06987118367</v>
       </c>
       <c r="H44" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I44" t="n">
-        <v>42024289</v>
+        <v>45486959</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>637623</v>
+        <v>633655</v>
       </c>
       <c r="F45" t="n">
-        <v>359.4592693030004</v>
+        <v>472.7441818612674</v>
       </c>
       <c r="G45" t="n">
-        <v>63.08555140334589</v>
+        <v>38.8697029678876</v>
       </c>
       <c r="H45" t="n">
         <v>0.97</v>
       </c>
       <c r="I45" t="n">
-        <v>5055.14</v>
+        <v>5085.65</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1574479</v>
+        <v>1574075</v>
       </c>
       <c r="E46" t="n">
-        <v>13120659</v>
+        <v>13117291</v>
       </c>
       <c r="F46" t="n">
-        <v>416.460992641466</v>
+        <v>447.6536228216806</v>
       </c>
       <c r="G46" t="n">
-        <v>1506.224709067606</v>
+        <v>1782.733350992332</v>
       </c>
       <c r="H46" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="I46" t="n">
-        <v>24597</v>
+        <v>24440</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4891234</v>
+        <v>4970389</v>
       </c>
       <c r="E47" t="n">
-        <v>17283005</v>
+        <v>17562698</v>
       </c>
       <c r="F47" t="n">
-        <v>890.5644172702806</v>
+        <v>1297.227088769902</v>
       </c>
       <c r="G47" t="n">
-        <v>1709.167314743319</v>
+        <v>1476.722539030259</v>
       </c>
       <c r="H47" t="n">
-        <v>0.34</v>
+        <v>0.11</v>
       </c>
       <c r="I47" t="n">
-        <v>100011</v>
+        <v>109637</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>49395798</v>
+        <v>50389781</v>
       </c>
       <c r="E48" t="n">
-        <v>285981262</v>
+        <v>291736009</v>
       </c>
       <c r="F48" t="n">
-        <v>10775.69278005144</v>
+        <v>10720.43417610065</v>
       </c>
       <c r="G48" t="n">
-        <v>13644.72429469402</v>
+        <v>6400.890670830185</v>
       </c>
       <c r="H48" t="n">
-        <v>0.38</v>
+        <v>0.48</v>
       </c>
       <c r="I48" t="n">
-        <v>34254285</v>
+        <v>27140989</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2299983</v>
+        <v>2314345</v>
       </c>
       <c r="E49" t="n">
-        <v>12636499</v>
+        <v>12715405</v>
       </c>
       <c r="F49" t="n">
-        <v>205.1985630060845</v>
+        <v>263.4658611279979</v>
       </c>
       <c r="G49" t="n">
-        <v>915.1572973083257</v>
+        <v>1851.255368657732</v>
       </c>
       <c r="H49" t="n">
         <v>2.34</v>
       </c>
       <c r="I49" t="n">
-        <v>116199</v>
+        <v>78285</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13781602</v>
+        <v>14016419</v>
       </c>
       <c r="E50" t="n">
-        <v>13828502</v>
+        <v>14064118</v>
       </c>
       <c r="F50" t="n">
-        <v>4538.187596108068</v>
+        <v>4108.527715267644</v>
       </c>
       <c r="G50" t="n">
-        <v>3729.448925186768</v>
+        <v>8939.590913916238</v>
       </c>
       <c r="H50" t="n">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="I50" t="n">
-        <v>6077804</v>
+        <v>5680251</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23003387</v>
+        <v>23301540</v>
       </c>
       <c r="E51" t="n">
-        <v>68953577</v>
+        <v>69847302</v>
       </c>
       <c r="F51" t="n">
-        <v>22312.26531987345</v>
+        <v>12001.7833030818</v>
       </c>
       <c r="G51" t="n">
-        <v>23200.98182121184</v>
+        <v>26351.38193549567</v>
       </c>
       <c r="H51" t="n">
-        <v>0.54</v>
+        <v>0.38</v>
       </c>
       <c r="I51" t="n">
-        <v>3480233</v>
+        <v>3478715</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15908443</v>
+        <v>15981588</v>
       </c>
       <c r="E52" t="n">
-        <v>97508079</v>
+        <v>97956410</v>
       </c>
       <c r="F52" t="n">
-        <v>5522.272858103282</v>
+        <v>7011.247017117277</v>
       </c>
       <c r="G52" t="n">
-        <v>8578.782247725754</v>
+        <v>10831.48288468336</v>
       </c>
       <c r="H52" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="I52" t="n">
-        <v>10291174</v>
+        <v>10421006</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50414378</v>
+        <v>49875402</v>
       </c>
       <c r="E53" t="n">
-        <v>217179627</v>
+        <v>214857779</v>
       </c>
       <c r="F53" t="n">
-        <v>19746.65923301403</v>
+        <v>22495.79292851922</v>
       </c>
       <c r="G53" t="n">
-        <v>25587.10296744902</v>
+        <v>25817.05746794784</v>
       </c>
       <c r="H53" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="I53" t="n">
-        <v>10010504</v>
+        <v>9824787</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1044150</v>
+        <v>1046234</v>
       </c>
       <c r="E54" t="n">
-        <v>3051868</v>
+        <v>3057960</v>
       </c>
       <c r="F54" t="n">
-        <v>65.97412673642737</v>
+        <v>65.96798071023879</v>
       </c>
       <c r="G54" t="n">
-        <v>856.8823922226886</v>
+        <v>1253.253436773026</v>
       </c>
       <c r="H54" t="n">
         <v>0.97</v>
       </c>
       <c r="I54" t="n">
-        <v>19236.97</v>
+        <v>19998.52</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37531496</v>
+        <v>37808442</v>
       </c>
       <c r="E55" t="n">
-        <v>94636414</v>
+        <v>95334739</v>
       </c>
       <c r="F55" t="n">
-        <v>15918.01716244454</v>
+        <v>11619.06062244887</v>
       </c>
       <c r="G55" t="n">
-        <v>11489.92781241729</v>
+        <v>15908.72304227881</v>
       </c>
       <c r="H55" t="n">
         <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3482452</v>
+        <v>3510224</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28252938</v>
+        <v>28333006</v>
       </c>
       <c r="E56" t="n">
-        <v>67121957</v>
+        <v>67312178</v>
       </c>
       <c r="F56" t="n">
-        <v>14125.14040131881</v>
+        <v>10601.38299371794</v>
       </c>
       <c r="G56" t="n">
-        <v>14156.1803008467</v>
+        <v>6084.263546664669</v>
       </c>
       <c r="H56" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>416188</v>
+        <v>414534</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12712255</v>
+        <v>12703672</v>
       </c>
       <c r="E57" t="n">
-        <v>19350919</v>
+        <v>19337853</v>
       </c>
       <c r="F57" t="n">
-        <v>4194.558855125029</v>
+        <v>3285.814280019861</v>
       </c>
       <c r="G57" t="n">
-        <v>3088.040151321622</v>
+        <v>8233.074870268918</v>
       </c>
       <c r="H57" t="n">
-        <v>0.37</v>
+        <v>0.41</v>
       </c>
       <c r="I57" t="n">
-        <v>684031</v>
+        <v>710169</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>303568433</v>
+        <v>305926157</v>
       </c>
       <c r="E58" t="n">
-        <v>303568433</v>
+        <v>305926157</v>
       </c>
       <c r="F58" t="n">
-        <v>51270.7491181882</v>
+        <v>56996.46214935616</v>
       </c>
       <c r="G58" t="n">
-        <v>73057.54035678292</v>
+        <v>87420.76607616087</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>81058235</v>
+        <v>81703166</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11706294</v>
+        <v>11720938</v>
       </c>
       <c r="F59" t="n">
-        <v>259.6137855739474</v>
+        <v>240.5577878412899</v>
       </c>
       <c r="G59" t="n">
-        <v>44.48905672268719</v>
+        <v>44.48553004038225</v>
       </c>
       <c r="H59" t="n">
         <v>1.38</v>
       </c>
       <c r="I59" t="n">
-        <v>91294</v>
+        <v>90064</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>92353141</v>
+        <v>93857861</v>
       </c>
       <c r="E60" t="n">
-        <v>532178634</v>
+        <v>540849477</v>
       </c>
       <c r="F60" t="n">
-        <v>98895.05071789764</v>
+        <v>97998.66833144294</v>
       </c>
       <c r="G60" t="n">
-        <v>96336.95108769601</v>
+        <v>97451.71210338308</v>
       </c>
       <c r="H60" t="n">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>17507708</v>
+        <v>17828452</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9369736</v>
+        <v>9446767</v>
       </c>
       <c r="E61" t="n">
-        <v>9369736</v>
+        <v>9446767</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.73</v>
+        <v>5.62</v>
       </c>
       <c r="I61" t="n">
-        <v>2108338</v>
+        <v>2101234</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>31172332</v>
+        <v>31316660</v>
       </c>
       <c r="E62" t="n">
-        <v>139571317</v>
+        <v>140217532</v>
       </c>
       <c r="F62" t="n">
-        <v>16134.95505831488</v>
+        <v>26973.28543242194</v>
       </c>
       <c r="G62" t="n">
-        <v>18196.91749745472</v>
+        <v>11832.54140693372</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="I62" t="n">
-        <v>8562133</v>
+        <v>7957945</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12967116</v>
+        <v>12949493</v>
       </c>
       <c r="E63" t="n">
-        <v>25922909</v>
+        <v>25887679</v>
       </c>
       <c r="F63" t="n">
-        <v>2332.602257098443</v>
+        <v>2386.413811033195</v>
       </c>
       <c r="G63" t="n">
-        <v>2199.542548223101</v>
+        <v>2300.784366246797</v>
       </c>
       <c r="H63" t="n">
-        <v>0.66</v>
+        <v>0.44</v>
       </c>
       <c r="I63" t="n">
-        <v>32420</v>
+        <v>32233</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1455304</v>
+        <v>1453793</v>
       </c>
       <c r="F64" t="n">
-        <v>134.5124257502866</v>
+        <v>134.5024073672375</v>
       </c>
       <c r="G64" t="n">
-        <v>9.314898392328002</v>
+        <v>9.314204625788312</v>
       </c>
       <c r="H64" t="n">
         <v>2.7</v>
       </c>
       <c r="I64" t="n">
-        <v>33943</v>
+        <v>37091</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>51694847</v>
+        <v>52409500</v>
       </c>
       <c r="E65" t="n">
-        <v>335227326</v>
+        <v>339861660</v>
       </c>
       <c r="F65" t="n">
-        <v>13246.35485127213</v>
+        <v>21105.96659633602</v>
       </c>
       <c r="G65" t="n">
-        <v>21274.53752174487</v>
+        <v>16128.89274697344</v>
       </c>
       <c r="H65" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I65" t="n">
-        <v>17258629</v>
+        <v>17653850</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4796608</v>
+        <v>4797752</v>
       </c>
       <c r="F66" t="n">
-        <v>1158.672796669816</v>
+        <v>1090.244397393717</v>
       </c>
       <c r="G66" t="n">
-        <v>1694.432863199848</v>
+        <v>2454.820646414464</v>
       </c>
       <c r="H66" t="n">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="I66" t="n">
-        <v>195302</v>
+        <v>196475</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125306819</v>
+        <v>125262697</v>
       </c>
       <c r="E67" t="n">
-        <v>2075183547</v>
+        <v>2074452857</v>
       </c>
       <c r="F67" t="n">
-        <v>18306.13320083487</v>
+        <v>17832.58761564245</v>
       </c>
       <c r="G67" t="n">
-        <v>23286.21148219911</v>
+        <v>24213.53577265005</v>
       </c>
       <c r="H67" t="n">
-        <v>0.19</v>
+        <v>0.24</v>
       </c>
       <c r="I67" t="n">
-        <v>4525334</v>
+        <v>4588208</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>24907474</v>
+        <v>25242381</v>
       </c>
       <c r="E68" t="n">
-        <v>149026425</v>
+        <v>151030237</v>
       </c>
       <c r="F68" t="n">
-        <v>40850.38757144389</v>
+        <v>4959.527320315104</v>
       </c>
       <c r="G68" t="n">
-        <v>42951.31242362937</v>
+        <v>44743.33720158564</v>
       </c>
       <c r="H68" t="n">
         <v>0.2</v>
       </c>
       <c r="I68" t="n">
-        <v>12830839</v>
+        <v>13028888</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23010230</v>
+        <v>23174125</v>
       </c>
       <c r="E70" t="n">
-        <v>23010230</v>
+        <v>23174125</v>
       </c>
       <c r="F70" t="n">
-        <v>9858.103865384526</v>
+        <v>10439.59203616399</v>
       </c>
       <c r="G70" t="n">
-        <v>2711.856914881298</v>
+        <v>6353.085557259064</v>
       </c>
       <c r="H70" t="n">
         <v>0.55</v>
       </c>
       <c r="I70" t="n">
-        <v>1980352</v>
+        <v>1996927</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35009006</v>
+        <v>35473188</v>
       </c>
       <c r="E71" t="n">
-        <v>174711077</v>
+        <v>177027561</v>
       </c>
       <c r="F71" t="n">
-        <v>21211.57542826969</v>
+        <v>19018.26255054733</v>
       </c>
       <c r="G71" t="n">
-        <v>27440.40478334276</v>
+        <v>51535.29317080384</v>
       </c>
       <c r="H71" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>10767807</v>
+        <v>10585905</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>187610</v>
+        <v>178345</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2951,10 +2951,10 @@
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>5.26</v>
+        <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>13069.66</v>
+        <v>14467.04</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>322344879</v>
+        <v>323513059</v>
       </c>
       <c r="E73" t="n">
-        <v>596411536</v>
+        <v>598572936</v>
       </c>
       <c r="F73" t="n">
-        <v>64865.04795627134</v>
+        <v>69581.69836425519</v>
       </c>
       <c r="G73" t="n">
-        <v>65043.79980422825</v>
+        <v>76073.67282244544</v>
       </c>
       <c r="H73" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>14199121</v>
+        <v>14306343</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11554568</v>
+        <v>11544615</v>
       </c>
       <c r="E74" t="n">
-        <v>34276987</v>
+        <v>34247462</v>
       </c>
       <c r="F74" t="n">
-        <v>1580.636476120246</v>
+        <v>820.9168853342732</v>
       </c>
       <c r="G74" t="n">
-        <v>1427.166441665114</v>
+        <v>1970.682353134036</v>
       </c>
       <c r="H74" t="n">
-        <v>0.57</v>
+        <v>0.51</v>
       </c>
       <c r="I74" t="n">
-        <v>7415599</v>
+        <v>7327933</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8355545</v>
+        <v>8345881</v>
       </c>
       <c r="E75" t="n">
-        <v>11904736</v>
+        <v>11890968</v>
       </c>
       <c r="F75" t="n">
-        <v>3974.550869785994</v>
+        <v>3904.453066925998</v>
       </c>
       <c r="G75" t="n">
-        <v>1083.606081750046</v>
+        <v>986.501986004832</v>
       </c>
       <c r="H75" t="n">
         <v>0.84</v>
       </c>
       <c r="I75" t="n">
-        <v>392269</v>
+        <v>390465</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16422789</v>
+        <v>16779506</v>
       </c>
       <c r="F76" t="n">
-        <v>16.18916318212228</v>
+        <v>676.6299009871036</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6071399002680231</v>
+        <v>0.3049168881940519</v>
       </c>
       <c r="H76" t="n">
-        <v>0.99</v>
+        <v>1.45</v>
       </c>
       <c r="I76" t="n">
-        <v>1011993</v>
+        <v>1014110</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>62679921</v>
+        <v>62974227</v>
       </c>
       <c r="E77" t="n">
-        <v>103697628</v>
+        <v>104184529</v>
       </c>
       <c r="F77" t="n">
-        <v>10498.54690585552</v>
+        <v>10298.63347862752</v>
       </c>
       <c r="G77" t="n">
-        <v>13381.94350645097</v>
+        <v>14701.8318233575</v>
       </c>
       <c r="H77" t="n">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="I77" t="n">
-        <v>6625132</v>
+        <v>6607895</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5910896</v>
+        <v>6131881</v>
       </c>
       <c r="E78" t="n">
-        <v>5910896</v>
+        <v>6131881</v>
       </c>
       <c r="F78" t="n">
-        <v>113.6113948498309</v>
+        <v>281.1299779680814</v>
       </c>
       <c r="G78" t="n">
-        <v>19.52976087577579</v>
+        <v>10.05998669077888</v>
       </c>
       <c r="H78" t="n">
         <v>2.3</v>
       </c>
       <c r="I78" t="n">
-        <v>194718</v>
+        <v>1205631</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58729</v>
+        <v>58845</v>
       </c>
       <c r="E79" t="n">
-        <v>306426</v>
+        <v>307029</v>
       </c>
       <c r="F79" t="n">
-        <v>422.0685720755805</v>
+        <v>197.2018669616221</v>
       </c>
       <c r="G79" t="n">
-        <v>29.697996857779</v>
+        <v>54.75259043477752</v>
       </c>
       <c r="H79" t="n">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="I79" t="n">
-        <v>279228</v>
+        <v>278158</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26390009</v>
+        <v>26323088</v>
       </c>
       <c r="F80" t="n">
-        <v>774.1336926281505</v>
+        <v>564.6015073015518</v>
       </c>
       <c r="G80" t="n">
-        <v>14924.2109305465</v>
+        <v>11403.51197726262</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9</v>
+        <v>1.49</v>
       </c>
       <c r="I80" t="n">
-        <v>57260</v>
+        <v>58739</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>625414746</v>
+        <v>629480244</v>
       </c>
       <c r="E81" t="n">
-        <v>2422139038</v>
+        <v>2437884113</v>
       </c>
       <c r="F81" t="n">
-        <v>180457.7038626986</v>
+        <v>166487.6341351527</v>
       </c>
       <c r="G81" t="n">
-        <v>286554.9431895764</v>
+        <v>55869.59347352358</v>
       </c>
       <c r="H81" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="I81" t="n">
-        <v>32779047</v>
+        <v>36855473</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7326451</v>
+        <v>7332622</v>
       </c>
       <c r="E82" t="n">
-        <v>10497413</v>
+        <v>10506254</v>
       </c>
       <c r="F82" t="n">
-        <v>1089.094734197114</v>
+        <v>1318.015575958345</v>
       </c>
       <c r="G82" t="n">
-        <v>4447.940572685588</v>
+        <v>4285.541473604468</v>
       </c>
       <c r="H82" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="I82" t="n">
-        <v>195311</v>
+        <v>194984</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>115652938</v>
+        <v>116410062</v>
       </c>
       <c r="E83" t="n">
-        <v>1074564740</v>
+        <v>1081599401</v>
       </c>
       <c r="F83" t="n">
-        <v>46793.69237861451</v>
+        <v>43505.89474439295</v>
       </c>
       <c r="G83" t="n">
-        <v>48181.00364810653</v>
+        <v>47262.30238565995</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>9474739</v>
+        <v>9415087</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1136363</v>
+        <v>1166255</v>
       </c>
       <c r="E84" t="n">
-        <v>4400245</v>
+        <v>4515995</v>
       </c>
       <c r="F84" t="n">
-        <v>778.5119626631795</v>
+        <v>2681.459348175217</v>
       </c>
       <c r="G84" t="n">
-        <v>584.1042691643303</v>
+        <v>653.18942123658</v>
       </c>
       <c r="H84" t="n">
         <v>0.23</v>
       </c>
       <c r="I84" t="n">
-        <v>229902</v>
+        <v>349979</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>126639276</v>
+        <v>128318971</v>
       </c>
       <c r="E85" t="n">
-        <v>485808647</v>
+        <v>492252228</v>
       </c>
       <c r="F85" t="n">
-        <v>69398.86600682343</v>
+        <v>82637.29867649793</v>
       </c>
       <c r="G85" t="n">
-        <v>60191.99695466028</v>
+        <v>75979.98311998117</v>
       </c>
       <c r="H85" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I85" t="n">
-        <v>33383560</v>
+        <v>33839539</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5283276</v>
+        <v>5288060</v>
       </c>
       <c r="E86" t="n">
-        <v>19632754</v>
+        <v>19650531</v>
       </c>
       <c r="F86" t="n">
-        <v>3486.549224390096</v>
+        <v>3717.255679029161</v>
       </c>
       <c r="G86" t="n">
-        <v>1242.21868363081</v>
+        <v>4100.396419311497</v>
       </c>
       <c r="H86" t="n">
         <v>0.76</v>
       </c>
       <c r="I86" t="n">
-        <v>72860</v>
+        <v>79136</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>34852798</v>
+        <v>34734875</v>
       </c>
       <c r="F87" t="n">
-        <v>4722.080525442173</v>
+        <v>4338.282736051937</v>
       </c>
       <c r="G87" t="n">
-        <v>1277.848663093873</v>
+        <v>1477.402798668194</v>
       </c>
       <c r="H87" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I87" t="n">
-        <v>5990983</v>
+        <v>6012405</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>24753538</v>
+        <v>25029418</v>
       </c>
       <c r="F88" t="n">
-        <v>679.5708136501454</v>
+        <v>1452.380162695654</v>
       </c>
       <c r="G88" t="n">
-        <v>763.3860777493719</v>
+        <v>1317.432014448901</v>
       </c>
       <c r="H88" t="n">
-        <v>0.27</v>
+        <v>0.74</v>
       </c>
       <c r="I88" t="n">
-        <v>16898.37</v>
+        <v>17110.19</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>89182590</v>
+        <v>88986703</v>
       </c>
       <c r="E89" t="n">
-        <v>329666806</v>
+        <v>328942702</v>
       </c>
       <c r="F89" t="n">
-        <v>1248.76089432011</v>
+        <v>1627.420718843466</v>
       </c>
       <c r="G89" t="n">
-        <v>1639.103871818115</v>
+        <v>1906.374521671179</v>
       </c>
       <c r="H89" t="n">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
       <c r="I89" t="n">
-        <v>232293</v>
+        <v>232192</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>19878420</v>
+        <v>20252783</v>
       </c>
       <c r="E90" t="n">
-        <v>19878420</v>
+        <v>20252783</v>
       </c>
       <c r="F90" t="n">
-        <v>2234.828532351033</v>
+        <v>4075.716907010542</v>
       </c>
       <c r="G90" t="n">
-        <v>4740.51916372975</v>
+        <v>5450.604086423231</v>
       </c>
       <c r="H90" t="n">
-        <v>0.32</v>
+        <v>0.53</v>
       </c>
       <c r="I90" t="n">
-        <v>7055160</v>
+        <v>6075877</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3818422</v>
+        <v>3820217</v>
       </c>
       <c r="E91" t="n">
-        <v>8331748</v>
+        <v>8335664</v>
       </c>
       <c r="F91" t="n">
-        <v>1782.31223931163</v>
+        <v>1764.261740485224</v>
       </c>
       <c r="G91" t="n">
-        <v>2461.07044679869</v>
+        <v>2382.349154964594</v>
       </c>
       <c r="H91" t="n">
         <v>0.6</v>
       </c>
       <c r="I91" t="n">
-        <v>1814768</v>
+        <v>1836394</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>504692552</v>
+        <v>510607856</v>
       </c>
       <c r="E92" t="n">
-        <v>1756792771</v>
+        <v>1777383452</v>
       </c>
       <c r="F92" t="n">
-        <v>124138.775431765</v>
+        <v>177810.893993776</v>
       </c>
       <c r="G92" t="n">
-        <v>160424.8998209409</v>
+        <v>177618.4245527414</v>
       </c>
       <c r="H92" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>32330579</v>
+        <v>33042010</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2661908</v>
+        <v>2625524</v>
       </c>
       <c r="E93" t="n">
-        <v>10647630</v>
+        <v>10502096</v>
       </c>
       <c r="F93" t="n">
-        <v>2947.656705631918</v>
+        <v>2722.527274477588</v>
       </c>
       <c r="G93" t="n">
-        <v>3181.412219448009</v>
+        <v>3188.244573770258</v>
       </c>
       <c r="H93" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="I93" t="n">
-        <v>6981882</v>
+        <v>7010808</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>228964341</v>
+        <v>227814214</v>
       </c>
       <c r="E94" t="n">
-        <v>703979185</v>
+        <v>700442976</v>
       </c>
       <c r="F94" t="n">
-        <v>98630.41925762098</v>
+        <v>117188.2155027397</v>
       </c>
       <c r="G94" t="n">
-        <v>92663.03781971324</v>
+        <v>99214.44498263526</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>16338567</v>
+        <v>16537594</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>144716690</v>
+        <v>147403869</v>
       </c>
       <c r="E95" t="n">
-        <v>378068338</v>
+        <v>385088519</v>
       </c>
       <c r="F95" t="n">
-        <v>23373.5355842296</v>
+        <v>25402.27151721692</v>
       </c>
       <c r="G95" t="n">
-        <v>24754.79467437345</v>
+        <v>29734.14629221978</v>
       </c>
       <c r="H95" t="n">
-        <v>0.05</v>
+        <v>0.18</v>
       </c>
       <c r="I95" t="n">
-        <v>8464463</v>
+        <v>8367990</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>408508602</v>
+        <v>411995921</v>
       </c>
       <c r="E96" t="n">
-        <v>2334334868</v>
+        <v>2354262405</v>
       </c>
       <c r="F96" t="n">
-        <v>16223.26870428335</v>
+        <v>25294.47897076288</v>
       </c>
       <c r="G96" t="n">
-        <v>41915.20973527431</v>
+        <v>44257.60535077363</v>
       </c>
       <c r="H96" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>41051777</v>
+        <v>41886097</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>620269343</v>
+        <v>632475217</v>
       </c>
       <c r="E2" t="n">
-        <v>1203605168</v>
+        <v>1227298687</v>
       </c>
       <c r="F2" t="n">
-        <v>25084.17154950707</v>
+        <v>21661.86258766876</v>
       </c>
       <c r="G2" t="n">
-        <v>29425.90866961972</v>
+        <v>37984.72004140545</v>
       </c>
       <c r="H2" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>20815311</v>
+        <v>22135949</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1354619</v>
+        <v>1388118</v>
       </c>
       <c r="E3" t="n">
-        <v>4378684</v>
+        <v>4486967</v>
       </c>
       <c r="F3" t="n">
-        <v>2960.033148581701</v>
+        <v>1253.058601777667</v>
       </c>
       <c r="G3" t="n">
-        <v>4934.918795205414</v>
+        <v>3775.077561542681</v>
       </c>
       <c r="H3" t="n">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="I3" t="n">
-        <v>133215</v>
+        <v>147238</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>252833996</v>
+        <v>254393046</v>
       </c>
       <c r="E4" t="n">
-        <v>1585486453</v>
+        <v>1595263031</v>
       </c>
       <c r="F4" t="n">
-        <v>151335.3426497322</v>
+        <v>151461.8902426547</v>
       </c>
       <c r="G4" t="n">
-        <v>151362.349667295</v>
+        <v>142341.8246031017</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>18417698</v>
+        <v>17618075</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>150803999</v>
+        <v>152546116</v>
       </c>
       <c r="E5" t="n">
-        <v>167114399</v>
+        <v>169044936</v>
       </c>
       <c r="F5" t="n">
-        <v>6427.393960909415</v>
+        <v>5626.975607085859</v>
       </c>
       <c r="G5" t="n">
-        <v>13290.85380057527</v>
+        <v>13081.3382598698</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="I5" t="n">
-        <v>39191369</v>
+        <v>40547338</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>718565</v>
+        <v>702799</v>
       </c>
       <c r="E6" t="n">
-        <v>13959690</v>
+        <v>13653392</v>
       </c>
       <c r="F6" t="n">
-        <v>156.6675697580729</v>
+        <v>196.8867109851824</v>
       </c>
       <c r="G6" t="n">
-        <v>231.816094572685</v>
+        <v>470.6000481139093</v>
       </c>
       <c r="H6" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="I6" t="n">
-        <v>25665</v>
+        <v>25773</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>492965666</v>
+        <v>484716358</v>
       </c>
       <c r="E7" t="n">
-        <v>492965673</v>
+        <v>484716359</v>
       </c>
       <c r="F7" t="n">
-        <v>39619.59322937569</v>
+        <v>41588.04924177933</v>
       </c>
       <c r="G7" t="n">
-        <v>50734.12785067213</v>
+        <v>54920.56533839276</v>
       </c>
       <c r="H7" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>66181040</v>
+        <v>65690525</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4774925</v>
+        <v>4750965</v>
       </c>
       <c r="E8" t="n">
-        <v>4774925</v>
+        <v>4750965</v>
       </c>
       <c r="F8" t="n">
-        <v>667.4605195354313</v>
+        <v>676.4442032127181</v>
       </c>
       <c r="G8" t="n">
-        <v>1597.472810490906</v>
+        <v>1621.086273522909</v>
       </c>
       <c r="H8" t="n">
-        <v>0.22</v>
+        <v>0.37</v>
       </c>
       <c r="I8" t="n">
-        <v>2011921</v>
+        <v>2020753</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1722310</v>
+        <v>1705337</v>
       </c>
       <c r="F9" t="n">
-        <v>3495.381189211716</v>
+        <v>5420.176991474794</v>
       </c>
       <c r="G9" t="n">
-        <v>1751.20828886707</v>
+        <v>3259.618813992895</v>
       </c>
       <c r="H9" t="n">
-        <v>0.61</v>
+        <v>0.37</v>
       </c>
       <c r="I9" t="n">
-        <v>157116</v>
+        <v>158502</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1459214</v>
+        <v>1464617</v>
       </c>
       <c r="F10" t="n">
-        <v>303.9502222605868</v>
+        <v>307.541219945822</v>
       </c>
       <c r="G10" t="n">
-        <v>204.8751023502012</v>
+        <v>227.6246054460088</v>
       </c>
       <c r="H10" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>243077</v>
+        <v>332835</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>111348280</v>
+        <v>110574233</v>
       </c>
       <c r="E11" t="n">
-        <v>209766959</v>
+        <v>208308748</v>
       </c>
       <c r="F11" t="n">
-        <v>1489.594698416276</v>
+        <v>914.2604618327016</v>
       </c>
       <c r="G11" t="n">
-        <v>134.4059824692282</v>
+        <v>648.0906950719632</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7</v>
+        <v>1.51</v>
       </c>
       <c r="I11" t="n">
-        <v>4260285</v>
+        <v>4218583</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12788000</v>
+        <v>12656320</v>
       </c>
       <c r="E12" t="n">
-        <v>31827019</v>
+        <v>31499291</v>
       </c>
       <c r="F12" t="n">
-        <v>1406.098568757581</v>
+        <v>718.8236347273308</v>
       </c>
       <c r="G12" t="n">
-        <v>448.3168746875299</v>
+        <v>923.3125856202523</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="I12" t="n">
-        <v>1249412</v>
+        <v>1287673</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>117417421</v>
+        <v>118194966</v>
       </c>
       <c r="E13" t="n">
-        <v>456737647</v>
+        <v>459735630</v>
       </c>
       <c r="F13" t="n">
-        <v>28595.38400474889</v>
+        <v>29192.30334563187</v>
       </c>
       <c r="G13" t="n">
-        <v>32323.61549559593</v>
+        <v>28904.77583396224</v>
       </c>
       <c r="H13" t="n">
-        <v>0.33</v>
+        <v>0.24</v>
       </c>
       <c r="I13" t="n">
-        <v>9690940</v>
+        <v>10944203</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5370860</v>
+        <v>5166381</v>
       </c>
       <c r="E14" t="n">
-        <v>7906197</v>
+        <v>7605193</v>
       </c>
       <c r="F14" t="n">
-        <v>46.55462678446701</v>
+        <v>1.453171226780575</v>
       </c>
       <c r="G14" t="n">
-        <v>201.2216511320589</v>
+        <v>258.720978413133</v>
       </c>
       <c r="H14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="I14" t="n">
-        <v>587765</v>
+        <v>578562</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>144764227</v>
+        <v>145779954</v>
       </c>
       <c r="E15" t="n">
-        <v>144764227</v>
+        <v>145779954</v>
       </c>
       <c r="F15" t="n">
-        <v>54074.2989287502</v>
+        <v>43855.65525899599</v>
       </c>
       <c r="G15" t="n">
-        <v>74377.79419014561</v>
+        <v>86242.24735930895</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>72201270</v>
+        <v>74484801</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>68632355</v>
+        <v>69755734</v>
       </c>
       <c r="E16" t="n">
-        <v>351960795</v>
+        <v>357721714</v>
       </c>
       <c r="F16" t="n">
-        <v>9231.080681221396</v>
+        <v>9976.930966606418</v>
       </c>
       <c r="G16" t="n">
-        <v>29358.74291972458</v>
+        <v>36237.6328304505</v>
       </c>
       <c r="H16" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>25420327</v>
+        <v>26336617</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>268272727</v>
+        <v>268530413</v>
       </c>
       <c r="E17" t="n">
-        <v>268272727</v>
+        <v>268530413</v>
       </c>
       <c r="F17" t="n">
-        <v>70881.890637249</v>
+        <v>63986.45435484347</v>
       </c>
       <c r="G17" t="n">
-        <v>53974.21177788595</v>
+        <v>54707.55698207852</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>15739128</v>
+        <v>15437323</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2556328</v>
+        <v>2553535</v>
       </c>
       <c r="E18" t="n">
-        <v>6535474</v>
+        <v>6528334</v>
       </c>
       <c r="F18" t="n">
-        <v>897.9292418876103</v>
+        <v>1014.844368583241</v>
       </c>
       <c r="G18" t="n">
-        <v>815.4524511590422</v>
+        <v>1955.066987577653</v>
       </c>
       <c r="H18" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="I18" t="n">
-        <v>109711</v>
+        <v>108014</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>85952876</v>
+        <v>85031383</v>
       </c>
       <c r="E19" t="n">
-        <v>240410302</v>
+        <v>237874512</v>
       </c>
       <c r="F19" t="n">
-        <v>18483.26707676929</v>
+        <v>15194.89977026303</v>
       </c>
       <c r="G19" t="n">
-        <v>20630.76690556029</v>
+        <v>22214.98791339953</v>
       </c>
       <c r="H19" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I19" t="n">
-        <v>50521349</v>
+        <v>51762422</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1645612</v>
+        <v>1640839</v>
       </c>
       <c r="E20" t="n">
-        <v>9448488</v>
+        <v>9421083</v>
       </c>
       <c r="F20" t="n">
-        <v>284.9076198955345</v>
+        <v>466.9063178237208</v>
       </c>
       <c r="G20" t="n">
-        <v>639.0143000087862</v>
+        <v>667.856080950334</v>
       </c>
       <c r="H20" t="n">
-        <v>1.11</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>289959</v>
+        <v>291276</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>169602</v>
+        <v>175594</v>
       </c>
       <c r="E21" t="n">
-        <v>1145343</v>
+        <v>1185808</v>
       </c>
       <c r="F21" t="n">
-        <v>157.9827584878144</v>
+        <v>9.762516325482553</v>
       </c>
       <c r="G21" t="n">
-        <v>52.47855244561006</v>
+        <v>5.366656652387126</v>
       </c>
       <c r="H21" t="n">
-        <v>0.42</v>
+        <v>0.82</v>
       </c>
       <c r="I21" t="n">
-        <v>2836969</v>
+        <v>2823437</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>263623</v>
+        <v>261809</v>
       </c>
       <c r="F22" t="n">
-        <v>35.03949745547015</v>
+        <v>135.5353527814383</v>
       </c>
       <c r="G22" t="n">
-        <v>146.8097394052697</v>
+        <v>1.017462889055013</v>
       </c>
       <c r="H22" t="n">
         <v>1.72</v>
       </c>
       <c r="I22" t="n">
-        <v>2749.47</v>
+        <v>3367.52</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80690839</v>
+        <v>80269764</v>
       </c>
       <c r="E23" t="n">
-        <v>168281377</v>
+        <v>167403220</v>
       </c>
       <c r="F23" t="n">
-        <v>38116.57917061417</v>
+        <v>35474.58074599048</v>
       </c>
       <c r="G23" t="n">
-        <v>55623.14445221959</v>
+        <v>42760.45304884005</v>
       </c>
       <c r="H23" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I23" t="n">
-        <v>19852543</v>
+        <v>20290239</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>210239690</v>
+        <v>211162681</v>
       </c>
       <c r="E24" t="n">
-        <v>730391682</v>
+        <v>733598238</v>
       </c>
       <c r="F24" t="n">
-        <v>57431.28819746372</v>
+        <v>63206.32775246401</v>
       </c>
       <c r="G24" t="n">
-        <v>62768.63199350661</v>
+        <v>59078.40184090516</v>
       </c>
       <c r="H24" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>29912349</v>
+        <v>29950326</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>119717291</v>
+        <v>120880385</v>
       </c>
       <c r="E25" t="n">
-        <v>508454446</v>
+        <v>513340638</v>
       </c>
       <c r="F25" t="n">
-        <v>20183.8123958773</v>
+        <v>21791.58907948925</v>
       </c>
       <c r="G25" t="n">
-        <v>14761.45199367571</v>
+        <v>13052.3485698728</v>
       </c>
       <c r="H25" t="n">
         <v>0.31</v>
       </c>
       <c r="I25" t="n">
-        <v>16046831</v>
+        <v>16567407</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5772949</v>
+        <v>5776326</v>
       </c>
       <c r="E26" t="n">
-        <v>7842876</v>
+        <v>7847464</v>
       </c>
       <c r="F26" t="n">
-        <v>861.7384397272268</v>
+        <v>1282.854838377656</v>
       </c>
       <c r="G26" t="n">
-        <v>1337.239913986368</v>
+        <v>1396.892090056698</v>
       </c>
       <c r="H26" t="n">
-        <v>0.41</v>
+        <v>0.14</v>
       </c>
       <c r="I26" t="n">
-        <v>5617469</v>
+        <v>5502208</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>572213</v>
+        <v>571071</v>
       </c>
       <c r="E27" t="n">
-        <v>6940391</v>
+        <v>6926538</v>
       </c>
       <c r="F27" t="n">
-        <v>662.8129178878216</v>
+        <v>208.0300650646169</v>
       </c>
       <c r="G27" t="n">
-        <v>814.3293634044876</v>
+        <v>486.495408650722</v>
       </c>
       <c r="H27" t="n">
-        <v>1.05</v>
+        <v>0.92</v>
       </c>
       <c r="I27" t="n">
-        <v>2676401</v>
+        <v>2800876</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26799795</v>
+        <v>26439653</v>
       </c>
       <c r="E28" t="n">
-        <v>37880200</v>
+        <v>37371157</v>
       </c>
       <c r="F28" t="n">
-        <v>7.175655931600685</v>
+        <v>351.9527745686834</v>
       </c>
       <c r="G28" t="n">
-        <v>1.768517718037895</v>
+        <v>1166.165719875974</v>
       </c>
       <c r="H28" t="n">
-        <v>3.08</v>
+        <v>1.59</v>
       </c>
       <c r="I28" t="n">
-        <v>79382</v>
+        <v>83250</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1339525207</v>
+        <v>1363014508</v>
       </c>
       <c r="E29" t="n">
-        <v>6423297694</v>
+        <v>6535933703</v>
       </c>
       <c r="F29" t="n">
-        <v>185118.9505754017</v>
+        <v>214559.559711414</v>
       </c>
       <c r="G29" t="n">
-        <v>237966.1469960208</v>
+        <v>227504.6550610454</v>
       </c>
       <c r="H29" t="n">
         <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>176640186</v>
+        <v>199638878</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>278669347</v>
+        <v>281403616</v>
       </c>
       <c r="E30" t="n">
-        <v>1202891604</v>
+        <v>1214694225</v>
       </c>
       <c r="F30" t="n">
-        <v>170710.7071979956</v>
+        <v>201622.5945648076</v>
       </c>
       <c r="G30" t="n">
-        <v>219617.9982752297</v>
+        <v>225306.1756127557</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I30" t="n">
-        <v>106911574</v>
+        <v>110321343</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5344082</v>
+        <v>5349523</v>
       </c>
       <c r="E31" t="n">
-        <v>5350131</v>
+        <v>5355578</v>
       </c>
       <c r="F31" t="n">
-        <v>93.56490602573952</v>
+        <v>111.1782588344494</v>
       </c>
       <c r="G31" t="n">
-        <v>181.9259966088281</v>
+        <v>208.4303583752423</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>146292</v>
+        <v>146057</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19685364</v>
+        <v>19913662</v>
       </c>
       <c r="E32" t="n">
-        <v>49213410</v>
+        <v>49784155</v>
       </c>
       <c r="F32" t="n">
-        <v>2193.48821509798</v>
+        <v>1956.698145852625</v>
       </c>
       <c r="G32" t="n">
-        <v>5513.552254264886</v>
+        <v>4624.965688950943</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="I32" t="n">
-        <v>1968521</v>
+        <v>1947293</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19900835</v>
+        <v>19740784</v>
       </c>
       <c r="F33" t="n">
-        <v>765.9410993322354</v>
+        <v>809.4255140606042</v>
       </c>
       <c r="G33" t="n">
-        <v>732.023737550693</v>
+        <v>856.6023330163976</v>
       </c>
       <c r="H33" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>37629</v>
+        <v>45380</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4271310</v>
+        <v>4227990</v>
       </c>
       <c r="E34" t="n">
-        <v>12303405</v>
+        <v>12178622</v>
       </c>
       <c r="F34" t="n">
-        <v>1558.624256545806</v>
+        <v>2139.100300884329</v>
       </c>
       <c r="G34" t="n">
-        <v>1401.808705590634</v>
+        <v>1312.121787037916</v>
       </c>
       <c r="H34" t="n">
-        <v>0.89</v>
+        <v>0.66</v>
       </c>
       <c r="I34" t="n">
-        <v>614067</v>
+        <v>588026</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1625872</v>
+        <v>1589434</v>
       </c>
       <c r="F35" t="n">
-        <v>100.4107941527601</v>
+        <v>188.1971496260426</v>
       </c>
       <c r="G35" t="n">
-        <v>431.6324275470473</v>
+        <v>282.1393751502131</v>
       </c>
       <c r="H35" t="n">
-        <v>1.83</v>
+        <v>1.26</v>
       </c>
       <c r="I35" t="n">
-        <v>12838.21</v>
+        <v>10219.36</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15542929</v>
+        <v>15626204</v>
       </c>
       <c r="E36" t="n">
-        <v>75276884</v>
+        <v>75680198</v>
       </c>
       <c r="F36" t="n">
-        <v>5310.708739133504</v>
+        <v>3726.153722941523</v>
       </c>
       <c r="G36" t="n">
-        <v>6438.784508038892</v>
+        <v>10243.32031952457</v>
       </c>
       <c r="H36" t="n">
-        <v>0.33</v>
+        <v>0.16</v>
       </c>
       <c r="I36" t="n">
-        <v>4096536</v>
+        <v>4213481</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1480724</v>
+        <v>1466022</v>
       </c>
       <c r="E37" t="n">
-        <v>9691299</v>
+        <v>9595076</v>
       </c>
       <c r="F37" t="n">
-        <v>9.178407001243713</v>
+        <v>147.9103239261197</v>
       </c>
       <c r="G37" t="n">
-        <v>10.09203516719007</v>
+        <v>28.42362252348953</v>
       </c>
       <c r="H37" t="n">
-        <v>2.06</v>
+        <v>1.03</v>
       </c>
       <c r="I37" t="n">
-        <v>701508</v>
+        <v>723427</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1932228312</v>
+        <v>1929205612</v>
       </c>
       <c r="F38" t="n">
-        <v>75894.56681805014</v>
+        <v>76708.56346106115</v>
       </c>
       <c r="G38" t="n">
-        <v>75578.04488159952</v>
+        <v>75811.31685603275</v>
       </c>
       <c r="H38" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="I38" t="n">
-        <v>27744724</v>
+        <v>28072033</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31876025</v>
+        <v>31771052</v>
       </c>
       <c r="E39" t="n">
-        <v>99251714</v>
+        <v>98924863</v>
       </c>
       <c r="F39" t="n">
-        <v>4781.997774313018</v>
+        <v>3885.843538217656</v>
       </c>
       <c r="G39" t="n">
-        <v>11451.8420739796</v>
+        <v>11278.72290089989</v>
       </c>
       <c r="H39" t="n">
-        <v>0.09</v>
+        <v>0.32</v>
       </c>
       <c r="I39" t="n">
-        <v>10640751</v>
+        <v>10296589</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>209707482</v>
+        <v>209148854</v>
       </c>
       <c r="E40" t="n">
-        <v>1187492615</v>
+        <v>1184329324</v>
       </c>
       <c r="F40" t="n">
-        <v>46715.67063780272</v>
+        <v>43427.08959043604</v>
       </c>
       <c r="G40" t="n">
-        <v>82821.49075515536</v>
+        <v>85604.19844397498</v>
       </c>
       <c r="H40" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="I40" t="n">
-        <v>70088202</v>
+        <v>69760546</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>144140319</v>
+        <v>144925576</v>
       </c>
       <c r="E41" t="n">
-        <v>1067706066</v>
+        <v>1073522784</v>
       </c>
       <c r="F41" t="n">
-        <v>155134.1296686055</v>
+        <v>153740.0992310834</v>
       </c>
       <c r="G41" t="n">
-        <v>216599.3260624426</v>
+        <v>215617.451748027</v>
       </c>
       <c r="H41" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I41" t="n">
-        <v>8442321</v>
+        <v>8358968</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32998613</v>
+        <v>32949588</v>
       </c>
       <c r="E42" t="n">
-        <v>156694406</v>
+        <v>156461607</v>
       </c>
       <c r="F42" t="n">
-        <v>7553.231051097375</v>
+        <v>8343.679401440697</v>
       </c>
       <c r="G42" t="n">
-        <v>6785.320601136636</v>
+        <v>4702.148994934068</v>
       </c>
       <c r="H42" t="n">
-        <v>0.77</v>
+        <v>0.45</v>
       </c>
       <c r="I42" t="n">
-        <v>1204139</v>
+        <v>1213462</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3388176</v>
+        <v>3381693</v>
       </c>
       <c r="E43" t="n">
-        <v>7911956</v>
+        <v>7896817</v>
       </c>
       <c r="F43" t="n">
-        <v>953.5582004603305</v>
+        <v>820.5737593700933</v>
       </c>
       <c r="G43" t="n">
-        <v>2242.679018732093</v>
+        <v>2490.599299298846</v>
       </c>
       <c r="H43" t="n">
-        <v>1.3</v>
+        <v>0.97</v>
       </c>
       <c r="I43" t="n">
-        <v>618326</v>
+        <v>643558</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>348708300</v>
+        <v>350870517</v>
       </c>
       <c r="E44" t="n">
-        <v>3137196093</v>
+        <v>3156648740</v>
       </c>
       <c r="F44" t="n">
-        <v>51281.07221420475</v>
+        <v>47021.09878374376</v>
       </c>
       <c r="G44" t="n">
-        <v>50976.06987118367</v>
+        <v>52722.94341638051</v>
       </c>
       <c r="H44" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I44" t="n">
-        <v>45486959</v>
+        <v>47115865</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>633655</v>
+        <v>633778</v>
       </c>
       <c r="F45" t="n">
-        <v>472.7441818612674</v>
+        <v>570.9173734032169</v>
       </c>
       <c r="G45" t="n">
-        <v>38.8697029678876</v>
+        <v>198.4775608737854</v>
       </c>
       <c r="H45" t="n">
         <v>0.97</v>
       </c>
       <c r="I45" t="n">
-        <v>5085.65</v>
+        <v>4960.17</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1574075</v>
+        <v>1575841</v>
       </c>
       <c r="E46" t="n">
-        <v>13117291</v>
+        <v>13132011</v>
       </c>
       <c r="F46" t="n">
-        <v>447.6536228216806</v>
+        <v>313.1116320974458</v>
       </c>
       <c r="G46" t="n">
-        <v>1782.733350992332</v>
+        <v>1601.808828070158</v>
       </c>
       <c r="H46" t="n">
-        <v>0.45</v>
+        <v>0.08</v>
       </c>
       <c r="I46" t="n">
-        <v>24440</v>
+        <v>26530</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4970389</v>
+        <v>4929811</v>
       </c>
       <c r="E47" t="n">
-        <v>17562698</v>
+        <v>17419315</v>
       </c>
       <c r="F47" t="n">
-        <v>1297.227088769902</v>
+        <v>894.8513274424656</v>
       </c>
       <c r="G47" t="n">
-        <v>1476.722539030259</v>
+        <v>1704.966890048037</v>
       </c>
       <c r="H47" t="n">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>109637</v>
+        <v>112023</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50389781</v>
+        <v>52000364</v>
       </c>
       <c r="E48" t="n">
-        <v>291736009</v>
+        <v>301060619</v>
       </c>
       <c r="F48" t="n">
-        <v>10720.43417610065</v>
+        <v>14977.21895971726</v>
       </c>
       <c r="G48" t="n">
-        <v>6400.890670830185</v>
+        <v>10189.34562444484</v>
       </c>
       <c r="H48" t="n">
-        <v>0.48</v>
+        <v>0.27</v>
       </c>
       <c r="I48" t="n">
-        <v>27140989</v>
+        <v>38248355</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2314345</v>
+        <v>2331705</v>
       </c>
       <c r="E49" t="n">
-        <v>12715405</v>
+        <v>12810784</v>
       </c>
       <c r="F49" t="n">
-        <v>263.4658611279979</v>
+        <v>260.0156232353401</v>
       </c>
       <c r="G49" t="n">
-        <v>1851.255368657732</v>
+        <v>205.4575334401933</v>
       </c>
       <c r="H49" t="n">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="I49" t="n">
-        <v>78285</v>
+        <v>81335</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14016419</v>
+        <v>14279540</v>
       </c>
       <c r="E50" t="n">
-        <v>14064118</v>
+        <v>14328134</v>
       </c>
       <c r="F50" t="n">
-        <v>4108.527715267644</v>
+        <v>4259.780470275828</v>
       </c>
       <c r="G50" t="n">
-        <v>8939.590913916238</v>
+        <v>9893.633436117872</v>
       </c>
       <c r="H50" t="n">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
       <c r="I50" t="n">
-        <v>5680251</v>
+        <v>6354904</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23301540</v>
+        <v>23162524</v>
       </c>
       <c r="E51" t="n">
-        <v>69847302</v>
+        <v>69429961</v>
       </c>
       <c r="F51" t="n">
-        <v>12001.7833030818</v>
+        <v>10628.03382139784</v>
       </c>
       <c r="G51" t="n">
-        <v>26351.38193549567</v>
+        <v>25938.18039970359</v>
       </c>
       <c r="H51" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="I51" t="n">
-        <v>3478715</v>
+        <v>3502559</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15981588</v>
+        <v>15982285</v>
       </c>
       <c r="E52" t="n">
-        <v>97956410</v>
+        <v>97960682</v>
       </c>
       <c r="F52" t="n">
-        <v>7011.247017117277</v>
+        <v>5875.253468314978</v>
       </c>
       <c r="G52" t="n">
-        <v>10831.48288468336</v>
+        <v>7368.302271635977</v>
       </c>
       <c r="H52" t="n">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="I52" t="n">
-        <v>10421006</v>
+        <v>10558045</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>49875402</v>
+        <v>50418409</v>
       </c>
       <c r="E53" t="n">
-        <v>214857779</v>
+        <v>217196993</v>
       </c>
       <c r="F53" t="n">
-        <v>22495.79292851922</v>
+        <v>22913.12804120109</v>
       </c>
       <c r="G53" t="n">
-        <v>25817.05746794784</v>
+        <v>26832.50271849863</v>
       </c>
       <c r="H53" t="n">
-        <v>0.39</v>
+        <v>0.29</v>
       </c>
       <c r="I53" t="n">
-        <v>9824787</v>
+        <v>10017016</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1046234</v>
+        <v>1046692</v>
       </c>
       <c r="E54" t="n">
-        <v>3057960</v>
+        <v>3059299</v>
       </c>
       <c r="F54" t="n">
-        <v>65.96798071023879</v>
+        <v>0.8879550295361991</v>
       </c>
       <c r="G54" t="n">
-        <v>1253.253436773026</v>
+        <v>197.8853661089302</v>
       </c>
       <c r="H54" t="n">
-        <v>0.97</v>
+        <v>1.28</v>
       </c>
       <c r="I54" t="n">
-        <v>19998.52</v>
+        <v>19221.7</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37808442</v>
+        <v>37691387</v>
       </c>
       <c r="E55" t="n">
-        <v>95334739</v>
+        <v>95039582</v>
       </c>
       <c r="F55" t="n">
-        <v>11619.06062244887</v>
+        <v>7682.129372928634</v>
       </c>
       <c r="G55" t="n">
-        <v>15908.72304227881</v>
+        <v>6508.727827878236</v>
       </c>
       <c r="H55" t="n">
         <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3510224</v>
+        <v>3528803</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28333006</v>
+        <v>28414143</v>
       </c>
       <c r="E56" t="n">
-        <v>67312178</v>
+        <v>67504938</v>
       </c>
       <c r="F56" t="n">
-        <v>10601.38299371794</v>
+        <v>11295.42793471321</v>
       </c>
       <c r="G56" t="n">
-        <v>6084.263546664669</v>
+        <v>10334.9483636072</v>
       </c>
       <c r="H56" t="n">
         <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>414534</v>
+        <v>416475</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12703672</v>
+        <v>12734681</v>
       </c>
       <c r="E57" t="n">
-        <v>19337853</v>
+        <v>19385056</v>
       </c>
       <c r="F57" t="n">
-        <v>3285.814280019861</v>
+        <v>2066.041180587044</v>
       </c>
       <c r="G57" t="n">
-        <v>8233.074870268918</v>
+        <v>2424.066610714069</v>
       </c>
       <c r="H57" t="n">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
       <c r="I57" t="n">
-        <v>710169</v>
+        <v>695780</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>305926157</v>
+        <v>304625998</v>
       </c>
       <c r="E58" t="n">
-        <v>305926157</v>
+        <v>304625998</v>
       </c>
       <c r="F58" t="n">
-        <v>56996.46214935616</v>
+        <v>71861.13829780652</v>
       </c>
       <c r="G58" t="n">
-        <v>87420.76607616087</v>
+        <v>79812.24320723601</v>
       </c>
       <c r="H58" t="n">
         <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>81703166</v>
+        <v>78918868</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11720938</v>
+        <v>11785949</v>
       </c>
       <c r="F59" t="n">
-        <v>240.5577878412899</v>
+        <v>239.7807974901545</v>
       </c>
       <c r="G59" t="n">
-        <v>44.48553004038225</v>
+        <v>59.09382620337621</v>
       </c>
       <c r="H59" t="n">
         <v>1.38</v>
       </c>
       <c r="I59" t="n">
-        <v>90064</v>
+        <v>84853</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>93857861</v>
+        <v>93495183</v>
       </c>
       <c r="E60" t="n">
-        <v>540849477</v>
+        <v>538759571</v>
       </c>
       <c r="F60" t="n">
-        <v>97998.66833144294</v>
+        <v>96715.57648134264</v>
       </c>
       <c r="G60" t="n">
-        <v>97451.71210338308</v>
+        <v>104258.8249799191</v>
       </c>
       <c r="H60" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I60" t="n">
-        <v>17828452</v>
+        <v>18331691</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9446767</v>
+        <v>9462900</v>
       </c>
       <c r="E61" t="n">
-        <v>9446767</v>
+        <v>9462900</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.62</v>
+        <v>4.82</v>
       </c>
       <c r="I61" t="n">
-        <v>2101234</v>
+        <v>2152087</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>31316660</v>
+        <v>31792551</v>
       </c>
       <c r="E62" t="n">
-        <v>140217532</v>
+        <v>142348292</v>
       </c>
       <c r="F62" t="n">
-        <v>26973.28543242194</v>
+        <v>27673.19308467979</v>
       </c>
       <c r="G62" t="n">
-        <v>11832.54140693372</v>
+        <v>20209.75593291729</v>
       </c>
       <c r="H62" t="n">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="I62" t="n">
-        <v>7957945</v>
+        <v>7948642</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12949493</v>
+        <v>12927066</v>
       </c>
       <c r="E63" t="n">
-        <v>25887679</v>
+        <v>25842846</v>
       </c>
       <c r="F63" t="n">
-        <v>2386.413811033195</v>
+        <v>2383.477560788928</v>
       </c>
       <c r="G63" t="n">
-        <v>2300.784366246797</v>
+        <v>2310.161367826304</v>
       </c>
       <c r="H63" t="n">
         <v>0.44</v>
       </c>
       <c r="I63" t="n">
-        <v>32233</v>
+        <v>27170</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1453793</v>
+        <v>1464747</v>
       </c>
       <c r="F64" t="n">
-        <v>134.5024073672375</v>
+        <v>180.8074726958625</v>
       </c>
       <c r="G64" t="n">
-        <v>9.314204625788312</v>
+        <v>190.6887049456699</v>
       </c>
       <c r="H64" t="n">
-        <v>2.7</v>
+        <v>2.17</v>
       </c>
       <c r="I64" t="n">
-        <v>37091</v>
+        <v>47102</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>52409500</v>
+        <v>52347519</v>
       </c>
       <c r="E65" t="n">
-        <v>339861660</v>
+        <v>339459728</v>
       </c>
       <c r="F65" t="n">
-        <v>21105.96659633602</v>
+        <v>23931.5466076927</v>
       </c>
       <c r="G65" t="n">
-        <v>16128.89274697344</v>
+        <v>21627.87489592729</v>
       </c>
       <c r="H65" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I65" t="n">
-        <v>17653850</v>
+        <v>17485482</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4797752</v>
+        <v>4849077</v>
       </c>
       <c r="F66" t="n">
-        <v>1090.244397393717</v>
+        <v>1032.068200552539</v>
       </c>
       <c r="G66" t="n">
-        <v>2454.820646414464</v>
+        <v>1706.177940201394</v>
       </c>
       <c r="H66" t="n">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="I66" t="n">
-        <v>196475</v>
+        <v>195481</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125262697</v>
+        <v>124991047</v>
       </c>
       <c r="E67" t="n">
-        <v>2074452857</v>
+        <v>2069954106</v>
       </c>
       <c r="F67" t="n">
-        <v>17832.58761564245</v>
+        <v>23564.00531250905</v>
       </c>
       <c r="G67" t="n">
-        <v>24213.53577265005</v>
+        <v>13541.64687994138</v>
       </c>
       <c r="H67" t="n">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>4588208</v>
+        <v>4664717</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25242381</v>
+        <v>25195796</v>
       </c>
       <c r="E68" t="n">
-        <v>151030237</v>
+        <v>150751511</v>
       </c>
       <c r="F68" t="n">
-        <v>4959.527320315104</v>
+        <v>44756.65239601285</v>
       </c>
       <c r="G68" t="n">
-        <v>44743.33720158564</v>
+        <v>47211.09952725215</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>13028888</v>
+        <v>12965394</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23174125</v>
+        <v>23651338</v>
       </c>
       <c r="E70" t="n">
-        <v>23174125</v>
+        <v>23651338</v>
       </c>
       <c r="F70" t="n">
-        <v>10439.59203616399</v>
+        <v>3642.055265615592</v>
       </c>
       <c r="G70" t="n">
-        <v>6353.085557259064</v>
+        <v>2891.092276013724</v>
       </c>
       <c r="H70" t="n">
-        <v>0.55</v>
+        <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>1996927</v>
+        <v>2053783</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35473188</v>
+        <v>35704144</v>
       </c>
       <c r="E71" t="n">
-        <v>177027561</v>
+        <v>178180138</v>
       </c>
       <c r="F71" t="n">
-        <v>19018.26255054733</v>
+        <v>19240.05287025074</v>
       </c>
       <c r="G71" t="n">
-        <v>51535.29317080384</v>
+        <v>50962.82544040924</v>
       </c>
       <c r="H71" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>10585905</v>
+        <v>10976799</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>178345</v>
+        <v>178053</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>14467.04</v>
+        <v>12809.94</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>323513059</v>
+        <v>327624859</v>
       </c>
       <c r="E73" t="n">
-        <v>598572936</v>
+        <v>606180702</v>
       </c>
       <c r="F73" t="n">
-        <v>69581.69836425519</v>
+        <v>68113.01742738699</v>
       </c>
       <c r="G73" t="n">
-        <v>76073.67282244544</v>
+        <v>74845.62822060141</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I73" t="n">
-        <v>14306343</v>
+        <v>14451884</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11544615</v>
+        <v>11537629</v>
       </c>
       <c r="E74" t="n">
-        <v>34247462</v>
+        <v>34226736</v>
       </c>
       <c r="F74" t="n">
-        <v>820.9168853342732</v>
+        <v>1360.532276182382</v>
       </c>
       <c r="G74" t="n">
-        <v>1970.682353134036</v>
+        <v>1379.312791628215</v>
       </c>
       <c r="H74" t="n">
-        <v>0.51</v>
+        <v>0.36</v>
       </c>
       <c r="I74" t="n">
-        <v>7327933</v>
+        <v>7409029</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8345881</v>
+        <v>8365892</v>
       </c>
       <c r="E75" t="n">
-        <v>11890968</v>
+        <v>11919480</v>
       </c>
       <c r="F75" t="n">
-        <v>3904.453066925998</v>
+        <v>4403.478091050447</v>
       </c>
       <c r="G75" t="n">
-        <v>986.501986004832</v>
+        <v>964.3511328970436</v>
       </c>
       <c r="H75" t="n">
-        <v>0.84</v>
+        <v>1.09</v>
       </c>
       <c r="I75" t="n">
-        <v>390465</v>
+        <v>394531</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16779506</v>
+        <v>16673425</v>
       </c>
       <c r="F76" t="n">
-        <v>676.6299009871036</v>
+        <v>175.7067447938645</v>
       </c>
       <c r="G76" t="n">
-        <v>0.3049168881940519</v>
+        <v>0.4636476657885462</v>
       </c>
       <c r="H76" t="n">
-        <v>1.45</v>
+        <v>0.98</v>
       </c>
       <c r="I76" t="n">
-        <v>1014110</v>
+        <v>1028787</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>62974227</v>
+        <v>64064346</v>
       </c>
       <c r="E77" t="n">
-        <v>104184529</v>
+        <v>105988020</v>
       </c>
       <c r="F77" t="n">
-        <v>10298.63347862752</v>
+        <v>11398.69949054126</v>
       </c>
       <c r="G77" t="n">
-        <v>14701.8318233575</v>
+        <v>12302.04635661736</v>
       </c>
       <c r="H77" t="n">
-        <v>0.5</v>
+        <v>0.13</v>
       </c>
       <c r="I77" t="n">
-        <v>6607895</v>
+        <v>7015437</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6131881</v>
+        <v>6054565</v>
       </c>
       <c r="E78" t="n">
-        <v>6131881</v>
+        <v>6054565</v>
       </c>
       <c r="F78" t="n">
-        <v>281.1299779680814</v>
+        <v>245.4442777456215</v>
       </c>
       <c r="G78" t="n">
-        <v>10.05998669077888</v>
+        <v>230.7752684697118</v>
       </c>
       <c r="H78" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="I78" t="n">
-        <v>1205631</v>
+        <v>1224832</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58845</v>
+        <v>58627</v>
       </c>
       <c r="E79" t="n">
-        <v>307029</v>
+        <v>305889</v>
       </c>
       <c r="F79" t="n">
-        <v>197.2018669616221</v>
+        <v>278.7872627305297</v>
       </c>
       <c r="G79" t="n">
-        <v>54.75259043477752</v>
+        <v>166.2492688556278</v>
       </c>
       <c r="H79" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="I79" t="n">
-        <v>278158</v>
+        <v>283384</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26323088</v>
+        <v>26306234</v>
       </c>
       <c r="F80" t="n">
-        <v>564.6015073015518</v>
+        <v>711.8386118346443</v>
       </c>
       <c r="G80" t="n">
-        <v>11403.51197726262</v>
+        <v>5498.401508746691</v>
       </c>
       <c r="H80" t="n">
-        <v>1.49</v>
+        <v>0.08</v>
       </c>
       <c r="I80" t="n">
-        <v>58739</v>
+        <v>66678</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>629480244</v>
+        <v>631787078</v>
       </c>
       <c r="E81" t="n">
-        <v>2437884113</v>
+        <v>2446818138</v>
       </c>
       <c r="F81" t="n">
-        <v>166487.6341351527</v>
+        <v>176229.5736142657</v>
       </c>
       <c r="G81" t="n">
-        <v>55869.59347352358</v>
+        <v>291238.1575304863</v>
       </c>
       <c r="H81" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>36855473</v>
+        <v>38831545</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7332622</v>
+        <v>7556159</v>
       </c>
       <c r="E82" t="n">
-        <v>10506254</v>
+        <v>10826528</v>
       </c>
       <c r="F82" t="n">
-        <v>1318.015575958345</v>
+        <v>1325.342572268771</v>
       </c>
       <c r="G82" t="n">
-        <v>4285.541473604468</v>
+        <v>1058.105764587878</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="I82" t="n">
-        <v>194984</v>
+        <v>205954</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>116410062</v>
+        <v>116730385</v>
       </c>
       <c r="E83" t="n">
-        <v>1081599401</v>
+        <v>1084575611</v>
       </c>
       <c r="F83" t="n">
-        <v>43505.89474439295</v>
+        <v>43358.36848767818</v>
       </c>
       <c r="G83" t="n">
-        <v>47262.30238565995</v>
+        <v>43547.67443478088</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>9415087</v>
+        <v>9901692</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1166255</v>
+        <v>1142894</v>
       </c>
       <c r="E84" t="n">
-        <v>4515995</v>
+        <v>4425536</v>
       </c>
       <c r="F84" t="n">
-        <v>2681.459348175217</v>
+        <v>993.7605433577191</v>
       </c>
       <c r="G84" t="n">
-        <v>653.18942123658</v>
+        <v>2796.611543078151</v>
       </c>
       <c r="H84" t="n">
         <v>0.23</v>
       </c>
       <c r="I84" t="n">
-        <v>349979</v>
+        <v>264070</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>128318971</v>
+        <v>129518969</v>
       </c>
       <c r="E85" t="n">
-        <v>492252228</v>
+        <v>496855612</v>
       </c>
       <c r="F85" t="n">
-        <v>82637.29867649793</v>
+        <v>81611.87343442628</v>
       </c>
       <c r="G85" t="n">
-        <v>75979.98311998117</v>
+        <v>89367.5712107349</v>
       </c>
       <c r="H85" t="n">
         <v>0.1</v>
       </c>
       <c r="I85" t="n">
-        <v>33839539</v>
+        <v>34651333</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5288060</v>
+        <v>5311109</v>
       </c>
       <c r="E86" t="n">
-        <v>19650531</v>
+        <v>19736179</v>
       </c>
       <c r="F86" t="n">
-        <v>3717.255679029161</v>
+        <v>3743.041166170596</v>
       </c>
       <c r="G86" t="n">
-        <v>4100.396419311497</v>
+        <v>3410.490106288401</v>
       </c>
       <c r="H86" t="n">
-        <v>0.76</v>
+        <v>0.25</v>
       </c>
       <c r="I86" t="n">
-        <v>79136</v>
+        <v>79969</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>34734875</v>
+        <v>33516231</v>
       </c>
       <c r="F87" t="n">
-        <v>4338.282736051937</v>
+        <v>3231.732295132496</v>
       </c>
       <c r="G87" t="n">
-        <v>1477.402798668194</v>
+        <v>2576.05146447775</v>
       </c>
       <c r="H87" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
       <c r="I87" t="n">
-        <v>6012405</v>
+        <v>5469835</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>25029418</v>
+        <v>25102500</v>
       </c>
       <c r="F88" t="n">
-        <v>1452.380162695654</v>
+        <v>1221.139339275622</v>
       </c>
       <c r="G88" t="n">
-        <v>1317.432014448901</v>
+        <v>756.9292646827056</v>
       </c>
       <c r="H88" t="n">
-        <v>0.74</v>
+        <v>0.43</v>
       </c>
       <c r="I88" t="n">
-        <v>17110.19</v>
+        <v>17131.83</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88986703</v>
+        <v>88920157</v>
       </c>
       <c r="E89" t="n">
-        <v>328942702</v>
+        <v>328694453</v>
       </c>
       <c r="F89" t="n">
-        <v>1627.420718843466</v>
+        <v>1239.978031217987</v>
       </c>
       <c r="G89" t="n">
-        <v>1906.374521671179</v>
+        <v>1655.854447913809</v>
       </c>
       <c r="H89" t="n">
-        <v>0.22</v>
+        <v>0.66</v>
       </c>
       <c r="I89" t="n">
-        <v>232192</v>
+        <v>223130</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20252783</v>
+        <v>20738212</v>
       </c>
       <c r="E90" t="n">
-        <v>20252783</v>
+        <v>20738212</v>
       </c>
       <c r="F90" t="n">
-        <v>4075.716907010542</v>
+        <v>3310.852850826304</v>
       </c>
       <c r="G90" t="n">
-        <v>5450.604086423231</v>
+        <v>3737.155307596946</v>
       </c>
       <c r="H90" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>6075877</v>
+        <v>7102952</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3820217</v>
+        <v>3826445</v>
       </c>
       <c r="E91" t="n">
-        <v>8335664</v>
+        <v>8349254</v>
       </c>
       <c r="F91" t="n">
-        <v>1764.261740485224</v>
+        <v>1914.082505671796</v>
       </c>
       <c r="G91" t="n">
-        <v>2382.349154964594</v>
+        <v>2520.87166036639</v>
       </c>
       <c r="H91" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="I91" t="n">
-        <v>1836394</v>
+        <v>1892212</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>510607856</v>
+        <v>514081912</v>
       </c>
       <c r="E92" t="n">
-        <v>1777383452</v>
+        <v>1789476351</v>
       </c>
       <c r="F92" t="n">
-        <v>177810.893993776</v>
+        <v>169610.070066517</v>
       </c>
       <c r="G92" t="n">
-        <v>177618.4245527414</v>
+        <v>181559.9857817945</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>33042010</v>
+        <v>34748794</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2625524</v>
+        <v>2609852</v>
       </c>
       <c r="E93" t="n">
-        <v>10502096</v>
+        <v>10439407</v>
       </c>
       <c r="F93" t="n">
-        <v>2722.527274477588</v>
+        <v>2240.876852350811</v>
       </c>
       <c r="G93" t="n">
-        <v>3188.244573770258</v>
+        <v>3788.331443860722</v>
       </c>
       <c r="H93" t="n">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="I93" t="n">
-        <v>7010808</v>
+        <v>7005720</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>227814214</v>
+        <v>227318916</v>
       </c>
       <c r="E94" t="n">
-        <v>700442976</v>
+        <v>698920121</v>
       </c>
       <c r="F94" t="n">
-        <v>117188.2155027397</v>
+        <v>112681.2215639182</v>
       </c>
       <c r="G94" t="n">
-        <v>99214.44498263526</v>
+        <v>100683.3095675964</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>16537594</v>
+        <v>16689328</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>147403869</v>
+        <v>148656198</v>
       </c>
       <c r="E95" t="n">
-        <v>385088519</v>
+        <v>388360193</v>
       </c>
       <c r="F95" t="n">
-        <v>25402.27151721692</v>
+        <v>33775.05201163117</v>
       </c>
       <c r="G95" t="n">
-        <v>29734.14629221978</v>
+        <v>29465.12020022449</v>
       </c>
       <c r="H95" t="n">
-        <v>0.18</v>
+        <v>0.08</v>
       </c>
       <c r="I95" t="n">
-        <v>8367990</v>
+        <v>8826964</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>411995921</v>
+        <v>411916687</v>
       </c>
       <c r="E96" t="n">
-        <v>2354262405</v>
+        <v>2353809643</v>
       </c>
       <c r="F96" t="n">
-        <v>25294.47897076288</v>
+        <v>23769.86572278115</v>
       </c>
       <c r="G96" t="n">
-        <v>44257.60535077363</v>
+        <v>47703.6811076844</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>41886097</v>
+        <v>42868550</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>632475217</v>
+        <v>632015051</v>
       </c>
       <c r="E2" t="n">
-        <v>1227298687</v>
+        <v>1226412023</v>
       </c>
       <c r="F2" t="n">
-        <v>21661.86258766876</v>
+        <v>22462.06220868197</v>
       </c>
       <c r="G2" t="n">
-        <v>37984.72004140545</v>
+        <v>36761.29225541899</v>
       </c>
       <c r="H2" t="n">
         <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>22135949</v>
+        <v>22803073</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1388118</v>
+        <v>1382042</v>
       </c>
       <c r="E3" t="n">
-        <v>4486967</v>
+        <v>4467326</v>
       </c>
       <c r="F3" t="n">
-        <v>1253.058601777667</v>
+        <v>3553.745859263196</v>
       </c>
       <c r="G3" t="n">
-        <v>3775.077561542681</v>
+        <v>2999.88787226161</v>
       </c>
       <c r="H3" t="n">
-        <v>0.67</v>
+        <v>0.22</v>
       </c>
       <c r="I3" t="n">
-        <v>147238</v>
+        <v>145995</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>254393046</v>
+        <v>256905407</v>
       </c>
       <c r="E4" t="n">
-        <v>1595263031</v>
+        <v>1611017696</v>
       </c>
       <c r="F4" t="n">
-        <v>151461.8902426547</v>
+        <v>149810.6363438971</v>
       </c>
       <c r="G4" t="n">
-        <v>142341.8246031017</v>
+        <v>151637.5793314471</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>17618075</v>
+        <v>17170839</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>152546116</v>
+        <v>152281203</v>
       </c>
       <c r="E5" t="n">
-        <v>169044936</v>
+        <v>168751372</v>
       </c>
       <c r="F5" t="n">
-        <v>5626.975607085859</v>
+        <v>6558.896815091326</v>
       </c>
       <c r="G5" t="n">
-        <v>13081.3382598698</v>
+        <v>6648.293213663014</v>
       </c>
       <c r="H5" t="n">
         <v>0.59</v>
       </c>
       <c r="I5" t="n">
-        <v>40547338</v>
+        <v>40313947</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>702799</v>
+        <v>702157</v>
       </c>
       <c r="E6" t="n">
-        <v>13653392</v>
+        <v>13640929</v>
       </c>
       <c r="F6" t="n">
-        <v>196.8867109851824</v>
+        <v>184.6373361494027</v>
       </c>
       <c r="G6" t="n">
-        <v>470.6000481139093</v>
+        <v>483.941144100249</v>
       </c>
       <c r="H6" t="n">
         <v>0.59</v>
       </c>
       <c r="I6" t="n">
-        <v>25773</v>
+        <v>25747</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>484716358</v>
+        <v>482860401</v>
       </c>
       <c r="E7" t="n">
-        <v>484716359</v>
+        <v>482860403</v>
       </c>
       <c r="F7" t="n">
-        <v>41588.04924177933</v>
+        <v>41487.21120588074</v>
       </c>
       <c r="G7" t="n">
-        <v>54920.56533839276</v>
+        <v>51663.8282291701</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>65690525</v>
+        <v>64404930</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4750965</v>
+        <v>4750840</v>
       </c>
       <c r="E8" t="n">
-        <v>4750965</v>
+        <v>4750840</v>
       </c>
       <c r="F8" t="n">
-        <v>676.4442032127181</v>
+        <v>754.7040846057611</v>
       </c>
       <c r="G8" t="n">
-        <v>1621.086273522909</v>
+        <v>1563.225531416096</v>
       </c>
       <c r="H8" t="n">
-        <v>0.37</v>
+        <v>0.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2020753</v>
+        <v>2045174</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1705337</v>
+        <v>1724959</v>
       </c>
       <c r="F9" t="n">
-        <v>5420.176991474794</v>
+        <v>6926.836744926201</v>
       </c>
       <c r="G9" t="n">
-        <v>3259.618813992895</v>
+        <v>2122.944694511893</v>
       </c>
       <c r="H9" t="n">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="I9" t="n">
-        <v>158502</v>
+        <v>154829</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1464617</v>
+        <v>1481611</v>
       </c>
       <c r="F10" t="n">
-        <v>307.541219945822</v>
+        <v>163.6774362289668</v>
       </c>
       <c r="G10" t="n">
-        <v>227.6246054460088</v>
+        <v>3850.676264775057</v>
       </c>
       <c r="H10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="I10" t="n">
-        <v>332835</v>
+        <v>342449</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>110574233</v>
+        <v>110242604</v>
       </c>
       <c r="E11" t="n">
-        <v>208308748</v>
+        <v>207683998</v>
       </c>
       <c r="F11" t="n">
-        <v>914.2604618327016</v>
+        <v>911.922516705833</v>
       </c>
       <c r="G11" t="n">
-        <v>648.0906950719632</v>
+        <v>148.2138461693916</v>
       </c>
       <c r="H11" t="n">
-        <v>1.51</v>
+        <v>1.72</v>
       </c>
       <c r="I11" t="n">
-        <v>4218583</v>
+        <v>4197416</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12656320</v>
+        <v>12521457</v>
       </c>
       <c r="E12" t="n">
-        <v>31499291</v>
+        <v>31163643</v>
       </c>
       <c r="F12" t="n">
-        <v>718.8236347273308</v>
+        <v>584.4623156356665</v>
       </c>
       <c r="G12" t="n">
-        <v>923.3125856202523</v>
+        <v>1014.677289891965</v>
       </c>
       <c r="H12" t="n">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="I12" t="n">
-        <v>1287673</v>
+        <v>1310469</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>118194966</v>
+        <v>115754688</v>
       </c>
       <c r="E13" t="n">
-        <v>459735630</v>
+        <v>450217887</v>
       </c>
       <c r="F13" t="n">
-        <v>29192.30334563187</v>
+        <v>29336.27683755974</v>
       </c>
       <c r="G13" t="n">
-        <v>28904.77583396224</v>
+        <v>36390.57128837701</v>
       </c>
       <c r="H13" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="I13" t="n">
-        <v>10944203</v>
+        <v>11184640</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5166381</v>
+        <v>5088752</v>
       </c>
       <c r="E14" t="n">
-        <v>7605193</v>
+        <v>7490918</v>
       </c>
       <c r="F14" t="n">
-        <v>1.453171226780575</v>
+        <v>180.0825281619729</v>
       </c>
       <c r="G14" t="n">
-        <v>258.720978413133</v>
+        <v>224.6942933427517</v>
       </c>
       <c r="H14" t="n">
-        <v>1.35</v>
+        <v>2.67</v>
       </c>
       <c r="I14" t="n">
-        <v>578562</v>
+        <v>579493</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>145779954</v>
+        <v>145423045</v>
       </c>
       <c r="E15" t="n">
-        <v>145779954</v>
+        <v>145423045</v>
       </c>
       <c r="F15" t="n">
-        <v>43855.65525899599</v>
+        <v>47045.61647246582</v>
       </c>
       <c r="G15" t="n">
-        <v>86242.24735930895</v>
+        <v>86700.78906192517</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>74484801</v>
+        <v>74809399</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69755734</v>
+        <v>69086657</v>
       </c>
       <c r="E16" t="n">
-        <v>357721714</v>
+        <v>354290549</v>
       </c>
       <c r="F16" t="n">
-        <v>9976.930966606418</v>
+        <v>8388.381255554095</v>
       </c>
       <c r="G16" t="n">
-        <v>36237.6328304505</v>
+        <v>34681.52088784522</v>
       </c>
       <c r="H16" t="n">
         <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>26336617</v>
+        <v>25510627</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>268530413</v>
+        <v>268302354</v>
       </c>
       <c r="E17" t="n">
-        <v>268530413</v>
+        <v>268302354</v>
       </c>
       <c r="F17" t="n">
-        <v>63986.45435484347</v>
+        <v>58200.1284037701</v>
       </c>
       <c r="G17" t="n">
-        <v>54707.55698207852</v>
+        <v>58612.1889670137</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>15437323</v>
+        <v>15386606</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2553535</v>
+        <v>2555540</v>
       </c>
       <c r="E18" t="n">
-        <v>6528334</v>
+        <v>6533460</v>
       </c>
       <c r="F18" t="n">
-        <v>1014.844368583241</v>
+        <v>929.1767541946499</v>
       </c>
       <c r="G18" t="n">
-        <v>1955.066987577653</v>
+        <v>1674.501266783005</v>
       </c>
       <c r="H18" t="n">
         <v>0.15</v>
       </c>
       <c r="I18" t="n">
-        <v>108014</v>
+        <v>103666</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>85031383</v>
+        <v>84692640</v>
       </c>
       <c r="E19" t="n">
-        <v>237874512</v>
+        <v>236928716</v>
       </c>
       <c r="F19" t="n">
-        <v>15194.89977026303</v>
+        <v>16294.99284462992</v>
       </c>
       <c r="G19" t="n">
-        <v>22214.98791339953</v>
+        <v>21542.93061613496</v>
       </c>
       <c r="H19" t="n">
-        <v>0.22</v>
+        <v>0.17</v>
       </c>
       <c r="I19" t="n">
-        <v>51762422</v>
+        <v>47622073</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1640839</v>
+        <v>1641969</v>
       </c>
       <c r="E20" t="n">
-        <v>9421083</v>
+        <v>9427575</v>
       </c>
       <c r="F20" t="n">
-        <v>466.9063178237208</v>
+        <v>278.6053679462927</v>
       </c>
       <c r="G20" t="n">
-        <v>667.856080950334</v>
+        <v>135.51222938982</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="I20" t="n">
-        <v>291276</v>
+        <v>268996</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>175594</v>
+        <v>176875</v>
       </c>
       <c r="E21" t="n">
-        <v>1185808</v>
+        <v>1194454</v>
       </c>
       <c r="F21" t="n">
-        <v>9.762516325482553</v>
+        <v>4.326451923433288</v>
       </c>
       <c r="G21" t="n">
-        <v>5.366656652387126</v>
+        <v>9.181517420012332</v>
       </c>
       <c r="H21" t="n">
-        <v>0.82</v>
+        <v>1.26</v>
       </c>
       <c r="I21" t="n">
-        <v>2823437</v>
+        <v>2871266</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>261809</v>
+        <v>259076</v>
       </c>
       <c r="F22" t="n">
-        <v>135.5353527814383</v>
+        <v>21.14104301819932</v>
       </c>
       <c r="G22" t="n">
-        <v>1.017462889055013</v>
+        <v>186.6473283921059</v>
       </c>
       <c r="H22" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="I22" t="n">
-        <v>3367.52</v>
+        <v>3363.05</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80269764</v>
+        <v>79713348</v>
       </c>
       <c r="E23" t="n">
-        <v>167403220</v>
+        <v>166242811</v>
       </c>
       <c r="F23" t="n">
-        <v>35474.58074599048</v>
+        <v>30811.05798209991</v>
       </c>
       <c r="G23" t="n">
-        <v>42760.45304884005</v>
+        <v>45910.1380037909</v>
       </c>
       <c r="H23" t="n">
         <v>0.22</v>
       </c>
       <c r="I23" t="n">
-        <v>20290239</v>
+        <v>20448913</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>211162681</v>
+        <v>214947883</v>
       </c>
       <c r="E24" t="n">
-        <v>733598238</v>
+        <v>746748372</v>
       </c>
       <c r="F24" t="n">
-        <v>63206.32775246401</v>
+        <v>60510.06575586562</v>
       </c>
       <c r="G24" t="n">
-        <v>59078.40184090516</v>
+        <v>58012.28951213844</v>
       </c>
       <c r="H24" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I24" t="n">
-        <v>29950326</v>
+        <v>30607082</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>120880385</v>
+        <v>120686155</v>
       </c>
       <c r="E25" t="n">
-        <v>513340638</v>
+        <v>512463123</v>
       </c>
       <c r="F25" t="n">
-        <v>21791.58907948925</v>
+        <v>16016.8486056094</v>
       </c>
       <c r="G25" t="n">
-        <v>13052.3485698728</v>
+        <v>16958.19863836885</v>
       </c>
       <c r="H25" t="n">
         <v>0.31</v>
       </c>
       <c r="I25" t="n">
-        <v>16567407</v>
+        <v>14515111</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5776326</v>
+        <v>5805495</v>
       </c>
       <c r="E26" t="n">
-        <v>7847464</v>
+        <v>7886245</v>
       </c>
       <c r="F26" t="n">
-        <v>1282.854838377656</v>
+        <v>1032.82876189308</v>
       </c>
       <c r="G26" t="n">
-        <v>1396.892090056698</v>
+        <v>1884.6653681509</v>
       </c>
       <c r="H26" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>5502208</v>
+        <v>1376061</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>571071</v>
+        <v>569415</v>
       </c>
       <c r="E27" t="n">
-        <v>6926538</v>
+        <v>6906451</v>
       </c>
       <c r="F27" t="n">
-        <v>208.0300650646169</v>
+        <v>616.8494915775548</v>
       </c>
       <c r="G27" t="n">
-        <v>486.495408650722</v>
+        <v>487.0571382680534</v>
       </c>
       <c r="H27" t="n">
-        <v>0.92</v>
+        <v>1.14</v>
       </c>
       <c r="I27" t="n">
-        <v>2800876</v>
+        <v>2796156</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26439653</v>
+        <v>26443775</v>
       </c>
       <c r="E28" t="n">
-        <v>37371157</v>
+        <v>37376984</v>
       </c>
       <c r="F28" t="n">
-        <v>351.9527745686834</v>
+        <v>258.9263212873331</v>
       </c>
       <c r="G28" t="n">
-        <v>1166.165719875974</v>
+        <v>299.2615509279101</v>
       </c>
       <c r="H28" t="n">
-        <v>1.59</v>
+        <v>2.68</v>
       </c>
       <c r="I28" t="n">
-        <v>83250</v>
+        <v>65167</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1363014508</v>
+        <v>1361068058</v>
       </c>
       <c r="E29" t="n">
-        <v>6535933703</v>
+        <v>6526600079</v>
       </c>
       <c r="F29" t="n">
-        <v>214559.559711414</v>
+        <v>174463.1971791661</v>
       </c>
       <c r="G29" t="n">
-        <v>227504.6550610454</v>
+        <v>252127.6793646905</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>199638878</v>
+        <v>205819693</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>281403616</v>
+        <v>280001547</v>
       </c>
       <c r="E30" t="n">
-        <v>1214694225</v>
+        <v>1208642118</v>
       </c>
       <c r="F30" t="n">
-        <v>201622.5945648076</v>
+        <v>199403.0807519673</v>
       </c>
       <c r="G30" t="n">
-        <v>225306.1756127557</v>
+        <v>240881.4879941438</v>
       </c>
       <c r="H30" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>110321343</v>
+        <v>110881247</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5349523</v>
+        <v>5357868</v>
       </c>
       <c r="E31" t="n">
-        <v>5355578</v>
+        <v>5363932</v>
       </c>
       <c r="F31" t="n">
-        <v>111.1782588344494</v>
+        <v>111.1729703076131</v>
       </c>
       <c r="G31" t="n">
-        <v>208.4303583752423</v>
+        <v>191.8270797506761</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>146057</v>
+        <v>146407</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19913662</v>
+        <v>19932493</v>
       </c>
       <c r="E32" t="n">
-        <v>49784155</v>
+        <v>49831232</v>
       </c>
       <c r="F32" t="n">
-        <v>1956.698145852625</v>
+        <v>1932.93032203146</v>
       </c>
       <c r="G32" t="n">
-        <v>4624.965688950943</v>
+        <v>4176.48149554919</v>
       </c>
       <c r="H32" t="n">
-        <v>0.54</v>
+        <v>0.5</v>
       </c>
       <c r="I32" t="n">
-        <v>1947293</v>
+        <v>2213617</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19740784</v>
+        <v>19761723</v>
       </c>
       <c r="F33" t="n">
-        <v>809.4255140606042</v>
+        <v>798.569062053828</v>
       </c>
       <c r="G33" t="n">
-        <v>856.6023330163976</v>
+        <v>844.9562111748949</v>
       </c>
       <c r="H33" t="n">
         <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>45380</v>
+        <v>43392</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4227990</v>
+        <v>4240045</v>
       </c>
       <c r="E34" t="n">
-        <v>12178622</v>
+        <v>12213344</v>
       </c>
       <c r="F34" t="n">
-        <v>2139.100300884329</v>
+        <v>2993.219291911302</v>
       </c>
       <c r="G34" t="n">
-        <v>1312.121787037916</v>
+        <v>833.7346707407069</v>
       </c>
       <c r="H34" t="n">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="I34" t="n">
-        <v>588026</v>
+        <v>615338</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1589434</v>
+        <v>1591662</v>
       </c>
       <c r="F35" t="n">
-        <v>188.1971496260426</v>
+        <v>20.18818751140692</v>
       </c>
       <c r="G35" t="n">
-        <v>282.1393751502131</v>
+        <v>278.2597505358158</v>
       </c>
       <c r="H35" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>10219.36</v>
+        <v>10236.61</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15626204</v>
+        <v>15700463</v>
       </c>
       <c r="E36" t="n">
-        <v>75680198</v>
+        <v>76039848</v>
       </c>
       <c r="F36" t="n">
-        <v>3726.153722941523</v>
+        <v>2764.345808340337</v>
       </c>
       <c r="G36" t="n">
-        <v>10243.32031952457</v>
+        <v>7825.060567820637</v>
       </c>
       <c r="H36" t="n">
-        <v>0.16</v>
+        <v>0.36</v>
       </c>
       <c r="I36" t="n">
-        <v>4213481</v>
+        <v>4256303</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1466022</v>
+        <v>1466964</v>
       </c>
       <c r="E37" t="n">
-        <v>9595076</v>
+        <v>9601237</v>
       </c>
       <c r="F37" t="n">
-        <v>147.9103239261197</v>
+        <v>104.4047482895505</v>
       </c>
       <c r="G37" t="n">
-        <v>28.42362252348953</v>
+        <v>30.45994387134952</v>
       </c>
       <c r="H37" t="n">
-        <v>1.03</v>
+        <v>2.04</v>
       </c>
       <c r="I37" t="n">
-        <v>723427</v>
+        <v>700637</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1929205612</v>
+        <v>1931351840</v>
       </c>
       <c r="F38" t="n">
-        <v>76708.56346106115</v>
+        <v>74311.98897401584</v>
       </c>
       <c r="G38" t="n">
-        <v>75811.31685603275</v>
+        <v>73295.53210251272</v>
       </c>
       <c r="H38" t="n">
-        <v>0.72</v>
+        <v>0.67</v>
       </c>
       <c r="I38" t="n">
-        <v>28072033</v>
+        <v>28218696</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31771052</v>
+        <v>31838610</v>
       </c>
       <c r="E39" t="n">
-        <v>98924863</v>
+        <v>99135216</v>
       </c>
       <c r="F39" t="n">
-        <v>3885.843538217656</v>
+        <v>4562.851539308032</v>
       </c>
       <c r="G39" t="n">
-        <v>11278.72290089989</v>
+        <v>12252.92675521889</v>
       </c>
       <c r="H39" t="n">
-        <v>0.32</v>
+        <v>0.19</v>
       </c>
       <c r="I39" t="n">
-        <v>10296589</v>
+        <v>10272483</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>209148854</v>
+        <v>208396999</v>
       </c>
       <c r="E40" t="n">
-        <v>1184329324</v>
+        <v>1180071858</v>
       </c>
       <c r="F40" t="n">
-        <v>43427.08959043604</v>
+        <v>43355.47369826106</v>
       </c>
       <c r="G40" t="n">
-        <v>85604.19844397498</v>
+        <v>85068.10750464028</v>
       </c>
       <c r="H40" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="I40" t="n">
-        <v>69760546</v>
+        <v>69130889</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>144925576</v>
+        <v>145616875</v>
       </c>
       <c r="E41" t="n">
-        <v>1073522784</v>
+        <v>1078643516</v>
       </c>
       <c r="F41" t="n">
-        <v>153740.0992310834</v>
+        <v>142856.6031227634</v>
       </c>
       <c r="G41" t="n">
-        <v>215617.451748027</v>
+        <v>204627.4426984901</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>8358968</v>
+        <v>8384901</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32949588</v>
+        <v>33026266</v>
       </c>
       <c r="E42" t="n">
-        <v>156461607</v>
+        <v>156825713</v>
       </c>
       <c r="F42" t="n">
-        <v>8343.679401440697</v>
+        <v>7967.011576940693</v>
       </c>
       <c r="G42" t="n">
-        <v>4702.148994934068</v>
+        <v>13277.39557188763</v>
       </c>
       <c r="H42" t="n">
-        <v>0.45</v>
+        <v>0.64</v>
       </c>
       <c r="I42" t="n">
-        <v>1213462</v>
+        <v>1141541</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3381693</v>
+        <v>3454982</v>
       </c>
       <c r="E43" t="n">
-        <v>7896817</v>
+        <v>8067959</v>
       </c>
       <c r="F43" t="n">
-        <v>820.5737593700933</v>
+        <v>1040.724547607618</v>
       </c>
       <c r="G43" t="n">
-        <v>2490.599299298846</v>
+        <v>2754.746549414649</v>
       </c>
       <c r="H43" t="n">
-        <v>0.97</v>
+        <v>0.54</v>
       </c>
       <c r="I43" t="n">
-        <v>643558</v>
+        <v>648211</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>350870517</v>
+        <v>349144594</v>
       </c>
       <c r="E44" t="n">
-        <v>3156648740</v>
+        <v>3141121268</v>
       </c>
       <c r="F44" t="n">
-        <v>47021.09878374376</v>
+        <v>44076.90864644851</v>
       </c>
       <c r="G44" t="n">
-        <v>52722.94341638051</v>
+        <v>51099.89315552282</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>47115865</v>
+        <v>47003120</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>633778</v>
+        <v>642436</v>
       </c>
       <c r="F45" t="n">
-        <v>570.9173734032169</v>
+        <v>501.5085832706703</v>
       </c>
       <c r="G45" t="n">
-        <v>198.4775608737854</v>
+        <v>305.3416092294701</v>
       </c>
       <c r="H45" t="n">
         <v>0.97</v>
       </c>
       <c r="I45" t="n">
-        <v>4960.17</v>
+        <v>5214.36</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1575841</v>
+        <v>1573772</v>
       </c>
       <c r="E46" t="n">
-        <v>13132011</v>
+        <v>13114767</v>
       </c>
       <c r="F46" t="n">
-        <v>313.1116320974458</v>
+        <v>312.2556010661179</v>
       </c>
       <c r="G46" t="n">
-        <v>1601.808828070158</v>
+        <v>1718.926662381247</v>
       </c>
       <c r="H46" t="n">
         <v>0.08</v>
       </c>
       <c r="I46" t="n">
-        <v>26530</v>
+        <v>25646</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4929811</v>
+        <v>4932857</v>
       </c>
       <c r="E47" t="n">
-        <v>17419315</v>
+        <v>17430079</v>
       </c>
       <c r="F47" t="n">
-        <v>894.8513274424656</v>
+        <v>862.7939204720568</v>
       </c>
       <c r="G47" t="n">
-        <v>1704.966890048037</v>
+        <v>1671.1174573642</v>
       </c>
       <c r="H47" t="n">
         <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>112023</v>
+        <v>112106</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>52000364</v>
+        <v>50355892</v>
       </c>
       <c r="E48" t="n">
-        <v>301060619</v>
+        <v>291539808</v>
       </c>
       <c r="F48" t="n">
-        <v>14977.21895971726</v>
+        <v>15933.66691787999</v>
       </c>
       <c r="G48" t="n">
-        <v>10189.34562444484</v>
+        <v>6295.612163540094</v>
       </c>
       <c r="H48" t="n">
-        <v>0.27</v>
+        <v>0.48</v>
       </c>
       <c r="I48" t="n">
-        <v>38248355</v>
+        <v>39062357</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2331705</v>
+        <v>2332847</v>
       </c>
       <c r="E49" t="n">
-        <v>12810784</v>
+        <v>12817059</v>
       </c>
       <c r="F49" t="n">
-        <v>260.0156232353401</v>
+        <v>167.1781153921451</v>
       </c>
       <c r="G49" t="n">
-        <v>205.4575334401933</v>
+        <v>218.0747322009253</v>
       </c>
       <c r="H49" t="n">
-        <v>2.33</v>
+        <v>1.56</v>
       </c>
       <c r="I49" t="n">
-        <v>81335</v>
+        <v>115083</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14279540</v>
+        <v>14289668</v>
       </c>
       <c r="E50" t="n">
-        <v>14328134</v>
+        <v>14338297</v>
       </c>
       <c r="F50" t="n">
-        <v>4259.780470275828</v>
+        <v>4170.325012473353</v>
       </c>
       <c r="G50" t="n">
-        <v>9893.633436117872</v>
+        <v>9712.003145052906</v>
       </c>
       <c r="H50" t="n">
         <v>0.62</v>
       </c>
       <c r="I50" t="n">
-        <v>6354904</v>
+        <v>5732436</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23162524</v>
+        <v>22796549</v>
       </c>
       <c r="E51" t="n">
-        <v>69429961</v>
+        <v>68334823</v>
       </c>
       <c r="F51" t="n">
-        <v>10628.03382139784</v>
+        <v>25519.89180869628</v>
       </c>
       <c r="G51" t="n">
-        <v>25938.18039970359</v>
+        <v>26049.03395129156</v>
       </c>
       <c r="H51" t="n">
-        <v>0.29</v>
+        <v>0.48</v>
       </c>
       <c r="I51" t="n">
-        <v>3502559</v>
+        <v>3562783</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15982285</v>
+        <v>15962762</v>
       </c>
       <c r="E52" t="n">
-        <v>97960682</v>
+        <v>97841015</v>
       </c>
       <c r="F52" t="n">
-        <v>5875.253468314978</v>
+        <v>7796.768442738545</v>
       </c>
       <c r="G52" t="n">
-        <v>7368.302271635977</v>
+        <v>9304.97509349234</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="I52" t="n">
-        <v>10558045</v>
+        <v>10869350</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50418409</v>
+        <v>50426424</v>
       </c>
       <c r="E53" t="n">
-        <v>217196993</v>
+        <v>217231523</v>
       </c>
       <c r="F53" t="n">
-        <v>22913.12804120109</v>
+        <v>22022.12542752819</v>
       </c>
       <c r="G53" t="n">
-        <v>26832.50271849863</v>
+        <v>26288.16765649375</v>
       </c>
       <c r="H53" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="I53" t="n">
-        <v>10017016</v>
+        <v>10068778</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1046692</v>
+        <v>1039632</v>
       </c>
       <c r="E54" t="n">
-        <v>3059299</v>
+        <v>3038663</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8879550295361991</v>
+        <v>0.887912791295986</v>
       </c>
       <c r="G54" t="n">
-        <v>197.8853661089302</v>
+        <v>215.8720488727303</v>
       </c>
       <c r="H54" t="n">
         <v>1.28</v>
       </c>
       <c r="I54" t="n">
-        <v>19221.7</v>
+        <v>18529.94</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37691387</v>
+        <v>37868845</v>
       </c>
       <c r="E55" t="n">
-        <v>95039582</v>
+        <v>95487047</v>
       </c>
       <c r="F55" t="n">
-        <v>7682.129372928634</v>
+        <v>8001.263645454629</v>
       </c>
       <c r="G55" t="n">
-        <v>6508.727827878236</v>
+        <v>6894.904824685304</v>
       </c>
       <c r="H55" t="n">
         <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3528803</v>
+        <v>3536878</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>28414143</v>
+        <v>29543990</v>
       </c>
       <c r="E56" t="n">
-        <v>67504938</v>
+        <v>70189175</v>
       </c>
       <c r="F56" t="n">
-        <v>11295.42793471321</v>
+        <v>10248.0856811631</v>
       </c>
       <c r="G56" t="n">
-        <v>10334.9483636072</v>
+        <v>14896.58731175859</v>
       </c>
       <c r="H56" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I56" t="n">
-        <v>416475</v>
+        <v>454861</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12734681</v>
+        <v>12776709</v>
       </c>
       <c r="E57" t="n">
-        <v>19385056</v>
+        <v>19449033</v>
       </c>
       <c r="F57" t="n">
-        <v>2066.041180587044</v>
+        <v>7251.402805577949</v>
       </c>
       <c r="G57" t="n">
-        <v>2424.066610714069</v>
+        <v>7896.647264879462</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="I57" t="n">
-        <v>695780</v>
+        <v>678100</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>304625998</v>
+        <v>306372406</v>
       </c>
       <c r="E58" t="n">
-        <v>304625998</v>
+        <v>306372406</v>
       </c>
       <c r="F58" t="n">
-        <v>71861.13829780652</v>
+        <v>83910.45770462813</v>
       </c>
       <c r="G58" t="n">
-        <v>79812.24320723601</v>
+        <v>78810.72403521152</v>
       </c>
       <c r="H58" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I58" t="n">
-        <v>78918868</v>
+        <v>71881596</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11785949</v>
+        <v>11704199</v>
       </c>
       <c r="F59" t="n">
-        <v>239.7807974901545</v>
+        <v>535.0751753030223</v>
       </c>
       <c r="G59" t="n">
-        <v>59.09382620337621</v>
+        <v>4.060085747574285</v>
       </c>
       <c r="H59" t="n">
         <v>1.38</v>
       </c>
       <c r="I59" t="n">
-        <v>84853</v>
+        <v>80904</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>93495183</v>
+        <v>93425283</v>
       </c>
       <c r="E60" t="n">
-        <v>538759571</v>
+        <v>538356777</v>
       </c>
       <c r="F60" t="n">
-        <v>96715.57648134264</v>
+        <v>99182.64503648531</v>
       </c>
       <c r="G60" t="n">
-        <v>104258.8249799191</v>
+        <v>96405.17064860101</v>
       </c>
       <c r="H60" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="I60" t="n">
-        <v>18331691</v>
+        <v>18277976</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9462900</v>
+        <v>9502760</v>
       </c>
       <c r="E61" t="n">
-        <v>9462900</v>
+        <v>9502760</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>4.82</v>
+        <v>5.2</v>
       </c>
       <c r="I61" t="n">
-        <v>2152087</v>
+        <v>2169035</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>31792551</v>
+        <v>31836184</v>
       </c>
       <c r="E62" t="n">
-        <v>142348292</v>
+        <v>142543655</v>
       </c>
       <c r="F62" t="n">
-        <v>27673.19308467979</v>
+        <v>17401.56458336838</v>
       </c>
       <c r="G62" t="n">
-        <v>20209.75593291729</v>
+        <v>21269.89886151776</v>
       </c>
       <c r="H62" t="n">
         <v>0.7</v>
       </c>
       <c r="I62" t="n">
-        <v>7948642</v>
+        <v>7939074</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12927066</v>
+        <v>12935835</v>
       </c>
       <c r="E63" t="n">
-        <v>25842846</v>
+        <v>25860375</v>
       </c>
       <c r="F63" t="n">
-        <v>2383.477560788928</v>
+        <v>2385.666382786362</v>
       </c>
       <c r="G63" t="n">
-        <v>2310.161367826304</v>
+        <v>2325.513399084785</v>
       </c>
       <c r="H63" t="n">
         <v>0.44</v>
       </c>
       <c r="I63" t="n">
-        <v>27170</v>
+        <v>22153</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1464747</v>
+        <v>1451078</v>
       </c>
       <c r="F64" t="n">
-        <v>180.8074726958625</v>
+        <v>119.6871985390529</v>
       </c>
       <c r="G64" t="n">
-        <v>190.6887049456699</v>
+        <v>111.0836113061155</v>
       </c>
       <c r="H64" t="n">
         <v>2.17</v>
       </c>
       <c r="I64" t="n">
-        <v>47102</v>
+        <v>47043</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>52347519</v>
+        <v>52265477</v>
       </c>
       <c r="E65" t="n">
-        <v>339459728</v>
+        <v>338927706</v>
       </c>
       <c r="F65" t="n">
-        <v>23931.5466076927</v>
+        <v>21505.93658202669</v>
       </c>
       <c r="G65" t="n">
-        <v>21627.87489592729</v>
+        <v>22745.00263240796</v>
       </c>
       <c r="H65" t="n">
-        <v>0.23</v>
+        <v>0.63</v>
       </c>
       <c r="I65" t="n">
-        <v>17485482</v>
+        <v>17577807</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4849077</v>
+        <v>4872304</v>
       </c>
       <c r="F66" t="n">
-        <v>1032.068200552539</v>
+        <v>1231.305735404734</v>
       </c>
       <c r="G66" t="n">
-        <v>1706.177940201394</v>
+        <v>1248.6116371336</v>
       </c>
       <c r="H66" t="n">
-        <v>0.92</v>
+        <v>0.58</v>
       </c>
       <c r="I66" t="n">
-        <v>195481</v>
+        <v>201973</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>124991047</v>
+        <v>125073928</v>
       </c>
       <c r="E67" t="n">
-        <v>2069954106</v>
+        <v>2071326684</v>
       </c>
       <c r="F67" t="n">
-        <v>23564.00531250905</v>
+        <v>22320.45460823986</v>
       </c>
       <c r="G67" t="n">
-        <v>13541.64687994138</v>
+        <v>21346.86945749602</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I67" t="n">
-        <v>4664717</v>
+        <v>4814332</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25195796</v>
+        <v>25152315</v>
       </c>
       <c r="E68" t="n">
-        <v>150751511</v>
+        <v>150491356</v>
       </c>
       <c r="F68" t="n">
-        <v>44756.65239601285</v>
+        <v>45333.09451156449</v>
       </c>
       <c r="G68" t="n">
-        <v>47211.09952725215</v>
+        <v>46465.13306251057</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I68" t="n">
-        <v>12965394</v>
+        <v>13123241</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23651338</v>
+        <v>23608234</v>
       </c>
       <c r="E70" t="n">
-        <v>23651338</v>
+        <v>23608234</v>
       </c>
       <c r="F70" t="n">
-        <v>3642.055265615592</v>
+        <v>3868.058095444223</v>
       </c>
       <c r="G70" t="n">
-        <v>2891.092276013724</v>
+        <v>3425.97411144695</v>
       </c>
       <c r="H70" t="n">
         <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>2053783</v>
+        <v>2025659</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35704144</v>
+        <v>35634106</v>
       </c>
       <c r="E71" t="n">
-        <v>178180138</v>
+        <v>177830616</v>
       </c>
       <c r="F71" t="n">
-        <v>19240.05287025074</v>
+        <v>21362.24514941018</v>
       </c>
       <c r="G71" t="n">
-        <v>50962.82544040924</v>
+        <v>52897.30724473537</v>
       </c>
       <c r="H71" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>10976799</v>
+        <v>10666756</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>178053</v>
+        <v>169557</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>12809.94</v>
+        <v>12939.16</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>327624859</v>
+        <v>328189549</v>
       </c>
       <c r="E73" t="n">
-        <v>606180702</v>
+        <v>607225509</v>
       </c>
       <c r="F73" t="n">
-        <v>68113.01742738699</v>
+        <v>85255.71955617731</v>
       </c>
       <c r="G73" t="n">
-        <v>74845.62822060141</v>
+        <v>93281.44829893329</v>
       </c>
       <c r="H73" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>14451884</v>
+        <v>14609495</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11537629</v>
+        <v>11064997</v>
       </c>
       <c r="E74" t="n">
-        <v>34226736</v>
+        <v>32824660</v>
       </c>
       <c r="F74" t="n">
-        <v>1360.532276182382</v>
+        <v>1355.105596295622</v>
       </c>
       <c r="G74" t="n">
-        <v>1379.312791628215</v>
+        <v>1170.567225164</v>
       </c>
       <c r="H74" t="n">
-        <v>0.36</v>
+        <v>1.06</v>
       </c>
       <c r="I74" t="n">
-        <v>7409029</v>
+        <v>7086450</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8365892</v>
+        <v>8292353</v>
       </c>
       <c r="E75" t="n">
-        <v>11919480</v>
+        <v>11814704</v>
       </c>
       <c r="F75" t="n">
-        <v>4403.478091050447</v>
+        <v>3885.320318108991</v>
       </c>
       <c r="G75" t="n">
-        <v>964.3511328970436</v>
+        <v>629.9336555092901</v>
       </c>
       <c r="H75" t="n">
-        <v>1.09</v>
+        <v>0.5</v>
       </c>
       <c r="I75" t="n">
-        <v>394531</v>
+        <v>394066</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16673425</v>
+        <v>16488751</v>
       </c>
       <c r="F76" t="n">
-        <v>175.7067447938645</v>
+        <v>491.1106420260652</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4636476657885462</v>
+        <v>0.4935131678187304</v>
       </c>
       <c r="H76" t="n">
-        <v>0.98</v>
+        <v>1.95</v>
       </c>
       <c r="I76" t="n">
-        <v>1028787</v>
+        <v>1032142</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>64064346</v>
+        <v>64187078</v>
       </c>
       <c r="E77" t="n">
-        <v>105988020</v>
+        <v>106191069</v>
       </c>
       <c r="F77" t="n">
-        <v>11398.69949054126</v>
+        <v>10342.81751311862</v>
       </c>
       <c r="G77" t="n">
-        <v>12302.04635661736</v>
+        <v>12239.36354808528</v>
       </c>
       <c r="H77" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="I77" t="n">
-        <v>7015437</v>
+        <v>7131830</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6054565</v>
+        <v>5879800</v>
       </c>
       <c r="E78" t="n">
-        <v>6054565</v>
+        <v>5879800</v>
       </c>
       <c r="F78" t="n">
-        <v>245.4442777456215</v>
+        <v>31.20184485716848</v>
       </c>
       <c r="G78" t="n">
-        <v>230.7752684697118</v>
+        <v>1024.278977882881</v>
       </c>
       <c r="H78" t="n">
-        <v>1.2</v>
+        <v>3.57</v>
       </c>
       <c r="I78" t="n">
-        <v>1224832</v>
+        <v>1253315</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>58627</v>
+        <v>65218</v>
       </c>
       <c r="E79" t="n">
-        <v>305889</v>
+        <v>340282</v>
       </c>
       <c r="F79" t="n">
-        <v>278.7872627305297</v>
+        <v>12.28877216287716</v>
       </c>
       <c r="G79" t="n">
-        <v>166.2492688556278</v>
+        <v>191.5848966808192</v>
       </c>
       <c r="H79" t="n">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="I79" t="n">
-        <v>283384</v>
+        <v>305026</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26306234</v>
+        <v>26326786</v>
       </c>
       <c r="F80" t="n">
-        <v>711.8386118346443</v>
+        <v>408.8676509714971</v>
       </c>
       <c r="G80" t="n">
-        <v>5498.401508746691</v>
+        <v>3075.249298317084</v>
       </c>
       <c r="H80" t="n">
-        <v>0.08</v>
+        <v>1.61</v>
       </c>
       <c r="I80" t="n">
-        <v>66678</v>
+        <v>70452</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>631787078</v>
+        <v>628379745</v>
       </c>
       <c r="E81" t="n">
-        <v>2446818138</v>
+        <v>2433622043</v>
       </c>
       <c r="F81" t="n">
-        <v>176229.5736142657</v>
+        <v>185561.3129870906</v>
       </c>
       <c r="G81" t="n">
-        <v>291238.1575304863</v>
+        <v>179883.7632700814</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I81" t="n">
-        <v>38831545</v>
+        <v>38820567</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7556159</v>
+        <v>7619156</v>
       </c>
       <c r="E82" t="n">
-        <v>10826528</v>
+        <v>10916733</v>
       </c>
       <c r="F82" t="n">
-        <v>1325.342572268771</v>
+        <v>1149.712724160225</v>
       </c>
       <c r="G82" t="n">
-        <v>1058.105764587878</v>
+        <v>1556.784717822921</v>
       </c>
       <c r="H82" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="I82" t="n">
-        <v>205954</v>
+        <v>207922</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>116730385</v>
+        <v>116293988</v>
       </c>
       <c r="E83" t="n">
-        <v>1084575611</v>
+        <v>1080520928</v>
       </c>
       <c r="F83" t="n">
-        <v>43358.36848767818</v>
+        <v>42895.05687375101</v>
       </c>
       <c r="G83" t="n">
-        <v>43547.67443478088</v>
+        <v>44947.17390207999</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>9901692</v>
+        <v>9793894</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1142894</v>
+        <v>1137278</v>
       </c>
       <c r="E84" t="n">
-        <v>4425536</v>
+        <v>4403789</v>
       </c>
       <c r="F84" t="n">
-        <v>993.7605433577191</v>
+        <v>1169.258259484272</v>
       </c>
       <c r="G84" t="n">
-        <v>2796.611543078151</v>
+        <v>1380.684621175181</v>
       </c>
       <c r="H84" t="n">
         <v>0.23</v>
       </c>
       <c r="I84" t="n">
-        <v>264070</v>
+        <v>385465</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>129518969</v>
+        <v>127877653</v>
       </c>
       <c r="E85" t="n">
-        <v>496855612</v>
+        <v>490559260</v>
       </c>
       <c r="F85" t="n">
-        <v>81611.87343442628</v>
+        <v>83757.12831183009</v>
       </c>
       <c r="G85" t="n">
-        <v>89367.5712107349</v>
+        <v>90356.79160101119</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I85" t="n">
-        <v>34651333</v>
+        <v>36865099</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5311109</v>
+        <v>5318034</v>
       </c>
       <c r="E86" t="n">
-        <v>19736179</v>
+        <v>19761915</v>
       </c>
       <c r="F86" t="n">
-        <v>3743.041166170596</v>
+        <v>3729.441913956838</v>
       </c>
       <c r="G86" t="n">
-        <v>3410.490106288401</v>
+        <v>3410.10107746949</v>
       </c>
       <c r="H86" t="n">
         <v>0.25</v>
       </c>
       <c r="I86" t="n">
-        <v>79969</v>
+        <v>80711</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>33516231</v>
+        <v>33735148</v>
       </c>
       <c r="F87" t="n">
-        <v>3231.732295132496</v>
+        <v>2741.936120261359</v>
       </c>
       <c r="G87" t="n">
-        <v>2576.05146447775</v>
+        <v>2721.738162774803</v>
       </c>
       <c r="H87" t="n">
         <v>0.42</v>
       </c>
       <c r="I87" t="n">
-        <v>5469835</v>
+        <v>5389874</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>25102500</v>
+        <v>25130774</v>
       </c>
       <c r="F88" t="n">
-        <v>1221.139339275622</v>
+        <v>1423.392742872468</v>
       </c>
       <c r="G88" t="n">
-        <v>756.9292646827056</v>
+        <v>734.5143146190793</v>
       </c>
       <c r="H88" t="n">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="I88" t="n">
-        <v>17131.83</v>
+        <v>17231.29</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>88920157</v>
+        <v>89158383</v>
       </c>
       <c r="E89" t="n">
-        <v>328694453</v>
+        <v>329574303</v>
       </c>
       <c r="F89" t="n">
-        <v>1239.978031217987</v>
+        <v>1230.225214095967</v>
       </c>
       <c r="G89" t="n">
-        <v>1655.854447913809</v>
+        <v>1550.265145050348</v>
       </c>
       <c r="H89" t="n">
         <v>0.66</v>
       </c>
       <c r="I89" t="n">
-        <v>223130</v>
+        <v>221945</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20738212</v>
+        <v>21180218</v>
       </c>
       <c r="E90" t="n">
-        <v>20738212</v>
+        <v>21180218</v>
       </c>
       <c r="F90" t="n">
-        <v>3310.852850826304</v>
+        <v>3032.58073664113</v>
       </c>
       <c r="G90" t="n">
-        <v>3737.155307596946</v>
+        <v>3609.105956427924</v>
       </c>
       <c r="H90" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="I90" t="n">
-        <v>7102952</v>
+        <v>7140973</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3826445</v>
+        <v>3805360</v>
       </c>
       <c r="E91" t="n">
-        <v>8349254</v>
+        <v>8303247</v>
       </c>
       <c r="F91" t="n">
-        <v>1914.082505671796</v>
+        <v>1883.220200655096</v>
       </c>
       <c r="G91" t="n">
-        <v>2520.87166036639</v>
+        <v>2345.682691042938</v>
       </c>
       <c r="H91" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="I91" t="n">
-        <v>1892212</v>
+        <v>1873480</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>514081912</v>
+        <v>511846539</v>
       </c>
       <c r="E92" t="n">
-        <v>1789476351</v>
+        <v>1781695204</v>
       </c>
       <c r="F92" t="n">
-        <v>169610.070066517</v>
+        <v>172931.2901965506</v>
       </c>
       <c r="G92" t="n">
-        <v>181559.9857817945</v>
+        <v>183004.1187482741</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>34748794</v>
+        <v>35324745</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2609852</v>
+        <v>2634233</v>
       </c>
       <c r="E93" t="n">
-        <v>10439407</v>
+        <v>10536933</v>
       </c>
       <c r="F93" t="n">
-        <v>2240.876852350811</v>
+        <v>2302.98467800339</v>
       </c>
       <c r="G93" t="n">
-        <v>3788.331443860722</v>
+        <v>3847.092791594009</v>
       </c>
       <c r="H93" t="n">
         <v>0.86</v>
       </c>
       <c r="I93" t="n">
-        <v>7005720</v>
+        <v>7007990</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>227318916</v>
+        <v>227186923</v>
       </c>
       <c r="E94" t="n">
-        <v>698920121</v>
+        <v>698514291</v>
       </c>
       <c r="F94" t="n">
-        <v>112681.2215639182</v>
+        <v>112797.4243780625</v>
       </c>
       <c r="G94" t="n">
-        <v>100683.3095675964</v>
+        <v>106050.8875134386</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>16689328</v>
+        <v>16827056</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>148656198</v>
+        <v>148542646</v>
       </c>
       <c r="E95" t="n">
-        <v>388360193</v>
+        <v>388063543</v>
       </c>
       <c r="F95" t="n">
-        <v>33775.05201163117</v>
+        <v>25711.21189563146</v>
       </c>
       <c r="G95" t="n">
-        <v>29465.12020022449</v>
+        <v>31155.74197863649</v>
       </c>
       <c r="H95" t="n">
         <v>0.08</v>
       </c>
       <c r="I95" t="n">
-        <v>8826964</v>
+        <v>8875263</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>411916687</v>
+        <v>411065469</v>
       </c>
       <c r="E96" t="n">
-        <v>2353809643</v>
+        <v>2348945539</v>
       </c>
       <c r="F96" t="n">
-        <v>23769.86572278115</v>
+        <v>23477.55138252812</v>
       </c>
       <c r="G96" t="n">
-        <v>47703.6811076844</v>
+        <v>45356.18552182248</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>42868550</v>
+        <v>43083745</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>632015051</v>
+        <v>629997707</v>
       </c>
       <c r="E2" t="n">
-        <v>1226412023</v>
+        <v>1222497410</v>
       </c>
       <c r="F2" t="n">
-        <v>22462.06220868197</v>
+        <v>22329.31024973482</v>
       </c>
       <c r="G2" t="n">
-        <v>36761.29225541899</v>
+        <v>33988.63459820174</v>
       </c>
       <c r="H2" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="I2" t="n">
-        <v>22803073</v>
+        <v>22764048</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1382042</v>
+        <v>1382147</v>
       </c>
       <c r="E3" t="n">
-        <v>4467326</v>
+        <v>4467667</v>
       </c>
       <c r="F3" t="n">
-        <v>3553.745859263196</v>
+        <v>1632.068006830404</v>
       </c>
       <c r="G3" t="n">
-        <v>2999.88787226161</v>
+        <v>4759.211455265126</v>
       </c>
       <c r="H3" t="n">
-        <v>0.22</v>
+        <v>0.89</v>
       </c>
       <c r="I3" t="n">
-        <v>145995</v>
+        <v>145984</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>256905407</v>
+        <v>257201314</v>
       </c>
       <c r="E4" t="n">
-        <v>1611017696</v>
+        <v>1612873290</v>
       </c>
       <c r="F4" t="n">
-        <v>149810.6363438971</v>
+        <v>148334.6675983385</v>
       </c>
       <c r="G4" t="n">
-        <v>151637.5793314471</v>
+        <v>144867.1708780827</v>
       </c>
       <c r="H4" t="n">
         <v>0.05</v>
       </c>
       <c r="I4" t="n">
-        <v>17170839</v>
+        <v>17190449</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>152281203</v>
+        <v>152114990</v>
       </c>
       <c r="E5" t="n">
-        <v>168751372</v>
+        <v>168567181</v>
       </c>
       <c r="F5" t="n">
-        <v>6558.896815091326</v>
+        <v>4915.712002193553</v>
       </c>
       <c r="G5" t="n">
-        <v>6648.293213663014</v>
+        <v>13906.32314028636</v>
       </c>
       <c r="H5" t="n">
         <v>0.59</v>
       </c>
       <c r="I5" t="n">
-        <v>40313947</v>
+        <v>40098199</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>702157</v>
+        <v>702027</v>
       </c>
       <c r="E6" t="n">
-        <v>13640929</v>
+        <v>13638403</v>
       </c>
       <c r="F6" t="n">
-        <v>184.6373361494027</v>
+        <v>6728.419387423294</v>
       </c>
       <c r="G6" t="n">
-        <v>483.941144100249</v>
+        <v>427.0411207539531</v>
       </c>
       <c r="H6" t="n">
         <v>0.59</v>
       </c>
       <c r="I6" t="n">
-        <v>25747</v>
+        <v>25774</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>482860401</v>
+        <v>478550583</v>
       </c>
       <c r="E7" t="n">
-        <v>482860403</v>
+        <v>478550585</v>
       </c>
       <c r="F7" t="n">
-        <v>41487.21120588074</v>
+        <v>29723.41304587047</v>
       </c>
       <c r="G7" t="n">
-        <v>51663.8282291701</v>
+        <v>52672.47952204249</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="I7" t="n">
-        <v>64404930</v>
+        <v>63814309</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4750840</v>
+        <v>4746843</v>
       </c>
       <c r="E8" t="n">
-        <v>4750840</v>
+        <v>4746843</v>
       </c>
       <c r="F8" t="n">
-        <v>754.7040846057611</v>
+        <v>750.2343754319904</v>
       </c>
       <c r="G8" t="n">
-        <v>1563.225531416096</v>
+        <v>1460.783809289234</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="I8" t="n">
-        <v>2045174</v>
+        <v>2051493</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1724959</v>
+        <v>1724016</v>
       </c>
       <c r="F9" t="n">
-        <v>6926.836744926201</v>
+        <v>2694.630747068394</v>
       </c>
       <c r="G9" t="n">
-        <v>2122.944694511893</v>
+        <v>289.3050949653411</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24</v>
+        <v>1.09</v>
       </c>
       <c r="I9" t="n">
-        <v>154829</v>
+        <v>163367</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1481611</v>
+        <v>1487676</v>
       </c>
       <c r="F10" t="n">
-        <v>163.6774362289668</v>
+        <v>261.7361266351406</v>
       </c>
       <c r="G10" t="n">
-        <v>3850.676264775057</v>
+        <v>4327.902126388008</v>
       </c>
       <c r="H10" t="n">
-        <v>0.54</v>
+        <v>0.33</v>
       </c>
       <c r="I10" t="n">
-        <v>342449</v>
+        <v>346758</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>110242604</v>
+        <v>110346396</v>
       </c>
       <c r="E11" t="n">
-        <v>207683998</v>
+        <v>207879529</v>
       </c>
       <c r="F11" t="n">
-        <v>911.922516705833</v>
+        <v>877.4905992255038</v>
       </c>
       <c r="G11" t="n">
-        <v>148.2138461693916</v>
+        <v>147.9110018553414</v>
       </c>
       <c r="H11" t="n">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="I11" t="n">
-        <v>4197416</v>
+        <v>4191022</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12521457</v>
+        <v>12439902</v>
       </c>
       <c r="E12" t="n">
-        <v>31163643</v>
+        <v>30960665</v>
       </c>
       <c r="F12" t="n">
-        <v>584.4623156356665</v>
+        <v>582.3279552755649</v>
       </c>
       <c r="G12" t="n">
-        <v>1014.677289891965</v>
+        <v>1255.211318943274</v>
       </c>
       <c r="H12" t="n">
-        <v>0.74</v>
+        <v>0.61</v>
       </c>
       <c r="I12" t="n">
-        <v>1310469</v>
+        <v>1319424</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115754688</v>
+        <v>115406535</v>
       </c>
       <c r="E13" t="n">
-        <v>450217887</v>
+        <v>448863778</v>
       </c>
       <c r="F13" t="n">
-        <v>29336.27683755974</v>
+        <v>31534.19048716805</v>
       </c>
       <c r="G13" t="n">
-        <v>36390.57128837701</v>
+        <v>34219.179700232</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="I13" t="n">
-        <v>11184640</v>
+        <v>11127673</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5088752</v>
+        <v>5094190</v>
       </c>
       <c r="E14" t="n">
-        <v>7490918</v>
+        <v>7498924</v>
       </c>
       <c r="F14" t="n">
-        <v>180.0825281619729</v>
+        <v>226.5211663620359</v>
       </c>
       <c r="G14" t="n">
-        <v>224.6942933427517</v>
+        <v>224.6925100960429</v>
       </c>
       <c r="H14" t="n">
         <v>2.67</v>
       </c>
       <c r="I14" t="n">
-        <v>579493</v>
+        <v>584364</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>145423045</v>
+        <v>145501226</v>
       </c>
       <c r="E15" t="n">
-        <v>145423045</v>
+        <v>145501226</v>
       </c>
       <c r="F15" t="n">
-        <v>47045.61647246582</v>
+        <v>45056.89591910649</v>
       </c>
       <c r="G15" t="n">
-        <v>86700.78906192517</v>
+        <v>83767.67958774255</v>
       </c>
       <c r="H15" t="n">
         <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>74809399</v>
+        <v>74951304</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69086657</v>
+        <v>69068854</v>
       </c>
       <c r="E16" t="n">
-        <v>354290549</v>
+        <v>354199249</v>
       </c>
       <c r="F16" t="n">
-        <v>8388.381255554095</v>
+        <v>9831.389329629086</v>
       </c>
       <c r="G16" t="n">
-        <v>34681.52088784522</v>
+        <v>35657.65940992686</v>
       </c>
       <c r="H16" t="n">
         <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>25510627</v>
+        <v>25381544</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>268302354</v>
+        <v>268433015</v>
       </c>
       <c r="E17" t="n">
-        <v>268302354</v>
+        <v>268433015</v>
       </c>
       <c r="F17" t="n">
-        <v>58200.1284037701</v>
+        <v>63020.66595350232</v>
       </c>
       <c r="G17" t="n">
-        <v>58612.1889670137</v>
+        <v>55456.21129856791</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>15386606</v>
+        <v>15080851</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2555540</v>
+        <v>2557377</v>
       </c>
       <c r="E18" t="n">
-        <v>6533460</v>
+        <v>6538155</v>
       </c>
       <c r="F18" t="n">
-        <v>929.1767541946499</v>
+        <v>1064.818292119471</v>
       </c>
       <c r="G18" t="n">
-        <v>1674.501266783005</v>
+        <v>1146.673913687807</v>
       </c>
       <c r="H18" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>103666</v>
+        <v>104984</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>84692640</v>
+        <v>84041992</v>
       </c>
       <c r="E19" t="n">
-        <v>236928716</v>
+        <v>235108520</v>
       </c>
       <c r="F19" t="n">
-        <v>16294.99284462992</v>
+        <v>15464.06136713158</v>
       </c>
       <c r="G19" t="n">
-        <v>21542.93061613496</v>
+        <v>16391.06448829494</v>
       </c>
       <c r="H19" t="n">
-        <v>0.17</v>
+        <v>0.26</v>
       </c>
       <c r="I19" t="n">
-        <v>47622073</v>
+        <v>47409169</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1641969</v>
+        <v>1618741</v>
       </c>
       <c r="E20" t="n">
-        <v>9427575</v>
+        <v>9294208</v>
       </c>
       <c r="F20" t="n">
-        <v>278.6053679462927</v>
+        <v>215.0707462146173</v>
       </c>
       <c r="G20" t="n">
-        <v>135.51222938982</v>
+        <v>798.3216076411368</v>
       </c>
       <c r="H20" t="n">
-        <v>0.85</v>
+        <v>1.45</v>
       </c>
       <c r="I20" t="n">
-        <v>268996</v>
+        <v>294824</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>176875</v>
+        <v>176504</v>
       </c>
       <c r="E21" t="n">
-        <v>1194454</v>
+        <v>1191954</v>
       </c>
       <c r="F21" t="n">
-        <v>4.326451923433288</v>
+        <v>6.448114516421255</v>
       </c>
       <c r="G21" t="n">
-        <v>9.181517420012332</v>
+        <v>10.23866958528585</v>
       </c>
       <c r="H21" t="n">
-        <v>1.26</v>
+        <v>0.41</v>
       </c>
       <c r="I21" t="n">
-        <v>2871266</v>
+        <v>2875695</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>259076</v>
+        <v>258918</v>
       </c>
       <c r="F22" t="n">
-        <v>21.14104301819932</v>
+        <v>21.14127346175412</v>
       </c>
       <c r="G22" t="n">
-        <v>186.6473283921059</v>
+        <v>186.5414408539881</v>
       </c>
       <c r="H22" t="n">
         <v>1.75</v>
       </c>
       <c r="I22" t="n">
-        <v>3363.05</v>
+        <v>3320.55</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79713348</v>
+        <v>79317069</v>
       </c>
       <c r="E23" t="n">
-        <v>166242811</v>
+        <v>165416368</v>
       </c>
       <c r="F23" t="n">
-        <v>30811.05798209991</v>
+        <v>37145.15131414201</v>
       </c>
       <c r="G23" t="n">
-        <v>45910.1380037909</v>
+        <v>38779.62240357368</v>
       </c>
       <c r="H23" t="n">
         <v>0.22</v>
       </c>
       <c r="I23" t="n">
-        <v>20448913</v>
+        <v>20415923</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>214947883</v>
+        <v>213709963</v>
       </c>
       <c r="E24" t="n">
-        <v>746748372</v>
+        <v>742447726</v>
       </c>
       <c r="F24" t="n">
-        <v>60510.06575586562</v>
+        <v>62535.4364419266</v>
       </c>
       <c r="G24" t="n">
-        <v>58012.28951213844</v>
+        <v>61370.10201776063</v>
       </c>
       <c r="H24" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="I24" t="n">
-        <v>30607082</v>
+        <v>30868490</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>120686155</v>
+        <v>120477137</v>
       </c>
       <c r="E25" t="n">
-        <v>512463123</v>
+        <v>511575583</v>
       </c>
       <c r="F25" t="n">
-        <v>16016.8486056094</v>
+        <v>18512.49183349156</v>
       </c>
       <c r="G25" t="n">
-        <v>16958.19863836885</v>
+        <v>17104.79209828145</v>
       </c>
       <c r="H25" t="n">
-        <v>0.31</v>
+        <v>0.29</v>
       </c>
       <c r="I25" t="n">
-        <v>14515111</v>
+        <v>14524505</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5805495</v>
+        <v>5879748</v>
       </c>
       <c r="E26" t="n">
-        <v>7886245</v>
+        <v>7987111</v>
       </c>
       <c r="F26" t="n">
-        <v>1032.82876189308</v>
+        <v>1030.957470941963</v>
       </c>
       <c r="G26" t="n">
-        <v>1884.6653681509</v>
+        <v>929.3905772591477</v>
       </c>
       <c r="H26" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>1376061</v>
+        <v>1391494</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>569415</v>
+        <v>567897</v>
       </c>
       <c r="E27" t="n">
-        <v>6906451</v>
+        <v>6888043</v>
       </c>
       <c r="F27" t="n">
-        <v>616.8494915775548</v>
+        <v>564.4027264786517</v>
       </c>
       <c r="G27" t="n">
-        <v>487.0571382680534</v>
+        <v>575.2672800760974</v>
       </c>
       <c r="H27" t="n">
-        <v>1.14</v>
+        <v>0.96</v>
       </c>
       <c r="I27" t="n">
-        <v>2796156</v>
+        <v>2794626</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26443775</v>
+        <v>26798662</v>
       </c>
       <c r="E28" t="n">
-        <v>37376984</v>
+        <v>37878598</v>
       </c>
       <c r="F28" t="n">
-        <v>258.9263212873331</v>
+        <v>481.7780627306371</v>
       </c>
       <c r="G28" t="n">
-        <v>299.2615509279101</v>
+        <v>1.768524242853596</v>
       </c>
       <c r="H28" t="n">
-        <v>2.68</v>
+        <v>1.79</v>
       </c>
       <c r="I28" t="n">
-        <v>65167</v>
+        <v>93022</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1361068058</v>
+        <v>1358190076</v>
       </c>
       <c r="E29" t="n">
-        <v>6526600079</v>
+        <v>6512799563</v>
       </c>
       <c r="F29" t="n">
-        <v>174463.1971791661</v>
+        <v>198407.0909423394</v>
       </c>
       <c r="G29" t="n">
-        <v>252127.6793646905</v>
+        <v>223435.7518621804</v>
       </c>
       <c r="H29" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I29" t="n">
-        <v>205819693</v>
+        <v>207227977</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>280001547</v>
+        <v>279892627</v>
       </c>
       <c r="E30" t="n">
-        <v>1208642118</v>
+        <v>1208171958</v>
       </c>
       <c r="F30" t="n">
-        <v>199403.0807519673</v>
+        <v>200781.3688165352</v>
       </c>
       <c r="G30" t="n">
-        <v>240881.4879941438</v>
+        <v>232910.8724236653</v>
       </c>
       <c r="H30" t="n">
         <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>110881247</v>
+        <v>109650765</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5357868</v>
+        <v>5344779</v>
       </c>
       <c r="E31" t="n">
-        <v>5363932</v>
+        <v>5350829</v>
       </c>
       <c r="F31" t="n">
-        <v>111.1729703076131</v>
+        <v>111.1741564003552</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8270797506761</v>
+        <v>175.2675882487305</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>146407</v>
+        <v>144305</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19932493</v>
+        <v>19827326</v>
       </c>
       <c r="E32" t="n">
-        <v>49831232</v>
+        <v>49568316</v>
       </c>
       <c r="F32" t="n">
-        <v>1932.93032203146</v>
+        <v>2242.777319660947</v>
       </c>
       <c r="G32" t="n">
-        <v>4176.48149554919</v>
+        <v>4648.535599862033</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="I32" t="n">
-        <v>2213617</v>
+        <v>2188275</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19761723</v>
+        <v>19743889</v>
       </c>
       <c r="F33" t="n">
-        <v>798.569062053828</v>
+        <v>885.7354562554099</v>
       </c>
       <c r="G33" t="n">
-        <v>844.9562111748949</v>
+        <v>856.6155558901449</v>
       </c>
       <c r="H33" t="n">
         <v>0.51</v>
       </c>
       <c r="I33" t="n">
-        <v>43392</v>
+        <v>42237</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4240045</v>
+        <v>4198084</v>
       </c>
       <c r="E34" t="n">
-        <v>12213344</v>
+        <v>12092477</v>
       </c>
       <c r="F34" t="n">
-        <v>2993.219291911302</v>
+        <v>3138.976913811139</v>
       </c>
       <c r="G34" t="n">
-        <v>833.7346707407069</v>
+        <v>1143.176536047342</v>
       </c>
       <c r="H34" t="n">
-        <v>0.99</v>
+        <v>0.66</v>
       </c>
       <c r="I34" t="n">
-        <v>615338</v>
+        <v>601689</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1591662</v>
+        <v>1579262</v>
       </c>
       <c r="F35" t="n">
-        <v>20.18818751140692</v>
+        <v>20.64955067749727</v>
       </c>
       <c r="G35" t="n">
-        <v>278.2597505358158</v>
+        <v>278.1268973662358</v>
       </c>
       <c r="H35" t="n">
         <v>1.27</v>
       </c>
       <c r="I35" t="n">
-        <v>10236.61</v>
+        <v>10114.13</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15700463</v>
+        <v>15653966</v>
       </c>
       <c r="E36" t="n">
-        <v>76039848</v>
+        <v>75814654</v>
       </c>
       <c r="F36" t="n">
-        <v>2764.345808340337</v>
+        <v>3895.138260145995</v>
       </c>
       <c r="G36" t="n">
-        <v>7825.060567820637</v>
+        <v>7079.817461806353</v>
       </c>
       <c r="H36" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="I36" t="n">
-        <v>4256303</v>
+        <v>4250388</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1466964</v>
+        <v>1467813</v>
       </c>
       <c r="E37" t="n">
-        <v>9601237</v>
+        <v>9606797</v>
       </c>
       <c r="F37" t="n">
-        <v>104.4047482895505</v>
+        <v>212.2714175694208</v>
       </c>
       <c r="G37" t="n">
-        <v>30.45994387134952</v>
+        <v>336.5467618336876</v>
       </c>
       <c r="H37" t="n">
-        <v>2.04</v>
+        <v>1.03</v>
       </c>
       <c r="I37" t="n">
-        <v>700637</v>
+        <v>679789</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1931351840</v>
+        <v>1927626850</v>
       </c>
       <c r="F38" t="n">
-        <v>74311.98897401584</v>
+        <v>75815.35206843304</v>
       </c>
       <c r="G38" t="n">
-        <v>73295.53210251272</v>
+        <v>74756.45642524828</v>
       </c>
       <c r="H38" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="I38" t="n">
-        <v>28218696</v>
+        <v>28265545</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31838610</v>
+        <v>31975344</v>
       </c>
       <c r="E39" t="n">
-        <v>99135216</v>
+        <v>99560960</v>
       </c>
       <c r="F39" t="n">
-        <v>4562.851539308032</v>
+        <v>3559.290295702176</v>
       </c>
       <c r="G39" t="n">
-        <v>12252.92675521889</v>
+        <v>12849.73691380523</v>
       </c>
       <c r="H39" t="n">
-        <v>0.19</v>
+        <v>0.44</v>
       </c>
       <c r="I39" t="n">
-        <v>10272483</v>
+        <v>10254230</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>208396999</v>
+        <v>208155336</v>
       </c>
       <c r="E40" t="n">
-        <v>1180071858</v>
+        <v>1178703410</v>
       </c>
       <c r="F40" t="n">
-        <v>43355.47369826106</v>
+        <v>45157.94103115195</v>
       </c>
       <c r="G40" t="n">
-        <v>85068.10750464028</v>
+        <v>82693.13728633749</v>
       </c>
       <c r="H40" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="I40" t="n">
-        <v>69130889</v>
+        <v>68945262</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>145616875</v>
+        <v>145660257</v>
       </c>
       <c r="E41" t="n">
-        <v>1078643516</v>
+        <v>1078964866</v>
       </c>
       <c r="F41" t="n">
-        <v>142856.6031227634</v>
+        <v>124700.7267645869</v>
       </c>
       <c r="G41" t="n">
-        <v>204627.4426984901</v>
+        <v>204635.2916615386</v>
       </c>
       <c r="H41" t="n">
         <v>0.05</v>
       </c>
       <c r="I41" t="n">
-        <v>8384901</v>
+        <v>8236103</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>33026266</v>
+        <v>32391041</v>
       </c>
       <c r="E42" t="n">
-        <v>156825713</v>
+        <v>153809339</v>
       </c>
       <c r="F42" t="n">
-        <v>7967.011576940693</v>
+        <v>7434.609185681323</v>
       </c>
       <c r="G42" t="n">
-        <v>13277.39557188763</v>
+        <v>5400.197107786179</v>
       </c>
       <c r="H42" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="I42" t="n">
-        <v>1141541</v>
+        <v>1150392</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3454982</v>
+        <v>3528450</v>
       </c>
       <c r="E43" t="n">
-        <v>8067959</v>
+        <v>8239520</v>
       </c>
       <c r="F43" t="n">
-        <v>1040.724547607618</v>
+        <v>845.3542088417003</v>
       </c>
       <c r="G43" t="n">
-        <v>2754.746549414649</v>
+        <v>1858.401135534767</v>
       </c>
       <c r="H43" t="n">
-        <v>0.54</v>
+        <v>2.08</v>
       </c>
       <c r="I43" t="n">
-        <v>648211</v>
+        <v>655944</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>349144594</v>
+        <v>349585034</v>
       </c>
       <c r="E44" t="n">
-        <v>3141121268</v>
+        <v>3145083732</v>
       </c>
       <c r="F44" t="n">
-        <v>44076.90864644851</v>
+        <v>47389.79497583859</v>
       </c>
       <c r="G44" t="n">
-        <v>51099.89315552282</v>
+        <v>53958.72852655238</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I44" t="n">
-        <v>47003120</v>
+        <v>46939836</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>642436</v>
+        <v>642128</v>
       </c>
       <c r="F45" t="n">
-        <v>501.5085832706703</v>
+        <v>574.3206953773058</v>
       </c>
       <c r="G45" t="n">
-        <v>305.3416092294701</v>
+        <v>325.118785272905</v>
       </c>
       <c r="H45" t="n">
         <v>0.97</v>
       </c>
       <c r="I45" t="n">
-        <v>5214.36</v>
+        <v>5230.23</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1573772</v>
+        <v>1577772</v>
       </c>
       <c r="E46" t="n">
-        <v>13114767</v>
+        <v>13148099</v>
       </c>
       <c r="F46" t="n">
-        <v>312.2556010661179</v>
+        <v>286.4748946473869</v>
       </c>
       <c r="G46" t="n">
-        <v>1718.926662381247</v>
+        <v>1367.552155637743</v>
       </c>
       <c r="H46" t="n">
         <v>0.08</v>
       </c>
       <c r="I46" t="n">
-        <v>25646</v>
+        <v>25277</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4932857</v>
+        <v>4948098</v>
       </c>
       <c r="E47" t="n">
-        <v>17430079</v>
+        <v>17483934</v>
       </c>
       <c r="F47" t="n">
-        <v>862.7939204720568</v>
+        <v>960.6111924073488</v>
       </c>
       <c r="G47" t="n">
-        <v>1671.1174573642</v>
+        <v>1660.261643787477</v>
       </c>
       <c r="H47" t="n">
-        <v>0.34</v>
+        <v>0.29</v>
       </c>
       <c r="I47" t="n">
-        <v>112106</v>
+        <v>112780</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50355892</v>
+        <v>51033635</v>
       </c>
       <c r="E48" t="n">
-        <v>291539808</v>
+        <v>295463661</v>
       </c>
       <c r="F48" t="n">
-        <v>15933.66691787999</v>
+        <v>15936.0045067078</v>
       </c>
       <c r="G48" t="n">
-        <v>6295.612163540094</v>
+        <v>6435.963844918412</v>
       </c>
       <c r="H48" t="n">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
       <c r="I48" t="n">
-        <v>39062357</v>
+        <v>39485652</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2332847</v>
+        <v>2317972</v>
       </c>
       <c r="E49" t="n">
-        <v>12817059</v>
+        <v>12735332</v>
       </c>
       <c r="F49" t="n">
-        <v>167.1781153921451</v>
+        <v>170.9765366073866</v>
       </c>
       <c r="G49" t="n">
-        <v>218.0747322009253</v>
+        <v>212.8652258588483</v>
       </c>
       <c r="H49" t="n">
         <v>1.56</v>
       </c>
       <c r="I49" t="n">
-        <v>115083</v>
+        <v>112977</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14289668</v>
+        <v>14196098</v>
       </c>
       <c r="E50" t="n">
-        <v>14338297</v>
+        <v>14244409</v>
       </c>
       <c r="F50" t="n">
-        <v>4170.325012473353</v>
+        <v>4201.095431554901</v>
       </c>
       <c r="G50" t="n">
-        <v>9712.003145052906</v>
+        <v>4612.705272504009</v>
       </c>
       <c r="H50" t="n">
         <v>0.62</v>
       </c>
       <c r="I50" t="n">
-        <v>5732436</v>
+        <v>6387056</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22796549</v>
+        <v>22685608</v>
       </c>
       <c r="E51" t="n">
-        <v>68334823</v>
+        <v>68002267</v>
       </c>
       <c r="F51" t="n">
-        <v>25519.89180869628</v>
+        <v>11660.6932629264</v>
       </c>
       <c r="G51" t="n">
-        <v>26049.03395129156</v>
+        <v>26217.00008012708</v>
       </c>
       <c r="H51" t="n">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="I51" t="n">
-        <v>3562783</v>
+        <v>3516797</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15962762</v>
+        <v>15941537</v>
       </c>
       <c r="E52" t="n">
-        <v>97841015</v>
+        <v>97710921</v>
       </c>
       <c r="F52" t="n">
-        <v>7796.768442738545</v>
+        <v>7283.445059805422</v>
       </c>
       <c r="G52" t="n">
-        <v>9304.97509349234</v>
+        <v>9910.092764697665</v>
       </c>
       <c r="H52" t="n">
         <v>0.19</v>
       </c>
       <c r="I52" t="n">
-        <v>10869350</v>
+        <v>10824366</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>50426424</v>
+        <v>51101329</v>
       </c>
       <c r="E53" t="n">
-        <v>217231523</v>
+        <v>220138939</v>
       </c>
       <c r="F53" t="n">
-        <v>22022.12542752819</v>
+        <v>21769.63618354122</v>
       </c>
       <c r="G53" t="n">
-        <v>26288.16765649375</v>
+        <v>26449.20155938245</v>
       </c>
       <c r="H53" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="I53" t="n">
-        <v>10068778</v>
+        <v>10266366</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1039632</v>
+        <v>1039201</v>
       </c>
       <c r="E54" t="n">
-        <v>3038663</v>
+        <v>3037404</v>
       </c>
       <c r="F54" t="n">
-        <v>0.887912791295986</v>
+        <v>0.8879222643442859</v>
       </c>
       <c r="G54" t="n">
-        <v>215.8720488727303</v>
+        <v>211.4002666646213</v>
       </c>
       <c r="H54" t="n">
         <v>1.28</v>
       </c>
       <c r="I54" t="n">
-        <v>18529.94</v>
+        <v>20539</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37868845</v>
+        <v>37784998</v>
       </c>
       <c r="E55" t="n">
-        <v>95487047</v>
+        <v>95275625</v>
       </c>
       <c r="F55" t="n">
-        <v>8001.263645454629</v>
+        <v>16146.02592842936</v>
       </c>
       <c r="G55" t="n">
-        <v>6894.904824685304</v>
+        <v>7076.055388393578</v>
       </c>
       <c r="H55" t="n">
         <v>0.4</v>
       </c>
       <c r="I55" t="n">
-        <v>3536878</v>
+        <v>3555098</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>29543990</v>
+        <v>29546664</v>
       </c>
       <c r="E56" t="n">
-        <v>70189175</v>
+        <v>70195528</v>
       </c>
       <c r="F56" t="n">
-        <v>10248.0856811631</v>
+        <v>12229.88395321186</v>
       </c>
       <c r="G56" t="n">
-        <v>14896.58731175859</v>
+        <v>18199.23996132354</v>
       </c>
       <c r="H56" t="n">
         <v>0.14</v>
       </c>
       <c r="I56" t="n">
-        <v>454861</v>
+        <v>427341</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12776709</v>
+        <v>12773828</v>
       </c>
       <c r="E57" t="n">
-        <v>19449033</v>
+        <v>19444647</v>
       </c>
       <c r="F57" t="n">
-        <v>7251.402805577949</v>
+        <v>2701.162320792672</v>
       </c>
       <c r="G57" t="n">
-        <v>7896.647264879462</v>
+        <v>3221.160393653804</v>
       </c>
       <c r="H57" t="n">
-        <v>0.27</v>
+        <v>0.36</v>
       </c>
       <c r="I57" t="n">
-        <v>678100</v>
+        <v>669076</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>306372406</v>
+        <v>306107797</v>
       </c>
       <c r="E58" t="n">
-        <v>306372406</v>
+        <v>306107797</v>
       </c>
       <c r="F58" t="n">
-        <v>83910.45770462813</v>
+        <v>78044.23460729679</v>
       </c>
       <c r="G58" t="n">
-        <v>78810.72403521152</v>
+        <v>82533.07186256272</v>
       </c>
       <c r="H58" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>71881596</v>
+        <v>71495902</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11704199</v>
+        <v>11672426</v>
       </c>
       <c r="F59" t="n">
-        <v>535.0751753030223</v>
+        <v>266.1435485978892</v>
       </c>
       <c r="G59" t="n">
-        <v>4.060085747574285</v>
+        <v>7.195943013499071</v>
       </c>
       <c r="H59" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="I59" t="n">
-        <v>80904</v>
+        <v>77913</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>93425283</v>
+        <v>93260580</v>
       </c>
       <c r="E60" t="n">
-        <v>538356777</v>
+        <v>537407686</v>
       </c>
       <c r="F60" t="n">
-        <v>99182.64503648531</v>
+        <v>97510.65836717088</v>
       </c>
       <c r="G60" t="n">
-        <v>96405.17064860101</v>
+        <v>96965.35320386432</v>
       </c>
       <c r="H60" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="I60" t="n">
-        <v>18277976</v>
+        <v>18308781</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9502760</v>
+        <v>9545987</v>
       </c>
       <c r="E61" t="n">
-        <v>9502760</v>
+        <v>9545987</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.2</v>
+        <v>5.15</v>
       </c>
       <c r="I61" t="n">
-        <v>2169035</v>
+        <v>2194588</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>31836184</v>
+        <v>31781664</v>
       </c>
       <c r="E62" t="n">
-        <v>142543655</v>
+        <v>142299547</v>
       </c>
       <c r="F62" t="n">
-        <v>17401.56458336838</v>
+        <v>27382.91636046962</v>
       </c>
       <c r="G62" t="n">
-        <v>21269.89886151776</v>
+        <v>20799.04397680268</v>
       </c>
       <c r="H62" t="n">
         <v>0.7</v>
       </c>
       <c r="I62" t="n">
-        <v>7939074</v>
+        <v>7933293</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12935835</v>
+        <v>12917619</v>
       </c>
       <c r="E63" t="n">
-        <v>25860375</v>
+        <v>25823960</v>
       </c>
       <c r="F63" t="n">
-        <v>2385.666382786362</v>
+        <v>2387.494241599887</v>
       </c>
       <c r="G63" t="n">
-        <v>2325.513399084785</v>
+        <v>2337.156964776784</v>
       </c>
       <c r="H63" t="n">
         <v>0.44</v>
       </c>
       <c r="I63" t="n">
-        <v>22153</v>
+        <v>22143</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1451078</v>
+        <v>1463192</v>
       </c>
       <c r="F64" t="n">
-        <v>119.6871985390529</v>
+        <v>119.6884754692016</v>
       </c>
       <c r="G64" t="n">
-        <v>111.0836113061155</v>
+        <v>57.1384564486818</v>
       </c>
       <c r="H64" t="n">
         <v>2.17</v>
       </c>
       <c r="I64" t="n">
-        <v>47043</v>
+        <v>48177</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>52265477</v>
+        <v>52170466</v>
       </c>
       <c r="E65" t="n">
-        <v>338927706</v>
+        <v>338311588</v>
       </c>
       <c r="F65" t="n">
-        <v>21505.93658202669</v>
+        <v>22702.33261057749</v>
       </c>
       <c r="G65" t="n">
-        <v>22745.00263240796</v>
+        <v>23471.73035224788</v>
       </c>
       <c r="H65" t="n">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="I65" t="n">
-        <v>17577807</v>
+        <v>17722531</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4872304</v>
+        <v>4825010</v>
       </c>
       <c r="F66" t="n">
-        <v>1231.305735404734</v>
+        <v>1181.198033224956</v>
       </c>
       <c r="G66" t="n">
-        <v>1248.6116371336</v>
+        <v>1450.641903115414</v>
       </c>
       <c r="H66" t="n">
-        <v>0.58</v>
+        <v>0.74</v>
       </c>
       <c r="I66" t="n">
-        <v>201973</v>
+        <v>201415</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125073928</v>
+        <v>124928900</v>
       </c>
       <c r="E67" t="n">
-        <v>2071326684</v>
+        <v>2068924909</v>
       </c>
       <c r="F67" t="n">
-        <v>22320.45460823986</v>
+        <v>21972.64757091021</v>
       </c>
       <c r="G67" t="n">
-        <v>21346.86945749602</v>
+        <v>23047.44738540818</v>
       </c>
       <c r="H67" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I67" t="n">
-        <v>4814332</v>
+        <v>4861460</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25152315</v>
+        <v>25072086</v>
       </c>
       <c r="E68" t="n">
-        <v>150491356</v>
+        <v>150011332</v>
       </c>
       <c r="F68" t="n">
-        <v>45333.09451156449</v>
+        <v>46085.49103773932</v>
       </c>
       <c r="G68" t="n">
-        <v>46465.13306251057</v>
+        <v>10681.22805769298</v>
       </c>
       <c r="H68" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I68" t="n">
-        <v>13123241</v>
+        <v>13160586</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23608234</v>
+        <v>23504400</v>
       </c>
       <c r="E70" t="n">
-        <v>23608234</v>
+        <v>23504400</v>
       </c>
       <c r="F70" t="n">
-        <v>3868.058095444223</v>
+        <v>3424.886410814411</v>
       </c>
       <c r="G70" t="n">
-        <v>3425.97411144695</v>
+        <v>3189.273382910101</v>
       </c>
       <c r="H70" t="n">
         <v>0.27</v>
       </c>
       <c r="I70" t="n">
-        <v>2025659</v>
+        <v>2029900</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35634106</v>
+        <v>35579545</v>
       </c>
       <c r="E71" t="n">
-        <v>177830616</v>
+        <v>177558333</v>
       </c>
       <c r="F71" t="n">
-        <v>21362.24514941018</v>
+        <v>15629.82274615619</v>
       </c>
       <c r="G71" t="n">
-        <v>52897.30724473537</v>
+        <v>47440.87451884949</v>
       </c>
       <c r="H71" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>10666756</v>
+        <v>10693728</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>169557</v>
+        <v>169558</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>12939.16</v>
+        <v>13433.15</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>328189549</v>
+        <v>327205270</v>
       </c>
       <c r="E73" t="n">
-        <v>607225509</v>
+        <v>605404369</v>
       </c>
       <c r="F73" t="n">
-        <v>85255.71955617731</v>
+        <v>85855.35009664053</v>
       </c>
       <c r="G73" t="n">
-        <v>93281.44829893329</v>
+        <v>92028.16415771015</v>
       </c>
       <c r="H73" t="n">
         <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>14609495</v>
+        <v>14631381</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11064997</v>
+        <v>11031905</v>
       </c>
       <c r="E74" t="n">
-        <v>32824660</v>
+        <v>32721477</v>
       </c>
       <c r="F74" t="n">
-        <v>1355.105596295622</v>
+        <v>1519.464811393188</v>
       </c>
       <c r="G74" t="n">
-        <v>1170.567225164</v>
+        <v>1050.202383359596</v>
       </c>
       <c r="H74" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="I74" t="n">
-        <v>7086450</v>
+        <v>7407887</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8292353</v>
+        <v>8310033</v>
       </c>
       <c r="E75" t="n">
-        <v>11814704</v>
+        <v>11839893</v>
       </c>
       <c r="F75" t="n">
-        <v>3885.320318108991</v>
+        <v>3760.756082292594</v>
       </c>
       <c r="G75" t="n">
-        <v>629.9336555092901</v>
+        <v>652.0653475214654</v>
       </c>
       <c r="H75" t="n">
-        <v>0.5</v>
+        <v>0.34</v>
       </c>
       <c r="I75" t="n">
-        <v>394066</v>
+        <v>400897</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16488751</v>
+        <v>16632659</v>
       </c>
       <c r="F76" t="n">
-        <v>491.1106420260652</v>
+        <v>491.1158816339164</v>
       </c>
       <c r="G76" t="n">
-        <v>0.4935131678187304</v>
+        <v>0.493518433058877</v>
       </c>
       <c r="H76" t="n">
         <v>1.95</v>
       </c>
       <c r="I76" t="n">
-        <v>1032142</v>
+        <v>1031295</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>64187078</v>
+        <v>64250933</v>
       </c>
       <c r="E77" t="n">
-        <v>106191069</v>
+        <v>106296710</v>
       </c>
       <c r="F77" t="n">
-        <v>10342.81751311862</v>
+        <v>12313.37300270063</v>
       </c>
       <c r="G77" t="n">
-        <v>12239.36354808528</v>
+        <v>6329.342210636735</v>
       </c>
       <c r="H77" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="I77" t="n">
-        <v>7131830</v>
+        <v>7163138</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5879800</v>
+        <v>5858951</v>
       </c>
       <c r="E78" t="n">
-        <v>5879800</v>
+        <v>5858951</v>
       </c>
       <c r="F78" t="n">
-        <v>31.20184485716848</v>
+        <v>100.4456324823028</v>
       </c>
       <c r="G78" t="n">
-        <v>1024.278977882881</v>
+        <v>255.9163083406218</v>
       </c>
       <c r="H78" t="n">
-        <v>3.57</v>
+        <v>2.38</v>
       </c>
       <c r="I78" t="n">
-        <v>1253315</v>
+        <v>1254944</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>65218</v>
+        <v>64568</v>
       </c>
       <c r="E79" t="n">
-        <v>340282</v>
+        <v>336890</v>
       </c>
       <c r="F79" t="n">
-        <v>12.28877216287716</v>
+        <v>458.1765527707618</v>
       </c>
       <c r="G79" t="n">
-        <v>191.5848966808192</v>
+        <v>24.71532524134037</v>
       </c>
       <c r="H79" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="I79" t="n">
-        <v>305026</v>
+        <v>304046</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26326786</v>
+        <v>26404226</v>
       </c>
       <c r="F80" t="n">
-        <v>408.8676509714971</v>
+        <v>464.3411686903888</v>
       </c>
       <c r="G80" t="n">
-        <v>3075.249298317084</v>
+        <v>6831.413860609061</v>
       </c>
       <c r="H80" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="I80" t="n">
-        <v>70452</v>
+        <v>67023</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>628379745</v>
+        <v>626262183</v>
       </c>
       <c r="E81" t="n">
-        <v>2433622043</v>
+        <v>2425421034</v>
       </c>
       <c r="F81" t="n">
-        <v>185561.3129870906</v>
+        <v>184848.1830847744</v>
       </c>
       <c r="G81" t="n">
-        <v>179883.7632700814</v>
+        <v>173540.5527539755</v>
       </c>
       <c r="H81" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>38820567</v>
+        <v>38849145</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7619156</v>
+        <v>7617830</v>
       </c>
       <c r="E82" t="n">
-        <v>10916733</v>
+        <v>10914803</v>
       </c>
       <c r="F82" t="n">
-        <v>1149.712724160225</v>
+        <v>1188.491618690447</v>
       </c>
       <c r="G82" t="n">
-        <v>1556.784717822921</v>
+        <v>1238.932844021618</v>
       </c>
       <c r="H82" t="n">
         <v>0.91</v>
       </c>
       <c r="I82" t="n">
-        <v>207922</v>
+        <v>207849</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>116293988</v>
+        <v>115968058</v>
       </c>
       <c r="E83" t="n">
-        <v>1080520928</v>
+        <v>1077492619</v>
       </c>
       <c r="F83" t="n">
-        <v>42895.05687375101</v>
+        <v>42776.03043170591</v>
       </c>
       <c r="G83" t="n">
-        <v>44947.17390207999</v>
+        <v>45909.86576278483</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>9793894</v>
+        <v>9790335</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1137278</v>
+        <v>1124812</v>
       </c>
       <c r="E84" t="n">
-        <v>4403789</v>
+        <v>4355518</v>
       </c>
       <c r="F84" t="n">
-        <v>1169.258259484272</v>
+        <v>1310.179053634235</v>
       </c>
       <c r="G84" t="n">
-        <v>1380.684621175181</v>
+        <v>1113.476796707728</v>
       </c>
       <c r="H84" t="n">
-        <v>0.23</v>
+        <v>1.14</v>
       </c>
       <c r="I84" t="n">
-        <v>385465</v>
+        <v>399599</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>127877653</v>
+        <v>127831282</v>
       </c>
       <c r="E85" t="n">
-        <v>490559260</v>
+        <v>490381374</v>
       </c>
       <c r="F85" t="n">
-        <v>83757.12831183009</v>
+        <v>67316.23072738074</v>
       </c>
       <c r="G85" t="n">
-        <v>90356.79160101119</v>
+        <v>86045.61186420709</v>
       </c>
       <c r="H85" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="I85" t="n">
-        <v>36865099</v>
+        <v>37558826</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5318034</v>
+        <v>5315653</v>
       </c>
       <c r="E86" t="n">
-        <v>19761915</v>
+        <v>19753067</v>
       </c>
       <c r="F86" t="n">
-        <v>3729.441913956838</v>
+        <v>3729.493875272539</v>
       </c>
       <c r="G86" t="n">
-        <v>3410.10107746949</v>
+        <v>3409.931648639531</v>
       </c>
       <c r="H86" t="n">
         <v>0.25</v>
       </c>
       <c r="I86" t="n">
-        <v>80711</v>
+        <v>81190</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>33735148</v>
+        <v>33319704</v>
       </c>
       <c r="F87" t="n">
-        <v>2741.936120261359</v>
+        <v>5571.001802393375</v>
       </c>
       <c r="G87" t="n">
-        <v>2721.738162774803</v>
+        <v>1179.921757391046</v>
       </c>
       <c r="H87" t="n">
         <v>0.42</v>
       </c>
       <c r="I87" t="n">
-        <v>5389874</v>
+        <v>5378776</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>25130774</v>
+        <v>25210214</v>
       </c>
       <c r="F88" t="n">
-        <v>1423.392742872468</v>
+        <v>1222.516227357677</v>
       </c>
       <c r="G88" t="n">
-        <v>734.5143146190793</v>
+        <v>1404.884906686277</v>
       </c>
       <c r="H88" t="n">
-        <v>0.39</v>
+        <v>0.66</v>
       </c>
       <c r="I88" t="n">
-        <v>17231.29</v>
+        <v>17267.04</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>89158383</v>
+        <v>89085615</v>
       </c>
       <c r="E89" t="n">
-        <v>329574303</v>
+        <v>329304558</v>
       </c>
       <c r="F89" t="n">
-        <v>1230.225214095967</v>
+        <v>1059.119778883618</v>
       </c>
       <c r="G89" t="n">
-        <v>1550.265145050348</v>
+        <v>1445.249279861214</v>
       </c>
       <c r="H89" t="n">
-        <v>0.66</v>
+        <v>1.1</v>
       </c>
       <c r="I89" t="n">
-        <v>221945</v>
+        <v>216301</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>21180218</v>
+        <v>21032337</v>
       </c>
       <c r="E90" t="n">
-        <v>21180218</v>
+        <v>21032337</v>
       </c>
       <c r="F90" t="n">
-        <v>3032.58073664113</v>
+        <v>3369.352648652129</v>
       </c>
       <c r="G90" t="n">
-        <v>3609.105956427924</v>
+        <v>2689.481987139748</v>
       </c>
       <c r="H90" t="n">
         <v>0.68</v>
       </c>
       <c r="I90" t="n">
-        <v>7140973</v>
+        <v>7140790</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3805360</v>
+        <v>3805509</v>
       </c>
       <c r="E91" t="n">
-        <v>8303247</v>
+        <v>8303572</v>
       </c>
       <c r="F91" t="n">
-        <v>1883.220200655096</v>
+        <v>1759.247609360347</v>
       </c>
       <c r="G91" t="n">
-        <v>2345.682691042938</v>
+        <v>2294.444260464385</v>
       </c>
       <c r="H91" t="n">
         <v>0.6</v>
       </c>
       <c r="I91" t="n">
-        <v>1873480</v>
+        <v>1854584</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>511846539</v>
+        <v>510246437</v>
       </c>
       <c r="E92" t="n">
-        <v>1781695204</v>
+        <v>1776125384</v>
       </c>
       <c r="F92" t="n">
-        <v>172931.2901965506</v>
+        <v>171970.1968992823</v>
       </c>
       <c r="G92" t="n">
-        <v>183004.1187482741</v>
+        <v>177707.4073486317</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>35324745</v>
+        <v>35410977</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2634233</v>
+        <v>2633052</v>
       </c>
       <c r="E93" t="n">
-        <v>10536933</v>
+        <v>10532207</v>
       </c>
       <c r="F93" t="n">
-        <v>2302.98467800339</v>
+        <v>1896.541862413846</v>
       </c>
       <c r="G93" t="n">
-        <v>3847.092791594009</v>
+        <v>3626.200580055589</v>
       </c>
       <c r="H93" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="I93" t="n">
-        <v>7007990</v>
+        <v>7011125</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>227186923</v>
+        <v>227110853</v>
       </c>
       <c r="E94" t="n">
-        <v>698514291</v>
+        <v>698280405</v>
       </c>
       <c r="F94" t="n">
-        <v>112797.4243780625</v>
+        <v>105610.3815061882</v>
       </c>
       <c r="G94" t="n">
-        <v>106050.8875134386</v>
+        <v>105738.1842662339</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>16827056</v>
+        <v>16914121</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>148542646</v>
+        <v>148077366</v>
       </c>
       <c r="E95" t="n">
-        <v>388063543</v>
+        <v>386848011</v>
       </c>
       <c r="F95" t="n">
-        <v>25711.21189563146</v>
+        <v>32001.77998788547</v>
       </c>
       <c r="G95" t="n">
-        <v>31155.74197863649</v>
+        <v>31212.49695435067</v>
       </c>
       <c r="H95" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I95" t="n">
-        <v>8875263</v>
+        <v>8712839</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>411065469</v>
+        <v>410188350</v>
       </c>
       <c r="E96" t="n">
-        <v>2348945539</v>
+        <v>2343933426</v>
       </c>
       <c r="F96" t="n">
-        <v>23477.55138252812</v>
+        <v>20001.32324506381</v>
       </c>
       <c r="G96" t="n">
-        <v>45356.18552182248</v>
+        <v>42521.2346438037</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>43083745</v>
+        <v>42942483</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>629997707</v>
+        <v>640829500</v>
       </c>
       <c r="E2" t="n">
-        <v>1222497410</v>
+        <v>1243536784</v>
       </c>
       <c r="F2" t="n">
-        <v>22329.31024973482</v>
+        <v>19815.97038689415</v>
       </c>
       <c r="G2" t="n">
-        <v>33988.63459820174</v>
+        <v>38104.28827274174</v>
       </c>
       <c r="H2" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>22764048</v>
+        <v>22686568</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1382147</v>
+        <v>1464096</v>
       </c>
       <c r="E3" t="n">
-        <v>4467667</v>
+        <v>4732558</v>
       </c>
       <c r="F3" t="n">
-        <v>1632.068006830404</v>
+        <v>2244.922163860332</v>
       </c>
       <c r="G3" t="n">
-        <v>4759.211455265126</v>
+        <v>4913.38006761725</v>
       </c>
       <c r="H3" t="n">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="I3" t="n">
-        <v>145984</v>
+        <v>176652</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>257201314</v>
+        <v>259257928</v>
       </c>
       <c r="E4" t="n">
-        <v>1612873290</v>
+        <v>1625770025</v>
       </c>
       <c r="F4" t="n">
-        <v>148334.6675983385</v>
+        <v>132098.3982358402</v>
       </c>
       <c r="G4" t="n">
-        <v>144867.1708780827</v>
+        <v>144073.4032901069</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>17190449</v>
+        <v>17414422</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>152114990</v>
+        <v>154054225</v>
       </c>
       <c r="E5" t="n">
-        <v>168567181</v>
+        <v>170716156</v>
       </c>
       <c r="F5" t="n">
-        <v>4915.712002193553</v>
+        <v>8640.981915305478</v>
       </c>
       <c r="G5" t="n">
-        <v>13906.32314028636</v>
+        <v>14237.60061958352</v>
       </c>
       <c r="H5" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="I5" t="n">
-        <v>40098199</v>
+        <v>43080564</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>702027</v>
+        <v>700082</v>
       </c>
       <c r="E6" t="n">
-        <v>13638403</v>
+        <v>13600623</v>
       </c>
       <c r="F6" t="n">
-        <v>6728.419387423294</v>
+        <v>6754.426947685895</v>
       </c>
       <c r="G6" t="n">
-        <v>427.0411207539531</v>
+        <v>501.869702093382</v>
       </c>
       <c r="H6" t="n">
-        <v>0.59</v>
+        <v>1.17</v>
       </c>
       <c r="I6" t="n">
-        <v>25774</v>
+        <v>22753</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>478550583</v>
+        <v>506961944</v>
       </c>
       <c r="E7" t="n">
-        <v>478550585</v>
+        <v>506961944</v>
       </c>
       <c r="F7" t="n">
-        <v>29723.41304587047</v>
+        <v>34331.91346737205</v>
       </c>
       <c r="G7" t="n">
-        <v>52672.47952204249</v>
+        <v>36996.28298871141</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I7" t="n">
-        <v>63814309</v>
+        <v>70987448</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4746843</v>
+        <v>4756569</v>
       </c>
       <c r="E8" t="n">
-        <v>4746843</v>
+        <v>4756569</v>
       </c>
       <c r="F8" t="n">
-        <v>750.2343754319904</v>
+        <v>664.6252766001869</v>
       </c>
       <c r="G8" t="n">
-        <v>1460.783809289234</v>
+        <v>2035.320769436054</v>
       </c>
       <c r="H8" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="I8" t="n">
-        <v>2051493</v>
+        <v>2045745</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1724016</v>
+        <v>1729434</v>
       </c>
       <c r="F9" t="n">
-        <v>2694.630747068394</v>
+        <v>4536.572471723059</v>
       </c>
       <c r="G9" t="n">
-        <v>289.3050949653411</v>
+        <v>4007.103915748839</v>
       </c>
       <c r="H9" t="n">
-        <v>1.09</v>
+        <v>0.61</v>
       </c>
       <c r="I9" t="n">
-        <v>163367</v>
+        <v>165895</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1487676</v>
+        <v>1945410</v>
       </c>
       <c r="F10" t="n">
-        <v>261.7361266351406</v>
+        <v>808.6867328657893</v>
       </c>
       <c r="G10" t="n">
-        <v>4327.902126388008</v>
+        <v>38.07343511993378</v>
       </c>
       <c r="H10" t="n">
-        <v>0.33</v>
+        <v>1.09</v>
       </c>
       <c r="I10" t="n">
-        <v>346758</v>
+        <v>450379</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>110346396</v>
+        <v>110378227</v>
       </c>
       <c r="E11" t="n">
-        <v>207879529</v>
+        <v>207939495</v>
       </c>
       <c r="F11" t="n">
-        <v>877.4905992255038</v>
+        <v>2418.098321313202</v>
       </c>
       <c r="G11" t="n">
-        <v>147.9110018553414</v>
+        <v>85.628266317475</v>
       </c>
       <c r="H11" t="n">
-        <v>1.48</v>
+        <v>0.03</v>
       </c>
       <c r="I11" t="n">
-        <v>4191022</v>
+        <v>4116175</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12439902</v>
+        <v>12220007</v>
       </c>
       <c r="E12" t="n">
-        <v>30960665</v>
+        <v>30413387</v>
       </c>
       <c r="F12" t="n">
-        <v>582.3279552755649</v>
+        <v>579.9152388830447</v>
       </c>
       <c r="G12" t="n">
-        <v>1255.211318943274</v>
+        <v>3037.736439564804</v>
       </c>
       <c r="H12" t="n">
-        <v>0.61</v>
+        <v>0.49</v>
       </c>
       <c r="I12" t="n">
-        <v>1319424</v>
+        <v>1354562</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>115406535</v>
+        <v>116061735</v>
       </c>
       <c r="E13" t="n">
-        <v>448863778</v>
+        <v>451369025</v>
       </c>
       <c r="F13" t="n">
-        <v>31534.19048716805</v>
+        <v>28082.89078543998</v>
       </c>
       <c r="G13" t="n">
-        <v>34219.179700232</v>
+        <v>35264.22582213327</v>
       </c>
       <c r="H13" t="n">
         <v>0.27</v>
       </c>
       <c r="I13" t="n">
-        <v>11127673</v>
+        <v>11240785</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5094190</v>
+        <v>5083014</v>
       </c>
       <c r="E14" t="n">
-        <v>7498924</v>
+        <v>7482473</v>
       </c>
       <c r="F14" t="n">
-        <v>226.5211663620359</v>
+        <v>0.1496722169128787</v>
       </c>
       <c r="G14" t="n">
-        <v>224.6925100960429</v>
+        <v>2531.480541681892</v>
       </c>
       <c r="H14" t="n">
-        <v>2.67</v>
+        <v>1.37</v>
       </c>
       <c r="I14" t="n">
-        <v>584364</v>
+        <v>585676</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>145501226</v>
+        <v>148024507</v>
       </c>
       <c r="E15" t="n">
-        <v>145501226</v>
+        <v>148024507</v>
       </c>
       <c r="F15" t="n">
-        <v>45056.89591910649</v>
+        <v>44467.41211479697</v>
       </c>
       <c r="G15" t="n">
-        <v>83767.67958774255</v>
+        <v>86237.43102553148</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I15" t="n">
-        <v>74951304</v>
+        <v>75974098</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69068854</v>
+        <v>69488738</v>
       </c>
       <c r="E16" t="n">
-        <v>354199249</v>
+        <v>356352501</v>
       </c>
       <c r="F16" t="n">
-        <v>9831.389329629086</v>
+        <v>7137.316423697136</v>
       </c>
       <c r="G16" t="n">
-        <v>35657.65940992686</v>
+        <v>33673.75289491193</v>
       </c>
       <c r="H16" t="n">
         <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>25381544</v>
+        <v>24921972</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>268433015</v>
+        <v>275856103</v>
       </c>
       <c r="E17" t="n">
-        <v>268433015</v>
+        <v>275856103</v>
       </c>
       <c r="F17" t="n">
-        <v>63020.66595350232</v>
+        <v>54867.82250495093</v>
       </c>
       <c r="G17" t="n">
-        <v>55456.21129856791</v>
+        <v>48521.30752319418</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>15080851</v>
+        <v>19947968</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2557377</v>
+        <v>2560653</v>
       </c>
       <c r="E18" t="n">
-        <v>6538155</v>
+        <v>6546531</v>
       </c>
       <c r="F18" t="n">
-        <v>1064.818292119471</v>
+        <v>1036.368419543845</v>
       </c>
       <c r="G18" t="n">
-        <v>1146.673913687807</v>
+        <v>1234.715635633435</v>
       </c>
       <c r="H18" t="n">
         <v>0.3</v>
       </c>
       <c r="I18" t="n">
-        <v>104984</v>
+        <v>104647</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>84041992</v>
+        <v>89009550</v>
       </c>
       <c r="E19" t="n">
-        <v>235108520</v>
+        <v>248981623</v>
       </c>
       <c r="F19" t="n">
-        <v>15464.06136713158</v>
+        <v>16134.55752425743</v>
       </c>
       <c r="G19" t="n">
-        <v>16391.06448829494</v>
+        <v>22041.0660623763</v>
       </c>
       <c r="H19" t="n">
-        <v>0.26</v>
+        <v>0.17</v>
       </c>
       <c r="I19" t="n">
-        <v>47409169</v>
+        <v>53048069</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1618741</v>
+        <v>1603321</v>
       </c>
       <c r="E20" t="n">
-        <v>9294208</v>
+        <v>9205673</v>
       </c>
       <c r="F20" t="n">
-        <v>215.0707462146173</v>
+        <v>65.92462166100114</v>
       </c>
       <c r="G20" t="n">
-        <v>798.3216076411368</v>
+        <v>822.9833132731387</v>
       </c>
       <c r="H20" t="n">
-        <v>1.45</v>
+        <v>1.08</v>
       </c>
       <c r="I20" t="n">
-        <v>294824</v>
+        <v>234009</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>176504</v>
+        <v>177864</v>
       </c>
       <c r="E21" t="n">
-        <v>1191954</v>
+        <v>1201136</v>
       </c>
       <c r="F21" t="n">
-        <v>6.448114516421255</v>
+        <v>4.661779648886212</v>
       </c>
       <c r="G21" t="n">
-        <v>10.23866958528585</v>
+        <v>5.35659838376582</v>
       </c>
       <c r="H21" t="n">
         <v>0.41</v>
       </c>
       <c r="I21" t="n">
-        <v>2875695</v>
+        <v>2901853</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>258918</v>
+        <v>259587</v>
       </c>
       <c r="F22" t="n">
-        <v>21.14127346175412</v>
+        <v>21.14244332340461</v>
       </c>
       <c r="G22" t="n">
-        <v>186.5414408539881</v>
+        <v>183.6901864423166</v>
       </c>
       <c r="H22" t="n">
         <v>1.75</v>
       </c>
       <c r="I22" t="n">
-        <v>3320.55</v>
+        <v>3266.6</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79317069</v>
+        <v>84050933</v>
       </c>
       <c r="E23" t="n">
-        <v>165416368</v>
+        <v>175239446</v>
       </c>
       <c r="F23" t="n">
-        <v>37145.15131414201</v>
+        <v>24232.58744549964</v>
       </c>
       <c r="G23" t="n">
-        <v>38779.62240357368</v>
+        <v>30240.82189752024</v>
       </c>
       <c r="H23" t="n">
-        <v>0.22</v>
+        <v>0.42</v>
       </c>
       <c r="I23" t="n">
-        <v>20415923</v>
+        <v>22952650</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>213709963</v>
+        <v>211287856</v>
       </c>
       <c r="E24" t="n">
-        <v>742447726</v>
+        <v>734033107</v>
       </c>
       <c r="F24" t="n">
-        <v>62535.4364419266</v>
+        <v>63760.30972176929</v>
       </c>
       <c r="G24" t="n">
-        <v>61370.10201776063</v>
+        <v>62417.08935500602</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>30868490</v>
+        <v>33578366</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>120477137</v>
+        <v>121683017</v>
       </c>
       <c r="E25" t="n">
-        <v>511575583</v>
+        <v>516612629</v>
       </c>
       <c r="F25" t="n">
-        <v>18512.49183349156</v>
+        <v>14911.44332322926</v>
       </c>
       <c r="G25" t="n">
-        <v>17104.79209828145</v>
+        <v>19727.05087849529</v>
       </c>
       <c r="H25" t="n">
-        <v>0.29</v>
+        <v>0.39</v>
       </c>
       <c r="I25" t="n">
-        <v>14524505</v>
+        <v>14692420</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5879748</v>
+        <v>5847329</v>
       </c>
       <c r="E26" t="n">
-        <v>7987111</v>
+        <v>7938847</v>
       </c>
       <c r="F26" t="n">
-        <v>1030.957470941963</v>
+        <v>558.8920208754122</v>
       </c>
       <c r="G26" t="n">
-        <v>929.3905772591477</v>
+        <v>2185.296528034529</v>
       </c>
       <c r="H26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="I26" t="n">
-        <v>1391494</v>
+        <v>5442066</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>567897</v>
+        <v>568573</v>
       </c>
       <c r="E27" t="n">
-        <v>6888043</v>
+        <v>6896235</v>
       </c>
       <c r="F27" t="n">
-        <v>564.4027264786517</v>
+        <v>737.1843725254429</v>
       </c>
       <c r="G27" t="n">
-        <v>575.2672800760974</v>
+        <v>790.5956717448945</v>
       </c>
       <c r="H27" t="n">
-        <v>0.96</v>
+        <v>0.44</v>
       </c>
       <c r="I27" t="n">
-        <v>2794626</v>
+        <v>2743556</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26798662</v>
+        <v>26659513</v>
       </c>
       <c r="E28" t="n">
-        <v>37878598</v>
+        <v>37674191</v>
       </c>
       <c r="F28" t="n">
-        <v>481.7780627306371</v>
+        <v>215.5271281427197</v>
       </c>
       <c r="G28" t="n">
-        <v>1.768524242853596</v>
+        <v>259.3559304810099</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79</v>
+        <v>2.68</v>
       </c>
       <c r="I28" t="n">
-        <v>93022</v>
+        <v>89475</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1358190076</v>
+        <v>1452396937</v>
       </c>
       <c r="E29" t="n">
-        <v>6512799563</v>
+        <v>6964540759</v>
       </c>
       <c r="F29" t="n">
-        <v>198407.0909423394</v>
+        <v>153866.8956345773</v>
       </c>
       <c r="G29" t="n">
-        <v>223435.7518621804</v>
+        <v>163399.2038194665</v>
       </c>
       <c r="H29" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I29" t="n">
-        <v>207227977</v>
+        <v>238783040</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>279892627</v>
+        <v>287444916</v>
       </c>
       <c r="E30" t="n">
-        <v>1208171958</v>
+        <v>1240771831</v>
       </c>
       <c r="F30" t="n">
-        <v>200781.3688165352</v>
+        <v>199708.2427016142</v>
       </c>
       <c r="G30" t="n">
-        <v>232910.8724236653</v>
+        <v>216270.2633745369</v>
       </c>
       <c r="H30" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I30" t="n">
-        <v>109650765</v>
+        <v>112103413</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5344779</v>
+        <v>5323553</v>
       </c>
       <c r="E31" t="n">
-        <v>5350829</v>
+        <v>5329578</v>
       </c>
       <c r="F31" t="n">
-        <v>111.1741564003552</v>
+        <v>106.6795392595068</v>
       </c>
       <c r="G31" t="n">
-        <v>175.2675882487305</v>
+        <v>208.4660056282874</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>144305</v>
+        <v>144971</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19827326</v>
+        <v>19523793</v>
       </c>
       <c r="E32" t="n">
-        <v>49568316</v>
+        <v>48809483</v>
       </c>
       <c r="F32" t="n">
-        <v>2242.777319660947</v>
+        <v>1581.252216825652</v>
       </c>
       <c r="G32" t="n">
-        <v>4648.535599862033</v>
+        <v>3979.891306604957</v>
       </c>
       <c r="H32" t="n">
-        <v>0.61</v>
+        <v>0.47</v>
       </c>
       <c r="I32" t="n">
-        <v>2188275</v>
+        <v>2238072</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19743889</v>
+        <v>19830620</v>
       </c>
       <c r="F33" t="n">
-        <v>885.7354562554099</v>
+        <v>1057.12150021837</v>
       </c>
       <c r="G33" t="n">
-        <v>856.6155558901449</v>
+        <v>1350.278291526894</v>
       </c>
       <c r="H33" t="n">
-        <v>0.51</v>
+        <v>1.01</v>
       </c>
       <c r="I33" t="n">
-        <v>42237</v>
+        <v>33181</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4198084</v>
+        <v>4210943</v>
       </c>
       <c r="E34" t="n">
-        <v>12092477</v>
+        <v>12129442</v>
       </c>
       <c r="F34" t="n">
-        <v>3138.976913811139</v>
+        <v>4241.943187305137</v>
       </c>
       <c r="G34" t="n">
-        <v>1143.176536047342</v>
+        <v>1886.973776391721</v>
       </c>
       <c r="H34" t="n">
         <v>0.66</v>
       </c>
       <c r="I34" t="n">
-        <v>601689</v>
+        <v>612074</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1579262</v>
+        <v>1619544</v>
       </c>
       <c r="F35" t="n">
-        <v>20.64955067749727</v>
+        <v>94.8709363686018</v>
       </c>
       <c r="G35" t="n">
-        <v>278.1268973662358</v>
+        <v>93.4509005825789</v>
       </c>
       <c r="H35" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="I35" t="n">
-        <v>10114.13</v>
+        <v>10245.61</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>15653966</v>
+        <v>16281302</v>
       </c>
       <c r="E36" t="n">
-        <v>75814654</v>
+        <v>78852942</v>
       </c>
       <c r="F36" t="n">
-        <v>3895.138260145995</v>
+        <v>3390.969012100391</v>
       </c>
       <c r="G36" t="n">
-        <v>7079.817461806353</v>
+        <v>7636.89078291084</v>
       </c>
       <c r="H36" t="n">
-        <v>0.29</v>
+        <v>0.38</v>
       </c>
       <c r="I36" t="n">
-        <v>4250388</v>
+        <v>4395522</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1467813</v>
+        <v>1462258</v>
       </c>
       <c r="E37" t="n">
-        <v>9606797</v>
+        <v>9570438</v>
       </c>
       <c r="F37" t="n">
-        <v>212.2714175694208</v>
+        <v>36.82473015690307</v>
       </c>
       <c r="G37" t="n">
-        <v>336.5467618336876</v>
+        <v>10.00017039649691</v>
       </c>
       <c r="H37" t="n">
-        <v>1.03</v>
+        <v>2.08</v>
       </c>
       <c r="I37" t="n">
-        <v>679789</v>
+        <v>585485</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1927626850</v>
+        <v>1925487572</v>
       </c>
       <c r="F38" t="n">
-        <v>75815.35206843304</v>
+        <v>72889.6669277966</v>
       </c>
       <c r="G38" t="n">
-        <v>74756.45642524828</v>
+        <v>77422.7134126578</v>
       </c>
       <c r="H38" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="I38" t="n">
-        <v>28265545</v>
+        <v>27900354</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31975344</v>
+        <v>32284046</v>
       </c>
       <c r="E39" t="n">
-        <v>99560960</v>
+        <v>100522162</v>
       </c>
       <c r="F39" t="n">
-        <v>3559.290295702176</v>
+        <v>2030.776012608691</v>
       </c>
       <c r="G39" t="n">
-        <v>12849.73691380523</v>
+        <v>17495.61588714425</v>
       </c>
       <c r="H39" t="n">
-        <v>0.44</v>
+        <v>0.17</v>
       </c>
       <c r="I39" t="n">
-        <v>10254230</v>
+        <v>9912233</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>208155336</v>
+        <v>211809734</v>
       </c>
       <c r="E40" t="n">
-        <v>1178703410</v>
+        <v>1199396862</v>
       </c>
       <c r="F40" t="n">
-        <v>45157.94103115195</v>
+        <v>47059.82462485266</v>
       </c>
       <c r="G40" t="n">
-        <v>82693.13728633749</v>
+        <v>77574.56381586715</v>
       </c>
       <c r="H40" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I40" t="n">
-        <v>68945262</v>
+        <v>67194483</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>145660257</v>
+        <v>147437210</v>
       </c>
       <c r="E41" t="n">
-        <v>1078964866</v>
+        <v>1092127478</v>
       </c>
       <c r="F41" t="n">
-        <v>124700.7267645869</v>
+        <v>134248.2636526719</v>
       </c>
       <c r="G41" t="n">
-        <v>204635.2916615386</v>
+        <v>198605.9756421135</v>
       </c>
       <c r="H41" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="I41" t="n">
-        <v>8236103</v>
+        <v>8356819</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32391041</v>
+        <v>32318853</v>
       </c>
       <c r="E42" t="n">
-        <v>153809339</v>
+        <v>153466555</v>
       </c>
       <c r="F42" t="n">
-        <v>7434.609185681323</v>
+        <v>6810.860545526652</v>
       </c>
       <c r="G42" t="n">
-        <v>5400.197107786179</v>
+        <v>8851.320823574564</v>
       </c>
       <c r="H42" t="n">
-        <v>0.06</v>
+        <v>0.33</v>
       </c>
       <c r="I42" t="n">
-        <v>1150392</v>
+        <v>1083441</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3528450</v>
+        <v>3540948</v>
       </c>
       <c r="E43" t="n">
-        <v>8239520</v>
+        <v>8268704</v>
       </c>
       <c r="F43" t="n">
-        <v>845.3542088417003</v>
+        <v>830.2562658492757</v>
       </c>
       <c r="G43" t="n">
-        <v>1858.401135534767</v>
+        <v>1294.546577766195</v>
       </c>
       <c r="H43" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="I43" t="n">
-        <v>655944</v>
+        <v>626021</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>349585034</v>
+        <v>350222931</v>
       </c>
       <c r="E44" t="n">
-        <v>3145083732</v>
+        <v>3150822651</v>
       </c>
       <c r="F44" t="n">
-        <v>47389.79497583859</v>
+        <v>49213.57372016637</v>
       </c>
       <c r="G44" t="n">
-        <v>53958.72852655238</v>
+        <v>50819.1841053484</v>
       </c>
       <c r="H44" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I44" t="n">
-        <v>46939836</v>
+        <v>44786215</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>642128</v>
+        <v>635377</v>
       </c>
       <c r="F45" t="n">
-        <v>574.3206953773058</v>
+        <v>679.9583897834156</v>
       </c>
       <c r="G45" t="n">
-        <v>325.118785272905</v>
+        <v>310.0759114401679</v>
       </c>
       <c r="H45" t="n">
         <v>0.97</v>
       </c>
       <c r="I45" t="n">
-        <v>5230.23</v>
+        <v>4504.11</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1577772</v>
+        <v>1572715</v>
       </c>
       <c r="E46" t="n">
-        <v>13148099</v>
+        <v>13105959</v>
       </c>
       <c r="F46" t="n">
-        <v>286.4748946473869</v>
+        <v>229.7422502780597</v>
       </c>
       <c r="G46" t="n">
-        <v>1367.552155637743</v>
+        <v>1444.140996130881</v>
       </c>
       <c r="H46" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I46" t="n">
-        <v>25277</v>
+        <v>21675</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4948098</v>
+        <v>4979542</v>
       </c>
       <c r="E47" t="n">
-        <v>17483934</v>
+        <v>17595037</v>
       </c>
       <c r="F47" t="n">
-        <v>960.6111924073488</v>
+        <v>918.0276423796594</v>
       </c>
       <c r="G47" t="n">
-        <v>1660.261643787477</v>
+        <v>1458.565587275653</v>
       </c>
       <c r="H47" t="n">
-        <v>0.29</v>
+        <v>0.11</v>
       </c>
       <c r="I47" t="n">
-        <v>112780</v>
+        <v>111423</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>51033635</v>
+        <v>50366070</v>
       </c>
       <c r="E48" t="n">
-        <v>295463661</v>
+        <v>291598733</v>
       </c>
       <c r="F48" t="n">
-        <v>15936.0045067078</v>
+        <v>15300.6756232293</v>
       </c>
       <c r="G48" t="n">
-        <v>6435.963844918412</v>
+        <v>6305.079153793325</v>
       </c>
       <c r="H48" t="n">
-        <v>0.44</v>
+        <v>0.58</v>
       </c>
       <c r="I48" t="n">
-        <v>39485652</v>
+        <v>41519288</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2317972</v>
+        <v>2304639</v>
       </c>
       <c r="E49" t="n">
-        <v>12735332</v>
+        <v>12662084</v>
       </c>
       <c r="F49" t="n">
-        <v>170.9765366073866</v>
+        <v>112.20980310005</v>
       </c>
       <c r="G49" t="n">
-        <v>212.8652258588483</v>
+        <v>580.5609637976681</v>
       </c>
       <c r="H49" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="I49" t="n">
-        <v>112977</v>
+        <v>105138</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14196098</v>
+        <v>14213499</v>
       </c>
       <c r="E50" t="n">
-        <v>14244409</v>
+        <v>14261868</v>
       </c>
       <c r="F50" t="n">
-        <v>4201.095431554901</v>
+        <v>4012.742971011421</v>
       </c>
       <c r="G50" t="n">
-        <v>4612.705272504009</v>
+        <v>9389.70852729495</v>
       </c>
       <c r="H50" t="n">
         <v>0.62</v>
       </c>
       <c r="I50" t="n">
-        <v>6387056</v>
+        <v>6497046</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>22685608</v>
+        <v>23146491</v>
       </c>
       <c r="E51" t="n">
-        <v>68002267</v>
+        <v>69382956</v>
       </c>
       <c r="F51" t="n">
-        <v>11660.6932629264</v>
+        <v>25265.13587301487</v>
       </c>
       <c r="G51" t="n">
-        <v>26217.00008012708</v>
+        <v>26247.88465641432</v>
       </c>
       <c r="H51" t="n">
-        <v>0.42</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>3516797</v>
+        <v>3602816</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>15941537</v>
+        <v>16000676</v>
       </c>
       <c r="E52" t="n">
-        <v>97710921</v>
+        <v>98073405</v>
       </c>
       <c r="F52" t="n">
-        <v>7283.445059805422</v>
+        <v>6073.377310638939</v>
       </c>
       <c r="G52" t="n">
-        <v>9910.092764697665</v>
+        <v>7581.483882635705</v>
       </c>
       <c r="H52" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I52" t="n">
-        <v>10824366</v>
+        <v>10862333</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>51101329</v>
+        <v>51458983</v>
       </c>
       <c r="E53" t="n">
-        <v>220138939</v>
+        <v>221679671</v>
       </c>
       <c r="F53" t="n">
-        <v>21769.63618354122</v>
+        <v>22012.06678780748</v>
       </c>
       <c r="G53" t="n">
-        <v>26449.20155938245</v>
+        <v>26244.55665941603</v>
       </c>
       <c r="H53" t="n">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="I53" t="n">
-        <v>10266366</v>
+        <v>10577583</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1039201</v>
+        <v>1043312</v>
       </c>
       <c r="E54" t="n">
-        <v>3037404</v>
+        <v>3049421</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8879222643442859</v>
+        <v>0.8879705474883052</v>
       </c>
       <c r="G54" t="n">
-        <v>211.4002666646213</v>
+        <v>211.4572013670539</v>
       </c>
       <c r="H54" t="n">
         <v>1.28</v>
       </c>
       <c r="I54" t="n">
-        <v>20539</v>
+        <v>20486</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>37784998</v>
+        <v>38198600</v>
       </c>
       <c r="E55" t="n">
-        <v>95275625</v>
+        <v>96318530</v>
       </c>
       <c r="F55" t="n">
-        <v>16146.02592842936</v>
+        <v>17079.58770509149</v>
       </c>
       <c r="G55" t="n">
-        <v>7076.055388393578</v>
+        <v>11758.96525670444</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="I55" t="n">
-        <v>3555098</v>
+        <v>3592170</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>29546664</v>
+        <v>29633835</v>
       </c>
       <c r="E56" t="n">
-        <v>70195528</v>
+        <v>70402624</v>
       </c>
       <c r="F56" t="n">
-        <v>12229.88395321186</v>
+        <v>4711.622669701383</v>
       </c>
       <c r="G56" t="n">
-        <v>18199.23996132354</v>
+        <v>9548.445046686784</v>
       </c>
       <c r="H56" t="n">
         <v>0.14</v>
       </c>
       <c r="I56" t="n">
-        <v>427341</v>
+        <v>445129</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12773828</v>
+        <v>12769502</v>
       </c>
       <c r="E57" t="n">
-        <v>19444647</v>
+        <v>19438062</v>
       </c>
       <c r="F57" t="n">
-        <v>2701.162320792672</v>
+        <v>4024.980585301723</v>
       </c>
       <c r="G57" t="n">
-        <v>3221.160393653804</v>
+        <v>2951.485757679067</v>
       </c>
       <c r="H57" t="n">
-        <v>0.36</v>
+        <v>0.5</v>
       </c>
       <c r="I57" t="n">
-        <v>669076</v>
+        <v>653798</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>306107797</v>
+        <v>311126805</v>
       </c>
       <c r="E58" t="n">
-        <v>306107797</v>
+        <v>311126805</v>
       </c>
       <c r="F58" t="n">
-        <v>78044.23460729679</v>
+        <v>56492.79803746258</v>
       </c>
       <c r="G58" t="n">
-        <v>82533.07186256272</v>
+        <v>87734.73672707658</v>
       </c>
       <c r="H58" t="n">
         <v>0.03</v>
       </c>
       <c r="I58" t="n">
-        <v>71495902</v>
+        <v>72584927</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11672426</v>
+        <v>11716739</v>
       </c>
       <c r="F59" t="n">
-        <v>266.1435485978892</v>
+        <v>287.1053730948263</v>
       </c>
       <c r="G59" t="n">
-        <v>7.195943013499071</v>
+        <v>21.02767328727094</v>
       </c>
       <c r="H59" t="n">
-        <v>1.13</v>
+        <v>1.3</v>
       </c>
       <c r="I59" t="n">
-        <v>77913</v>
+        <v>75927</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>93260580</v>
+        <v>94438807</v>
       </c>
       <c r="E60" t="n">
-        <v>537407686</v>
+        <v>544197138</v>
       </c>
       <c r="F60" t="n">
-        <v>97510.65836717088</v>
+        <v>94645.33707129177</v>
       </c>
       <c r="G60" t="n">
-        <v>96965.35320386432</v>
+        <v>96094.36600097342</v>
       </c>
       <c r="H60" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I60" t="n">
-        <v>18308781</v>
+        <v>18319590</v>
       </c>
     </row>
     <row r="61">
@@ -2562,10 +2562,10 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9545987</v>
+        <v>9647725</v>
       </c>
       <c r="E61" t="n">
-        <v>9545987</v>
+        <v>9647725</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>5.15</v>
+        <v>4.22</v>
       </c>
       <c r="I61" t="n">
-        <v>2194588</v>
+        <v>2239526</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>31781664</v>
+        <v>33239182</v>
       </c>
       <c r="E62" t="n">
-        <v>142299547</v>
+        <v>148825454</v>
       </c>
       <c r="F62" t="n">
-        <v>27382.91636046962</v>
+        <v>16992.54315417365</v>
       </c>
       <c r="G62" t="n">
-        <v>20799.04397680268</v>
+        <v>22210.8693174825</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="I62" t="n">
-        <v>7933293</v>
+        <v>8717643</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12917619</v>
+        <v>12863955</v>
       </c>
       <c r="E63" t="n">
-        <v>25823960</v>
+        <v>25709875</v>
       </c>
       <c r="F63" t="n">
-        <v>2387.494241599887</v>
+        <v>2344.307807392918</v>
       </c>
       <c r="G63" t="n">
-        <v>2337.156964776784</v>
+        <v>1987.477313468575</v>
       </c>
       <c r="H63" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>22143</v>
+        <v>15053.84</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1463192</v>
+        <v>1454334</v>
       </c>
       <c r="F64" t="n">
-        <v>119.6884754692016</v>
+        <v>294.4456440787785</v>
       </c>
       <c r="G64" t="n">
-        <v>57.1384564486818</v>
+        <v>51.22357214173856</v>
       </c>
       <c r="H64" t="n">
         <v>2.17</v>
       </c>
       <c r="I64" t="n">
-        <v>48177</v>
+        <v>48223</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>52170466</v>
+        <v>53054372</v>
       </c>
       <c r="E65" t="n">
-        <v>338311588</v>
+        <v>344043483</v>
       </c>
       <c r="F65" t="n">
-        <v>22702.33261057749</v>
+        <v>20688.5403688073</v>
       </c>
       <c r="G65" t="n">
-        <v>23471.73035224788</v>
+        <v>25586.23680926049</v>
       </c>
       <c r="H65" t="n">
-        <v>0.47</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I65" t="n">
-        <v>17722531</v>
+        <v>17664521</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4825010</v>
+        <v>4812390</v>
       </c>
       <c r="F66" t="n">
-        <v>1181.198033224956</v>
+        <v>1091.431942014558</v>
       </c>
       <c r="G66" t="n">
-        <v>1450.641903115414</v>
+        <v>1156.13941800596</v>
       </c>
       <c r="H66" t="n">
-        <v>0.74</v>
+        <v>0.41</v>
       </c>
       <c r="I66" t="n">
-        <v>201415</v>
+        <v>202610</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>124928900</v>
+        <v>125012890</v>
       </c>
       <c r="E67" t="n">
-        <v>2068924909</v>
+        <v>2070315845</v>
       </c>
       <c r="F67" t="n">
-        <v>21972.64757091021</v>
+        <v>24326.06412090816</v>
       </c>
       <c r="G67" t="n">
-        <v>23047.44738540818</v>
+        <v>21918.28839761328</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I67" t="n">
-        <v>4861460</v>
+        <v>4880083</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25072086</v>
+        <v>25352022</v>
       </c>
       <c r="E68" t="n">
-        <v>150011332</v>
+        <v>151686242</v>
       </c>
       <c r="F68" t="n">
-        <v>46085.49103773932</v>
+        <v>45267.91248066828</v>
       </c>
       <c r="G68" t="n">
-        <v>10681.22805769298</v>
+        <v>46346.8755121381</v>
       </c>
       <c r="H68" t="n">
         <v>0.2</v>
       </c>
       <c r="I68" t="n">
-        <v>13160586</v>
+        <v>13628718</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>23504400</v>
+        <v>24020783</v>
       </c>
       <c r="E70" t="n">
-        <v>23504400</v>
+        <v>23993360</v>
       </c>
       <c r="F70" t="n">
-        <v>3424.886410814411</v>
+        <v>2357.662794676057</v>
       </c>
       <c r="G70" t="n">
-        <v>3189.273382910101</v>
+        <v>3107.668443354811</v>
       </c>
       <c r="H70" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="I70" t="n">
-        <v>2029900</v>
+        <v>2073794</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35579545</v>
+        <v>36008147</v>
       </c>
       <c r="E71" t="n">
-        <v>177558333</v>
+        <v>179697255</v>
       </c>
       <c r="F71" t="n">
-        <v>15629.82274615619</v>
+        <v>18824.3510864682</v>
       </c>
       <c r="G71" t="n">
-        <v>47440.87451884949</v>
+        <v>51684.7577596091</v>
       </c>
       <c r="H71" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>10693728</v>
+        <v>10370029</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>169558</v>
+        <v>178474</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>13433.15</v>
+        <v>14523.76</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>327205270</v>
+        <v>330668736</v>
       </c>
       <c r="E73" t="n">
-        <v>605404369</v>
+        <v>611812569</v>
       </c>
       <c r="F73" t="n">
-        <v>85855.35009664053</v>
+        <v>82560.74247886956</v>
       </c>
       <c r="G73" t="n">
-        <v>92028.16415771015</v>
+        <v>94825.21229045135</v>
       </c>
       <c r="H73" t="n">
         <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>14631381</v>
+        <v>14570167</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>11031905</v>
+        <v>10998641</v>
       </c>
       <c r="E74" t="n">
-        <v>32721477</v>
+        <v>32622424</v>
       </c>
       <c r="F74" t="n">
-        <v>1519.464811393188</v>
+        <v>1286.977627638181</v>
       </c>
       <c r="G74" t="n">
-        <v>1050.202383359596</v>
+        <v>1522.257720190816</v>
       </c>
       <c r="H74" t="n">
-        <v>1.05</v>
+        <v>0.99</v>
       </c>
       <c r="I74" t="n">
-        <v>7407887</v>
+        <v>6564507</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8310033</v>
+        <v>8308728</v>
       </c>
       <c r="E75" t="n">
-        <v>11839893</v>
+        <v>11838034</v>
       </c>
       <c r="F75" t="n">
-        <v>3760.756082292594</v>
+        <v>3012.472283867915</v>
       </c>
       <c r="G75" t="n">
-        <v>652.0653475214654</v>
+        <v>939.0189097421978</v>
       </c>
       <c r="H75" t="n">
-        <v>0.34</v>
+        <v>0.09</v>
       </c>
       <c r="I75" t="n">
-        <v>400897</v>
+        <v>398962</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16632659</v>
+        <v>16633233</v>
       </c>
       <c r="F76" t="n">
-        <v>491.1158816339164</v>
+        <v>601.5200615139489</v>
       </c>
       <c r="G76" t="n">
-        <v>0.493518433058877</v>
+        <v>0.6869331438077997</v>
       </c>
       <c r="H76" t="n">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="I76" t="n">
-        <v>1031295</v>
+        <v>1038477</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>64250933</v>
+        <v>76432737</v>
       </c>
       <c r="E77" t="n">
-        <v>106296710</v>
+        <v>105829445</v>
       </c>
       <c r="F77" t="n">
-        <v>12313.37300270063</v>
+        <v>9528.953633766194</v>
       </c>
       <c r="G77" t="n">
-        <v>6329.342210636735</v>
+        <v>18102.45555143925</v>
       </c>
       <c r="H77" t="n">
-        <v>0.02</v>
+        <v>0.36</v>
       </c>
       <c r="I77" t="n">
-        <v>7163138</v>
+        <v>7174228</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>5858951</v>
+        <v>6137794</v>
       </c>
       <c r="E78" t="n">
-        <v>5858951</v>
+        <v>6137794</v>
       </c>
       <c r="F78" t="n">
-        <v>100.4456324823028</v>
+        <v>364.1672559388062</v>
       </c>
       <c r="G78" t="n">
-        <v>255.9163083406218</v>
+        <v>199.2451353741436</v>
       </c>
       <c r="H78" t="n">
-        <v>2.38</v>
+        <v>2.27</v>
       </c>
       <c r="I78" t="n">
-        <v>1254944</v>
+        <v>1241076</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>64568</v>
+        <v>64110</v>
       </c>
       <c r="E79" t="n">
-        <v>336890</v>
+        <v>334500</v>
       </c>
       <c r="F79" t="n">
-        <v>458.1765527707618</v>
+        <v>335.7836187534367</v>
       </c>
       <c r="G79" t="n">
-        <v>24.71532524134037</v>
+        <v>19.78312054944638</v>
       </c>
       <c r="H79" t="n">
-        <v>1.27</v>
+        <v>1.58</v>
       </c>
       <c r="I79" t="n">
-        <v>304046</v>
+        <v>217150</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>26404226</v>
+        <v>27372247</v>
       </c>
       <c r="F80" t="n">
-        <v>464.3411686903888</v>
+        <v>535.1221416612964</v>
       </c>
       <c r="G80" t="n">
-        <v>6831.413860609061</v>
+        <v>3706.225586704664</v>
       </c>
       <c r="H80" t="n">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="I80" t="n">
-        <v>67023</v>
+        <v>61748</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>626262183</v>
+        <v>633580180</v>
       </c>
       <c r="E81" t="n">
-        <v>2425421034</v>
+        <v>2453762560</v>
       </c>
       <c r="F81" t="n">
-        <v>184848.1830847744</v>
+        <v>184154.8897175603</v>
       </c>
       <c r="G81" t="n">
-        <v>173540.5527539755</v>
+        <v>173430.3960730802</v>
       </c>
       <c r="H81" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I81" t="n">
-        <v>38849145</v>
+        <v>39891199</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7617830</v>
+        <v>7583547</v>
       </c>
       <c r="E82" t="n">
-        <v>10914803</v>
+        <v>10865677</v>
       </c>
       <c r="F82" t="n">
-        <v>1188.491618690447</v>
+        <v>1299.171744165846</v>
       </c>
       <c r="G82" t="n">
-        <v>1238.932844021618</v>
+        <v>1141.83397015429</v>
       </c>
       <c r="H82" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="I82" t="n">
-        <v>207849</v>
+        <v>201277</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>115968058</v>
+        <v>118858453</v>
       </c>
       <c r="E83" t="n">
-        <v>1077492619</v>
+        <v>1104348104</v>
       </c>
       <c r="F83" t="n">
-        <v>42776.03043170591</v>
+        <v>46136.01793764823</v>
       </c>
       <c r="G83" t="n">
-        <v>45909.86576278483</v>
+        <v>46336.49019517284</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>9790335</v>
+        <v>10238117</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1124812</v>
+        <v>1126093</v>
       </c>
       <c r="E84" t="n">
-        <v>4355518</v>
+        <v>4360479</v>
       </c>
       <c r="F84" t="n">
-        <v>1310.179053634235</v>
+        <v>907.3935508857401</v>
       </c>
       <c r="G84" t="n">
-        <v>1113.476796707728</v>
+        <v>313.6390806819734</v>
       </c>
       <c r="H84" t="n">
-        <v>1.14</v>
+        <v>1.36</v>
       </c>
       <c r="I84" t="n">
-        <v>399599</v>
+        <v>382262</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>127831282</v>
+        <v>127718419</v>
       </c>
       <c r="E85" t="n">
-        <v>490381374</v>
+        <v>489948414</v>
       </c>
       <c r="F85" t="n">
-        <v>67316.23072738074</v>
+        <v>74927.80821057949</v>
       </c>
       <c r="G85" t="n">
-        <v>86045.61186420709</v>
+        <v>84183.82890899097</v>
       </c>
       <c r="H85" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
       <c r="I85" t="n">
-        <v>37558826</v>
+        <v>38967895</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5315653</v>
+        <v>5320961</v>
       </c>
       <c r="E86" t="n">
-        <v>19753067</v>
+        <v>19772793</v>
       </c>
       <c r="F86" t="n">
-        <v>3729.493875272539</v>
+        <v>3527.151704644782</v>
       </c>
       <c r="G86" t="n">
-        <v>3409.931648639531</v>
+        <v>4184.531268993363</v>
       </c>
       <c r="H86" t="n">
         <v>0.25</v>
       </c>
       <c r="I86" t="n">
-        <v>81190</v>
+        <v>75918</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>33319704</v>
+        <v>33758603</v>
       </c>
       <c r="F87" t="n">
-        <v>5571.001802393375</v>
+        <v>5212.719718104276</v>
       </c>
       <c r="G87" t="n">
-        <v>1179.921757391046</v>
+        <v>2747.591558578922</v>
       </c>
       <c r="H87" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
       <c r="I87" t="n">
-        <v>5378776</v>
+        <v>4721415</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>25210214</v>
+        <v>25299087</v>
       </c>
       <c r="F88" t="n">
-        <v>1222.516227357677</v>
+        <v>821.6781895443306</v>
       </c>
       <c r="G88" t="n">
-        <v>1404.884906686277</v>
+        <v>773.792676556675</v>
       </c>
       <c r="H88" t="n">
-        <v>0.66</v>
+        <v>0.19</v>
       </c>
       <c r="I88" t="n">
-        <v>17267.04</v>
+        <v>16678.57</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>89085615</v>
+        <v>89332662</v>
       </c>
       <c r="E89" t="n">
-        <v>329304558</v>
+        <v>330218484</v>
       </c>
       <c r="F89" t="n">
-        <v>1059.119778883618</v>
+        <v>1250.907185158217</v>
       </c>
       <c r="G89" t="n">
-        <v>1445.249279861214</v>
+        <v>1564.003896413929</v>
       </c>
       <c r="H89" t="n">
-        <v>1.1</v>
+        <v>0.66</v>
       </c>
       <c r="I89" t="n">
-        <v>216301</v>
+        <v>181557</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>21032337</v>
+        <v>20587428</v>
       </c>
       <c r="E90" t="n">
-        <v>21032337</v>
+        <v>20587428</v>
       </c>
       <c r="F90" t="n">
-        <v>3369.352648652129</v>
+        <v>3136.301479784546</v>
       </c>
       <c r="G90" t="n">
-        <v>2689.481987139748</v>
+        <v>6208.063266289212</v>
       </c>
       <c r="H90" t="n">
-        <v>0.68</v>
+        <v>0.86</v>
       </c>
       <c r="I90" t="n">
-        <v>7140790</v>
+        <v>7023583</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3805509</v>
+        <v>3816531</v>
       </c>
       <c r="E91" t="n">
-        <v>8303572</v>
+        <v>8319502</v>
       </c>
       <c r="F91" t="n">
-        <v>1759.247609360347</v>
+        <v>1881.262995261684</v>
       </c>
       <c r="G91" t="n">
-        <v>2294.444260464385</v>
+        <v>2364.677225878024</v>
       </c>
       <c r="H91" t="n">
         <v>0.6</v>
       </c>
       <c r="I91" t="n">
-        <v>1854584</v>
+        <v>1768335</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>510246437</v>
+        <v>512504692</v>
       </c>
       <c r="E92" t="n">
-        <v>1776125384</v>
+        <v>1783986180</v>
       </c>
       <c r="F92" t="n">
-        <v>171970.1968992823</v>
+        <v>171241.6240179001</v>
       </c>
       <c r="G92" t="n">
-        <v>177707.4073486317</v>
+        <v>182812.5458931016</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>35410977</v>
+        <v>36344974</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2633052</v>
+        <v>2625450</v>
       </c>
       <c r="E93" t="n">
-        <v>10532207</v>
+        <v>10501799</v>
       </c>
       <c r="F93" t="n">
-        <v>1896.541862413846</v>
+        <v>2509.911161785252</v>
       </c>
       <c r="G93" t="n">
-        <v>3626.200580055589</v>
+        <v>3136.184908956848</v>
       </c>
       <c r="H93" t="n">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="I93" t="n">
-        <v>7011125</v>
+        <v>7027130</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>227110853</v>
+        <v>230029797</v>
       </c>
       <c r="E94" t="n">
-        <v>698280405</v>
+        <v>707255061</v>
       </c>
       <c r="F94" t="n">
-        <v>105610.3815061882</v>
+        <v>109540.2714102479</v>
       </c>
       <c r="G94" t="n">
-        <v>105738.1842662339</v>
+        <v>109537.4898927682</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>16914121</v>
+        <v>17064411</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>148077366</v>
+        <v>148820723</v>
       </c>
       <c r="E95" t="n">
-        <v>386848011</v>
+        <v>388790011</v>
       </c>
       <c r="F95" t="n">
-        <v>32001.77998788547</v>
+        <v>32837.9491182605</v>
       </c>
       <c r="G95" t="n">
-        <v>31212.49695435067</v>
+        <v>30199.75806957488</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="I95" t="n">
-        <v>8712839</v>
+        <v>8800024</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>410188350</v>
+        <v>410879511</v>
       </c>
       <c r="E96" t="n">
-        <v>2343933426</v>
+        <v>2347882922</v>
       </c>
       <c r="F96" t="n">
-        <v>20001.32324506381</v>
+        <v>18120.4938432313</v>
       </c>
       <c r="G96" t="n">
-        <v>42521.2346438037</v>
+        <v>50089.58962674484</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>42942483</v>
+        <v>43076434</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>640829500</v>
+        <v>655348154</v>
       </c>
       <c r="E2" t="n">
-        <v>1243536784</v>
+        <v>1271710403</v>
       </c>
       <c r="F2" t="n">
-        <v>19815.97038689415</v>
+        <v>9695.721512332795</v>
       </c>
       <c r="G2" t="n">
-        <v>38104.28827274174</v>
+        <v>32843.84402978099</v>
       </c>
       <c r="H2" t="n">
         <v>0.12</v>
       </c>
       <c r="I2" t="n">
-        <v>22686568</v>
+        <v>26273351</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1464096</v>
+        <v>1382478</v>
       </c>
       <c r="E3" t="n">
-        <v>4732558</v>
+        <v>4468737</v>
       </c>
       <c r="F3" t="n">
-        <v>2244.922163860332</v>
+        <v>1971.914176465242</v>
       </c>
       <c r="G3" t="n">
-        <v>4913.38006761725</v>
+        <v>1830.33339959181</v>
       </c>
       <c r="H3" t="n">
-        <v>0.63</v>
+        <v>0.42</v>
       </c>
       <c r="I3" t="n">
-        <v>176652</v>
+        <v>212129</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>259257928</v>
+        <v>259779369</v>
       </c>
       <c r="E4" t="n">
-        <v>1625770025</v>
+        <v>1629039907</v>
       </c>
       <c r="F4" t="n">
-        <v>132098.3982358402</v>
+        <v>145704.1936573721</v>
       </c>
       <c r="G4" t="n">
-        <v>144073.4032901069</v>
+        <v>150971.7425802356</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>17414422</v>
+        <v>17497024</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>154054225</v>
+        <v>153534600</v>
       </c>
       <c r="E5" t="n">
-        <v>170716156</v>
+        <v>170140331</v>
       </c>
       <c r="F5" t="n">
-        <v>8640.981915305478</v>
+        <v>5457.763843752999</v>
       </c>
       <c r="G5" t="n">
-        <v>14237.60061958352</v>
+        <v>12299.87252841168</v>
       </c>
       <c r="H5" t="n">
         <v>0.58</v>
       </c>
       <c r="I5" t="n">
-        <v>43080564</v>
+        <v>43954413</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>700082</v>
+        <v>707009</v>
       </c>
       <c r="E6" t="n">
-        <v>13600623</v>
+        <v>13735178</v>
       </c>
       <c r="F6" t="n">
-        <v>6754.426947685895</v>
+        <v>6758.933889843585</v>
       </c>
       <c r="G6" t="n">
-        <v>501.869702093382</v>
+        <v>232.266766793982</v>
       </c>
       <c r="H6" t="n">
-        <v>1.17</v>
+        <v>0.58</v>
       </c>
       <c r="I6" t="n">
-        <v>22753</v>
+        <v>22165</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>506961944</v>
+        <v>557931844</v>
       </c>
       <c r="E7" t="n">
-        <v>506961944</v>
+        <v>557931844</v>
       </c>
       <c r="F7" t="n">
-        <v>34331.91346737205</v>
+        <v>26230.71259053828</v>
       </c>
       <c r="G7" t="n">
-        <v>36996.28298871141</v>
+        <v>35102.47486015313</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08</v>
+        <v>0.18</v>
       </c>
       <c r="I7" t="n">
-        <v>70987448</v>
+        <v>78327535</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4756569</v>
+        <v>4767833</v>
       </c>
       <c r="E8" t="n">
-        <v>4756569</v>
+        <v>4767833</v>
       </c>
       <c r="F8" t="n">
-        <v>664.6252766001869</v>
+        <v>689.4184979258843</v>
       </c>
       <c r="G8" t="n">
-        <v>2035.320769436054</v>
+        <v>2278.596518784796</v>
       </c>
       <c r="H8" t="n">
-        <v>0.61</v>
+        <v>0.79</v>
       </c>
       <c r="I8" t="n">
-        <v>2045745</v>
+        <v>2090014</v>
       </c>
     </row>
     <row r="9">
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1729434</v>
+        <v>1730105</v>
       </c>
       <c r="F9" t="n">
-        <v>4536.572471723059</v>
+        <v>4037.852905577761</v>
       </c>
       <c r="G9" t="n">
-        <v>4007.103915748839</v>
+        <v>1146.942462855294</v>
       </c>
       <c r="H9" t="n">
         <v>0.61</v>
       </c>
       <c r="I9" t="n">
-        <v>165895</v>
+        <v>165993</v>
       </c>
     </row>
     <row r="10">
@@ -780,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1945410</v>
+        <v>2591120</v>
       </c>
       <c r="F10" t="n">
-        <v>808.6867328657893</v>
+        <v>199.48405937382</v>
       </c>
       <c r="G10" t="n">
-        <v>38.07343511993378</v>
+        <v>83.503562582898</v>
       </c>
       <c r="H10" t="n">
-        <v>1.09</v>
+        <v>0.04</v>
       </c>
       <c r="I10" t="n">
-        <v>450379</v>
+        <v>482632</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>110378227</v>
+        <v>110220444</v>
       </c>
       <c r="E11" t="n">
-        <v>207939495</v>
+        <v>207642251</v>
       </c>
       <c r="F11" t="n">
-        <v>2418.098321313202</v>
+        <v>2373.657220352442</v>
       </c>
       <c r="G11" t="n">
-        <v>85.628266317475</v>
+        <v>1512.56257596644</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>4116175</v>
+        <v>4101665</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>12220007</v>
+        <v>12278930</v>
       </c>
       <c r="E12" t="n">
-        <v>30413387</v>
+        <v>30560035</v>
       </c>
       <c r="F12" t="n">
-        <v>579.9152388830447</v>
+        <v>720.1351271014527</v>
       </c>
       <c r="G12" t="n">
-        <v>3037.736439564804</v>
+        <v>2633.347804809317</v>
       </c>
       <c r="H12" t="n">
-        <v>0.49</v>
+        <v>0.68</v>
       </c>
       <c r="I12" t="n">
-        <v>1354562</v>
+        <v>1363190</v>
       </c>
     </row>
     <row r="13">
@@ -882,22 +882,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116061735</v>
+        <v>116314808</v>
       </c>
       <c r="E13" t="n">
-        <v>451369025</v>
+        <v>452344139</v>
       </c>
       <c r="F13" t="n">
-        <v>28082.89078543998</v>
+        <v>31475.43962211509</v>
       </c>
       <c r="G13" t="n">
-        <v>35264.22582213327</v>
+        <v>33605.93093587289</v>
       </c>
       <c r="H13" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="I13" t="n">
-        <v>11240785</v>
+        <v>11325632</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5083014</v>
+        <v>5089992</v>
       </c>
       <c r="E14" t="n">
-        <v>7482473</v>
+        <v>7492743</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1496722169128787</v>
+        <v>1.5873426018</v>
       </c>
       <c r="G14" t="n">
-        <v>2531.480541681892</v>
+        <v>268.2429630418799</v>
       </c>
       <c r="H14" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="I14" t="n">
-        <v>585676</v>
+        <v>585672</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>148024507</v>
+        <v>148474593</v>
       </c>
       <c r="E15" t="n">
-        <v>148024507</v>
+        <v>148474593</v>
       </c>
       <c r="F15" t="n">
-        <v>44467.41211479697</v>
+        <v>50689.27821412096</v>
       </c>
       <c r="G15" t="n">
-        <v>86237.43102553148</v>
+        <v>82858.15345357977</v>
       </c>
       <c r="H15" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="I15" t="n">
-        <v>75974098</v>
+        <v>75962792</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69488738</v>
+        <v>70380611</v>
       </c>
       <c r="E16" t="n">
-        <v>356352501</v>
+        <v>360926209</v>
       </c>
       <c r="F16" t="n">
-        <v>7137.316423697136</v>
+        <v>9272.368101057122</v>
       </c>
       <c r="G16" t="n">
-        <v>33673.75289491193</v>
+        <v>32367.3429316986</v>
       </c>
       <c r="H16" t="n">
         <v>0.12</v>
       </c>
       <c r="I16" t="n">
-        <v>24921972</v>
+        <v>25121514</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +1022,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>275856103</v>
+        <v>276888342</v>
       </c>
       <c r="E17" t="n">
-        <v>275856103</v>
+        <v>276888342</v>
       </c>
       <c r="F17" t="n">
-        <v>54867.82250495093</v>
+        <v>66271.87523774755</v>
       </c>
       <c r="G17" t="n">
-        <v>48521.30752319418</v>
+        <v>51923.19793936842</v>
       </c>
       <c r="H17" t="n">
         <v>0.03</v>
       </c>
       <c r="I17" t="n">
-        <v>19947968</v>
+        <v>16128570</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2560653</v>
+        <v>2565662</v>
       </c>
       <c r="E18" t="n">
-        <v>6546531</v>
+        <v>6559338</v>
       </c>
       <c r="F18" t="n">
-        <v>1036.368419543845</v>
+        <v>1103.58066439008</v>
       </c>
       <c r="G18" t="n">
-        <v>1234.715635633435</v>
+        <v>1187.68773454416</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I18" t="n">
-        <v>104647</v>
+        <v>103773</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>89009550</v>
+        <v>90358630</v>
       </c>
       <c r="E19" t="n">
-        <v>248981623</v>
+        <v>252777435</v>
       </c>
       <c r="F19" t="n">
-        <v>16134.55752425743</v>
+        <v>20022.17339793636</v>
       </c>
       <c r="G19" t="n">
-        <v>22041.0660623763</v>
+        <v>14111.03555358588</v>
       </c>
       <c r="H19" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="I19" t="n">
-        <v>53048069</v>
+        <v>45805582</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1603321</v>
+        <v>1612968</v>
       </c>
       <c r="E20" t="n">
-        <v>9205673</v>
+        <v>9261062</v>
       </c>
       <c r="F20" t="n">
-        <v>65.92462166100114</v>
+        <v>47.66724626256</v>
       </c>
       <c r="G20" t="n">
-        <v>822.9833132731387</v>
+        <v>828.4204113202799</v>
       </c>
       <c r="H20" t="n">
-        <v>1.08</v>
+        <v>0.65</v>
       </c>
       <c r="I20" t="n">
-        <v>234009</v>
+        <v>232745</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>177864</v>
+        <v>173691</v>
       </c>
       <c r="E21" t="n">
-        <v>1201136</v>
+        <v>1172955</v>
       </c>
       <c r="F21" t="n">
-        <v>4.661779648886212</v>
+        <v>87.57006824275012</v>
       </c>
       <c r="G21" t="n">
-        <v>5.35659838376582</v>
+        <v>6.648188435290006</v>
       </c>
       <c r="H21" t="n">
         <v>0.41</v>
       </c>
       <c r="I21" t="n">
-        <v>2901853</v>
+        <v>2932560</v>
       </c>
     </row>
     <row r="22">
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>259587</v>
+        <v>259757</v>
       </c>
       <c r="F22" t="n">
-        <v>21.14244332340461</v>
+        <v>21.1448012193</v>
       </c>
       <c r="G22" t="n">
-        <v>183.6901864423166</v>
+        <v>183.5012339193599</v>
       </c>
       <c r="H22" t="n">
         <v>1.75</v>
       </c>
       <c r="I22" t="n">
-        <v>3266.6</v>
+        <v>3264.53</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>84050933</v>
+        <v>97179689</v>
       </c>
       <c r="E23" t="n">
-        <v>175239446</v>
+        <v>202611846</v>
       </c>
       <c r="F23" t="n">
-        <v>24232.58744549964</v>
+        <v>28262.91776954346</v>
       </c>
       <c r="G23" t="n">
-        <v>30240.82189752024</v>
+        <v>47561.98328930088</v>
       </c>
       <c r="H23" t="n">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
       <c r="I23" t="n">
-        <v>22952650</v>
+        <v>39080505</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>211287856</v>
+        <v>212109004</v>
       </c>
       <c r="E24" t="n">
-        <v>734033107</v>
+        <v>736885849</v>
       </c>
       <c r="F24" t="n">
-        <v>63760.30972176929</v>
+        <v>62964.64651378986</v>
       </c>
       <c r="G24" t="n">
-        <v>62417.08935500602</v>
+        <v>62377.41875925997</v>
       </c>
       <c r="H24" t="n">
         <v>0.11</v>
       </c>
       <c r="I24" t="n">
-        <v>33578366</v>
+        <v>33708655</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>121683017</v>
+        <v>121598628</v>
       </c>
       <c r="E25" t="n">
-        <v>516612629</v>
+        <v>516221964</v>
       </c>
       <c r="F25" t="n">
-        <v>14911.44332322926</v>
+        <v>15778.86369338332</v>
       </c>
       <c r="G25" t="n">
-        <v>19727.05087849529</v>
+        <v>16778.84501714568</v>
       </c>
       <c r="H25" t="n">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="I25" t="n">
-        <v>14692420</v>
+        <v>15115700</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5847329</v>
+        <v>6072888</v>
       </c>
       <c r="E26" t="n">
-        <v>7938847</v>
+        <v>8244471</v>
       </c>
       <c r="F26" t="n">
-        <v>558.8920208754122</v>
+        <v>1421.327706964652</v>
       </c>
       <c r="G26" t="n">
-        <v>2185.296528034529</v>
+        <v>630.7965158472111</v>
       </c>
       <c r="H26" t="n">
-        <v>0.27</v>
+        <v>0.46</v>
       </c>
       <c r="I26" t="n">
-        <v>5442066</v>
+        <v>1487322</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1372,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>568573</v>
+        <v>566241</v>
       </c>
       <c r="E27" t="n">
-        <v>6896235</v>
+        <v>6867957</v>
       </c>
       <c r="F27" t="n">
-        <v>737.1843725254429</v>
+        <v>550.54422529146</v>
       </c>
       <c r="G27" t="n">
-        <v>790.5956717448945</v>
+        <v>801.2598764167799</v>
       </c>
       <c r="H27" t="n">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="I27" t="n">
-        <v>2743556</v>
+        <v>2744303</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26659513</v>
+        <v>26894417</v>
       </c>
       <c r="E28" t="n">
-        <v>37674191</v>
+        <v>38006148</v>
       </c>
       <c r="F28" t="n">
-        <v>215.5271281427197</v>
+        <v>15.64662270808541</v>
       </c>
       <c r="G28" t="n">
-        <v>259.3559304810099</v>
+        <v>1.768790333663063</v>
       </c>
       <c r="H28" t="n">
-        <v>2.68</v>
+        <v>1.79</v>
       </c>
       <c r="I28" t="n">
-        <v>89475</v>
+        <v>80746</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1452396937</v>
+        <v>1469991407</v>
       </c>
       <c r="E29" t="n">
-        <v>6964540759</v>
+        <v>7048909845</v>
       </c>
       <c r="F29" t="n">
-        <v>153866.8956345773</v>
+        <v>177731.9232434883</v>
       </c>
       <c r="G29" t="n">
-        <v>163399.2038194665</v>
+        <v>225427.718513861</v>
       </c>
       <c r="H29" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I29" t="n">
-        <v>238783040</v>
+        <v>253944617</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>287444916</v>
+        <v>289065226</v>
       </c>
       <c r="E30" t="n">
-        <v>1240771831</v>
+        <v>1247765988</v>
       </c>
       <c r="F30" t="n">
-        <v>199708.2427016142</v>
+        <v>204843.9636867059</v>
       </c>
       <c r="G30" t="n">
-        <v>216270.2633745369</v>
+        <v>228536.733555657</v>
       </c>
       <c r="H30" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I30" t="n">
-        <v>112103413</v>
+        <v>111769722</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5323553</v>
+        <v>5355203</v>
       </c>
       <c r="E31" t="n">
-        <v>5329578</v>
+        <v>5361264</v>
       </c>
       <c r="F31" t="n">
-        <v>106.6795392595068</v>
+        <v>106.6915643958679</v>
       </c>
       <c r="G31" t="n">
-        <v>208.4660056282874</v>
+        <v>208.4895043438024</v>
       </c>
       <c r="H31" t="n">
         <v>0.29</v>
       </c>
       <c r="I31" t="n">
-        <v>144971</v>
+        <v>144401</v>
       </c>
     </row>
     <row r="32">
@@ -1547,22 +1547,22 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19523793</v>
+        <v>19659772</v>
       </c>
       <c r="E32" t="n">
-        <v>48809483</v>
+        <v>49149429</v>
       </c>
       <c r="F32" t="n">
-        <v>1581.252216825652</v>
+        <v>562.518564110298</v>
       </c>
       <c r="G32" t="n">
-        <v>3979.891306604957</v>
+        <v>2669.209284922435</v>
       </c>
       <c r="H32" t="n">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="I32" t="n">
-        <v>2238072</v>
+        <v>2289022</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19830620</v>
+        <v>19805519</v>
       </c>
       <c r="F33" t="n">
-        <v>1057.12150021837</v>
+        <v>2010.565695828279</v>
       </c>
       <c r="G33" t="n">
-        <v>1350.278291526894</v>
+        <v>1728.047072127559</v>
       </c>
       <c r="H33" t="n">
         <v>1.01</v>
       </c>
       <c r="I33" t="n">
-        <v>33181</v>
+        <v>37085</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4210943</v>
+        <v>4202525</v>
       </c>
       <c r="E34" t="n">
-        <v>12129442</v>
+        <v>12105553</v>
       </c>
       <c r="F34" t="n">
-        <v>4241.943187305137</v>
+        <v>1960.498660887365</v>
       </c>
       <c r="G34" t="n">
-        <v>1886.973776391721</v>
+        <v>1480.179042661254</v>
       </c>
       <c r="H34" t="n">
-        <v>0.66</v>
+        <v>0.58</v>
       </c>
       <c r="I34" t="n">
-        <v>612074</v>
+        <v>614949</v>
       </c>
     </row>
     <row r="35">
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1619544</v>
+        <v>1627604</v>
       </c>
       <c r="F35" t="n">
-        <v>94.8709363686018</v>
+        <v>266.5486336307399</v>
       </c>
       <c r="G35" t="n">
-        <v>93.4509005825789</v>
+        <v>5.50273834008</v>
       </c>
       <c r="H35" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="I35" t="n">
-        <v>10245.61</v>
+        <v>11458.4</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>16281302</v>
+        <v>16633187</v>
       </c>
       <c r="E36" t="n">
-        <v>78852942</v>
+        <v>80557178</v>
       </c>
       <c r="F36" t="n">
-        <v>3390.969012100391</v>
+        <v>4557.659056447007</v>
       </c>
       <c r="G36" t="n">
-        <v>7636.89078291084</v>
+        <v>6954.526710720981</v>
       </c>
       <c r="H36" t="n">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="I36" t="n">
-        <v>4395522</v>
+        <v>4368674</v>
       </c>
     </row>
     <row r="37">
@@ -1722,22 +1722,22 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1462258</v>
+        <v>1473055</v>
       </c>
       <c r="E37" t="n">
-        <v>9570438</v>
+        <v>9641105</v>
       </c>
       <c r="F37" t="n">
-        <v>36.82473015690307</v>
+        <v>63.91705111362</v>
       </c>
       <c r="G37" t="n">
-        <v>10.00017039649691</v>
+        <v>58.13122518989999</v>
       </c>
       <c r="H37" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="I37" t="n">
-        <v>585485</v>
+        <v>527196</v>
       </c>
     </row>
     <row r="38">
@@ -1760,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1925487572</v>
+        <v>1928289510</v>
       </c>
       <c r="F38" t="n">
-        <v>72889.6669277966</v>
+        <v>77208.68113535931</v>
       </c>
       <c r="G38" t="n">
-        <v>77422.7134126578</v>
+        <v>76826.13168294569</v>
       </c>
       <c r="H38" t="n">
-        <v>0.67</v>
+        <v>0.88</v>
       </c>
       <c r="I38" t="n">
-        <v>27900354</v>
+        <v>28105452</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>32284046</v>
+        <v>32379365</v>
       </c>
       <c r="E39" t="n">
-        <v>100522162</v>
+        <v>100818952</v>
       </c>
       <c r="F39" t="n">
-        <v>2030.776012608691</v>
+        <v>4346.208546771278</v>
       </c>
       <c r="G39" t="n">
-        <v>17495.61588714425</v>
+        <v>17648.75395696455</v>
       </c>
       <c r="H39" t="n">
-        <v>0.17</v>
+        <v>0.34</v>
       </c>
       <c r="I39" t="n">
-        <v>9912233</v>
+        <v>9822026</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>211809734</v>
+        <v>213412123</v>
       </c>
       <c r="E40" t="n">
-        <v>1199396862</v>
+        <v>1208470573</v>
       </c>
       <c r="F40" t="n">
-        <v>47059.82462485266</v>
+        <v>35237.4612958497</v>
       </c>
       <c r="G40" t="n">
-        <v>77574.56381586715</v>
+        <v>70822.70800532952</v>
       </c>
       <c r="H40" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I40" t="n">
-        <v>67194483</v>
+        <v>68359988</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>147437210</v>
+        <v>147621233</v>
       </c>
       <c r="E41" t="n">
-        <v>1092127478</v>
+        <v>1093490614</v>
       </c>
       <c r="F41" t="n">
-        <v>134248.2636526719</v>
+        <v>141622.6182575464</v>
       </c>
       <c r="G41" t="n">
-        <v>198605.9756421135</v>
+        <v>217456.2307617778</v>
       </c>
       <c r="H41" t="n">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="I41" t="n">
-        <v>8356819</v>
+        <v>8298750</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>32318853</v>
+        <v>32654208</v>
       </c>
       <c r="E42" t="n">
-        <v>153466555</v>
+        <v>155058991</v>
       </c>
       <c r="F42" t="n">
-        <v>6810.860545526652</v>
+        <v>7276.375680921899</v>
       </c>
       <c r="G42" t="n">
-        <v>8851.320823574564</v>
+        <v>8632.385776904399</v>
       </c>
       <c r="H42" t="n">
-        <v>0.33</v>
+        <v>0.13</v>
       </c>
       <c r="I42" t="n">
-        <v>1083441</v>
+        <v>1078903</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>3540948</v>
+        <v>3529222</v>
       </c>
       <c r="E43" t="n">
-        <v>8268704</v>
+        <v>8241321</v>
       </c>
       <c r="F43" t="n">
-        <v>830.2562658492757</v>
+        <v>1055.51069044554</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.546577766195</v>
+        <v>882.15632502624</v>
       </c>
       <c r="H43" t="n">
-        <v>2.17</v>
+        <v>1.27</v>
       </c>
       <c r="I43" t="n">
-        <v>626021</v>
+        <v>624463</v>
       </c>
     </row>
     <row r="44">
@@ -1967,22 +1967,22 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>350222931</v>
+        <v>350054163</v>
       </c>
       <c r="E44" t="n">
-        <v>3150822651</v>
+        <v>3149304314</v>
       </c>
       <c r="F44" t="n">
-        <v>49213.57372016637</v>
+        <v>50402.18238511822</v>
       </c>
       <c r="G44" t="n">
-        <v>50819.1841053484</v>
+        <v>46205.38801021031</v>
       </c>
       <c r="H44" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I44" t="n">
-        <v>44786215</v>
+        <v>45589840</v>
       </c>
     </row>
     <row r="45">
@@ -2005,19 +2005,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>635377</v>
+        <v>656340</v>
       </c>
       <c r="F45" t="n">
-        <v>679.9583897834156</v>
+        <v>256.9223503038898</v>
       </c>
       <c r="G45" t="n">
-        <v>310.0759114401679</v>
+        <v>587.0723522041751</v>
       </c>
       <c r="H45" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="I45" t="n">
-        <v>4504.11</v>
+        <v>11846.99</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1572715</v>
+        <v>1572185</v>
       </c>
       <c r="E46" t="n">
-        <v>13105959</v>
+        <v>13101544</v>
       </c>
       <c r="F46" t="n">
-        <v>229.7422502780597</v>
+        <v>244.97877092418</v>
       </c>
       <c r="G46" t="n">
-        <v>1444.140996130881</v>
+        <v>1580.10152560956</v>
       </c>
       <c r="H46" t="n">
         <v>0.15</v>
       </c>
       <c r="I46" t="n">
-        <v>21675</v>
+        <v>18665.9</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>4979542</v>
+        <v>4960459</v>
       </c>
       <c r="E47" t="n">
-        <v>17595037</v>
+        <v>17527609</v>
       </c>
       <c r="F47" t="n">
-        <v>918.0276423796594</v>
+        <v>823.9356915962401</v>
       </c>
       <c r="G47" t="n">
-        <v>1458.565587275653</v>
+        <v>1772.49463181478</v>
       </c>
       <c r="H47" t="n">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="I47" t="n">
-        <v>111423</v>
+        <v>101801</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50366070</v>
+        <v>50959493</v>
       </c>
       <c r="E48" t="n">
-        <v>291598733</v>
+        <v>295034407</v>
       </c>
       <c r="F48" t="n">
-        <v>15300.6756232293</v>
+        <v>15564.42047644254</v>
       </c>
       <c r="G48" t="n">
-        <v>6305.079153793325</v>
+        <v>7839.425922932521</v>
       </c>
       <c r="H48" t="n">
-        <v>0.58</v>
+        <v>0.34</v>
       </c>
       <c r="I48" t="n">
-        <v>41519288</v>
+        <v>42198750</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2304639</v>
+        <v>2311916</v>
       </c>
       <c r="E49" t="n">
-        <v>12662084</v>
+        <v>12702066</v>
       </c>
       <c r="F49" t="n">
-        <v>112.20980310005</v>
+        <v>109.71689497776</v>
       </c>
       <c r="G49" t="n">
-        <v>580.5609637976681</v>
+        <v>627.7356938565</v>
       </c>
       <c r="H49" t="n">
         <v>1.57</v>
       </c>
       <c r="I49" t="n">
-        <v>105138</v>
+        <v>103884</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14213499</v>
+        <v>14374278</v>
       </c>
       <c r="E50" t="n">
-        <v>14261868</v>
+        <v>14423195</v>
       </c>
       <c r="F50" t="n">
-        <v>4012.742971011421</v>
+        <v>4091.78573075718</v>
       </c>
       <c r="G50" t="n">
-        <v>9389.70852729495</v>
+        <v>8487.198199946519</v>
       </c>
       <c r="H50" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="I50" t="n">
-        <v>6497046</v>
+        <v>6566190</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>23146491</v>
+        <v>23459799</v>
       </c>
       <c r="E51" t="n">
-        <v>69382956</v>
+        <v>70324701</v>
       </c>
       <c r="F51" t="n">
-        <v>25265.13587301487</v>
+        <v>12215.93836139118</v>
       </c>
       <c r="G51" t="n">
-        <v>26247.88465641432</v>
+        <v>26366.63335675164</v>
       </c>
       <c r="H51" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="I51" t="n">
-        <v>3602816</v>
+        <v>3667105</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>16000676</v>
+        <v>15945028</v>
       </c>
       <c r="E52" t="n">
-        <v>98073405</v>
+        <v>97732322</v>
       </c>
       <c r="F52" t="n">
-        <v>6073.377310638939</v>
+        <v>5142.285426682799</v>
       </c>
       <c r="G52" t="n">
-        <v>7581.483882635705</v>
+        <v>6247.573517888458</v>
       </c>
       <c r="H52" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I52" t="n">
-        <v>10862333</v>
+        <v>10872906</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>51458983</v>
+        <v>52121444</v>
       </c>
       <c r="E53" t="n">
-        <v>221679671</v>
+        <v>224533480</v>
       </c>
       <c r="F53" t="n">
-        <v>22012.06678780748</v>
+        <v>19519.65632845962</v>
       </c>
       <c r="G53" t="n">
-        <v>26244.55665941603</v>
+        <v>22978.05037418484</v>
       </c>
       <c r="H53" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="I53" t="n">
-        <v>10577583</v>
+        <v>10302031</v>
       </c>
     </row>
     <row r="54">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1043312</v>
+        <v>1043026</v>
       </c>
       <c r="E54" t="n">
-        <v>3049421</v>
+        <v>3048584</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8879705474883052</v>
+        <v>0.8880631033776633</v>
       </c>
       <c r="G54" t="n">
-        <v>211.4572013670539</v>
+        <v>257.8047000458922</v>
       </c>
       <c r="H54" t="n">
         <v>1.28</v>
       </c>
       <c r="I54" t="n">
-        <v>20486</v>
+        <v>20592</v>
       </c>
     </row>
     <row r="55">
@@ -2352,22 +2352,22 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>38198600</v>
+        <v>38567808</v>
       </c>
       <c r="E55" t="n">
-        <v>96318530</v>
+        <v>97249496</v>
       </c>
       <c r="F55" t="n">
-        <v>17079.58770509149</v>
+        <v>1390.730460932901</v>
       </c>
       <c r="G55" t="n">
-        <v>11758.96525670444</v>
+        <v>15090.64040593441</v>
       </c>
       <c r="H55" t="n">
-        <v>0.39</v>
+        <v>1.01</v>
       </c>
       <c r="I55" t="n">
-        <v>3592170</v>
+        <v>3598886</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>29633835</v>
+        <v>28991915</v>
       </c>
       <c r="E56" t="n">
-        <v>70402624</v>
+        <v>68877581</v>
       </c>
       <c r="F56" t="n">
-        <v>4711.622669701383</v>
+        <v>5447.81855764818</v>
       </c>
       <c r="G56" t="n">
-        <v>9548.445046686784</v>
+        <v>8291.633704394399</v>
       </c>
       <c r="H56" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="I56" t="n">
-        <v>445129</v>
+        <v>437098</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>12769502</v>
+        <v>12780268</v>
       </c>
       <c r="E57" t="n">
-        <v>19438062</v>
+        <v>19454449</v>
       </c>
       <c r="F57" t="n">
-        <v>4024.980585301723</v>
+        <v>4197.937023791406</v>
       </c>
       <c r="G57" t="n">
-        <v>2951.485757679067</v>
+        <v>3161.415441503657</v>
       </c>
       <c r="H57" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="I57" t="n">
-        <v>653798</v>
+        <v>649947</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>311126805</v>
+        <v>311805714</v>
       </c>
       <c r="E58" t="n">
-        <v>311126805</v>
+        <v>311805714</v>
       </c>
       <c r="F58" t="n">
-        <v>56492.79803746258</v>
+        <v>66372.74686045227</v>
       </c>
       <c r="G58" t="n">
-        <v>87734.73672707658</v>
+        <v>87576.47382106273</v>
       </c>
       <c r="H58" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I58" t="n">
-        <v>72584927</v>
+        <v>73463911</v>
       </c>
     </row>
     <row r="59">
@@ -2495,19 +2495,19 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>11716739</v>
+        <v>11696244</v>
       </c>
       <c r="F59" t="n">
-        <v>287.1053730948263</v>
+        <v>45.49833849312</v>
       </c>
       <c r="G59" t="n">
-        <v>21.02767328727094</v>
+        <v>208.60862314374</v>
       </c>
       <c r="H59" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="I59" t="n">
-        <v>75927</v>
+        <v>80195</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>94438807</v>
+        <v>93922384</v>
       </c>
       <c r="E60" t="n">
-        <v>544197138</v>
+        <v>541221287</v>
       </c>
       <c r="F60" t="n">
-        <v>94645.33707129177</v>
+        <v>96372.57016664786</v>
       </c>
       <c r="G60" t="n">
-        <v>96094.36600097342</v>
+        <v>91795.46611093621</v>
       </c>
       <c r="H60" t="n">
         <v>0.13</v>
       </c>
       <c r="I60" t="n">
-        <v>18319590</v>
+        <v>18319160</v>
       </c>
     </row>
     <row r="61">
@@ -2562,22 +2562,22 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>9647725</v>
+        <v>9643359</v>
       </c>
       <c r="E61" t="n">
-        <v>9647725</v>
+        <v>9643359</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>14.56408733520082</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>48.56248989618457</v>
       </c>
       <c r="H61" t="n">
-        <v>4.22</v>
+        <v>3.23</v>
       </c>
       <c r="I61" t="n">
-        <v>2239526</v>
+        <v>2201098</v>
       </c>
     </row>
     <row r="62">
@@ -2597,22 +2597,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>33239182</v>
+        <v>33735432</v>
       </c>
       <c r="E62" t="n">
-        <v>148825454</v>
+        <v>151047367</v>
       </c>
       <c r="F62" t="n">
-        <v>16992.54315417365</v>
+        <v>17041.4350814196</v>
       </c>
       <c r="G62" t="n">
-        <v>22210.8693174825</v>
+        <v>18852.5661631002</v>
       </c>
       <c r="H62" t="n">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="I62" t="n">
-        <v>8717643</v>
+        <v>9218095</v>
       </c>
     </row>
     <row r="63">
@@ -2632,22 +2632,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>12863955</v>
+        <v>12842543</v>
       </c>
       <c r="E63" t="n">
-        <v>25709875</v>
+        <v>25667081</v>
       </c>
       <c r="F63" t="n">
-        <v>2344.307807392918</v>
+        <v>2376.39794686344</v>
       </c>
       <c r="G63" t="n">
-        <v>1987.477313468575</v>
+        <v>2054.30703699456</v>
       </c>
       <c r="H63" t="n">
         <v>0.22</v>
       </c>
       <c r="I63" t="n">
-        <v>15053.84</v>
+        <v>14969.72</v>
       </c>
     </row>
     <row r="64">
@@ -2670,19 +2670,19 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>1454334</v>
+        <v>1445928</v>
       </c>
       <c r="F64" t="n">
-        <v>294.4456440787785</v>
+        <v>102.0991799786452</v>
       </c>
       <c r="G64" t="n">
-        <v>51.22357214173856</v>
+        <v>9.803825198476835</v>
       </c>
       <c r="H64" t="n">
-        <v>2.17</v>
+        <v>2.22</v>
       </c>
       <c r="I64" t="n">
-        <v>48223</v>
+        <v>55518</v>
       </c>
     </row>
     <row r="65">
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>53054372</v>
+        <v>52929960</v>
       </c>
       <c r="E65" t="n">
-        <v>344043483</v>
+        <v>343236703</v>
       </c>
       <c r="F65" t="n">
-        <v>20688.5403688073</v>
+        <v>18995.02171066561</v>
       </c>
       <c r="G65" t="n">
-        <v>25586.23680926049</v>
+        <v>22076.28347673032</v>
       </c>
       <c r="H65" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="I65" t="n">
-        <v>17664521</v>
+        <v>17458415</v>
       </c>
     </row>
     <row r="66">
@@ -2740,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4812390</v>
+        <v>4873496</v>
       </c>
       <c r="F66" t="n">
-        <v>1091.431942014558</v>
+        <v>1089.23312099844</v>
       </c>
       <c r="G66" t="n">
-        <v>1156.13941800596</v>
+        <v>1224.15820440156</v>
       </c>
       <c r="H66" t="n">
-        <v>0.41</v>
+        <v>0.9</v>
       </c>
       <c r="I66" t="n">
-        <v>202610</v>
+        <v>228681</v>
       </c>
     </row>
     <row r="67">
@@ -2772,22 +2772,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>125012890</v>
+        <v>125083187</v>
       </c>
       <c r="E67" t="n">
-        <v>2070315845</v>
+        <v>2071480022</v>
       </c>
       <c r="F67" t="n">
-        <v>24326.06412090816</v>
+        <v>173366.0866560294</v>
       </c>
       <c r="G67" t="n">
-        <v>21918.28839761328</v>
+        <v>170035.0465007088</v>
       </c>
       <c r="H67" t="n">
         <v>0.14</v>
       </c>
       <c r="I67" t="n">
-        <v>4880083</v>
+        <v>4965787</v>
       </c>
     </row>
     <row r="68">
@@ -2807,22 +2807,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25352022</v>
+        <v>25292413</v>
       </c>
       <c r="E68" t="n">
-        <v>151686242</v>
+        <v>151329589</v>
       </c>
       <c r="F68" t="n">
-        <v>45267.91248066828</v>
+        <v>41258.33193333898</v>
       </c>
       <c r="G68" t="n">
-        <v>46346.8755121381</v>
+        <v>46020.67120641494</v>
       </c>
       <c r="H68" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>13628718</v>
+        <v>13835799</v>
       </c>
     </row>
     <row r="69">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>24020783</v>
+        <v>24647688</v>
       </c>
       <c r="E70" t="n">
-        <v>23993360</v>
+        <v>24648002</v>
       </c>
       <c r="F70" t="n">
-        <v>2357.662794676057</v>
+        <v>5324.2837639506</v>
       </c>
       <c r="G70" t="n">
-        <v>3107.668443354811</v>
+        <v>3424.716244773</v>
       </c>
       <c r="H70" t="n">
-        <v>0.26</v>
+        <v>0.52</v>
       </c>
       <c r="I70" t="n">
-        <v>2073794</v>
+        <v>2093371</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>36008147</v>
+        <v>35975886</v>
       </c>
       <c r="E71" t="n">
-        <v>179697255</v>
+        <v>179536255</v>
       </c>
       <c r="F71" t="n">
-        <v>18824.3510864682</v>
+        <v>20565.49574002626</v>
       </c>
       <c r="G71" t="n">
-        <v>51684.7577596091</v>
+        <v>55739.50413106302</v>
       </c>
       <c r="H71" t="n">
         <v>0.5600000000000001</v>
       </c>
       <c r="I71" t="n">
-        <v>10370029</v>
+        <v>10557146</v>
       </c>
     </row>
     <row r="72">
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>178474</v>
+        <v>178973</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
@@ -2954,7 +2954,7 @@
         <v>5.56</v>
       </c>
       <c r="I72" t="n">
-        <v>14523.76</v>
+        <v>16849.91</v>
       </c>
     </row>
     <row r="73">
@@ -2974,22 +2974,22 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>330668736</v>
+        <v>332014122</v>
       </c>
       <c r="E73" t="n">
-        <v>611812569</v>
+        <v>614301841</v>
       </c>
       <c r="F73" t="n">
-        <v>82560.74247886956</v>
+        <v>35088.41613983597</v>
       </c>
       <c r="G73" t="n">
-        <v>94825.21229045135</v>
+        <v>44647.79164042032</v>
       </c>
       <c r="H73" t="n">
         <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>14570167</v>
+        <v>14488295</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10998641</v>
+        <v>11134667</v>
       </c>
       <c r="E74" t="n">
-        <v>32622424</v>
+        <v>33025884</v>
       </c>
       <c r="F74" t="n">
-        <v>1286.977627638181</v>
+        <v>1375.573403029433</v>
       </c>
       <c r="G74" t="n">
-        <v>1522.257720190816</v>
+        <v>1694.325657015582</v>
       </c>
       <c r="H74" t="n">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="I74" t="n">
-        <v>6564507</v>
+        <v>6479800</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>8308728</v>
+        <v>8274323</v>
       </c>
       <c r="E75" t="n">
-        <v>11838034</v>
+        <v>11789014</v>
       </c>
       <c r="F75" t="n">
-        <v>3012.472283867915</v>
+        <v>3736.868899135397</v>
       </c>
       <c r="G75" t="n">
-        <v>939.0189097421978</v>
+        <v>841.554267226132</v>
       </c>
       <c r="H75" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="I75" t="n">
-        <v>398962</v>
+        <v>395140</v>
       </c>
     </row>
     <row r="76">
@@ -3082,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>16633233</v>
+        <v>16665205</v>
       </c>
       <c r="F76" t="n">
-        <v>601.5200615139489</v>
+        <v>367.691433523236</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6869331438077997</v>
+        <v>0.68701057632</v>
       </c>
       <c r="H76" t="n">
-        <v>1.71</v>
+        <v>0.74</v>
       </c>
       <c r="I76" t="n">
-        <v>1038477</v>
+        <v>1040873</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>76432737</v>
+        <v>76262755</v>
       </c>
       <c r="E77" t="n">
-        <v>105829445</v>
+        <v>105594538</v>
       </c>
       <c r="F77" t="n">
-        <v>9528.953633766194</v>
+        <v>9334.355679738303</v>
       </c>
       <c r="G77" t="n">
-        <v>18102.45555143925</v>
+        <v>16861.98092646725</v>
       </c>
       <c r="H77" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="I77" t="n">
-        <v>7174228</v>
+        <v>7173874</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>6137794</v>
+        <v>6310844</v>
       </c>
       <c r="E78" t="n">
-        <v>6137794</v>
+        <v>6310844</v>
       </c>
       <c r="F78" t="n">
-        <v>364.1672559388062</v>
+        <v>516.107753136</v>
       </c>
       <c r="G78" t="n">
-        <v>199.2451353741436</v>
+        <v>314.9652296735999</v>
       </c>
       <c r="H78" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="I78" t="n">
-        <v>1241076</v>
+        <v>1279002</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>64110</v>
+        <v>62399</v>
       </c>
       <c r="E79" t="n">
-        <v>334500</v>
+        <v>325570</v>
       </c>
       <c r="F79" t="n">
-        <v>335.7836187534367</v>
+        <v>11.44459682172</v>
       </c>
       <c r="G79" t="n">
-        <v>19.78312054944638</v>
+        <v>754.0506332040597</v>
       </c>
       <c r="H79" t="n">
-        <v>1.58</v>
+        <v>1.23</v>
       </c>
       <c r="I79" t="n">
-        <v>217150</v>
+        <v>211783</v>
       </c>
     </row>
     <row r="80">
@@ -3222,19 +3222,19 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>27372247</v>
+        <v>27696428</v>
       </c>
       <c r="F80" t="n">
-        <v>535.1221416612964</v>
+        <v>1811.154478578558</v>
       </c>
       <c r="G80" t="n">
-        <v>3706.225586704664</v>
+        <v>271.8931062225623</v>
       </c>
       <c r="H80" t="n">
-        <v>1.29</v>
+        <v>0.61</v>
       </c>
       <c r="I80" t="n">
-        <v>61748</v>
+        <v>64030</v>
       </c>
     </row>
     <row r="81">
@@ -3254,22 +3254,22 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>633580180</v>
+        <v>629459559</v>
       </c>
       <c r="E81" t="n">
-        <v>2453762560</v>
+        <v>2437804003</v>
       </c>
       <c r="F81" t="n">
-        <v>184154.8897175603</v>
+        <v>184969.3463905839</v>
       </c>
       <c r="G81" t="n">
-        <v>173430.3960730802</v>
+        <v>289275.2367991447</v>
       </c>
       <c r="H81" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>39891199</v>
+        <v>40817680</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7583547</v>
+        <v>7615402</v>
       </c>
       <c r="E82" t="n">
-        <v>10865677</v>
+        <v>10911318</v>
       </c>
       <c r="F82" t="n">
-        <v>1299.171744165846</v>
+        <v>1106.169179575721</v>
       </c>
       <c r="G82" t="n">
-        <v>1141.83397015429</v>
+        <v>771.2010169184032</v>
       </c>
       <c r="H82" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="I82" t="n">
-        <v>201277</v>
+        <v>202498</v>
       </c>
     </row>
     <row r="83">
@@ -3324,22 +3324,22 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>118858453</v>
+        <v>119779516</v>
       </c>
       <c r="E83" t="n">
-        <v>1104348104</v>
+        <v>1112905967</v>
       </c>
       <c r="F83" t="n">
-        <v>46136.01793764823</v>
+        <v>45111.61418093459</v>
       </c>
       <c r="G83" t="n">
-        <v>46336.49019517284</v>
+        <v>63862.9674155136</v>
       </c>
       <c r="H83" t="n">
         <v>0.09</v>
       </c>
       <c r="I83" t="n">
-        <v>10238117</v>
+        <v>10131955</v>
       </c>
     </row>
     <row r="84">
@@ -3359,22 +3359,22 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1126093</v>
+        <v>1130572</v>
       </c>
       <c r="E84" t="n">
-        <v>4360479</v>
+        <v>4377821</v>
       </c>
       <c r="F84" t="n">
-        <v>907.3935508857401</v>
+        <v>811.32187785714</v>
       </c>
       <c r="G84" t="n">
-        <v>313.6390806819734</v>
+        <v>537.1406242610399</v>
       </c>
       <c r="H84" t="n">
-        <v>1.36</v>
+        <v>0.45</v>
       </c>
       <c r="I84" t="n">
-        <v>382262</v>
+        <v>369119</v>
       </c>
     </row>
     <row r="85">
@@ -3394,22 +3394,22 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>127718419</v>
+        <v>127542237</v>
       </c>
       <c r="E85" t="n">
-        <v>489948414</v>
+        <v>489272551</v>
       </c>
       <c r="F85" t="n">
-        <v>74927.80821057949</v>
+        <v>66669.14548416312</v>
       </c>
       <c r="G85" t="n">
-        <v>84183.82890899097</v>
+        <v>87938.88998827318</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="I85" t="n">
-        <v>38967895</v>
+        <v>38809433</v>
       </c>
     </row>
     <row r="86">
@@ -3429,22 +3429,22 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5320961</v>
+        <v>5333874</v>
       </c>
       <c r="E86" t="n">
-        <v>19772793</v>
+        <v>19820776</v>
       </c>
       <c r="F86" t="n">
-        <v>3527.151704644782</v>
+        <v>3916.034221288929</v>
       </c>
       <c r="G86" t="n">
-        <v>4184.531268993363</v>
+        <v>3913.021862404195</v>
       </c>
       <c r="H86" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="I86" t="n">
-        <v>75918</v>
+        <v>78264</v>
       </c>
     </row>
     <row r="87">
@@ -3467,19 +3467,19 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>33758603</v>
+        <v>34592758</v>
       </c>
       <c r="F87" t="n">
-        <v>5212.719718104276</v>
+        <v>5247.0894736521</v>
       </c>
       <c r="G87" t="n">
-        <v>2747.591558578922</v>
+        <v>874.10053806606</v>
       </c>
       <c r="H87" t="n">
-        <v>0.41</v>
+        <v>0.2</v>
       </c>
       <c r="I87" t="n">
-        <v>4721415</v>
+        <v>5302292</v>
       </c>
     </row>
     <row r="88">
@@ -3502,19 +3502,19 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>25299087</v>
+        <v>25358514</v>
       </c>
       <c r="F88" t="n">
-        <v>821.6781895443306</v>
+        <v>415.4091399847453</v>
       </c>
       <c r="G88" t="n">
-        <v>773.792676556675</v>
+        <v>835.1364625515143</v>
       </c>
       <c r="H88" t="n">
-        <v>0.19</v>
+        <v>0.04</v>
       </c>
       <c r="I88" t="n">
-        <v>16678.57</v>
+        <v>16575.77</v>
       </c>
     </row>
     <row r="89">
@@ -3534,22 +3534,22 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>89332662</v>
+        <v>89235333</v>
       </c>
       <c r="E89" t="n">
-        <v>330218484</v>
+        <v>329857959</v>
       </c>
       <c r="F89" t="n">
-        <v>1250.907185158217</v>
+        <v>1105.6747465238</v>
       </c>
       <c r="G89" t="n">
-        <v>1564.003896413929</v>
+        <v>1621.531889768054</v>
       </c>
       <c r="H89" t="n">
-        <v>0.66</v>
+        <v>0.88</v>
       </c>
       <c r="I89" t="n">
-        <v>181557</v>
+        <v>179963</v>
       </c>
     </row>
     <row r="90">
@@ -3569,22 +3569,22 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>20587428</v>
+        <v>21182113</v>
       </c>
       <c r="E90" t="n">
-        <v>20587428</v>
+        <v>21182113</v>
       </c>
       <c r="F90" t="n">
-        <v>3136.301479784546</v>
+        <v>3726.527735987552</v>
       </c>
       <c r="G90" t="n">
-        <v>6208.063266289212</v>
+        <v>4430.142194933084</v>
       </c>
       <c r="H90" t="n">
-        <v>0.86</v>
+        <v>0.55</v>
       </c>
       <c r="I90" t="n">
-        <v>7023583</v>
+        <v>7096063</v>
       </c>
     </row>
     <row r="91">
@@ -3604,22 +3604,22 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3816531</v>
+        <v>3818441</v>
       </c>
       <c r="E91" t="n">
-        <v>8319502</v>
+        <v>8323665</v>
       </c>
       <c r="F91" t="n">
-        <v>1881.262995261684</v>
+        <v>1730.14479171846</v>
       </c>
       <c r="G91" t="n">
-        <v>2364.677225878024</v>
+        <v>2301.908585663699</v>
       </c>
       <c r="H91" t="n">
         <v>0.6</v>
       </c>
       <c r="I91" t="n">
-        <v>1768335</v>
+        <v>1779015</v>
       </c>
     </row>
     <row r="92">
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>512504692</v>
+        <v>515850099</v>
       </c>
       <c r="E92" t="n">
-        <v>1783986180</v>
+        <v>1795631265</v>
       </c>
       <c r="F92" t="n">
-        <v>171241.6240179001</v>
+        <v>175636.3968914575</v>
       </c>
       <c r="G92" t="n">
-        <v>182812.5458931016</v>
+        <v>181148.3422494</v>
       </c>
       <c r="H92" t="n">
         <v>0.06</v>
       </c>
       <c r="I92" t="n">
-        <v>36344974</v>
+        <v>36706867</v>
       </c>
     </row>
     <row r="93">
@@ -3674,22 +3674,22 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2625450</v>
+        <v>2638776</v>
       </c>
       <c r="E93" t="n">
-        <v>10501799</v>
+        <v>10555103</v>
       </c>
       <c r="F93" t="n">
-        <v>2509.911161785252</v>
+        <v>2773.390140704142</v>
       </c>
       <c r="G93" t="n">
-        <v>3136.184908956848</v>
+        <v>2945.4103676376</v>
       </c>
       <c r="H93" t="n">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="I93" t="n">
-        <v>7027130</v>
+        <v>7086361</v>
       </c>
     </row>
     <row r="94">
@@ -3709,22 +3709,22 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>230029797</v>
+        <v>230999013</v>
       </c>
       <c r="E94" t="n">
-        <v>707255061</v>
+        <v>710235036</v>
       </c>
       <c r="F94" t="n">
-        <v>109540.2714102479</v>
+        <v>107324.8067730568</v>
       </c>
       <c r="G94" t="n">
-        <v>109537.4898927682</v>
+        <v>104505.3779425265</v>
       </c>
       <c r="H94" t="n">
         <v>0.06</v>
       </c>
       <c r="I94" t="n">
-        <v>17064411</v>
+        <v>16928695</v>
       </c>
     </row>
     <row r="95">
@@ -3744,22 +3744,22 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>148820723</v>
+        <v>150841387</v>
       </c>
       <c r="E95" t="n">
-        <v>388790011</v>
+        <v>394068938</v>
       </c>
       <c r="F95" t="n">
-        <v>32837.9491182605</v>
+        <v>31112.39711159766</v>
       </c>
       <c r="G95" t="n">
-        <v>30199.75806957488</v>
+        <v>31600.53451533311</v>
       </c>
       <c r="H95" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I95" t="n">
-        <v>8800024</v>
+        <v>8593186</v>
       </c>
     </row>
     <row r="96">
@@ -3779,22 +3779,22 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>410879511</v>
+        <v>416043583</v>
       </c>
       <c r="E96" t="n">
-        <v>2347882922</v>
+        <v>2377391905</v>
       </c>
       <c r="F96" t="n">
-        <v>18120.4938432313</v>
+        <v>19121.83178986406</v>
       </c>
       <c r="G96" t="n">
-        <v>50089.58962674484</v>
+        <v>45788.01616715713</v>
       </c>
       <c r="H96" t="n">
         <v>0.09</v>
       </c>
       <c r="I96" t="n">
-        <v>43076434</v>
+        <v>43465147</v>
       </c>
     </row>
   </sheetData>

--- a/KuCoinData20250221.xlsx
+++ b/KuCoinData20250221.xlsx
@@ -497,22 +497,20 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>655348154</v>
+        <v>657742841</v>
       </c>
       <c r="E2" t="n">
-        <v>1271710403</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9695.721512332795</v>
-      </c>
-      <c r="G2" t="n">
-        <v>32843.84402978099</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.12</v>
+        <v>1276356402</v>
+      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I2" t="n">
-        <v>26273351</v>
+        <v>29643908</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +530,20 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1382478</v>
+        <v>1474798</v>
       </c>
       <c r="E3" t="n">
-        <v>4468737</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1971.914176465242</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1830.33339959181</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.42</v>
+        <v>4767153</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>212129</v>
+        <v>225126</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +563,20 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>259779369</v>
+        <v>258072963</v>
       </c>
       <c r="E4" t="n">
-        <v>1629039907</v>
-      </c>
-      <c r="F4" t="n">
-        <v>145704.1936573721</v>
-      </c>
-      <c r="G4" t="n">
-        <v>150971.7425802356</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.13</v>
+        <v>1618339274</v>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I4" t="n">
-        <v>17497024</v>
+        <v>17745756</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +596,20 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>153534600</v>
+        <v>152371278</v>
       </c>
       <c r="E5" t="n">
-        <v>170140331</v>
-      </c>
-      <c r="F5" t="n">
-        <v>5457.763843752999</v>
-      </c>
-      <c r="G5" t="n">
-        <v>12299.87252841168</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.58</v>
+        <v>168851189</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>43954413</v>
+        <v>44988611</v>
       </c>
     </row>
     <row r="6">
@@ -628,7 +620,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Avalanche Ecosystem, Play To Earn, Ethereum Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,24 +628,16 @@
           <t>arcade-2</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>707009</v>
-      </c>
-      <c r="E6" t="n">
-        <v>13735178</v>
-      </c>
-      <c r="F6" t="n">
-        <v>6758.933889843585</v>
-      </c>
-      <c r="G6" t="n">
-        <v>232.266766793982</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="I6" t="n">
-        <v>22165</v>
-      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -672,22 +656,20 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>557931844</v>
+        <v>542247261</v>
       </c>
       <c r="E7" t="n">
-        <v>557931844</v>
-      </c>
-      <c r="F7" t="n">
-        <v>26230.71259053828</v>
-      </c>
-      <c r="G7" t="n">
-        <v>35102.47486015313</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.18</v>
+        <v>542247261</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I7" t="n">
-        <v>78327535</v>
+        <v>82182232</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +689,20 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4767833</v>
+        <v>4799722</v>
       </c>
       <c r="E8" t="n">
-        <v>4767833</v>
-      </c>
-      <c r="F8" t="n">
-        <v>689.4184979258843</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2278.596518784796</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.79</v>
+        <v>4799722</v>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I8" t="n">
-        <v>2090014</v>
+        <v>2086726</v>
       </c>
     </row>
     <row r="9">
@@ -733,7 +713,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ethereum Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -741,24 +721,16 @@
           <t>befi-labs</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1730105</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4037.852905577761</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1146.942462855294</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="I9" t="n">
-        <v>165993</v>
-      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -768,7 +740,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Solana Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -776,24 +748,16 @@
           <t>bitbrawl</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2591120</v>
-      </c>
-      <c r="F10" t="n">
-        <v>199.48405937382</v>
-      </c>
-      <c r="G10" t="n">
-        <v>83.503562582898</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I10" t="n">
-        <v>482632</v>
-      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -803,7 +767,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Exchange-based Tokens, Centralized Exchange (CEX) Token, Ethereum Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -811,24 +775,16 @@
           <t>bitmart-token</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>110220444</v>
-      </c>
-      <c r="E11" t="n">
-        <v>207642251</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2373.657220352442</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1512.56257596644</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4101665</v>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -838,7 +794,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Infrastructure, Analytics, NFT, Polygon Ecosystem, Ethereum Ecosystem, Animoca Brands Portfolio, Coinbase Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -846,24 +802,16 @@
           <t>bitscrunch-token</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>12278930</v>
-      </c>
-      <c r="E12" t="n">
-        <v>30560035</v>
-      </c>
-      <c r="F12" t="n">
-        <v>720.1351271014527</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2633.347804809317</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1363190</v>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -873,7 +821,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Layer 2 (L2), eGirl Capital Portfolio, Paradigm Portfolio, Blast Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -881,24 +829,16 @@
           <t>blast</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>116314808</v>
-      </c>
-      <c r="E13" t="n">
-        <v>452344139</v>
-      </c>
-      <c r="F13" t="n">
-        <v>31475.43962211509</v>
-      </c>
-      <c r="G13" t="n">
-        <v>33605.93093587289</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11325632</v>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -908,7 +848,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Ethereum Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -916,24 +856,16 @@
           <t>blockgames</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>5089992</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7492743</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.5873426018</v>
-      </c>
-      <c r="G14" t="n">
-        <v>268.2429630418799</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="I14" t="n">
-        <v>585672</v>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -952,22 +884,20 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>148474593</v>
+        <v>148224553</v>
       </c>
       <c r="E15" t="n">
-        <v>148474593</v>
-      </c>
-      <c r="F15" t="n">
-        <v>50689.27821412096</v>
-      </c>
-      <c r="G15" t="n">
-        <v>82858.15345357977</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.05</v>
+        <v>148224553</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I15" t="n">
-        <v>75962792</v>
+        <v>76882880</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +917,20 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>70380611</v>
+        <v>69256778</v>
       </c>
       <c r="E16" t="n">
-        <v>360926209</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9272.368101057122</v>
-      </c>
-      <c r="G16" t="n">
-        <v>32367.3429316986</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.12</v>
+        <v>355162966</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I16" t="n">
-        <v>25121514</v>
+        <v>25213210</v>
       </c>
     </row>
     <row r="17">
@@ -1022,22 +950,20 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>276888342</v>
+        <v>275014694</v>
       </c>
       <c r="E17" t="n">
-        <v>276888342</v>
-      </c>
-      <c r="F17" t="n">
-        <v>66271.87523774755</v>
-      </c>
-      <c r="G17" t="n">
-        <v>51923.19793936842</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.03</v>
+        <v>275014694</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I17" t="n">
-        <v>16128570</v>
+        <v>20869529</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +983,20 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2565662</v>
+        <v>2568506</v>
       </c>
       <c r="E18" t="n">
-        <v>6559338</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1103.58066439008</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1187.68773454416</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.15</v>
+        <v>6566608</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I18" t="n">
-        <v>103773</v>
+        <v>114833</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1016,20 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>90358630</v>
+        <v>86566575</v>
       </c>
       <c r="E19" t="n">
-        <v>252777435</v>
-      </c>
-      <c r="F19" t="n">
-        <v>20022.17339793636</v>
-      </c>
-      <c r="G19" t="n">
-        <v>14111.03555358588</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.19</v>
+        <v>242148022</v>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I19" t="n">
-        <v>45805582</v>
+        <v>43898107</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1049,20 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1612968</v>
+        <v>1611756</v>
       </c>
       <c r="E20" t="n">
-        <v>9261062</v>
-      </c>
-      <c r="F20" t="n">
-        <v>47.66724626256</v>
-      </c>
-      <c r="G20" t="n">
-        <v>828.4204113202799</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.65</v>
+        <v>9254102</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I20" t="n">
-        <v>232745</v>
+        <v>235188</v>
       </c>
     </row>
     <row r="21">
@@ -1153,7 +1073,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SocialFi, BNB Chain Ecosystem, Meme</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1161,24 +1081,16 @@
           <t>dechat</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>173691</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1172955</v>
-      </c>
-      <c r="F21" t="n">
-        <v>87.57006824275012</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6.648188435290006</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2932560</v>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1200,19 +1112,17 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>259757</v>
-      </c>
-      <c r="F22" t="n">
-        <v>21.1448012193</v>
-      </c>
-      <c r="G22" t="n">
-        <v>183.5012339193599</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.75</v>
+        <v>261622</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I22" t="n">
-        <v>3264.53</v>
+        <v>3295.83</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1142,20 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>97179689</v>
+        <v>93029944</v>
       </c>
       <c r="E23" t="n">
-        <v>202611846</v>
-      </c>
-      <c r="F23" t="n">
-        <v>28262.91776954346</v>
-      </c>
-      <c r="G23" t="n">
-        <v>47561.98328930088</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.36</v>
+        <v>193959962</v>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I23" t="n">
-        <v>39080505</v>
+        <v>49574623</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1175,20 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>212109004</v>
+        <v>208967730</v>
       </c>
       <c r="E24" t="n">
-        <v>736885849</v>
-      </c>
-      <c r="F24" t="n">
-        <v>62964.64651378986</v>
-      </c>
-      <c r="G24" t="n">
-        <v>62377.41875925997</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.11</v>
+        <v>725972779</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I24" t="n">
-        <v>33708655</v>
+        <v>34121681</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1208,20 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>121598628</v>
+        <v>120235892</v>
       </c>
       <c r="E25" t="n">
-        <v>516221964</v>
-      </c>
-      <c r="F25" t="n">
-        <v>15778.86369338332</v>
-      </c>
-      <c r="G25" t="n">
-        <v>16778.84501714568</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.41</v>
+        <v>510383167</v>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I25" t="n">
-        <v>15115700</v>
+        <v>15097312</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1241,20 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6072888</v>
+        <v>6049994</v>
       </c>
       <c r="E26" t="n">
-        <v>8244471</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1421.327706964652</v>
-      </c>
-      <c r="G26" t="n">
-        <v>630.7965158472111</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.46</v>
+        <v>8213099</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I26" t="n">
-        <v>1487322</v>
+        <v>1487951</v>
       </c>
     </row>
     <row r="27">
@@ -1372,22 +1274,20 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>566241</v>
+        <v>565244</v>
       </c>
       <c r="E27" t="n">
-        <v>6867957</v>
-      </c>
-      <c r="F27" t="n">
-        <v>550.54422529146</v>
-      </c>
-      <c r="G27" t="n">
-        <v>801.2598764167799</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.8</v>
+        <v>6855859</v>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I27" t="n">
-        <v>2744303</v>
+        <v>2741127</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1307,20 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26894417</v>
+        <v>26719600</v>
       </c>
       <c r="E28" t="n">
-        <v>38006148</v>
-      </c>
-      <c r="F28" t="n">
-        <v>15.64662270808541</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.768790333663063</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1.79</v>
+        <v>37759103</v>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I28" t="n">
-        <v>80746</v>
+        <v>87876</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1340,20 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1469991407</v>
+        <v>1444162190</v>
       </c>
       <c r="E29" t="n">
-        <v>7048909845</v>
-      </c>
-      <c r="F29" t="n">
-        <v>177731.9232434883</v>
-      </c>
-      <c r="G29" t="n">
-        <v>225427.718513861</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.02</v>
+        <v>6925053456</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I29" t="n">
-        <v>253944617</v>
+        <v>261331615</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1373,20 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>289065226</v>
+        <v>282833340</v>
       </c>
       <c r="E30" t="n">
-        <v>1247765988</v>
-      </c>
-      <c r="F30" t="n">
-        <v>204843.9636867059</v>
-      </c>
-      <c r="G30" t="n">
-        <v>228536.733555657</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.08</v>
+        <v>1220865706</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I30" t="n">
-        <v>111769722</v>
+        <v>113410251</v>
       </c>
     </row>
     <row r="31">
@@ -1503,7 +1397,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Ethereum Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1511,24 +1405,16 @@
           <t>forward</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>5355203</v>
-      </c>
-      <c r="E31" t="n">
-        <v>5361264</v>
-      </c>
-      <c r="F31" t="n">
-        <v>106.6915643958679</v>
-      </c>
-      <c r="G31" t="n">
-        <v>208.4895043438024</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="I31" t="n">
-        <v>144401</v>
-      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1547,22 +1433,20 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19659772</v>
+        <v>19443346</v>
       </c>
       <c r="E32" t="n">
-        <v>49149429</v>
-      </c>
-      <c r="F32" t="n">
-        <v>562.518564110298</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2669.209284922435</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.63</v>
+        <v>48608365</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I32" t="n">
-        <v>2289022</v>
+        <v>2295157</v>
       </c>
     </row>
     <row r="33">
@@ -1585,19 +1469,17 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>19805519</v>
-      </c>
-      <c r="F33" t="n">
-        <v>2010.565695828279</v>
-      </c>
-      <c r="G33" t="n">
-        <v>1728.047072127559</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1.01</v>
+        <v>19803793</v>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I33" t="n">
-        <v>37085</v>
+        <v>36791</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1499,20 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4202525</v>
+        <v>4169946</v>
       </c>
       <c r="E34" t="n">
-        <v>12105553</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1960.498660887365</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1480.179042661254</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.58</v>
+        <v>12011707</v>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I34" t="n">
-        <v>614949</v>
+        <v>621155</v>
       </c>
     </row>
     <row r="35">
@@ -1643,7 +1523,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), NFT, BNB Chain Ecosystem, Binance Labs Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1651,24 +1531,16 @@
           <t>gameta</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>1627604</v>
-      </c>
-      <c r="F35" t="n">
-        <v>266.5486336307399</v>
-      </c>
-      <c r="G35" t="n">
-        <v>5.50273834008</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11458.4</v>
-      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1678,7 +1550,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Ethereum Ecosystem, Animoca Brands Portfolio, Base Ecosystem, Gaming Governance Token, Strategy Games, Alameda Research Portfolio, Binance Labs Portfolio, Delphi Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1686,24 +1558,16 @@
           <t>heroes-of-mavia</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>16633187</v>
-      </c>
-      <c r="E36" t="n">
-        <v>80557178</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4557.659056447007</v>
-      </c>
-      <c r="G36" t="n">
-        <v>6954.526710720981</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4368674</v>
-      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1713,7 +1577,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ethereum Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1721,24 +1585,16 @@
           <t>holograph</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>1473055</v>
-      </c>
-      <c r="E37" t="n">
-        <v>9641105</v>
-      </c>
-      <c r="F37" t="n">
-        <v>63.91705111362</v>
-      </c>
-      <c r="G37" t="n">
-        <v>58.13122518989999</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I37" t="n">
-        <v>527196</v>
-      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1748,7 +1604,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Ethereum Ecosystem, Tron Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1756,24 +1612,16 @@
           <t>htx-dao</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>1928289510</v>
-      </c>
-      <c r="F38" t="n">
-        <v>77208.68113535931</v>
-      </c>
-      <c r="G38" t="n">
-        <v>76826.13168294569</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="I38" t="n">
-        <v>28105452</v>
-      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1783,7 +1631,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, BNB Chain Ecosystem, Layer 1 (L1), Ethereum Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1791,24 +1639,16 @@
           <t>ice</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>32379365</v>
-      </c>
-      <c r="E39" t="n">
-        <v>100818952</v>
-      </c>
-      <c r="F39" t="n">
-        <v>4346.208546771278</v>
-      </c>
-      <c r="G39" t="n">
-        <v>17648.75395696455</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9822026</v>
-      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1827,22 +1667,20 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>213412123</v>
+        <v>212022365</v>
       </c>
       <c r="E40" t="n">
-        <v>1208470573</v>
-      </c>
-      <c r="F40" t="n">
-        <v>35237.4612958497</v>
-      </c>
-      <c r="G40" t="n">
-        <v>70822.70800532952</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.2</v>
+        <v>1200600906</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I40" t="n">
-        <v>68359988</v>
+        <v>69878918</v>
       </c>
     </row>
     <row r="41">
@@ -1853,7 +1691,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Decentralized Finance (DeFi), Lending/Borrowing Protocols, Solana Ecosystem, Binance Alpha Spotlight</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1861,24 +1699,16 @@
           <t>kamino</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>147621233</v>
-      </c>
-      <c r="E41" t="n">
-        <v>1093490614</v>
-      </c>
-      <c r="F41" t="n">
-        <v>141622.6182575464</v>
-      </c>
-      <c r="G41" t="n">
-        <v>217456.2307617778</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8298750</v>
-      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1888,7 +1718,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Infrastructure, Gaming (GameFi), Ethereum Ecosystem, Gaming Governance Token</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1896,24 +1726,16 @@
           <t>karrat</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>32654208</v>
-      </c>
-      <c r="E42" t="n">
-        <v>155058991</v>
-      </c>
-      <c r="F42" t="n">
-        <v>7276.375680921899</v>
-      </c>
-      <c r="G42" t="n">
-        <v>8632.385776904399</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1078903</v>
-      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1923,7 +1745,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), BNB Chain Ecosystem, AI Agents, AI Applications</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1931,24 +1753,16 @@
           <t>laika-ai</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>3529222</v>
-      </c>
-      <c r="E43" t="n">
-        <v>8241321</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1055.51069044554</v>
-      </c>
-      <c r="G43" t="n">
-        <v>882.15632502624</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="I43" t="n">
-        <v>624463</v>
-      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1967,22 +1781,20 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>350054163</v>
+        <v>345102934</v>
       </c>
       <c r="E44" t="n">
-        <v>3149304314</v>
-      </c>
-      <c r="F44" t="n">
-        <v>50402.18238511822</v>
-      </c>
-      <c r="G44" t="n">
-        <v>46205.38801021031</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.04</v>
+        <v>3104759988</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I44" t="n">
-        <v>45589840</v>
+        <v>46948741</v>
       </c>
     </row>
     <row r="45">
@@ -1993,7 +1805,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ethereum Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2001,24 +1813,16 @@
           <t>lends</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>656340</v>
-      </c>
-      <c r="F45" t="n">
-        <v>256.9223503038898</v>
-      </c>
-      <c r="G45" t="n">
-        <v>587.0723522041751</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="I45" t="n">
-        <v>11846.99</v>
-      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2028,7 +1832,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2036,24 +1840,16 @@
           <t>lifeform</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>1572185</v>
-      </c>
-      <c r="E46" t="n">
-        <v>13101544</v>
-      </c>
-      <c r="F46" t="n">
-        <v>244.97877092418</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1580.10152560956</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I46" t="n">
-        <v>18665.9</v>
-      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2063,7 +1859,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Infrastructure, Smart Contract Platform, Ethereum Ecosystem, Layer 2 (L2), Rollup, LightLink Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2071,24 +1867,16 @@
           <t>lightlink</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>4960459</v>
-      </c>
-      <c r="E47" t="n">
-        <v>17527609</v>
-      </c>
-      <c r="F47" t="n">
-        <v>823.9356915962401</v>
-      </c>
-      <c r="G47" t="n">
-        <v>1772.49463181478</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="I47" t="n">
-        <v>101801</v>
-      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2107,22 +1895,20 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>50959493</v>
+        <v>50766240</v>
       </c>
       <c r="E48" t="n">
-        <v>295034407</v>
-      </c>
-      <c r="F48" t="n">
-        <v>15564.42047644254</v>
-      </c>
-      <c r="G48" t="n">
-        <v>7839.425922932521</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.34</v>
+        <v>293915554</v>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I48" t="n">
-        <v>42198750</v>
+        <v>42369616</v>
       </c>
     </row>
     <row r="49">
@@ -2133,7 +1919,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Launchpad, Binance Labs Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2141,24 +1927,16 @@
           <t>magic-square</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>2311916</v>
-      </c>
-      <c r="E49" t="n">
-        <v>12702066</v>
-      </c>
-      <c r="F49" t="n">
-        <v>109.71689497776</v>
-      </c>
-      <c r="G49" t="n">
-        <v>627.7356938565</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I49" t="n">
-        <v>103884</v>
-      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2168,7 +1946,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Solana Ecosystem, Meme, Solana Meme, Cat-Themed</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2176,24 +1954,16 @@
           <t>maneki</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>14374278</v>
-      </c>
-      <c r="E50" t="n">
-        <v>14423195</v>
-      </c>
-      <c r="F50" t="n">
-        <v>4091.78573075718</v>
-      </c>
-      <c r="G50" t="n">
-        <v>8487.198199946519</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="I50" t="n">
-        <v>6566190</v>
-      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2203,7 +1973,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), BNB Chain Ecosystem, Ethereum Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2211,24 +1981,16 @@
           <t>masa-finance</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>23459799</v>
-      </c>
-      <c r="E51" t="n">
-        <v>70324701</v>
-      </c>
-      <c r="F51" t="n">
-        <v>12215.93836139118</v>
-      </c>
-      <c r="G51" t="n">
-        <v>26366.63335675164</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3667105</v>
-      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2238,7 +2000,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Polygon Ecosystem, Ethereum Ecosystem, Gaming Platform</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2246,24 +2008,16 @@
           <t>matr1x</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>15945028</v>
-      </c>
-      <c r="E52" t="n">
-        <v>97732322</v>
-      </c>
-      <c r="F52" t="n">
-        <v>5142.285426682799</v>
-      </c>
-      <c r="G52" t="n">
-        <v>6247.573517888458</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10872906</v>
-      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2273,7 +2027,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Ethereum Ecosystem, Layer 2 (L2), Merlin Chain Ecosystem, Bitcoin Sidechains, SideChain, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2281,24 +2035,16 @@
           <t>merlin-chain</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>52121444</v>
-      </c>
-      <c r="E53" t="n">
-        <v>224533480</v>
-      </c>
-      <c r="F53" t="n">
-        <v>19519.65632845962</v>
-      </c>
-      <c r="G53" t="n">
-        <v>22978.05037418484</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="I53" t="n">
-        <v>10302031</v>
-      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2308,7 +2054,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Gaming (GameFi), Solana Ecosystem, Gaming Governance Token, Racing Games, AI Agents, DeFiance Capital Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2316,24 +2062,16 @@
           <t>mixmob</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>1043026</v>
-      </c>
-      <c r="E54" t="n">
-        <v>3048584</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.8880631033776633</v>
-      </c>
-      <c r="G54" t="n">
-        <v>257.8047000458922</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="I54" t="n">
-        <v>20592</v>
-      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2343,7 +2081,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Decentralized Finance (DeFi), Lending/Borrowing Protocols, Sui Ecosystem, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2351,24 +2089,16 @@
           <t>navi</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>38567808</v>
-      </c>
-      <c r="E55" t="n">
-        <v>97249496</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1390.730460932901</v>
-      </c>
-      <c r="G55" t="n">
-        <v>15090.64040593441</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3598886</v>
-      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2378,7 +2108,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Gaming (GameFi), Arbitrum Ecosystem, Paradigm Portfolio, AI Agents, AI Framework</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2386,24 +2116,16 @@
           <t>neuron</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>28991915</v>
-      </c>
-      <c r="E56" t="n">
-        <v>68877581</v>
-      </c>
-      <c r="F56" t="n">
-        <v>5447.81855764818</v>
-      </c>
-      <c r="G56" t="n">
-        <v>8291.633704394399</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I56" t="n">
-        <v>437098</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2413,7 +2135,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Infrastructure, Smart Contract Platform, Layer 1 (L1), Osmosis Ecosystem, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2421,24 +2143,16 @@
           <t>nibiru</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>12780268</v>
-      </c>
-      <c r="E57" t="n">
-        <v>19454449</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4197.937023791406</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3161.415441503657</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="I57" t="n">
-        <v>649947</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2457,22 +2171,20 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>311805714</v>
+        <v>311326145</v>
       </c>
       <c r="E58" t="n">
-        <v>311805714</v>
-      </c>
-      <c r="F58" t="n">
-        <v>66372.74686045227</v>
-      </c>
-      <c r="G58" t="n">
-        <v>87576.47382106273</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.02</v>
+        <v>311326145</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I58" t="n">
-        <v>73463911</v>
+        <v>74233033</v>
       </c>
     </row>
     <row r="59">
@@ -2483,7 +2195,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ethereum Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2491,24 +2203,16 @@
           <t>nulink-2</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>11696244</v>
-      </c>
-      <c r="F59" t="n">
-        <v>45.49833849312</v>
-      </c>
-      <c r="G59" t="n">
-        <v>208.60862314374</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="I59" t="n">
-        <v>80195</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2527,22 +2231,20 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>93922384</v>
+        <v>92968560</v>
       </c>
       <c r="E60" t="n">
-        <v>541221287</v>
-      </c>
-      <c r="F60" t="n">
-        <v>96372.57016664786</v>
-      </c>
-      <c r="G60" t="n">
-        <v>91795.46611093621</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.13</v>
+        <v>535724940</v>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I60" t="n">
-        <v>18319160</v>
+        <v>18333038</v>
       </c>
     </row>
     <row r="61">
@@ -2553,7 +2255,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Ethereum Ecosystem, ERC 404, Hybrid Token Standards</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2561,24 +2263,16 @@
           <t>pandora</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>9643359</v>
-      </c>
-      <c r="E61" t="n">
-        <v>9643359</v>
-      </c>
-      <c r="F61" t="n">
-        <v>14.56408733520082</v>
-      </c>
-      <c r="G61" t="n">
-        <v>48.56248989618457</v>
-      </c>
-      <c r="H61" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="I61" t="n">
-        <v>2201098</v>
-      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2588,7 +2282,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tokenized Real Estate, Decentralized Finance (DeFi), Tokenized Assets, Derivatives, Solana Ecosystem, Real World Assets (RWA), Coinbase Ventures Portfolio, DragonFly Capital Portfolio, RWA Protocol, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2596,24 +2290,16 @@
           <t>parcl</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>33735432</v>
-      </c>
-      <c r="E62" t="n">
-        <v>151047367</v>
-      </c>
-      <c r="F62" t="n">
-        <v>17041.4350814196</v>
-      </c>
-      <c r="G62" t="n">
-        <v>18852.5661631002</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="I62" t="n">
-        <v>9218095</v>
-      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2623,7 +2309,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Layer 1 (L1), Layer 2 (L2), Zero Knowledge (ZK), Cross-chain Communication</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2631,24 +2317,16 @@
           <t>partisia-blockchain</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>12842543</v>
-      </c>
-      <c r="E63" t="n">
-        <v>25667081</v>
-      </c>
-      <c r="F63" t="n">
-        <v>2376.39794686344</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2054.30703699456</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I63" t="n">
-        <v>14969.72</v>
-      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2658,7 +2336,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Ethereum Ecosystem, Real World Assets (RWA)</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2666,24 +2344,16 @@
           <t>patex</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>1445928</v>
-      </c>
-      <c r="F64" t="n">
-        <v>102.0991799786452</v>
-      </c>
-      <c r="G64" t="n">
-        <v>9.803825198476835</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I64" t="n">
-        <v>55518</v>
-      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2702,22 +2372,20 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>52929960</v>
+        <v>52723086</v>
       </c>
       <c r="E65" t="n">
-        <v>343236703</v>
-      </c>
-      <c r="F65" t="n">
-        <v>18995.02171066561</v>
-      </c>
-      <c r="G65" t="n">
-        <v>22076.28347673032</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.42</v>
+        <v>341895180</v>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I65" t="n">
-        <v>17458415</v>
+        <v>17404878</v>
       </c>
     </row>
     <row r="66">
@@ -2728,7 +2396,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), BNB Chain Ecosystem, Binance Labs Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2736,24 +2404,16 @@
           <t>playbux</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="n">
-        <v>4873496</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1089.23312099844</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1224.15820440156</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I66" t="n">
-        <v>228681</v>
-      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2763,7 +2423,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, BNB Chain Ecosystem, Ethereum Ecosystem, Zero Knowledge (ZK), Animoca Brands Portfolio, Binance Labs Portfolio, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2771,24 +2431,16 @@
           <t>polyhedra-network</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>125083187</v>
-      </c>
-      <c r="E67" t="n">
-        <v>2071480022</v>
-      </c>
-      <c r="F67" t="n">
-        <v>173366.0866560294</v>
-      </c>
-      <c r="G67" t="n">
-        <v>170035.0465007088</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="I67" t="n">
-        <v>4965787</v>
-      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2807,22 +2459,20 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>25292413</v>
+        <v>24998292</v>
       </c>
       <c r="E68" t="n">
-        <v>151329589</v>
-      </c>
-      <c r="F68" t="n">
-        <v>41258.33193333898</v>
-      </c>
-      <c r="G68" t="n">
-        <v>46020.67120641494</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.07000000000000001</v>
+        <v>149569806</v>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I68" t="n">
-        <v>13835799</v>
+        <v>14194837</v>
       </c>
     </row>
     <row r="69">
@@ -2860,7 +2510,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Solana Ecosystem, Ethereum Ecosystem, Algorand Ecosystem, Real World Assets (RWA), Osmosis Ecosystem, Stellar Ecosystem, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2868,24 +2518,16 @@
           <t>realio-network</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>24647688</v>
-      </c>
-      <c r="E70" t="n">
-        <v>24648002</v>
-      </c>
-      <c r="F70" t="n">
-        <v>5324.2837639506</v>
-      </c>
-      <c r="G70" t="n">
-        <v>3424.716244773</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2093371</v>
-      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2904,22 +2546,20 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>35975886</v>
+        <v>34357442</v>
       </c>
       <c r="E71" t="n">
-        <v>179536255</v>
-      </c>
-      <c r="F71" t="n">
-        <v>20565.49574002626</v>
-      </c>
-      <c r="G71" t="n">
-        <v>55739.50413106302</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.5600000000000001</v>
+        <v>171459475</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I71" t="n">
-        <v>10557146</v>
+        <v>11484461</v>
       </c>
     </row>
     <row r="72">
@@ -2930,7 +2570,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ethereum Ecosystem, Animoca Brands Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2938,24 +2578,16 @@
           <t>root-protocol</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>0</v>
-      </c>
-      <c r="E72" t="n">
-        <v>178973</v>
-      </c>
-      <c r="F72" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="I72" t="n">
-        <v>16849.91</v>
-      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2965,7 +2597,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Infrastructure, Wallets, Gnosis Chain Ecosystem, Ethereum Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2973,24 +2605,16 @@
           <t>safe</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>332014122</v>
-      </c>
-      <c r="E73" t="n">
-        <v>614301841</v>
-      </c>
-      <c r="F73" t="n">
-        <v>35088.41613983597</v>
-      </c>
-      <c r="G73" t="n">
-        <v>44647.79164042032</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="I73" t="n">
-        <v>14488295</v>
-      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3000,7 +2624,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Decentralized Finance (DeFi), Lending/Borrowing Protocols, Sui Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3008,24 +2632,16 @@
           <t>scallop-2</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>11134667</v>
-      </c>
-      <c r="E74" t="n">
-        <v>33025884</v>
-      </c>
-      <c r="F74" t="n">
-        <v>1375.573403029433</v>
-      </c>
-      <c r="G74" t="n">
-        <v>1694.325657015582</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="I74" t="n">
-        <v>6479800</v>
-      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3035,7 +2651,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Infrastructure, BNB Chain Ecosystem, Polygon Ecosystem, Ethereum Ecosystem, Optimism Ecosystem, ZkSync Ecosystem, Linea Ecosystem, Base Ecosystem, Scroll Ecosystem, Polygon zkEVM Ecosystem, Mint Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3043,24 +2659,16 @@
           <t>smart-layer-network</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>8274323</v>
-      </c>
-      <c r="E75" t="n">
-        <v>11789014</v>
-      </c>
-      <c r="F75" t="n">
-        <v>3736.868899135397</v>
-      </c>
-      <c r="G75" t="n">
-        <v>841.554267226132</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="I75" t="n">
-        <v>395140</v>
-      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3070,7 +2678,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Solana Ecosystem, Meme</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3078,24 +2686,16 @@
           <t>smolecoin</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>0</v>
-      </c>
-      <c r="E76" t="n">
-        <v>16665205</v>
-      </c>
-      <c r="F76" t="n">
-        <v>367.691433523236</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.68701057632</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1040873</v>
-      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3105,7 +2705,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), BNB Chain Ecosystem, Launchpad, ChainGPT Launchpad, AI Agents, Binance Alpha Spotlight</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3113,24 +2713,16 @@
           <t>solidus-aitech</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>76262755</v>
-      </c>
-      <c r="E77" t="n">
-        <v>105594538</v>
-      </c>
-      <c r="F77" t="n">
-        <v>9334.355679738303</v>
-      </c>
-      <c r="G77" t="n">
-        <v>16861.98092646725</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="I77" t="n">
-        <v>7173874</v>
-      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3140,7 +2732,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Layer 1 (L1), Paradigm Portfolio, Coinbase Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3148,24 +2740,16 @@
           <t>spacemesh</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>6310844</v>
-      </c>
-      <c r="E78" t="n">
-        <v>6310844</v>
-      </c>
-      <c r="F78" t="n">
-        <v>516.107753136</v>
-      </c>
-      <c r="G78" t="n">
-        <v>314.9652296735999</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1279002</v>
-      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3175,7 +2759,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Arbitrum Ecosystem, Sports Games</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3183,24 +2767,16 @@
           <t>sportsology-game</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>62399</v>
-      </c>
-      <c r="E79" t="n">
-        <v>325570</v>
-      </c>
-      <c r="F79" t="n">
-        <v>11.44459682172</v>
-      </c>
-      <c r="G79" t="n">
-        <v>754.0506332040597</v>
-      </c>
-      <c r="H79" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="I79" t="n">
-        <v>211783</v>
-      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3210,7 +2786,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Meme, SRC-20, Inscriptions, Desci Meme</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3218,24 +2794,16 @@
           <t>stamp-2</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>0</v>
-      </c>
-      <c r="E80" t="n">
-        <v>27696428</v>
-      </c>
-      <c r="F80" t="n">
-        <v>1811.154478578558</v>
-      </c>
-      <c r="G80" t="n">
-        <v>271.8931062225623</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="I80" t="n">
-        <v>64030</v>
-      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3245,7 +2813,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Infrastructure, Smart Contract Platform, Ethereum Ecosystem, Layer 2 (L2), Zero Knowledge (ZK), Starknet Ecosystem, Paradigm Portfolio, Coinbase Ventures Portfolio, Rollup, Multicoin Capital Portfolio, Alameda Research Portfolio, Pantera Capital Portfolio, GMCI Layer 2 Index, Consensys Portfolio, Sequoia Capital Portfolio, GMCI Index, Polychain Capital Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3253,24 +2821,16 @@
           <t>starknet</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>629459559</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2437804003</v>
-      </c>
-      <c r="F81" t="n">
-        <v>184969.3463905839</v>
-      </c>
-      <c r="G81" t="n">
-        <v>289275.2367991447</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I81" t="n">
-        <v>40817680</v>
-      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3280,7 +2840,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), BNB Chain Ecosystem, MultiversX Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3288,24 +2848,16 @@
           <t>ta-da</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>7615402</v>
-      </c>
-      <c r="E82" t="n">
-        <v>10911318</v>
-      </c>
-      <c r="F82" t="n">
-        <v>1106.169179575721</v>
-      </c>
-      <c r="G82" t="n">
-        <v>771.2010169184032</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="I82" t="n">
-        <v>202498</v>
-      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3315,7 +2867,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Ethereum Ecosystem, Layer 2 (L2), Zero Knowledge (ZK), Rollup, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3323,24 +2875,16 @@
           <t>taiko</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>119779516</v>
-      </c>
-      <c r="E83" t="n">
-        <v>1112905967</v>
-      </c>
-      <c r="F83" t="n">
-        <v>45111.61418093459</v>
-      </c>
-      <c r="G83" t="n">
-        <v>63862.9674155136</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I83" t="n">
-        <v>10131955</v>
-      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3350,7 +2894,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ethereum Ecosystem, Cross-chain Communication, BTCfi</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3358,24 +2902,16 @@
           <t>teleport-system-token</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>1130572</v>
-      </c>
-      <c r="E84" t="n">
-        <v>4377821</v>
-      </c>
-      <c r="F84" t="n">
-        <v>811.32187785714</v>
-      </c>
-      <c r="G84" t="n">
-        <v>537.1406242610399</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="I84" t="n">
-        <v>369119</v>
-      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3385,7 +2921,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NFT, Solana Ecosystem, NFT Marketplace</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3393,24 +2929,16 @@
           <t>tensor</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>127542237</v>
-      </c>
-      <c r="E85" t="n">
-        <v>489272551</v>
-      </c>
-      <c r="F85" t="n">
-        <v>66669.14548416312</v>
-      </c>
-      <c r="G85" t="n">
-        <v>87938.88998827318</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="I85" t="n">
-        <v>38809433</v>
-      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3420,7 +2948,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Infrastructure, Oracle, Arbitrum Ecosystem, Ethereum Ecosystem, Real World Assets (RWA), Base Ecosystem, Coinbase Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3428,24 +2956,16 @@
           <t>truflation</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>5333874</v>
-      </c>
-      <c r="E86" t="n">
-        <v>19820776</v>
-      </c>
-      <c r="F86" t="n">
-        <v>3916.034221288929</v>
-      </c>
-      <c r="G86" t="n">
-        <v>3913.021862404195</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="I86" t="n">
-        <v>78264</v>
-      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -3455,7 +2975,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), BNB Chain Ecosystem, Animoca Brands Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3463,24 +2983,16 @@
           <t>ultiverse</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>0</v>
-      </c>
-      <c r="E87" t="n">
-        <v>34592758</v>
-      </c>
-      <c r="F87" t="n">
-        <v>5247.0894736521</v>
-      </c>
-      <c r="G87" t="n">
-        <v>874.10053806606</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5302292</v>
-      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -3490,7 +3002,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), BNB Chain Ecosystem, Polygon Ecosystem, Ethereum Ecosystem, Base Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3498,24 +3010,16 @@
           <t>unagi-token</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
-      </c>
-      <c r="E88" t="n">
-        <v>25358514</v>
-      </c>
-      <c r="F88" t="n">
-        <v>415.4091399847453</v>
-      </c>
-      <c r="G88" t="n">
-        <v>835.1364625515143</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I88" t="n">
-        <v>16575.77</v>
-      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3525,7 +3029,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Venom Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3533,24 +3037,16 @@
           <t>venom</t>
         </is>
       </c>
-      <c r="D89" t="n">
-        <v>89235333</v>
-      </c>
-      <c r="E89" t="n">
-        <v>329857959</v>
-      </c>
-      <c r="F89" t="n">
-        <v>1105.6747465238</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1621.531889768054</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="I89" t="n">
-        <v>179963</v>
-      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3560,7 +3056,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Meme, Dog-Themed, DWF Labs Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3568,24 +3064,16 @@
           <t>vita-inu</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>21182113</v>
-      </c>
-      <c r="E90" t="n">
-        <v>21182113</v>
-      </c>
-      <c r="F90" t="n">
-        <v>3726.527735987552</v>
-      </c>
-      <c r="G90" t="n">
-        <v>4430.142194933084</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I90" t="n">
-        <v>7096063</v>
-      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -3604,22 +3092,20 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3818441</v>
+        <v>3817944</v>
       </c>
       <c r="E91" t="n">
-        <v>8323665</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1730.14479171846</v>
-      </c>
-      <c r="G91" t="n">
-        <v>2301.908585663699</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0.6</v>
+        <v>8322583</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I91" t="n">
-        <v>1779015</v>
+        <v>1785805</v>
       </c>
     </row>
     <row r="92">
@@ -3630,7 +3116,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Solana Ecosystem, Arbitrum Ecosystem, Ethereum Ecosystem, Interoperability, Base Ecosystem, Multicoin Capital Portfolio, Cross-chain Communication, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3638,24 +3124,16 @@
           <t>wormhole</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>515850099</v>
-      </c>
-      <c r="E92" t="n">
-        <v>1795631265</v>
-      </c>
-      <c r="F92" t="n">
-        <v>175636.3968914575</v>
-      </c>
-      <c r="G92" t="n">
-        <v>181148.3422494</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I92" t="n">
-        <v>36706867</v>
-      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -3674,22 +3152,20 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2638776</v>
+        <v>2640661</v>
       </c>
       <c r="E93" t="n">
-        <v>10555103</v>
-      </c>
-      <c r="F93" t="n">
-        <v>2773.390140704142</v>
-      </c>
-      <c r="G93" t="n">
-        <v>2945.4103676376</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0.66</v>
+        <v>10562645</v>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I93" t="n">
-        <v>7086361</v>
+        <v>7055918</v>
       </c>
     </row>
     <row r="94">
@@ -3700,7 +3176,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, BNB Chain Ecosystem, Layer 1 (L1), Ethereum Ecosystem, ZetaChain Ecosystem, Cross-chain Communication, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3708,24 +3184,16 @@
           <t>zetachain</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>230999013</v>
-      </c>
-      <c r="E94" t="n">
-        <v>710235036</v>
-      </c>
-      <c r="F94" t="n">
-        <v>107324.8067730568</v>
-      </c>
-      <c r="G94" t="n">
-        <v>104505.3779425265</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I94" t="n">
-        <v>16928695</v>
-      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3735,7 +3203,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Infrastructure, Solana Ecosystem, Animoca Brands Portfolio, Cross-chain Communication, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3743,24 +3211,16 @@
           <t>zeus-network</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>150841387</v>
-      </c>
-      <c r="E95" t="n">
-        <v>394068938</v>
-      </c>
-      <c r="F95" t="n">
-        <v>31112.39711159766</v>
-      </c>
-      <c r="G95" t="n">
-        <v>31600.53451533311</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8593186</v>
-      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3770,7 +3230,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Layer 2 (L2), Zero Knowledge (ZK), ZkSync Ecosystem, Consensys Portfolio, Blockchain Capital Portfolio, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3778,24 +3238,16 @@
           <t>zksync</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>416043583</v>
-      </c>
-      <c r="E96" t="n">
-        <v>2377391905</v>
-      </c>
-      <c r="F96" t="n">
-        <v>19121.83178986406</v>
-      </c>
-      <c r="G96" t="n">
-        <v>45788.01616715713</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I96" t="n">
-        <v>43465147</v>
-      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
